--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A5CC6-281F-4BC0-9D82-B0490FE43711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49073E8-D927-40F3-AAE7-BBB304F6A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>F02</t>
   </si>
@@ -65,6 +65,36 @@
   </si>
   <si>
     <t>Acc 21 %</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>Acc: 27%</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>Acc: 53%</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>Acc: 56%</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>Acc: 54%</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>Acc: 43%</t>
   </si>
 </sst>
 </file>
@@ -311,6 +341,226 @@
         <a:xfrm>
           <a:off x="8691880" y="716280"/>
           <a:ext cx="1990598" cy="1492949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>159258</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9D1054-09D5-B0CE-1E02-30D3A1E51E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12245340" y="864870"/>
+          <a:ext cx="1325118" cy="993839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>271018</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A69E644-3FE7-AED4-CC88-172B5C4C393D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15074900" y="1074420"/>
+          <a:ext cx="1655318" cy="1241489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>469138</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BA650C-040B-737F-EDA2-E46174327DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17792700" y="769620"/>
+          <a:ext cx="1574038" cy="1180529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660B3D73-B11C-83B4-484B-C69B837D35A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="910019"/>
+          <a:ext cx="1447800" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>240538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA22F836-F41E-6EBE-6F73-8F55AF6AD84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23416260" y="784860"/>
+          <a:ext cx="1817878" cy="1363409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,15 +869,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D6FC8-8C75-4EFE-B156-092735D80E97}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:AQ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -644,8 +894,26 @@
         <v>2</v>
       </c>
       <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="AB1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AF1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +947,38 @@
       <c r="S2">
         <v>0.984375</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.953125</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.96875</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.890625</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.8125</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -717,8 +1015,50 @@
       <c r="S3">
         <v>0.984375</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0.9375</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0.90625</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0.90625</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0.734375</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>2</v>
       </c>
@@ -746,8 +1086,53 @@
       <c r="S4">
         <v>0.96875</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>0.921875</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>0.875</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0.8125</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>0.75</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>3</v>
       </c>
@@ -772,8 +1157,41 @@
       <c r="S5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>0.890625</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>0.8125</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>0.78125</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>0.734375</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>4</v>
       </c>
@@ -798,8 +1216,38 @@
       <c r="S6">
         <v>0.984375</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>0.84375</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>0.828125</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>0.734375</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>0.6875</v>
+      </c>
+      <c r="AP6">
+        <v>4</v>
+      </c>
+      <c r="AQ6">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>5</v>
       </c>
@@ -824,8 +1272,38 @@
       <c r="S7">
         <v>0.921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>0.875</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>0.765625</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>0.703125</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <v>0.671875</v>
+      </c>
+      <c r="AP7">
+        <v>5</v>
+      </c>
+      <c r="AQ7">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>6</v>
       </c>
@@ -850,8 +1328,38 @@
       <c r="S8">
         <v>0.921875</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>0.875</v>
+      </c>
+      <c r="AB8">
+        <v>6</v>
+      </c>
+      <c r="AC8">
+        <v>0.703125</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>0.625</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8">
+        <v>0.625</v>
+      </c>
+      <c r="AP8">
+        <v>6</v>
+      </c>
+      <c r="AQ8">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>7</v>
       </c>
@@ -876,8 +1384,38 @@
       <c r="S9">
         <v>0.859375</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>0.828125</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>0.6875</v>
+      </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>0.609375</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
+        <v>0.59375</v>
+      </c>
+      <c r="AP9">
+        <v>7</v>
+      </c>
+      <c r="AQ9">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>8</v>
       </c>
@@ -902,8 +1440,38 @@
       <c r="S10">
         <v>0.859375</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>0.8125</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>0.640625</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>0.578125</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+      <c r="AL10">
+        <v>0.5625</v>
+      </c>
+      <c r="AP10">
+        <v>8</v>
+      </c>
+      <c r="AQ10">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>9</v>
       </c>
@@ -928,8 +1496,38 @@
       <c r="S11">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>0.78125</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <v>0.671875</v>
+      </c>
+      <c r="AF11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>0.625</v>
+      </c>
+      <c r="AK11">
+        <v>9</v>
+      </c>
+      <c r="AL11">
+        <v>0.5625</v>
+      </c>
+      <c r="AP11">
+        <v>9</v>
+      </c>
+      <c r="AQ11">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>10</v>
       </c>
@@ -954,8 +1552,38 @@
       <c r="S12">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>0.765625</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12">
+        <v>0.6875</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>0.640625</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>0.484375</v>
+      </c>
+      <c r="AP12">
+        <v>10</v>
+      </c>
+      <c r="AQ12">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>11</v>
       </c>
@@ -980,8 +1608,38 @@
       <c r="S13">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>0.78125</v>
+      </c>
+      <c r="AB13">
+        <v>11</v>
+      </c>
+      <c r="AC13">
+        <v>0.65625</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>0.625</v>
+      </c>
+      <c r="AK13">
+        <v>11</v>
+      </c>
+      <c r="AL13">
+        <v>0.5625</v>
+      </c>
+      <c r="AP13">
+        <v>11</v>
+      </c>
+      <c r="AQ13">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>12</v>
       </c>
@@ -1006,8 +1664,38 @@
       <c r="S14">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>0.796875</v>
+      </c>
+      <c r="AB14">
+        <v>12</v>
+      </c>
+      <c r="AC14">
+        <v>0.625</v>
+      </c>
+      <c r="AF14">
+        <v>11</v>
+      </c>
+      <c r="AG14">
+        <v>0.5625</v>
+      </c>
+      <c r="AK14">
+        <v>12</v>
+      </c>
+      <c r="AL14">
+        <v>0.46875</v>
+      </c>
+      <c r="AP14">
+        <v>12</v>
+      </c>
+      <c r="AQ14">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>13</v>
       </c>
@@ -1032,8 +1720,38 @@
       <c r="S15">
         <v>0.828125</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>0.65625</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15">
+        <v>0.609375</v>
+      </c>
+      <c r="AF15">
+        <v>12</v>
+      </c>
+      <c r="AG15">
+        <v>0.671875</v>
+      </c>
+      <c r="AK15">
+        <v>13</v>
+      </c>
+      <c r="AL15">
+        <v>0.484375</v>
+      </c>
+      <c r="AP15">
+        <v>13</v>
+      </c>
+      <c r="AQ15">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>14</v>
       </c>
@@ -1058,8 +1776,38 @@
       <c r="S16">
         <v>0.859375</v>
       </c>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>0.6875</v>
+      </c>
+      <c r="AB16">
+        <v>14</v>
+      </c>
+      <c r="AC16">
+        <v>0.578125</v>
+      </c>
+      <c r="AF16">
+        <v>13</v>
+      </c>
+      <c r="AG16">
+        <v>0.578125</v>
+      </c>
+      <c r="AK16">
+        <v>14</v>
+      </c>
+      <c r="AL16">
+        <v>0.5625</v>
+      </c>
+      <c r="AP16">
+        <v>14</v>
+      </c>
+      <c r="AQ16">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="17" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>15</v>
       </c>
@@ -1084,8 +1832,38 @@
       <c r="S17">
         <v>0.828125</v>
       </c>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>0.6875</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <v>0.65625</v>
+      </c>
+      <c r="AF17">
+        <v>14</v>
+      </c>
+      <c r="AG17">
+        <v>0.59375</v>
+      </c>
+      <c r="AK17">
+        <v>15</v>
+      </c>
+      <c r="AL17">
+        <v>0.46875</v>
+      </c>
+      <c r="AP17">
+        <v>15</v>
+      </c>
+      <c r="AQ17">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>16</v>
       </c>
@@ -1110,8 +1888,38 @@
       <c r="S18">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>0.71875</v>
+      </c>
+      <c r="AB18">
+        <v>16</v>
+      </c>
+      <c r="AC18">
+        <v>0.515625</v>
+      </c>
+      <c r="AF18">
+        <v>15</v>
+      </c>
+      <c r="AG18">
+        <v>0.46875</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18">
+        <v>0.53125</v>
+      </c>
+      <c r="AP18">
+        <v>16</v>
+      </c>
+      <c r="AQ18">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>17</v>
       </c>
@@ -1136,8 +1944,38 @@
       <c r="S19">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>0.6875</v>
+      </c>
+      <c r="AB19">
+        <v>17</v>
+      </c>
+      <c r="AC19">
+        <v>0.578125</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19">
+        <v>0.515625</v>
+      </c>
+      <c r="AK19">
+        <v>17</v>
+      </c>
+      <c r="AL19">
+        <v>0.609375</v>
+      </c>
+      <c r="AP19">
+        <v>17</v>
+      </c>
+      <c r="AQ19">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="20" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>18</v>
       </c>
@@ -1162,8 +2000,38 @@
       <c r="S20">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>0.703125</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20">
+        <v>0.5625</v>
+      </c>
+      <c r="AF20">
+        <v>17</v>
+      </c>
+      <c r="AG20">
+        <v>0.53125</v>
+      </c>
+      <c r="AK20">
+        <v>18</v>
+      </c>
+      <c r="AL20">
+        <v>0.453125</v>
+      </c>
+      <c r="AP20">
+        <v>18</v>
+      </c>
+      <c r="AQ20">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="21" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>19</v>
       </c>
@@ -1188,8 +2056,38 @@
       <c r="S21">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>0.625</v>
+      </c>
+      <c r="AB21">
+        <v>19</v>
+      </c>
+      <c r="AC21">
+        <v>0.53125</v>
+      </c>
+      <c r="AF21">
+        <v>18</v>
+      </c>
+      <c r="AG21">
+        <v>0.5</v>
+      </c>
+      <c r="AK21">
+        <v>19</v>
+      </c>
+      <c r="AL21">
+        <v>0.46875</v>
+      </c>
+      <c r="AP21">
+        <v>19</v>
+      </c>
+      <c r="AQ21">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="22" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>20</v>
       </c>
@@ -1214,8 +2112,38 @@
       <c r="S22">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <v>0.734375</v>
+      </c>
+      <c r="AB22">
+        <v>20</v>
+      </c>
+      <c r="AC22">
+        <v>0.53125</v>
+      </c>
+      <c r="AF22">
+        <v>19</v>
+      </c>
+      <c r="AG22">
+        <v>0.5</v>
+      </c>
+      <c r="AK22">
+        <v>20</v>
+      </c>
+      <c r="AL22">
+        <v>0.46875</v>
+      </c>
+      <c r="AP22">
+        <v>20</v>
+      </c>
+      <c r="AQ22">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="23" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>21</v>
       </c>
@@ -1240,8 +2168,38 @@
       <c r="S23">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23">
+        <v>0.71875</v>
+      </c>
+      <c r="AB23">
+        <v>21</v>
+      </c>
+      <c r="AC23">
+        <v>0.53125</v>
+      </c>
+      <c r="AF23">
+        <v>20</v>
+      </c>
+      <c r="AG23">
+        <v>0.484375</v>
+      </c>
+      <c r="AK23">
+        <v>21</v>
+      </c>
+      <c r="AL23">
+        <v>0.515625</v>
+      </c>
+      <c r="AP23">
+        <v>21</v>
+      </c>
+      <c r="AQ23">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>22</v>
       </c>
@@ -1266,8 +2224,38 @@
       <c r="S24">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24">
+        <v>0.671875</v>
+      </c>
+      <c r="AB24">
+        <v>22</v>
+      </c>
+      <c r="AC24">
+        <v>0.546875</v>
+      </c>
+      <c r="AF24">
+        <v>21</v>
+      </c>
+      <c r="AG24">
+        <v>0.515625</v>
+      </c>
+      <c r="AK24">
+        <v>22</v>
+      </c>
+      <c r="AL24">
+        <v>0.515625</v>
+      </c>
+      <c r="AP24">
+        <v>22</v>
+      </c>
+      <c r="AQ24">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="25" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>23</v>
       </c>
@@ -1292,8 +2280,38 @@
       <c r="S25">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25">
+        <v>0.703125</v>
+      </c>
+      <c r="AB25">
+        <v>23</v>
+      </c>
+      <c r="AC25">
+        <v>0.578125</v>
+      </c>
+      <c r="AF25">
+        <v>22</v>
+      </c>
+      <c r="AG25">
+        <v>0.578125</v>
+      </c>
+      <c r="AK25">
+        <v>23</v>
+      </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>23</v>
+      </c>
+      <c r="AQ25">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>24</v>
       </c>
@@ -1318,8 +2336,38 @@
       <c r="S26">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <v>24</v>
+      </c>
+      <c r="X26">
+        <v>0.71875</v>
+      </c>
+      <c r="AB26">
+        <v>24</v>
+      </c>
+      <c r="AC26">
+        <v>0.546875</v>
+      </c>
+      <c r="AF26">
+        <v>23</v>
+      </c>
+      <c r="AG26">
+        <v>0.453125</v>
+      </c>
+      <c r="AK26">
+        <v>24</v>
+      </c>
+      <c r="AL26">
+        <v>0.484375</v>
+      </c>
+      <c r="AP26">
+        <v>24</v>
+      </c>
+      <c r="AQ26">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="27" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>25</v>
       </c>
@@ -1344,8 +2392,38 @@
       <c r="S27">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27">
+        <v>0.6875</v>
+      </c>
+      <c r="AB27">
+        <v>25</v>
+      </c>
+      <c r="AC27">
+        <v>0.546875</v>
+      </c>
+      <c r="AF27">
+        <v>24</v>
+      </c>
+      <c r="AG27">
+        <v>0.421875</v>
+      </c>
+      <c r="AK27">
+        <v>25</v>
+      </c>
+      <c r="AL27">
+        <v>0.46875</v>
+      </c>
+      <c r="AP27">
+        <v>25</v>
+      </c>
+      <c r="AQ27">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="28" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>26</v>
       </c>
@@ -1370,8 +2448,38 @@
       <c r="S28">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.6875</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>0.546875</v>
+      </c>
+      <c r="AF28">
+        <v>25</v>
+      </c>
+      <c r="AG28">
+        <v>0.4375</v>
+      </c>
+      <c r="AK28">
+        <v>26</v>
+      </c>
+      <c r="AL28">
+        <v>0.46875</v>
+      </c>
+      <c r="AP28">
+        <v>26</v>
+      </c>
+      <c r="AQ28">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="29" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>27</v>
       </c>
@@ -1396,8 +2504,38 @@
       <c r="S29">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W29">
+        <v>27</v>
+      </c>
+      <c r="X29">
+        <v>0.703125</v>
+      </c>
+      <c r="AB29">
+        <v>27</v>
+      </c>
+      <c r="AC29">
+        <v>0.546875</v>
+      </c>
+      <c r="AF29">
+        <v>26</v>
+      </c>
+      <c r="AG29">
+        <v>0.453125</v>
+      </c>
+      <c r="AK29">
+        <v>27</v>
+      </c>
+      <c r="AL29">
+        <v>0.484375</v>
+      </c>
+      <c r="AP29">
+        <v>27</v>
+      </c>
+      <c r="AQ29">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="30" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>28</v>
       </c>
@@ -1422,8 +2560,38 @@
       <c r="S30">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>28</v>
+      </c>
+      <c r="X30">
+        <v>0.6875</v>
+      </c>
+      <c r="AB30">
+        <v>28</v>
+      </c>
+      <c r="AC30">
+        <v>0.546875</v>
+      </c>
+      <c r="AF30">
+        <v>27</v>
+      </c>
+      <c r="AG30">
+        <v>0.46875</v>
+      </c>
+      <c r="AK30">
+        <v>28</v>
+      </c>
+      <c r="AL30">
+        <v>0.453125</v>
+      </c>
+      <c r="AP30">
+        <v>28</v>
+      </c>
+      <c r="AQ30">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="31" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>29</v>
       </c>
@@ -1448,8 +2616,38 @@
       <c r="S31">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31">
+        <v>0.6875</v>
+      </c>
+      <c r="AB31">
+        <v>29</v>
+      </c>
+      <c r="AC31">
+        <v>0.546875</v>
+      </c>
+      <c r="AF31">
+        <v>28</v>
+      </c>
+      <c r="AG31">
+        <v>0.421875</v>
+      </c>
+      <c r="AK31">
+        <v>29</v>
+      </c>
+      <c r="AL31">
+        <v>0.453125</v>
+      </c>
+      <c r="AP31">
+        <v>29</v>
+      </c>
+      <c r="AQ31">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="32" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>30</v>
       </c>
@@ -1474,8 +2672,38 @@
       <c r="S32">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <v>30</v>
+      </c>
+      <c r="X32">
+        <v>0.6875</v>
+      </c>
+      <c r="AB32">
+        <v>30</v>
+      </c>
+      <c r="AC32">
+        <v>0.546875</v>
+      </c>
+      <c r="AF32">
+        <v>29</v>
+      </c>
+      <c r="AG32">
+        <v>0.4375</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+      <c r="AL32">
+        <v>0.453125</v>
+      </c>
+      <c r="AP32">
+        <v>30</v>
+      </c>
+      <c r="AQ32">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="33" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>31</v>
       </c>
@@ -1500,8 +2728,38 @@
       <c r="S33">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <v>31</v>
+      </c>
+      <c r="X33">
+        <v>0.6875</v>
+      </c>
+      <c r="AB33">
+        <v>31</v>
+      </c>
+      <c r="AC33">
+        <v>0.546875</v>
+      </c>
+      <c r="AF33">
+        <v>30</v>
+      </c>
+      <c r="AG33">
+        <v>0.453125</v>
+      </c>
+      <c r="AK33">
+        <v>31</v>
+      </c>
+      <c r="AL33">
+        <v>0.453125</v>
+      </c>
+      <c r="AP33">
+        <v>31</v>
+      </c>
+      <c r="AQ33">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="34" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>32</v>
       </c>
@@ -1526,8 +2784,38 @@
       <c r="S34">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <v>32</v>
+      </c>
+      <c r="X34">
+        <v>0.6875</v>
+      </c>
+      <c r="AB34">
+        <v>32</v>
+      </c>
+      <c r="AC34">
+        <v>0.546875</v>
+      </c>
+      <c r="AF34">
+        <v>31</v>
+      </c>
+      <c r="AG34">
+        <v>0.453125</v>
+      </c>
+      <c r="AK34">
+        <v>32</v>
+      </c>
+      <c r="AL34">
+        <v>0.453125</v>
+      </c>
+      <c r="AP34">
+        <v>32</v>
+      </c>
+      <c r="AQ34">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="35" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>33</v>
       </c>
@@ -1552,8 +2840,38 @@
       <c r="S35">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <v>33</v>
+      </c>
+      <c r="X35">
+        <v>0.6875</v>
+      </c>
+      <c r="AB35">
+        <v>33</v>
+      </c>
+      <c r="AC35">
+        <v>0.546875</v>
+      </c>
+      <c r="AF35">
+        <v>32</v>
+      </c>
+      <c r="AG35">
+        <v>0.453125</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+      <c r="AL35">
+        <v>0.453125</v>
+      </c>
+      <c r="AP35">
+        <v>33</v>
+      </c>
+      <c r="AQ35">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="36" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>34</v>
       </c>
@@ -1581,8 +2899,38 @@
       <c r="S36">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>34</v>
+      </c>
+      <c r="X36">
+        <v>0.6875</v>
+      </c>
+      <c r="AB36">
+        <v>34</v>
+      </c>
+      <c r="AC36">
+        <v>0.546875</v>
+      </c>
+      <c r="AF36">
+        <v>33</v>
+      </c>
+      <c r="AG36">
+        <v>0.46875</v>
+      </c>
+      <c r="AK36">
+        <v>34</v>
+      </c>
+      <c r="AL36">
+        <v>0.453125</v>
+      </c>
+      <c r="AP36">
+        <v>34</v>
+      </c>
+      <c r="AQ36">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="37" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>35</v>
       </c>
@@ -1607,8 +2955,38 @@
       <c r="S37">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W37">
+        <v>35</v>
+      </c>
+      <c r="X37">
+        <v>0.6875</v>
+      </c>
+      <c r="AB37">
+        <v>35</v>
+      </c>
+      <c r="AC37">
+        <v>0.546875</v>
+      </c>
+      <c r="AF37">
+        <v>34</v>
+      </c>
+      <c r="AG37">
+        <v>0.46875</v>
+      </c>
+      <c r="AK37">
+        <v>35</v>
+      </c>
+      <c r="AL37">
+        <v>0.453125</v>
+      </c>
+      <c r="AP37">
+        <v>35</v>
+      </c>
+      <c r="AQ37">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="38" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>36</v>
       </c>
@@ -1633,8 +3011,38 @@
       <c r="S38">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <v>36</v>
+      </c>
+      <c r="X38">
+        <v>0.6875</v>
+      </c>
+      <c r="AB38">
+        <v>36</v>
+      </c>
+      <c r="AC38">
+        <v>0.546875</v>
+      </c>
+      <c r="AF38">
+        <v>35</v>
+      </c>
+      <c r="AG38">
+        <v>0.46875</v>
+      </c>
+      <c r="AK38">
+        <v>36</v>
+      </c>
+      <c r="AL38">
+        <v>0.453125</v>
+      </c>
+      <c r="AP38">
+        <v>36</v>
+      </c>
+      <c r="AQ38">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="39" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>37</v>
       </c>
@@ -1659,8 +3067,38 @@
       <c r="S39">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W39">
+        <v>37</v>
+      </c>
+      <c r="X39">
+        <v>0.6875</v>
+      </c>
+      <c r="AB39">
+        <v>37</v>
+      </c>
+      <c r="AC39">
+        <v>0.546875</v>
+      </c>
+      <c r="AF39">
+        <v>36</v>
+      </c>
+      <c r="AG39">
+        <v>0.46875</v>
+      </c>
+      <c r="AK39">
+        <v>37</v>
+      </c>
+      <c r="AL39">
+        <v>0.453125</v>
+      </c>
+      <c r="AP39">
+        <v>37</v>
+      </c>
+      <c r="AQ39">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="40" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>38</v>
       </c>
@@ -1685,8 +3123,38 @@
       <c r="S40">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W40">
+        <v>38</v>
+      </c>
+      <c r="X40">
+        <v>0.703125</v>
+      </c>
+      <c r="AB40">
+        <v>38</v>
+      </c>
+      <c r="AC40">
+        <v>0.546875</v>
+      </c>
+      <c r="AF40">
+        <v>37</v>
+      </c>
+      <c r="AG40">
+        <v>0.46875</v>
+      </c>
+      <c r="AK40">
+        <v>38</v>
+      </c>
+      <c r="AL40">
+        <v>0.453125</v>
+      </c>
+      <c r="AP40">
+        <v>38</v>
+      </c>
+      <c r="AQ40">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="41" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>39</v>
       </c>
@@ -1711,8 +3179,38 @@
       <c r="S41">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W41">
+        <v>39</v>
+      </c>
+      <c r="X41">
+        <v>0.6875</v>
+      </c>
+      <c r="AB41">
+        <v>39</v>
+      </c>
+      <c r="AC41">
+        <v>0.546875</v>
+      </c>
+      <c r="AF41">
+        <v>38</v>
+      </c>
+      <c r="AG41">
+        <v>0.46875</v>
+      </c>
+      <c r="AK41">
+        <v>39</v>
+      </c>
+      <c r="AL41">
+        <v>0.453125</v>
+      </c>
+      <c r="AP41">
+        <v>39</v>
+      </c>
+      <c r="AQ41">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="42" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>40</v>
       </c>
@@ -1737,8 +3235,38 @@
       <c r="S42">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W42">
+        <v>40</v>
+      </c>
+      <c r="X42">
+        <v>0.6875</v>
+      </c>
+      <c r="AB42">
+        <v>40</v>
+      </c>
+      <c r="AC42">
+        <v>0.546875</v>
+      </c>
+      <c r="AF42">
+        <v>39</v>
+      </c>
+      <c r="AG42">
+        <v>0.46875</v>
+      </c>
+      <c r="AK42">
+        <v>40</v>
+      </c>
+      <c r="AL42">
+        <v>0.453125</v>
+      </c>
+      <c r="AP42">
+        <v>40</v>
+      </c>
+      <c r="AQ42">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="43" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>41</v>
       </c>
@@ -1763,8 +3291,38 @@
       <c r="S43">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="44" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W43">
+        <v>41</v>
+      </c>
+      <c r="X43">
+        <v>0.703125</v>
+      </c>
+      <c r="AB43">
+        <v>41</v>
+      </c>
+      <c r="AC43">
+        <v>0.546875</v>
+      </c>
+      <c r="AF43">
+        <v>40</v>
+      </c>
+      <c r="AG43">
+        <v>0.46875</v>
+      </c>
+      <c r="AK43">
+        <v>41</v>
+      </c>
+      <c r="AL43">
+        <v>0.46875</v>
+      </c>
+      <c r="AP43">
+        <v>41</v>
+      </c>
+      <c r="AQ43">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="44" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>42</v>
       </c>
@@ -1789,8 +3347,38 @@
       <c r="S44">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="45" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W44">
+        <v>42</v>
+      </c>
+      <c r="X44">
+        <v>0.71875</v>
+      </c>
+      <c r="AB44">
+        <v>42</v>
+      </c>
+      <c r="AC44">
+        <v>0.546875</v>
+      </c>
+      <c r="AF44">
+        <v>41</v>
+      </c>
+      <c r="AG44">
+        <v>0.46875</v>
+      </c>
+      <c r="AK44">
+        <v>42</v>
+      </c>
+      <c r="AL44">
+        <v>0.46875</v>
+      </c>
+      <c r="AP44">
+        <v>42</v>
+      </c>
+      <c r="AQ44">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="45" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>43</v>
       </c>
@@ -1815,8 +3403,38 @@
       <c r="S45">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="46" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <v>43</v>
+      </c>
+      <c r="X45">
+        <v>0.71875</v>
+      </c>
+      <c r="AB45">
+        <v>43</v>
+      </c>
+      <c r="AC45">
+        <v>0.546875</v>
+      </c>
+      <c r="AF45">
+        <v>42</v>
+      </c>
+      <c r="AG45">
+        <v>0.46875</v>
+      </c>
+      <c r="AK45">
+        <v>43</v>
+      </c>
+      <c r="AL45">
+        <v>0.46875</v>
+      </c>
+      <c r="AP45">
+        <v>43</v>
+      </c>
+      <c r="AQ45">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="46" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>44</v>
       </c>
@@ -1841,8 +3459,38 @@
       <c r="S46">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="47" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <v>44</v>
+      </c>
+      <c r="X46">
+        <v>0.71875</v>
+      </c>
+      <c r="AB46">
+        <v>44</v>
+      </c>
+      <c r="AC46">
+        <v>0.546875</v>
+      </c>
+      <c r="AF46">
+        <v>43</v>
+      </c>
+      <c r="AG46">
+        <v>0.46875</v>
+      </c>
+      <c r="AK46">
+        <v>44</v>
+      </c>
+      <c r="AL46">
+        <v>0.46875</v>
+      </c>
+      <c r="AP46">
+        <v>44</v>
+      </c>
+      <c r="AQ46">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="47" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>45</v>
       </c>
@@ -1867,8 +3515,38 @@
       <c r="S47">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="48" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W47">
+        <v>45</v>
+      </c>
+      <c r="X47">
+        <v>0.71875</v>
+      </c>
+      <c r="AB47">
+        <v>45</v>
+      </c>
+      <c r="AC47">
+        <v>0.53125</v>
+      </c>
+      <c r="AF47">
+        <v>44</v>
+      </c>
+      <c r="AG47">
+        <v>0.46875</v>
+      </c>
+      <c r="AK47">
+        <v>45</v>
+      </c>
+      <c r="AL47">
+        <v>0.46875</v>
+      </c>
+      <c r="AP47">
+        <v>45</v>
+      </c>
+      <c r="AQ47">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="48" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>46</v>
       </c>
@@ -1893,8 +3571,38 @@
       <c r="S48">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W48">
+        <v>46</v>
+      </c>
+      <c r="X48">
+        <v>0.71875</v>
+      </c>
+      <c r="AB48">
+        <v>46</v>
+      </c>
+      <c r="AC48">
+        <v>0.546875</v>
+      </c>
+      <c r="AF48">
+        <v>45</v>
+      </c>
+      <c r="AG48">
+        <v>0.46875</v>
+      </c>
+      <c r="AK48">
+        <v>46</v>
+      </c>
+      <c r="AL48">
+        <v>0.46875</v>
+      </c>
+      <c r="AP48">
+        <v>46</v>
+      </c>
+      <c r="AQ48">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="49" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>47</v>
       </c>
@@ -1919,8 +3627,38 @@
       <c r="S49">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W49">
+        <v>47</v>
+      </c>
+      <c r="X49">
+        <v>0.71875</v>
+      </c>
+      <c r="AB49">
+        <v>47</v>
+      </c>
+      <c r="AC49">
+        <v>0.546875</v>
+      </c>
+      <c r="AF49">
+        <v>46</v>
+      </c>
+      <c r="AG49">
+        <v>0.46875</v>
+      </c>
+      <c r="AK49">
+        <v>47</v>
+      </c>
+      <c r="AL49">
+        <v>0.46875</v>
+      </c>
+      <c r="AP49">
+        <v>47</v>
+      </c>
+      <c r="AQ49">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="50" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>48</v>
       </c>
@@ -1945,8 +3683,38 @@
       <c r="S50">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W50">
+        <v>48</v>
+      </c>
+      <c r="X50">
+        <v>0.71875</v>
+      </c>
+      <c r="AB50">
+        <v>48</v>
+      </c>
+      <c r="AC50">
+        <v>0.546875</v>
+      </c>
+      <c r="AF50">
+        <v>47</v>
+      </c>
+      <c r="AG50">
+        <v>0.46875</v>
+      </c>
+      <c r="AK50">
+        <v>48</v>
+      </c>
+      <c r="AL50">
+        <v>0.453125</v>
+      </c>
+      <c r="AP50">
+        <v>48</v>
+      </c>
+      <c r="AQ50">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="51" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>49</v>
       </c>
@@ -1971,8 +3739,38 @@
       <c r="S51">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W51">
+        <v>49</v>
+      </c>
+      <c r="X51">
+        <v>0.71875</v>
+      </c>
+      <c r="AB51">
+        <v>49</v>
+      </c>
+      <c r="AC51">
+        <v>0.53125</v>
+      </c>
+      <c r="AF51">
+        <v>48</v>
+      </c>
+      <c r="AG51">
+        <v>0.46875</v>
+      </c>
+      <c r="AK51">
+        <v>49</v>
+      </c>
+      <c r="AL51">
+        <v>0.4375</v>
+      </c>
+      <c r="AP51">
+        <v>49</v>
+      </c>
+      <c r="AQ51">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="52" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>50</v>
       </c>
@@ -1997,8 +3795,38 @@
       <c r="S52">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W52">
+        <v>50</v>
+      </c>
+      <c r="X52">
+        <v>0.71875</v>
+      </c>
+      <c r="AB52">
+        <v>50</v>
+      </c>
+      <c r="AC52">
+        <v>0.53125</v>
+      </c>
+      <c r="AF52">
+        <v>49</v>
+      </c>
+      <c r="AG52">
+        <v>0.46875</v>
+      </c>
+      <c r="AK52">
+        <v>50</v>
+      </c>
+      <c r="AL52">
+        <v>0.4375</v>
+      </c>
+      <c r="AP52">
+        <v>50</v>
+      </c>
+      <c r="AQ52">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="53" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>51</v>
       </c>
@@ -2023,8 +3851,38 @@
       <c r="S53">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <v>51</v>
+      </c>
+      <c r="X53">
+        <v>0.71875</v>
+      </c>
+      <c r="AB53">
+        <v>51</v>
+      </c>
+      <c r="AC53">
+        <v>0.53125</v>
+      </c>
+      <c r="AF53">
+        <v>50</v>
+      </c>
+      <c r="AG53">
+        <v>0.46875</v>
+      </c>
+      <c r="AK53">
+        <v>51</v>
+      </c>
+      <c r="AL53">
+        <v>0.4375</v>
+      </c>
+      <c r="AP53">
+        <v>51</v>
+      </c>
+      <c r="AQ53">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="54" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>52</v>
       </c>
@@ -2049,8 +3907,38 @@
       <c r="S54">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <v>52</v>
+      </c>
+      <c r="X54">
+        <v>0.71875</v>
+      </c>
+      <c r="AB54">
+        <v>52</v>
+      </c>
+      <c r="AC54">
+        <v>0.53125</v>
+      </c>
+      <c r="AF54">
+        <v>51</v>
+      </c>
+      <c r="AG54">
+        <v>0.46875</v>
+      </c>
+      <c r="AK54">
+        <v>52</v>
+      </c>
+      <c r="AL54">
+        <v>0.4375</v>
+      </c>
+      <c r="AP54">
+        <v>52</v>
+      </c>
+      <c r="AQ54">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="55" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>53</v>
       </c>
@@ -2075,8 +3963,38 @@
       <c r="S55">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W55">
+        <v>53</v>
+      </c>
+      <c r="X55">
+        <v>0.71875</v>
+      </c>
+      <c r="AB55">
+        <v>53</v>
+      </c>
+      <c r="AC55">
+        <v>0.515625</v>
+      </c>
+      <c r="AF55">
+        <v>52</v>
+      </c>
+      <c r="AG55">
+        <v>0.46875</v>
+      </c>
+      <c r="AK55">
+        <v>53</v>
+      </c>
+      <c r="AL55">
+        <v>0.4375</v>
+      </c>
+      <c r="AP55">
+        <v>53</v>
+      </c>
+      <c r="AQ55">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="56" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>54</v>
       </c>
@@ -2101,8 +4019,38 @@
       <c r="S56">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W56">
+        <v>54</v>
+      </c>
+      <c r="X56">
+        <v>0.71875</v>
+      </c>
+      <c r="AB56">
+        <v>54</v>
+      </c>
+      <c r="AC56">
+        <v>0.515625</v>
+      </c>
+      <c r="AF56">
+        <v>53</v>
+      </c>
+      <c r="AG56">
+        <v>0.46875</v>
+      </c>
+      <c r="AK56">
+        <v>54</v>
+      </c>
+      <c r="AL56">
+        <v>0.4375</v>
+      </c>
+      <c r="AP56">
+        <v>54</v>
+      </c>
+      <c r="AQ56">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="57" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>55</v>
       </c>
@@ -2127,8 +4075,38 @@
       <c r="S57">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="58" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W57">
+        <v>55</v>
+      </c>
+      <c r="X57">
+        <v>0.71875</v>
+      </c>
+      <c r="AB57">
+        <v>55</v>
+      </c>
+      <c r="AC57">
+        <v>0.515625</v>
+      </c>
+      <c r="AF57">
+        <v>54</v>
+      </c>
+      <c r="AG57">
+        <v>0.46875</v>
+      </c>
+      <c r="AK57">
+        <v>55</v>
+      </c>
+      <c r="AL57">
+        <v>0.4375</v>
+      </c>
+      <c r="AP57">
+        <v>55</v>
+      </c>
+      <c r="AQ57">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="58" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>56</v>
       </c>
@@ -2153,8 +4131,38 @@
       <c r="S58">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W58">
+        <v>56</v>
+      </c>
+      <c r="X58">
+        <v>0.71875</v>
+      </c>
+      <c r="AB58">
+        <v>56</v>
+      </c>
+      <c r="AC58">
+        <v>0.515625</v>
+      </c>
+      <c r="AF58">
+        <v>55</v>
+      </c>
+      <c r="AG58">
+        <v>0.46875</v>
+      </c>
+      <c r="AK58">
+        <v>56</v>
+      </c>
+      <c r="AL58">
+        <v>0.4375</v>
+      </c>
+      <c r="AP58">
+        <v>56</v>
+      </c>
+      <c r="AQ58">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="59" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>57</v>
       </c>
@@ -2179,8 +4187,38 @@
       <c r="S59">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W59">
+        <v>57</v>
+      </c>
+      <c r="X59">
+        <v>0.71875</v>
+      </c>
+      <c r="AB59">
+        <v>57</v>
+      </c>
+      <c r="AC59">
+        <v>0.515625</v>
+      </c>
+      <c r="AF59">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>0.453125</v>
+      </c>
+      <c r="AK59">
+        <v>57</v>
+      </c>
+      <c r="AL59">
+        <v>0.4375</v>
+      </c>
+      <c r="AP59">
+        <v>57</v>
+      </c>
+      <c r="AQ59">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="60" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>58</v>
       </c>
@@ -2205,8 +4243,38 @@
       <c r="S60">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W60">
+        <v>58</v>
+      </c>
+      <c r="X60">
+        <v>0.71875</v>
+      </c>
+      <c r="AB60">
+        <v>58</v>
+      </c>
+      <c r="AC60">
+        <v>0.53125</v>
+      </c>
+      <c r="AF60">
+        <v>57</v>
+      </c>
+      <c r="AG60">
+        <v>0.453125</v>
+      </c>
+      <c r="AK60">
+        <v>58</v>
+      </c>
+      <c r="AL60">
+        <v>0.4375</v>
+      </c>
+      <c r="AP60">
+        <v>58</v>
+      </c>
+      <c r="AQ60">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="61" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>59</v>
       </c>
@@ -2231,8 +4299,38 @@
       <c r="S61">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W61">
+        <v>59</v>
+      </c>
+      <c r="X61">
+        <v>0.71875</v>
+      </c>
+      <c r="AB61">
+        <v>59</v>
+      </c>
+      <c r="AC61">
+        <v>0.53125</v>
+      </c>
+      <c r="AF61">
+        <v>58</v>
+      </c>
+      <c r="AG61">
+        <v>0.453125</v>
+      </c>
+      <c r="AK61">
+        <v>59</v>
+      </c>
+      <c r="AL61">
+        <v>0.453125</v>
+      </c>
+      <c r="AP61">
+        <v>59</v>
+      </c>
+      <c r="AQ61">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="62" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>60</v>
       </c>
@@ -2257,8 +4355,38 @@
       <c r="S62">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="63" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W62">
+        <v>60</v>
+      </c>
+      <c r="X62">
+        <v>0.71875</v>
+      </c>
+      <c r="AB62">
+        <v>60</v>
+      </c>
+      <c r="AC62">
+        <v>0.53125</v>
+      </c>
+      <c r="AF62">
+        <v>59</v>
+      </c>
+      <c r="AG62">
+        <v>0.453125</v>
+      </c>
+      <c r="AK62">
+        <v>60</v>
+      </c>
+      <c r="AL62">
+        <v>0.453125</v>
+      </c>
+      <c r="AP62">
+        <v>60</v>
+      </c>
+      <c r="AQ62">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="63" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>61</v>
       </c>
@@ -2283,8 +4411,38 @@
       <c r="S63">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="64" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W63">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>0.71875</v>
+      </c>
+      <c r="AB63">
+        <v>61</v>
+      </c>
+      <c r="AC63">
+        <v>0.53125</v>
+      </c>
+      <c r="AF63">
+        <v>60</v>
+      </c>
+      <c r="AG63">
+        <v>0.453125</v>
+      </c>
+      <c r="AK63">
+        <v>61</v>
+      </c>
+      <c r="AL63">
+        <v>0.453125</v>
+      </c>
+      <c r="AP63">
+        <v>61</v>
+      </c>
+      <c r="AQ63">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="64" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>62</v>
       </c>
@@ -2309,8 +4467,38 @@
       <c r="S64">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W64">
+        <v>62</v>
+      </c>
+      <c r="X64">
+        <v>0.71875</v>
+      </c>
+      <c r="AB64">
+        <v>62</v>
+      </c>
+      <c r="AC64">
+        <v>0.53125</v>
+      </c>
+      <c r="AF64">
+        <v>61</v>
+      </c>
+      <c r="AG64">
+        <v>0.453125</v>
+      </c>
+      <c r="AK64">
+        <v>62</v>
+      </c>
+      <c r="AL64">
+        <v>0.453125</v>
+      </c>
+      <c r="AP64">
+        <v>62</v>
+      </c>
+      <c r="AQ64">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="65" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>63</v>
       </c>
@@ -2335,8 +4523,38 @@
       <c r="S65">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W65">
+        <v>63</v>
+      </c>
+      <c r="X65">
+        <v>0.71875</v>
+      </c>
+      <c r="AB65">
+        <v>63</v>
+      </c>
+      <c r="AC65">
+        <v>0.53125</v>
+      </c>
+      <c r="AF65">
+        <v>62</v>
+      </c>
+      <c r="AG65">
+        <v>0.453125</v>
+      </c>
+      <c r="AK65">
+        <v>63</v>
+      </c>
+      <c r="AL65">
+        <v>0.453125</v>
+      </c>
+      <c r="AP65">
+        <v>63</v>
+      </c>
+      <c r="AQ65">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="66" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>64</v>
       </c>
@@ -2361,8 +4579,38 @@
       <c r="S66">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W66">
+        <v>64</v>
+      </c>
+      <c r="X66">
+        <v>0.71875</v>
+      </c>
+      <c r="AB66">
+        <v>64</v>
+      </c>
+      <c r="AC66">
+        <v>0.53125</v>
+      </c>
+      <c r="AF66">
+        <v>63</v>
+      </c>
+      <c r="AG66">
+        <v>0.453125</v>
+      </c>
+      <c r="AK66">
+        <v>64</v>
+      </c>
+      <c r="AL66">
+        <v>0.453125</v>
+      </c>
+      <c r="AP66">
+        <v>64</v>
+      </c>
+      <c r="AQ66">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="67" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>65</v>
       </c>
@@ -2387,8 +4635,38 @@
       <c r="S67">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W67">
+        <v>65</v>
+      </c>
+      <c r="X67">
+        <v>0.71875</v>
+      </c>
+      <c r="AB67">
+        <v>65</v>
+      </c>
+      <c r="AC67">
+        <v>0.53125</v>
+      </c>
+      <c r="AF67">
+        <v>64</v>
+      </c>
+      <c r="AG67">
+        <v>0.453125</v>
+      </c>
+      <c r="AK67">
+        <v>65</v>
+      </c>
+      <c r="AL67">
+        <v>0.453125</v>
+      </c>
+      <c r="AP67">
+        <v>65</v>
+      </c>
+      <c r="AQ67">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="68" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>66</v>
       </c>
@@ -2413,8 +4691,38 @@
       <c r="S68">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W68">
+        <v>66</v>
+      </c>
+      <c r="X68">
+        <v>0.71875</v>
+      </c>
+      <c r="AB68">
+        <v>66</v>
+      </c>
+      <c r="AC68">
+        <v>0.53125</v>
+      </c>
+      <c r="AF68">
+        <v>65</v>
+      </c>
+      <c r="AG68">
+        <v>0.453125</v>
+      </c>
+      <c r="AK68">
+        <v>66</v>
+      </c>
+      <c r="AL68">
+        <v>0.453125</v>
+      </c>
+      <c r="AP68">
+        <v>66</v>
+      </c>
+      <c r="AQ68">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="69" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>67</v>
       </c>
@@ -2439,8 +4747,38 @@
       <c r="S69">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W69">
+        <v>67</v>
+      </c>
+      <c r="X69">
+        <v>0.71875</v>
+      </c>
+      <c r="AB69">
+        <v>67</v>
+      </c>
+      <c r="AC69">
+        <v>0.53125</v>
+      </c>
+      <c r="AF69">
+        <v>66</v>
+      </c>
+      <c r="AG69">
+        <v>0.453125</v>
+      </c>
+      <c r="AK69">
+        <v>67</v>
+      </c>
+      <c r="AL69">
+        <v>0.453125</v>
+      </c>
+      <c r="AP69">
+        <v>67</v>
+      </c>
+      <c r="AQ69">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="70" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>68</v>
       </c>
@@ -2465,8 +4803,38 @@
       <c r="S70">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W70">
+        <v>68</v>
+      </c>
+      <c r="X70">
+        <v>0.703125</v>
+      </c>
+      <c r="AB70">
+        <v>68</v>
+      </c>
+      <c r="AC70">
+        <v>0.53125</v>
+      </c>
+      <c r="AF70">
+        <v>67</v>
+      </c>
+      <c r="AG70">
+        <v>0.453125</v>
+      </c>
+      <c r="AK70">
+        <v>68</v>
+      </c>
+      <c r="AL70">
+        <v>0.453125</v>
+      </c>
+      <c r="AP70">
+        <v>68</v>
+      </c>
+      <c r="AQ70">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="71" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>69</v>
       </c>
@@ -2491,8 +4859,38 @@
       <c r="S71">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W71">
+        <v>69</v>
+      </c>
+      <c r="X71">
+        <v>0.703125</v>
+      </c>
+      <c r="AB71">
+        <v>69</v>
+      </c>
+      <c r="AC71">
+        <v>0.53125</v>
+      </c>
+      <c r="AF71">
+        <v>68</v>
+      </c>
+      <c r="AG71">
+        <v>0.453125</v>
+      </c>
+      <c r="AK71">
+        <v>69</v>
+      </c>
+      <c r="AL71">
+        <v>0.453125</v>
+      </c>
+      <c r="AP71">
+        <v>69</v>
+      </c>
+      <c r="AQ71">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="72" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>70</v>
       </c>
@@ -2517,8 +4915,38 @@
       <c r="S72">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W72">
+        <v>70</v>
+      </c>
+      <c r="X72">
+        <v>0.703125</v>
+      </c>
+      <c r="AB72">
+        <v>70</v>
+      </c>
+      <c r="AC72">
+        <v>0.53125</v>
+      </c>
+      <c r="AF72">
+        <v>69</v>
+      </c>
+      <c r="AG72">
+        <v>0.453125</v>
+      </c>
+      <c r="AK72">
+        <v>70</v>
+      </c>
+      <c r="AL72">
+        <v>0.453125</v>
+      </c>
+      <c r="AP72">
+        <v>70</v>
+      </c>
+      <c r="AQ72">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="73" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>71</v>
       </c>
@@ -2543,8 +4971,38 @@
       <c r="S73">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W73">
+        <v>71</v>
+      </c>
+      <c r="X73">
+        <v>0.703125</v>
+      </c>
+      <c r="AB73">
+        <v>71</v>
+      </c>
+      <c r="AC73">
+        <v>0.53125</v>
+      </c>
+      <c r="AF73">
+        <v>70</v>
+      </c>
+      <c r="AG73">
+        <v>0.453125</v>
+      </c>
+      <c r="AK73">
+        <v>71</v>
+      </c>
+      <c r="AL73">
+        <v>0.453125</v>
+      </c>
+      <c r="AP73">
+        <v>71</v>
+      </c>
+      <c r="AQ73">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="74" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>72</v>
       </c>
@@ -2569,8 +5027,38 @@
       <c r="S74">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W74">
+        <v>72</v>
+      </c>
+      <c r="X74">
+        <v>0.703125</v>
+      </c>
+      <c r="AB74">
+        <v>72</v>
+      </c>
+      <c r="AC74">
+        <v>0.53125</v>
+      </c>
+      <c r="AF74">
+        <v>71</v>
+      </c>
+      <c r="AG74">
+        <v>0.453125</v>
+      </c>
+      <c r="AK74">
+        <v>72</v>
+      </c>
+      <c r="AL74">
+        <v>0.453125</v>
+      </c>
+      <c r="AP74">
+        <v>72</v>
+      </c>
+      <c r="AQ74">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="75" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>73</v>
       </c>
@@ -2595,8 +5083,38 @@
       <c r="S75">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W75">
+        <v>73</v>
+      </c>
+      <c r="X75">
+        <v>0.703125</v>
+      </c>
+      <c r="AB75">
+        <v>73</v>
+      </c>
+      <c r="AC75">
+        <v>0.53125</v>
+      </c>
+      <c r="AF75">
+        <v>72</v>
+      </c>
+      <c r="AG75">
+        <v>0.4375</v>
+      </c>
+      <c r="AK75">
+        <v>73</v>
+      </c>
+      <c r="AL75">
+        <v>0.453125</v>
+      </c>
+      <c r="AP75">
+        <v>73</v>
+      </c>
+      <c r="AQ75">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="76" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>74</v>
       </c>
@@ -2621,8 +5139,38 @@
       <c r="S76">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W76">
+        <v>74</v>
+      </c>
+      <c r="X76">
+        <v>0.703125</v>
+      </c>
+      <c r="AB76">
+        <v>74</v>
+      </c>
+      <c r="AC76">
+        <v>0.53125</v>
+      </c>
+      <c r="AF76">
+        <v>73</v>
+      </c>
+      <c r="AG76">
+        <v>0.4375</v>
+      </c>
+      <c r="AK76">
+        <v>74</v>
+      </c>
+      <c r="AL76">
+        <v>0.453125</v>
+      </c>
+      <c r="AP76">
+        <v>74</v>
+      </c>
+      <c r="AQ76">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="77" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>75</v>
       </c>
@@ -2647,8 +5195,38 @@
       <c r="S77">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W77">
+        <v>75</v>
+      </c>
+      <c r="X77">
+        <v>0.703125</v>
+      </c>
+      <c r="AB77">
+        <v>75</v>
+      </c>
+      <c r="AC77">
+        <v>0.515625</v>
+      </c>
+      <c r="AF77">
+        <v>74</v>
+      </c>
+      <c r="AG77">
+        <v>0.4375</v>
+      </c>
+      <c r="AK77">
+        <v>75</v>
+      </c>
+      <c r="AL77">
+        <v>0.453125</v>
+      </c>
+      <c r="AP77">
+        <v>75</v>
+      </c>
+      <c r="AQ77">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="78" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>76</v>
       </c>
@@ -2673,8 +5251,38 @@
       <c r="S78">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W78">
+        <v>76</v>
+      </c>
+      <c r="X78">
+        <v>0.703125</v>
+      </c>
+      <c r="AB78">
+        <v>76</v>
+      </c>
+      <c r="AC78">
+        <v>0.515625</v>
+      </c>
+      <c r="AF78">
+        <v>75</v>
+      </c>
+      <c r="AG78">
+        <v>0.4375</v>
+      </c>
+      <c r="AK78">
+        <v>76</v>
+      </c>
+      <c r="AL78">
+        <v>0.453125</v>
+      </c>
+      <c r="AP78">
+        <v>76</v>
+      </c>
+      <c r="AQ78">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="79" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>77</v>
       </c>
@@ -2699,8 +5307,38 @@
       <c r="S79">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W79">
+        <v>77</v>
+      </c>
+      <c r="X79">
+        <v>0.703125</v>
+      </c>
+      <c r="AB79">
+        <v>77</v>
+      </c>
+      <c r="AC79">
+        <v>0.515625</v>
+      </c>
+      <c r="AF79">
+        <v>76</v>
+      </c>
+      <c r="AG79">
+        <v>0.4375</v>
+      </c>
+      <c r="AK79">
+        <v>77</v>
+      </c>
+      <c r="AL79">
+        <v>0.453125</v>
+      </c>
+      <c r="AP79">
+        <v>77</v>
+      </c>
+      <c r="AQ79">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="80" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>78</v>
       </c>
@@ -2725,8 +5363,38 @@
       <c r="S80">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="81" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W80">
+        <v>78</v>
+      </c>
+      <c r="X80">
+        <v>0.703125</v>
+      </c>
+      <c r="AB80">
+        <v>78</v>
+      </c>
+      <c r="AC80">
+        <v>0.515625</v>
+      </c>
+      <c r="AF80">
+        <v>77</v>
+      </c>
+      <c r="AG80">
+        <v>0.4375</v>
+      </c>
+      <c r="AK80">
+        <v>78</v>
+      </c>
+      <c r="AL80">
+        <v>0.453125</v>
+      </c>
+      <c r="AP80">
+        <v>78</v>
+      </c>
+      <c r="AQ80">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="81" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>79</v>
       </c>
@@ -2751,8 +5419,38 @@
       <c r="S81">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="82" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W81">
+        <v>79</v>
+      </c>
+      <c r="X81">
+        <v>0.703125</v>
+      </c>
+      <c r="AB81">
+        <v>79</v>
+      </c>
+      <c r="AC81">
+        <v>0.515625</v>
+      </c>
+      <c r="AF81">
+        <v>78</v>
+      </c>
+      <c r="AG81">
+        <v>0.4375</v>
+      </c>
+      <c r="AK81">
+        <v>79</v>
+      </c>
+      <c r="AL81">
+        <v>0.453125</v>
+      </c>
+      <c r="AP81">
+        <v>79</v>
+      </c>
+      <c r="AQ81">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="82" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>80</v>
       </c>
@@ -2777,8 +5475,38 @@
       <c r="S82">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="83" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W82">
+        <v>80</v>
+      </c>
+      <c r="X82">
+        <v>0.703125</v>
+      </c>
+      <c r="AB82">
+        <v>80</v>
+      </c>
+      <c r="AC82">
+        <v>0.515625</v>
+      </c>
+      <c r="AF82">
+        <v>79</v>
+      </c>
+      <c r="AG82">
+        <v>0.4375</v>
+      </c>
+      <c r="AK82">
+        <v>80</v>
+      </c>
+      <c r="AL82">
+        <v>0.453125</v>
+      </c>
+      <c r="AP82">
+        <v>80</v>
+      </c>
+      <c r="AQ82">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="83" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>81</v>
       </c>
@@ -2803,8 +5531,38 @@
       <c r="S83">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="84" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W83">
+        <v>81</v>
+      </c>
+      <c r="X83">
+        <v>0.703125</v>
+      </c>
+      <c r="AB83">
+        <v>81</v>
+      </c>
+      <c r="AC83">
+        <v>0.515625</v>
+      </c>
+      <c r="AF83">
+        <v>80</v>
+      </c>
+      <c r="AG83">
+        <v>0.4375</v>
+      </c>
+      <c r="AK83">
+        <v>81</v>
+      </c>
+      <c r="AL83">
+        <v>0.453125</v>
+      </c>
+      <c r="AP83">
+        <v>81</v>
+      </c>
+      <c r="AQ83">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="84" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>82</v>
       </c>
@@ -2829,8 +5587,38 @@
       <c r="S84">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="85" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W84">
+        <v>82</v>
+      </c>
+      <c r="X84">
+        <v>0.703125</v>
+      </c>
+      <c r="AB84">
+        <v>82</v>
+      </c>
+      <c r="AC84">
+        <v>0.515625</v>
+      </c>
+      <c r="AF84">
+        <v>81</v>
+      </c>
+      <c r="AG84">
+        <v>0.4375</v>
+      </c>
+      <c r="AK84">
+        <v>82</v>
+      </c>
+      <c r="AL84">
+        <v>0.453125</v>
+      </c>
+      <c r="AP84">
+        <v>82</v>
+      </c>
+      <c r="AQ84">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="85" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>83</v>
       </c>
@@ -2855,8 +5643,38 @@
       <c r="S85">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="86" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W85">
+        <v>83</v>
+      </c>
+      <c r="X85">
+        <v>0.703125</v>
+      </c>
+      <c r="AB85">
+        <v>83</v>
+      </c>
+      <c r="AC85">
+        <v>0.515625</v>
+      </c>
+      <c r="AF85">
+        <v>82</v>
+      </c>
+      <c r="AG85">
+        <v>0.4375</v>
+      </c>
+      <c r="AK85">
+        <v>83</v>
+      </c>
+      <c r="AL85">
+        <v>0.453125</v>
+      </c>
+      <c r="AP85">
+        <v>83</v>
+      </c>
+      <c r="AQ85">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="86" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>84</v>
       </c>
@@ -2881,8 +5699,38 @@
       <c r="S86">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="87" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W86">
+        <v>84</v>
+      </c>
+      <c r="X86">
+        <v>0.6875</v>
+      </c>
+      <c r="AB86">
+        <v>84</v>
+      </c>
+      <c r="AC86">
+        <v>0.515625</v>
+      </c>
+      <c r="AF86">
+        <v>83</v>
+      </c>
+      <c r="AG86">
+        <v>0.4375</v>
+      </c>
+      <c r="AK86">
+        <v>84</v>
+      </c>
+      <c r="AL86">
+        <v>0.453125</v>
+      </c>
+      <c r="AP86">
+        <v>84</v>
+      </c>
+      <c r="AQ86">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="87" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>85</v>
       </c>
@@ -2907,8 +5755,38 @@
       <c r="S87">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="88" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W87">
+        <v>85</v>
+      </c>
+      <c r="X87">
+        <v>0.6875</v>
+      </c>
+      <c r="AB87">
+        <v>85</v>
+      </c>
+      <c r="AC87">
+        <v>0.515625</v>
+      </c>
+      <c r="AF87">
+        <v>84</v>
+      </c>
+      <c r="AG87">
+        <v>0.4375</v>
+      </c>
+      <c r="AK87">
+        <v>85</v>
+      </c>
+      <c r="AL87">
+        <v>0.453125</v>
+      </c>
+      <c r="AP87">
+        <v>85</v>
+      </c>
+      <c r="AQ87">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="88" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>86</v>
       </c>
@@ -2933,8 +5811,38 @@
       <c r="S88">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="89" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W88">
+        <v>86</v>
+      </c>
+      <c r="X88">
+        <v>0.6875</v>
+      </c>
+      <c r="AB88">
+        <v>86</v>
+      </c>
+      <c r="AC88">
+        <v>0.515625</v>
+      </c>
+      <c r="AF88">
+        <v>85</v>
+      </c>
+      <c r="AG88">
+        <v>0.4375</v>
+      </c>
+      <c r="AK88">
+        <v>86</v>
+      </c>
+      <c r="AL88">
+        <v>0.453125</v>
+      </c>
+      <c r="AP88">
+        <v>86</v>
+      </c>
+      <c r="AQ88">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="89" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>87</v>
       </c>
@@ -2959,8 +5867,38 @@
       <c r="S89">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="90" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W89">
+        <v>87</v>
+      </c>
+      <c r="X89">
+        <v>0.6875</v>
+      </c>
+      <c r="AB89">
+        <v>87</v>
+      </c>
+      <c r="AC89">
+        <v>0.515625</v>
+      </c>
+      <c r="AF89">
+        <v>86</v>
+      </c>
+      <c r="AG89">
+        <v>0.4375</v>
+      </c>
+      <c r="AK89">
+        <v>87</v>
+      </c>
+      <c r="AL89">
+        <v>0.453125</v>
+      </c>
+      <c r="AP89">
+        <v>87</v>
+      </c>
+      <c r="AQ89">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="90" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>88</v>
       </c>
@@ -2985,8 +5923,38 @@
       <c r="S90">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="91" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W90">
+        <v>88</v>
+      </c>
+      <c r="X90">
+        <v>0.6875</v>
+      </c>
+      <c r="AB90">
+        <v>88</v>
+      </c>
+      <c r="AC90">
+        <v>0.515625</v>
+      </c>
+      <c r="AF90">
+        <v>87</v>
+      </c>
+      <c r="AG90">
+        <v>0.4375</v>
+      </c>
+      <c r="AK90">
+        <v>88</v>
+      </c>
+      <c r="AL90">
+        <v>0.453125</v>
+      </c>
+      <c r="AP90">
+        <v>88</v>
+      </c>
+      <c r="AQ90">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="91" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>89</v>
       </c>
@@ -3011,8 +5979,38 @@
       <c r="S91">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="92" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W91">
+        <v>89</v>
+      </c>
+      <c r="X91">
+        <v>0.6875</v>
+      </c>
+      <c r="AB91">
+        <v>89</v>
+      </c>
+      <c r="AC91">
+        <v>0.515625</v>
+      </c>
+      <c r="AF91">
+        <v>88</v>
+      </c>
+      <c r="AG91">
+        <v>0.4375</v>
+      </c>
+      <c r="AK91">
+        <v>89</v>
+      </c>
+      <c r="AL91">
+        <v>0.453125</v>
+      </c>
+      <c r="AP91">
+        <v>89</v>
+      </c>
+      <c r="AQ91">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="92" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>90</v>
       </c>
@@ -3037,8 +6035,38 @@
       <c r="S92">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="93" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W92">
+        <v>90</v>
+      </c>
+      <c r="X92">
+        <v>0.6875</v>
+      </c>
+      <c r="AB92">
+        <v>90</v>
+      </c>
+      <c r="AC92">
+        <v>0.515625</v>
+      </c>
+      <c r="AF92">
+        <v>89</v>
+      </c>
+      <c r="AG92">
+        <v>0.4375</v>
+      </c>
+      <c r="AK92">
+        <v>90</v>
+      </c>
+      <c r="AL92">
+        <v>0.453125</v>
+      </c>
+      <c r="AP92">
+        <v>90</v>
+      </c>
+      <c r="AQ92">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="93" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>91</v>
       </c>
@@ -3063,8 +6091,38 @@
       <c r="S93">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="94" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <v>91</v>
+      </c>
+      <c r="X93">
+        <v>0.6875</v>
+      </c>
+      <c r="AB93">
+        <v>91</v>
+      </c>
+      <c r="AC93">
+        <v>0.515625</v>
+      </c>
+      <c r="AF93">
+        <v>90</v>
+      </c>
+      <c r="AG93">
+        <v>0.4375</v>
+      </c>
+      <c r="AK93">
+        <v>91</v>
+      </c>
+      <c r="AL93">
+        <v>0.453125</v>
+      </c>
+      <c r="AP93">
+        <v>91</v>
+      </c>
+      <c r="AQ93">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="94" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>92</v>
       </c>
@@ -3089,8 +6147,38 @@
       <c r="S94">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="95" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W94">
+        <v>92</v>
+      </c>
+      <c r="X94">
+        <v>0.6875</v>
+      </c>
+      <c r="AB94">
+        <v>92</v>
+      </c>
+      <c r="AC94">
+        <v>0.515625</v>
+      </c>
+      <c r="AF94">
+        <v>91</v>
+      </c>
+      <c r="AG94">
+        <v>0.4375</v>
+      </c>
+      <c r="AK94">
+        <v>92</v>
+      </c>
+      <c r="AL94">
+        <v>0.453125</v>
+      </c>
+      <c r="AP94">
+        <v>92</v>
+      </c>
+      <c r="AQ94">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="95" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>93</v>
       </c>
@@ -3115,8 +6203,38 @@
       <c r="S95">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="96" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W95">
+        <v>93</v>
+      </c>
+      <c r="X95">
+        <v>0.6875</v>
+      </c>
+      <c r="AB95">
+        <v>93</v>
+      </c>
+      <c r="AC95">
+        <v>0.515625</v>
+      </c>
+      <c r="AF95">
+        <v>92</v>
+      </c>
+      <c r="AG95">
+        <v>0.4375</v>
+      </c>
+      <c r="AK95">
+        <v>93</v>
+      </c>
+      <c r="AL95">
+        <v>0.453125</v>
+      </c>
+      <c r="AP95">
+        <v>93</v>
+      </c>
+      <c r="AQ95">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="96" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>94</v>
       </c>
@@ -3141,8 +6259,38 @@
       <c r="S96">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="97" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>94</v>
+      </c>
+      <c r="X96">
+        <v>0.6875</v>
+      </c>
+      <c r="AB96">
+        <v>94</v>
+      </c>
+      <c r="AC96">
+        <v>0.515625</v>
+      </c>
+      <c r="AF96">
+        <v>93</v>
+      </c>
+      <c r="AG96">
+        <v>0.4375</v>
+      </c>
+      <c r="AK96">
+        <v>94</v>
+      </c>
+      <c r="AL96">
+        <v>0.453125</v>
+      </c>
+      <c r="AP96">
+        <v>94</v>
+      </c>
+      <c r="AQ96">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="97" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>95</v>
       </c>
@@ -3167,8 +6315,38 @@
       <c r="S97">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="98" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W97">
+        <v>95</v>
+      </c>
+      <c r="X97">
+        <v>0.6875</v>
+      </c>
+      <c r="AB97">
+        <v>95</v>
+      </c>
+      <c r="AC97">
+        <v>0.515625</v>
+      </c>
+      <c r="AF97">
+        <v>94</v>
+      </c>
+      <c r="AG97">
+        <v>0.4375</v>
+      </c>
+      <c r="AK97">
+        <v>95</v>
+      </c>
+      <c r="AL97">
+        <v>0.453125</v>
+      </c>
+      <c r="AP97">
+        <v>95</v>
+      </c>
+      <c r="AQ97">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="98" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>96</v>
       </c>
@@ -3193,8 +6371,38 @@
       <c r="S98">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="99" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <v>96</v>
+      </c>
+      <c r="X98">
+        <v>0.6875</v>
+      </c>
+      <c r="AB98">
+        <v>96</v>
+      </c>
+      <c r="AC98">
+        <v>0.515625</v>
+      </c>
+      <c r="AF98">
+        <v>95</v>
+      </c>
+      <c r="AG98">
+        <v>0.4375</v>
+      </c>
+      <c r="AK98">
+        <v>96</v>
+      </c>
+      <c r="AL98">
+        <v>0.453125</v>
+      </c>
+      <c r="AP98">
+        <v>96</v>
+      </c>
+      <c r="AQ98">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="99" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>97</v>
       </c>
@@ -3219,8 +6427,38 @@
       <c r="S99">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="100" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W99">
+        <v>97</v>
+      </c>
+      <c r="X99">
+        <v>0.6875</v>
+      </c>
+      <c r="AB99">
+        <v>97</v>
+      </c>
+      <c r="AC99">
+        <v>0.515625</v>
+      </c>
+      <c r="AF99">
+        <v>96</v>
+      </c>
+      <c r="AG99">
+        <v>0.4375</v>
+      </c>
+      <c r="AK99">
+        <v>97</v>
+      </c>
+      <c r="AL99">
+        <v>0.453125</v>
+      </c>
+      <c r="AP99">
+        <v>97</v>
+      </c>
+      <c r="AQ99">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="100" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>98</v>
       </c>
@@ -3245,8 +6483,38 @@
       <c r="S100">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="101" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <v>98</v>
+      </c>
+      <c r="X100">
+        <v>0.6875</v>
+      </c>
+      <c r="AB100">
+        <v>98</v>
+      </c>
+      <c r="AC100">
+        <v>0.515625</v>
+      </c>
+      <c r="AF100">
+        <v>97</v>
+      </c>
+      <c r="AG100">
+        <v>0.4375</v>
+      </c>
+      <c r="AK100">
+        <v>98</v>
+      </c>
+      <c r="AL100">
+        <v>0.453125</v>
+      </c>
+      <c r="AP100">
+        <v>98</v>
+      </c>
+      <c r="AQ100">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="101" spans="4:43" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>99</v>
       </c>
@@ -3271,13 +6539,54 @@
       <c r="S101">
         <v>0.703125</v>
       </c>
+      <c r="W101">
+        <v>99</v>
+      </c>
+      <c r="X101">
+        <v>0.6875</v>
+      </c>
+      <c r="AB101">
+        <v>99</v>
+      </c>
+      <c r="AC101">
+        <v>0.515625</v>
+      </c>
+      <c r="AF101">
+        <v>98</v>
+      </c>
+      <c r="AG101">
+        <v>0.4375</v>
+      </c>
+      <c r="AK101">
+        <v>99</v>
+      </c>
+      <c r="AL101">
+        <v>0.453125</v>
+      </c>
+      <c r="AP101">
+        <v>99</v>
+      </c>
+      <c r="AQ101">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="102" spans="4:43" x14ac:dyDescent="0.3">
+      <c r="AF102">
+        <v>99</v>
+      </c>
+      <c r="AG102">
+        <v>0.4375</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49073E8-D927-40F3-AAE7-BBB304F6A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866BA14D-3FB6-4B73-9B47-BF72393334E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>F02</t>
   </si>
@@ -95,6 +95,42 @@
   </si>
   <si>
     <t>Acc: 43%</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Acc: 64%</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>Acc: 79%</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>Acc:76%</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>Acc:90%</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>Acc: 83%</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Acc:86%</t>
   </si>
 </sst>
 </file>
@@ -569,6 +605,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>60198</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566237F0-7DD2-E28F-97A6-3E58BADB0BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26593800" y="941070"/>
+          <a:ext cx="1507998" cy="1130999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>372618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9594D033-5C8E-4778-A0B5-1F57B5ADE999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29466540" y="872490"/>
+          <a:ext cx="1995678" cy="1496759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>517398</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C75453-744A-0F26-281A-50177AABC155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32572960" y="1059180"/>
+          <a:ext cx="1472438" cy="1104329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>395478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B39F83-81B4-2437-9514-C4FDE0E04985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35712400" y="929640"/>
+          <a:ext cx="1868678" cy="1401509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>182118</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6049193B-CB7D-02E6-4B25-CDF62544A746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38719760" y="845820"/>
+          <a:ext cx="1695958" cy="1271969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>363218</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FAAB5A-1797-9662-F8EC-64C01A5716BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41666159" y="756284"/>
+          <a:ext cx="1978659" cy="1483995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -869,15 +1169,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D6FC8-8C75-4EFE-B156-092735D80E97}">
-  <dimension ref="A1:AQ102"/>
+  <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BQ6" sqref="BQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -912,8 +1212,26 @@
       <c r="AP1" t="s">
         <v>2</v>
       </c>
+      <c r="AU1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,8 +1295,44 @@
       <c r="AQ2">
         <v>0.890625</v>
       </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0.859375</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0.65625</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0.640625</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0.1875</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0.4375</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0.3125</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1057,8 +1411,62 @@
       <c r="AQ3">
         <v>0.84375</v>
       </c>
+      <c r="AS3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>0.75</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0.515625</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>0.453125</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>0.15625</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>0.390625</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>0.234375</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>2</v>
       </c>
@@ -1131,8 +1539,62 @@
       <c r="AQ4">
         <v>0.859375</v>
       </c>
+      <c r="AS4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>0.65625</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>0.390625</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE4">
+        <v>2</v>
+      </c>
+      <c r="BF4">
+        <v>0.453125</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ4">
+        <v>2</v>
+      </c>
+      <c r="BK4">
+        <v>0.140625</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>0.265625</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>3</v>
       </c>
@@ -1190,8 +1652,44 @@
       <c r="AQ5">
         <v>0.75</v>
       </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>0.625</v>
+      </c>
+      <c r="AZ5">
+        <v>3</v>
+      </c>
+      <c r="BA5">
+        <v>0.34375</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>0.421875</v>
+      </c>
+      <c r="BJ5">
+        <v>3</v>
+      </c>
+      <c r="BK5">
+        <v>0.140625</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BP5">
+        <v>0.296875</v>
+      </c>
+      <c r="BT5">
+        <v>3</v>
+      </c>
+      <c r="BU5">
+        <v>0.140625</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>4</v>
       </c>
@@ -1246,8 +1744,44 @@
       <c r="AQ6">
         <v>0.765625</v>
       </c>
+      <c r="AU6">
+        <v>4</v>
+      </c>
+      <c r="AV6">
+        <v>0.546875</v>
+      </c>
+      <c r="AZ6">
+        <v>4</v>
+      </c>
+      <c r="BA6">
+        <v>0.328125</v>
+      </c>
+      <c r="BE6">
+        <v>4</v>
+      </c>
+      <c r="BF6">
+        <v>0.484375</v>
+      </c>
+      <c r="BJ6">
+        <v>4</v>
+      </c>
+      <c r="BK6">
+        <v>0.125</v>
+      </c>
+      <c r="BO6">
+        <v>4</v>
+      </c>
+      <c r="BP6">
+        <v>0.328125</v>
+      </c>
+      <c r="BT6">
+        <v>4</v>
+      </c>
+      <c r="BU6">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>5</v>
       </c>
@@ -1302,8 +1836,44 @@
       <c r="AQ7">
         <v>0.703125</v>
       </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>0.453125</v>
+      </c>
+      <c r="AZ7">
+        <v>5</v>
+      </c>
+      <c r="BA7">
+        <v>0.328125</v>
+      </c>
+      <c r="BE7">
+        <v>5</v>
+      </c>
+      <c r="BF7">
+        <v>0.46875</v>
+      </c>
+      <c r="BJ7">
+        <v>5</v>
+      </c>
+      <c r="BK7">
+        <v>0.1875</v>
+      </c>
+      <c r="BO7">
+        <v>5</v>
+      </c>
+      <c r="BP7">
+        <v>0.3125</v>
+      </c>
+      <c r="BT7">
+        <v>5</v>
+      </c>
+      <c r="BU7">
+        <v>0.140625</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>6</v>
       </c>
@@ -1358,8 +1928,44 @@
       <c r="AQ8">
         <v>0.6875</v>
       </c>
+      <c r="AU8">
+        <v>6</v>
+      </c>
+      <c r="AV8">
+        <v>0.390625</v>
+      </c>
+      <c r="AZ8">
+        <v>6</v>
+      </c>
+      <c r="BA8">
+        <v>0.3125</v>
+      </c>
+      <c r="BE8">
+        <v>6</v>
+      </c>
+      <c r="BF8">
+        <v>0.40625</v>
+      </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BK8">
+        <v>0.125</v>
+      </c>
+      <c r="BO8">
+        <v>6</v>
+      </c>
+      <c r="BP8">
+        <v>0.34375</v>
+      </c>
+      <c r="BT8">
+        <v>6</v>
+      </c>
+      <c r="BU8">
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>7</v>
       </c>
@@ -1414,8 +2020,44 @@
       <c r="AQ9">
         <v>0.6875</v>
       </c>
+      <c r="AU9">
+        <v>7</v>
+      </c>
+      <c r="AV9">
+        <v>0.46875</v>
+      </c>
+      <c r="AZ9">
+        <v>7</v>
+      </c>
+      <c r="BA9">
+        <v>0.359375</v>
+      </c>
+      <c r="BE9">
+        <v>7</v>
+      </c>
+      <c r="BF9">
+        <v>0.46875</v>
+      </c>
+      <c r="BJ9">
+        <v>7</v>
+      </c>
+      <c r="BK9">
+        <v>0.15625</v>
+      </c>
+      <c r="BO9">
+        <v>7</v>
+      </c>
+      <c r="BP9">
+        <v>0.34375</v>
+      </c>
+      <c r="BT9">
+        <v>7</v>
+      </c>
+      <c r="BU9">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>8</v>
       </c>
@@ -1470,8 +2112,44 @@
       <c r="AQ10">
         <v>0.671875</v>
       </c>
+      <c r="AU10">
+        <v>8</v>
+      </c>
+      <c r="AV10">
+        <v>0.46875</v>
+      </c>
+      <c r="AZ10">
+        <v>8</v>
+      </c>
+      <c r="BA10">
+        <v>0.34375</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>0.5</v>
+      </c>
+      <c r="BJ10">
+        <v>8</v>
+      </c>
+      <c r="BK10">
+        <v>0.140625</v>
+      </c>
+      <c r="BO10">
+        <v>8</v>
+      </c>
+      <c r="BP10">
+        <v>0.359375</v>
+      </c>
+      <c r="BT10">
+        <v>8</v>
+      </c>
+      <c r="BU10">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>9</v>
       </c>
@@ -1526,8 +2204,44 @@
       <c r="AQ11">
         <v>0.703125</v>
       </c>
+      <c r="AU11">
+        <v>9</v>
+      </c>
+      <c r="AV11">
+        <v>0.484375</v>
+      </c>
+      <c r="AZ11">
+        <v>9</v>
+      </c>
+      <c r="BA11">
+        <v>0.328125</v>
+      </c>
+      <c r="BE11">
+        <v>9</v>
+      </c>
+      <c r="BF11">
+        <v>0.46875</v>
+      </c>
+      <c r="BJ11">
+        <v>9</v>
+      </c>
+      <c r="BK11">
+        <v>0.109375</v>
+      </c>
+      <c r="BO11">
+        <v>9</v>
+      </c>
+      <c r="BP11">
+        <v>0.328125</v>
+      </c>
+      <c r="BT11">
+        <v>9</v>
+      </c>
+      <c r="BU11">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>10</v>
       </c>
@@ -1582,8 +2296,44 @@
       <c r="AQ12">
         <v>0.640625</v>
       </c>
+      <c r="AU12">
+        <v>10</v>
+      </c>
+      <c r="AV12">
+        <v>0.421875</v>
+      </c>
+      <c r="AZ12">
+        <v>10</v>
+      </c>
+      <c r="BA12">
+        <v>0.296875</v>
+      </c>
+      <c r="BE12">
+        <v>10</v>
+      </c>
+      <c r="BF12">
+        <v>0.453125</v>
+      </c>
+      <c r="BJ12">
+        <v>10</v>
+      </c>
+      <c r="BK12">
+        <v>0.21875</v>
+      </c>
+      <c r="BO12">
+        <v>10</v>
+      </c>
+      <c r="BP12">
+        <v>0.25</v>
+      </c>
+      <c r="BT12">
+        <v>10</v>
+      </c>
+      <c r="BU12">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>11</v>
       </c>
@@ -1638,8 +2388,44 @@
       <c r="AQ13">
         <v>0.734375</v>
       </c>
+      <c r="AU13">
+        <v>11</v>
+      </c>
+      <c r="AV13">
+        <v>0.484375</v>
+      </c>
+      <c r="AZ13">
+        <v>11</v>
+      </c>
+      <c r="BA13">
+        <v>0.328125</v>
+      </c>
+      <c r="BE13">
+        <v>11</v>
+      </c>
+      <c r="BF13">
+        <v>0.5</v>
+      </c>
+      <c r="BJ13">
+        <v>11</v>
+      </c>
+      <c r="BK13">
+        <v>0.1875</v>
+      </c>
+      <c r="BO13">
+        <v>11</v>
+      </c>
+      <c r="BP13">
+        <v>0.328125</v>
+      </c>
+      <c r="BT13">
+        <v>11</v>
+      </c>
+      <c r="BU13">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>12</v>
       </c>
@@ -1694,8 +2480,44 @@
       <c r="AQ14">
         <v>0.71875</v>
       </c>
+      <c r="AU14">
+        <v>12</v>
+      </c>
+      <c r="AV14">
+        <v>0.46875</v>
+      </c>
+      <c r="AZ14">
+        <v>12</v>
+      </c>
+      <c r="BA14">
+        <v>0.25</v>
+      </c>
+      <c r="BE14">
+        <v>12</v>
+      </c>
+      <c r="BF14">
+        <v>0.59375</v>
+      </c>
+      <c r="BJ14">
+        <v>12</v>
+      </c>
+      <c r="BK14">
+        <v>0.15625</v>
+      </c>
+      <c r="BO14">
+        <v>12</v>
+      </c>
+      <c r="BP14">
+        <v>0.296875</v>
+      </c>
+      <c r="BT14">
+        <v>12</v>
+      </c>
+      <c r="BU14">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>13</v>
       </c>
@@ -1750,8 +2572,44 @@
       <c r="AQ15">
         <v>0.671875</v>
       </c>
+      <c r="AU15">
+        <v>13</v>
+      </c>
+      <c r="AV15">
+        <v>0.625</v>
+      </c>
+      <c r="AZ15">
+        <v>13</v>
+      </c>
+      <c r="BA15">
+        <v>0.234375</v>
+      </c>
+      <c r="BE15">
+        <v>13</v>
+      </c>
+      <c r="BF15">
+        <v>0.46875</v>
+      </c>
+      <c r="BJ15">
+        <v>13</v>
+      </c>
+      <c r="BK15">
+        <v>0.25</v>
+      </c>
+      <c r="BO15">
+        <v>13</v>
+      </c>
+      <c r="BP15">
+        <v>0.234375</v>
+      </c>
+      <c r="BT15">
+        <v>13</v>
+      </c>
+      <c r="BU15">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>14</v>
       </c>
@@ -1806,8 +2664,44 @@
       <c r="AQ16">
         <v>0.640625</v>
       </c>
+      <c r="AU16">
+        <v>14</v>
+      </c>
+      <c r="AV16">
+        <v>0.53125</v>
+      </c>
+      <c r="AZ16">
+        <v>14</v>
+      </c>
+      <c r="BA16">
+        <v>0.25</v>
+      </c>
+      <c r="BE16">
+        <v>14</v>
+      </c>
+      <c r="BF16">
+        <v>0.53125</v>
+      </c>
+      <c r="BJ16">
+        <v>14</v>
+      </c>
+      <c r="BK16">
+        <v>0.15625</v>
+      </c>
+      <c r="BO16">
+        <v>14</v>
+      </c>
+      <c r="BP16">
+        <v>0.203125</v>
+      </c>
+      <c r="BT16">
+        <v>14</v>
+      </c>
+      <c r="BU16">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="17" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>15</v>
       </c>
@@ -1862,8 +2756,44 @@
       <c r="AQ17">
         <v>0.6875</v>
       </c>
+      <c r="AU17">
+        <v>15</v>
+      </c>
+      <c r="AV17">
+        <v>0.4375</v>
+      </c>
+      <c r="AZ17">
+        <v>15</v>
+      </c>
+      <c r="BA17">
+        <v>0.359375</v>
+      </c>
+      <c r="BE17">
+        <v>15</v>
+      </c>
+      <c r="BF17">
+        <v>0.4375</v>
+      </c>
+      <c r="BJ17">
+        <v>15</v>
+      </c>
+      <c r="BK17">
+        <v>0.171875</v>
+      </c>
+      <c r="BO17">
+        <v>15</v>
+      </c>
+      <c r="BP17">
+        <v>0.234375</v>
+      </c>
+      <c r="BT17">
+        <v>15</v>
+      </c>
+      <c r="BU17">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>16</v>
       </c>
@@ -1918,8 +2848,44 @@
       <c r="AQ18">
         <v>0.6875</v>
       </c>
+      <c r="AU18">
+        <v>16</v>
+      </c>
+      <c r="AV18">
+        <v>0.484375</v>
+      </c>
+      <c r="AZ18">
+        <v>16</v>
+      </c>
+      <c r="BA18">
+        <v>0.328125</v>
+      </c>
+      <c r="BE18">
+        <v>16</v>
+      </c>
+      <c r="BF18">
+        <v>0.4375</v>
+      </c>
+      <c r="BJ18">
+        <v>16</v>
+      </c>
+      <c r="BK18">
+        <v>0.171875</v>
+      </c>
+      <c r="BO18">
+        <v>16</v>
+      </c>
+      <c r="BP18">
+        <v>0.234375</v>
+      </c>
+      <c r="BT18">
+        <v>16</v>
+      </c>
+      <c r="BU18">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>17</v>
       </c>
@@ -1974,8 +2940,44 @@
       <c r="AQ19">
         <v>0.71875</v>
       </c>
+      <c r="AU19">
+        <v>17</v>
+      </c>
+      <c r="AV19">
+        <v>0.40625</v>
+      </c>
+      <c r="AZ19">
+        <v>17</v>
+      </c>
+      <c r="BA19">
+        <v>0.234375</v>
+      </c>
+      <c r="BE19">
+        <v>17</v>
+      </c>
+      <c r="BF19">
+        <v>0.390625</v>
+      </c>
+      <c r="BJ19">
+        <v>17</v>
+      </c>
+      <c r="BK19">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO19">
+        <v>17</v>
+      </c>
+      <c r="BP19">
+        <v>0.171875</v>
+      </c>
+      <c r="BT19">
+        <v>17</v>
+      </c>
+      <c r="BU19">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>18</v>
       </c>
@@ -2030,8 +3032,44 @@
       <c r="AQ20">
         <v>0.765625</v>
       </c>
+      <c r="AU20">
+        <v>18</v>
+      </c>
+      <c r="AV20">
+        <v>0.40625</v>
+      </c>
+      <c r="AZ20">
+        <v>18</v>
+      </c>
+      <c r="BA20">
+        <v>0.328125</v>
+      </c>
+      <c r="BE20">
+        <v>18</v>
+      </c>
+      <c r="BF20">
+        <v>0.390625</v>
+      </c>
+      <c r="BJ20">
+        <v>18</v>
+      </c>
+      <c r="BK20">
+        <v>0.109375</v>
+      </c>
+      <c r="BO20">
+        <v>18</v>
+      </c>
+      <c r="BP20">
+        <v>0.171875</v>
+      </c>
+      <c r="BT20">
+        <v>18</v>
+      </c>
+      <c r="BU20">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>19</v>
       </c>
@@ -2086,8 +3124,44 @@
       <c r="AQ21">
         <v>0.671875</v>
       </c>
+      <c r="AU21">
+        <v>19</v>
+      </c>
+      <c r="AV21">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ21">
+        <v>19</v>
+      </c>
+      <c r="BA21">
+        <v>0.265625</v>
+      </c>
+      <c r="BE21">
+        <v>19</v>
+      </c>
+      <c r="BF21">
+        <v>0.4375</v>
+      </c>
+      <c r="BJ21">
+        <v>19</v>
+      </c>
+      <c r="BK21">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO21">
+        <v>19</v>
+      </c>
+      <c r="BP21">
+        <v>0.125</v>
+      </c>
+      <c r="BT21">
+        <v>19</v>
+      </c>
+      <c r="BU21">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>20</v>
       </c>
@@ -2142,8 +3216,44 @@
       <c r="AQ22">
         <v>0.71875</v>
       </c>
+      <c r="AU22">
+        <v>20</v>
+      </c>
+      <c r="AV22">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ22">
+        <v>20</v>
+      </c>
+      <c r="BA22">
+        <v>0.265625</v>
+      </c>
+      <c r="BE22">
+        <v>20</v>
+      </c>
+      <c r="BF22">
+        <v>0.421875</v>
+      </c>
+      <c r="BJ22">
+        <v>20</v>
+      </c>
+      <c r="BK22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="BO22">
+        <v>20</v>
+      </c>
+      <c r="BP22">
+        <v>0.140625</v>
+      </c>
+      <c r="BT22">
+        <v>20</v>
+      </c>
+      <c r="BU22">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>21</v>
       </c>
@@ -2198,8 +3308,44 @@
       <c r="AQ23">
         <v>0.6875</v>
       </c>
+      <c r="AU23">
+        <v>21</v>
+      </c>
+      <c r="AV23">
+        <v>0.375</v>
+      </c>
+      <c r="AZ23">
+        <v>21</v>
+      </c>
+      <c r="BA23">
+        <v>0.328125</v>
+      </c>
+      <c r="BE23">
+        <v>21</v>
+      </c>
+      <c r="BF23">
+        <v>0.46875</v>
+      </c>
+      <c r="BJ23">
+        <v>21</v>
+      </c>
+      <c r="BK23">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO23">
+        <v>21</v>
+      </c>
+      <c r="BP23">
+        <v>0.125</v>
+      </c>
+      <c r="BT23">
+        <v>21</v>
+      </c>
+      <c r="BU23">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>22</v>
       </c>
@@ -2254,8 +3400,44 @@
       <c r="AQ24">
         <v>0.703125</v>
       </c>
+      <c r="AU24">
+        <v>22</v>
+      </c>
+      <c r="AV24">
+        <v>0.375</v>
+      </c>
+      <c r="AZ24">
+        <v>22</v>
+      </c>
+      <c r="BA24">
+        <v>0.25</v>
+      </c>
+      <c r="BE24">
+        <v>22</v>
+      </c>
+      <c r="BF24">
+        <v>0.40625</v>
+      </c>
+      <c r="BJ24">
+        <v>22</v>
+      </c>
+      <c r="BK24">
+        <v>0.109375</v>
+      </c>
+      <c r="BO24">
+        <v>22</v>
+      </c>
+      <c r="BP24">
+        <v>0.125</v>
+      </c>
+      <c r="BT24">
+        <v>22</v>
+      </c>
+      <c r="BU24">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>23</v>
       </c>
@@ -2310,8 +3492,44 @@
       <c r="AQ25">
         <v>0.6875</v>
       </c>
+      <c r="AU25">
+        <v>23</v>
+      </c>
+      <c r="AV25">
+        <v>0.375</v>
+      </c>
+      <c r="AZ25">
+        <v>23</v>
+      </c>
+      <c r="BA25">
+        <v>0.234375</v>
+      </c>
+      <c r="BE25">
+        <v>23</v>
+      </c>
+      <c r="BF25">
+        <v>0.40625</v>
+      </c>
+      <c r="BJ25">
+        <v>23</v>
+      </c>
+      <c r="BK25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO25">
+        <v>23</v>
+      </c>
+      <c r="BP25">
+        <v>0.125</v>
+      </c>
+      <c r="BT25">
+        <v>23</v>
+      </c>
+      <c r="BU25">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>24</v>
       </c>
@@ -2366,8 +3584,44 @@
       <c r="AQ26">
         <v>0.671875</v>
       </c>
+      <c r="AU26">
+        <v>24</v>
+      </c>
+      <c r="AV26">
+        <v>0.375</v>
+      </c>
+      <c r="AZ26">
+        <v>24</v>
+      </c>
+      <c r="BA26">
+        <v>0.25</v>
+      </c>
+      <c r="BE26">
+        <v>24</v>
+      </c>
+      <c r="BF26">
+        <v>0.453125</v>
+      </c>
+      <c r="BJ26">
+        <v>24</v>
+      </c>
+      <c r="BK26">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO26">
+        <v>24</v>
+      </c>
+      <c r="BP26">
+        <v>0.125</v>
+      </c>
+      <c r="BT26">
+        <v>24</v>
+      </c>
+      <c r="BU26">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>25</v>
       </c>
@@ -2422,8 +3676,44 @@
       <c r="AQ27">
         <v>0.671875</v>
       </c>
+      <c r="AU27">
+        <v>25</v>
+      </c>
+      <c r="AV27">
+        <v>0.375</v>
+      </c>
+      <c r="AZ27">
+        <v>25</v>
+      </c>
+      <c r="BA27">
+        <v>0.25</v>
+      </c>
+      <c r="BE27">
+        <v>25</v>
+      </c>
+      <c r="BF27">
+        <v>0.453125</v>
+      </c>
+      <c r="BJ27">
+        <v>25</v>
+      </c>
+      <c r="BK27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO27">
+        <v>25</v>
+      </c>
+      <c r="BP27">
+        <v>0.125</v>
+      </c>
+      <c r="BT27">
+        <v>25</v>
+      </c>
+      <c r="BU27">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>26</v>
       </c>
@@ -2478,8 +3768,44 @@
       <c r="AQ28">
         <v>0.65625</v>
       </c>
+      <c r="AU28">
+        <v>26</v>
+      </c>
+      <c r="AV28">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ28">
+        <v>26</v>
+      </c>
+      <c r="BA28">
+        <v>0.234375</v>
+      </c>
+      <c r="BE28">
+        <v>26</v>
+      </c>
+      <c r="BF28">
+        <v>0.40625</v>
+      </c>
+      <c r="BJ28">
+        <v>26</v>
+      </c>
+      <c r="BK28">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO28">
+        <v>26</v>
+      </c>
+      <c r="BP28">
+        <v>0.125</v>
+      </c>
+      <c r="BT28">
+        <v>26</v>
+      </c>
+      <c r="BU28">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>27</v>
       </c>
@@ -2534,8 +3860,44 @@
       <c r="AQ29">
         <v>0.65625</v>
       </c>
+      <c r="AU29">
+        <v>27</v>
+      </c>
+      <c r="AV29">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ29">
+        <v>27</v>
+      </c>
+      <c r="BA29">
+        <v>0.234375</v>
+      </c>
+      <c r="BE29">
+        <v>27</v>
+      </c>
+      <c r="BF29">
+        <v>0.359375</v>
+      </c>
+      <c r="BJ29">
+        <v>27</v>
+      </c>
+      <c r="BK29">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO29">
+        <v>27</v>
+      </c>
+      <c r="BP29">
+        <v>0.125</v>
+      </c>
+      <c r="BT29">
+        <v>27</v>
+      </c>
+      <c r="BU29">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>28</v>
       </c>
@@ -2590,8 +3952,44 @@
       <c r="AQ30">
         <v>0.65625</v>
       </c>
+      <c r="AU30">
+        <v>28</v>
+      </c>
+      <c r="AV30">
+        <v>0.34375</v>
+      </c>
+      <c r="AZ30">
+        <v>28</v>
+      </c>
+      <c r="BA30">
+        <v>0.234375</v>
+      </c>
+      <c r="BE30">
+        <v>28</v>
+      </c>
+      <c r="BF30">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ30">
+        <v>28</v>
+      </c>
+      <c r="BK30">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO30">
+        <v>28</v>
+      </c>
+      <c r="BP30">
+        <v>0.125</v>
+      </c>
+      <c r="BT30">
+        <v>28</v>
+      </c>
+      <c r="BU30">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>29</v>
       </c>
@@ -2646,8 +4044,44 @@
       <c r="AQ31">
         <v>0.65625</v>
       </c>
+      <c r="AU31">
+        <v>29</v>
+      </c>
+      <c r="AV31">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ31">
+        <v>29</v>
+      </c>
+      <c r="BA31">
+        <v>0.234375</v>
+      </c>
+      <c r="BE31">
+        <v>29</v>
+      </c>
+      <c r="BF31">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ31">
+        <v>29</v>
+      </c>
+      <c r="BK31">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO31">
+        <v>29</v>
+      </c>
+      <c r="BP31">
+        <v>0.125</v>
+      </c>
+      <c r="BT31">
+        <v>29</v>
+      </c>
+      <c r="BU31">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>30</v>
       </c>
@@ -2702,8 +4136,44 @@
       <c r="AQ32">
         <v>0.65625</v>
       </c>
+      <c r="AU32">
+        <v>30</v>
+      </c>
+      <c r="AV32">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ32">
+        <v>30</v>
+      </c>
+      <c r="BA32">
+        <v>0.21875</v>
+      </c>
+      <c r="BE32">
+        <v>30</v>
+      </c>
+      <c r="BF32">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ32">
+        <v>30</v>
+      </c>
+      <c r="BK32">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO32">
+        <v>30</v>
+      </c>
+      <c r="BP32">
+        <v>0.109375</v>
+      </c>
+      <c r="BT32">
+        <v>30</v>
+      </c>
+      <c r="BU32">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="33" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>31</v>
       </c>
@@ -2758,8 +4228,44 @@
       <c r="AQ33">
         <v>0.65625</v>
       </c>
+      <c r="AU33">
+        <v>31</v>
+      </c>
+      <c r="AV33">
+        <v>0.359375</v>
+      </c>
+      <c r="AZ33">
+        <v>31</v>
+      </c>
+      <c r="BA33">
+        <v>0.21875</v>
+      </c>
+      <c r="BE33">
+        <v>31</v>
+      </c>
+      <c r="BF33">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ33">
+        <v>31</v>
+      </c>
+      <c r="BK33">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO33">
+        <v>31</v>
+      </c>
+      <c r="BP33">
+        <v>0.109375</v>
+      </c>
+      <c r="BT33">
+        <v>31</v>
+      </c>
+      <c r="BU33">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="34" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>32</v>
       </c>
@@ -2814,8 +4320,44 @@
       <c r="AQ34">
         <v>0.65625</v>
       </c>
+      <c r="AU34">
+        <v>32</v>
+      </c>
+      <c r="AV34">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ34">
+        <v>32</v>
+      </c>
+      <c r="BA34">
+        <v>0.21875</v>
+      </c>
+      <c r="BE34">
+        <v>32</v>
+      </c>
+      <c r="BF34">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ34">
+        <v>32</v>
+      </c>
+      <c r="BK34">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO34">
+        <v>32</v>
+      </c>
+      <c r="BP34">
+        <v>0.109375</v>
+      </c>
+      <c r="BT34">
+        <v>32</v>
+      </c>
+      <c r="BU34">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="35" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>33</v>
       </c>
@@ -2870,8 +4412,44 @@
       <c r="AQ35">
         <v>0.65625</v>
       </c>
+      <c r="AU35">
+        <v>33</v>
+      </c>
+      <c r="AV35">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ35">
+        <v>33</v>
+      </c>
+      <c r="BA35">
+        <v>0.21875</v>
+      </c>
+      <c r="BE35">
+        <v>33</v>
+      </c>
+      <c r="BF35">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ35">
+        <v>33</v>
+      </c>
+      <c r="BK35">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO35">
+        <v>33</v>
+      </c>
+      <c r="BP35">
+        <v>0.109375</v>
+      </c>
+      <c r="BT35">
+        <v>33</v>
+      </c>
+      <c r="BU35">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="36" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>34</v>
       </c>
@@ -2929,8 +4507,44 @@
       <c r="AQ36">
         <v>0.65625</v>
       </c>
+      <c r="AU36">
+        <v>34</v>
+      </c>
+      <c r="AV36">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ36">
+        <v>34</v>
+      </c>
+      <c r="BA36">
+        <v>0.21875</v>
+      </c>
+      <c r="BE36">
+        <v>34</v>
+      </c>
+      <c r="BF36">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ36">
+        <v>34</v>
+      </c>
+      <c r="BK36">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO36">
+        <v>34</v>
+      </c>
+      <c r="BP36">
+        <v>0.109375</v>
+      </c>
+      <c r="BT36">
+        <v>34</v>
+      </c>
+      <c r="BU36">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="37" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>35</v>
       </c>
@@ -2985,8 +4599,44 @@
       <c r="AQ37">
         <v>0.65625</v>
       </c>
+      <c r="AU37">
+        <v>35</v>
+      </c>
+      <c r="AV37">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ37">
+        <v>35</v>
+      </c>
+      <c r="BA37">
+        <v>0.21875</v>
+      </c>
+      <c r="BE37">
+        <v>35</v>
+      </c>
+      <c r="BF37">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ37">
+        <v>35</v>
+      </c>
+      <c r="BK37">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO37">
+        <v>35</v>
+      </c>
+      <c r="BP37">
+        <v>0.109375</v>
+      </c>
+      <c r="BT37">
+        <v>35</v>
+      </c>
+      <c r="BU37">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="38" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>36</v>
       </c>
@@ -3041,8 +4691,44 @@
       <c r="AQ38">
         <v>0.65625</v>
       </c>
+      <c r="AU38">
+        <v>36</v>
+      </c>
+      <c r="AV38">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ38">
+        <v>36</v>
+      </c>
+      <c r="BA38">
+        <v>0.21875</v>
+      </c>
+      <c r="BE38">
+        <v>36</v>
+      </c>
+      <c r="BF38">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ38">
+        <v>36</v>
+      </c>
+      <c r="BK38">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO38">
+        <v>36</v>
+      </c>
+      <c r="BP38">
+        <v>0.109375</v>
+      </c>
+      <c r="BT38">
+        <v>36</v>
+      </c>
+      <c r="BU38">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="39" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>37</v>
       </c>
@@ -3097,8 +4783,44 @@
       <c r="AQ39">
         <v>0.65625</v>
       </c>
+      <c r="AU39">
+        <v>37</v>
+      </c>
+      <c r="AV39">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ39">
+        <v>37</v>
+      </c>
+      <c r="BA39">
+        <v>0.21875</v>
+      </c>
+      <c r="BE39">
+        <v>37</v>
+      </c>
+      <c r="BF39">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ39">
+        <v>37</v>
+      </c>
+      <c r="BK39">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO39">
+        <v>37</v>
+      </c>
+      <c r="BP39">
+        <v>0.109375</v>
+      </c>
+      <c r="BT39">
+        <v>37</v>
+      </c>
+      <c r="BU39">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="40" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>38</v>
       </c>
@@ -3153,8 +4875,44 @@
       <c r="AQ40">
         <v>0.65625</v>
       </c>
+      <c r="AU40">
+        <v>38</v>
+      </c>
+      <c r="AV40">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ40">
+        <v>38</v>
+      </c>
+      <c r="BA40">
+        <v>0.21875</v>
+      </c>
+      <c r="BE40">
+        <v>38</v>
+      </c>
+      <c r="BF40">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ40">
+        <v>38</v>
+      </c>
+      <c r="BK40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO40">
+        <v>38</v>
+      </c>
+      <c r="BP40">
+        <v>0.109375</v>
+      </c>
+      <c r="BT40">
+        <v>38</v>
+      </c>
+      <c r="BU40">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="41" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>39</v>
       </c>
@@ -3209,8 +4967,44 @@
       <c r="AQ41">
         <v>0.65625</v>
       </c>
+      <c r="AU41">
+        <v>39</v>
+      </c>
+      <c r="AV41">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ41">
+        <v>39</v>
+      </c>
+      <c r="BA41">
+        <v>0.234375</v>
+      </c>
+      <c r="BE41">
+        <v>39</v>
+      </c>
+      <c r="BF41">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ41">
+        <v>39</v>
+      </c>
+      <c r="BK41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO41">
+        <v>39</v>
+      </c>
+      <c r="BP41">
+        <v>0.109375</v>
+      </c>
+      <c r="BT41">
+        <v>39</v>
+      </c>
+      <c r="BU41">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="42" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>40</v>
       </c>
@@ -3265,8 +5059,44 @@
       <c r="AQ42">
         <v>0.65625</v>
       </c>
+      <c r="AU42">
+        <v>40</v>
+      </c>
+      <c r="AV42">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ42">
+        <v>40</v>
+      </c>
+      <c r="BA42">
+        <v>0.234375</v>
+      </c>
+      <c r="BE42">
+        <v>40</v>
+      </c>
+      <c r="BF42">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ42">
+        <v>40</v>
+      </c>
+      <c r="BK42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO42">
+        <v>40</v>
+      </c>
+      <c r="BP42">
+        <v>0.109375</v>
+      </c>
+      <c r="BT42">
+        <v>40</v>
+      </c>
+      <c r="BU42">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="43" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>41</v>
       </c>
@@ -3321,8 +5151,44 @@
       <c r="AQ43">
         <v>0.65625</v>
       </c>
+      <c r="AU43">
+        <v>41</v>
+      </c>
+      <c r="AV43">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ43">
+        <v>41</v>
+      </c>
+      <c r="BA43">
+        <v>0.234375</v>
+      </c>
+      <c r="BE43">
+        <v>41</v>
+      </c>
+      <c r="BF43">
+        <v>0.328125</v>
+      </c>
+      <c r="BJ43">
+        <v>41</v>
+      </c>
+      <c r="BK43">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO43">
+        <v>41</v>
+      </c>
+      <c r="BP43">
+        <v>0.125</v>
+      </c>
+      <c r="BT43">
+        <v>41</v>
+      </c>
+      <c r="BU43">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="44" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>42</v>
       </c>
@@ -3377,8 +5243,44 @@
       <c r="AQ44">
         <v>0.65625</v>
       </c>
+      <c r="AU44">
+        <v>42</v>
+      </c>
+      <c r="AV44">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ44">
+        <v>42</v>
+      </c>
+      <c r="BA44">
+        <v>0.234375</v>
+      </c>
+      <c r="BE44">
+        <v>42</v>
+      </c>
+      <c r="BF44">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ44">
+        <v>42</v>
+      </c>
+      <c r="BK44">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO44">
+        <v>42</v>
+      </c>
+      <c r="BP44">
+        <v>0.125</v>
+      </c>
+      <c r="BT44">
+        <v>42</v>
+      </c>
+      <c r="BU44">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="45" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>43</v>
       </c>
@@ -3433,8 +5335,44 @@
       <c r="AQ45">
         <v>0.65625</v>
       </c>
+      <c r="AU45">
+        <v>43</v>
+      </c>
+      <c r="AV45">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ45">
+        <v>43</v>
+      </c>
+      <c r="BA45">
+        <v>0.234375</v>
+      </c>
+      <c r="BE45">
+        <v>43</v>
+      </c>
+      <c r="BF45">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ45">
+        <v>43</v>
+      </c>
+      <c r="BK45">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO45">
+        <v>43</v>
+      </c>
+      <c r="BP45">
+        <v>0.125</v>
+      </c>
+      <c r="BT45">
+        <v>43</v>
+      </c>
+      <c r="BU45">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="46" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>44</v>
       </c>
@@ -3489,8 +5427,44 @@
       <c r="AQ46">
         <v>0.65625</v>
       </c>
+      <c r="AU46">
+        <v>44</v>
+      </c>
+      <c r="AV46">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ46">
+        <v>44</v>
+      </c>
+      <c r="BA46">
+        <v>0.234375</v>
+      </c>
+      <c r="BE46">
+        <v>44</v>
+      </c>
+      <c r="BF46">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ46">
+        <v>44</v>
+      </c>
+      <c r="BK46">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO46">
+        <v>44</v>
+      </c>
+      <c r="BP46">
+        <v>0.125</v>
+      </c>
+      <c r="BT46">
+        <v>44</v>
+      </c>
+      <c r="BU46">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="47" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>45</v>
       </c>
@@ -3545,8 +5519,44 @@
       <c r="AQ47">
         <v>0.65625</v>
       </c>
+      <c r="AU47">
+        <v>45</v>
+      </c>
+      <c r="AV47">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ47">
+        <v>45</v>
+      </c>
+      <c r="BA47">
+        <v>0.21875</v>
+      </c>
+      <c r="BE47">
+        <v>45</v>
+      </c>
+      <c r="BF47">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ47">
+        <v>45</v>
+      </c>
+      <c r="BK47">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO47">
+        <v>45</v>
+      </c>
+      <c r="BP47">
+        <v>0.125</v>
+      </c>
+      <c r="BT47">
+        <v>45</v>
+      </c>
+      <c r="BU47">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="48" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>46</v>
       </c>
@@ -3601,8 +5611,44 @@
       <c r="AQ48">
         <v>0.65625</v>
       </c>
+      <c r="AU48">
+        <v>46</v>
+      </c>
+      <c r="AV48">
+        <v>0.3125</v>
+      </c>
+      <c r="AZ48">
+        <v>46</v>
+      </c>
+      <c r="BA48">
+        <v>0.203125</v>
+      </c>
+      <c r="BE48">
+        <v>46</v>
+      </c>
+      <c r="BF48">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ48">
+        <v>46</v>
+      </c>
+      <c r="BK48">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO48">
+        <v>46</v>
+      </c>
+      <c r="BP48">
+        <v>0.125</v>
+      </c>
+      <c r="BT48">
+        <v>46</v>
+      </c>
+      <c r="BU48">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="49" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>47</v>
       </c>
@@ -3657,8 +5703,44 @@
       <c r="AQ49">
         <v>0.65625</v>
       </c>
+      <c r="AU49">
+        <v>47</v>
+      </c>
+      <c r="AV49">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ49">
+        <v>47</v>
+      </c>
+      <c r="BA49">
+        <v>0.203125</v>
+      </c>
+      <c r="BE49">
+        <v>47</v>
+      </c>
+      <c r="BF49">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ49">
+        <v>47</v>
+      </c>
+      <c r="BK49">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO49">
+        <v>47</v>
+      </c>
+      <c r="BP49">
+        <v>0.125</v>
+      </c>
+      <c r="BT49">
+        <v>47</v>
+      </c>
+      <c r="BU49">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>48</v>
       </c>
@@ -3713,8 +5795,44 @@
       <c r="AQ50">
         <v>0.65625</v>
       </c>
+      <c r="AU50">
+        <v>48</v>
+      </c>
+      <c r="AV50">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ50">
+        <v>48</v>
+      </c>
+      <c r="BA50">
+        <v>0.203125</v>
+      </c>
+      <c r="BE50">
+        <v>48</v>
+      </c>
+      <c r="BF50">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ50">
+        <v>48</v>
+      </c>
+      <c r="BK50">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO50">
+        <v>48</v>
+      </c>
+      <c r="BP50">
+        <v>0.125</v>
+      </c>
+      <c r="BT50">
+        <v>48</v>
+      </c>
+      <c r="BU50">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="51" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>49</v>
       </c>
@@ -3769,8 +5887,44 @@
       <c r="AQ51">
         <v>0.65625</v>
       </c>
+      <c r="AU51">
+        <v>49</v>
+      </c>
+      <c r="AV51">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ51">
+        <v>49</v>
+      </c>
+      <c r="BA51">
+        <v>0.203125</v>
+      </c>
+      <c r="BE51">
+        <v>49</v>
+      </c>
+      <c r="BF51">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ51">
+        <v>49</v>
+      </c>
+      <c r="BK51">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO51">
+        <v>49</v>
+      </c>
+      <c r="BP51">
+        <v>0.125</v>
+      </c>
+      <c r="BT51">
+        <v>49</v>
+      </c>
+      <c r="BU51">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="52" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>50</v>
       </c>
@@ -3825,8 +5979,44 @@
       <c r="AQ52">
         <v>0.65625</v>
       </c>
+      <c r="AU52">
+        <v>50</v>
+      </c>
+      <c r="AV52">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ52">
+        <v>50</v>
+      </c>
+      <c r="BA52">
+        <v>0.203125</v>
+      </c>
+      <c r="BE52">
+        <v>50</v>
+      </c>
+      <c r="BF52">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ52">
+        <v>50</v>
+      </c>
+      <c r="BK52">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO52">
+        <v>50</v>
+      </c>
+      <c r="BP52">
+        <v>0.125</v>
+      </c>
+      <c r="BT52">
+        <v>50</v>
+      </c>
+      <c r="BU52">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="53" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>51</v>
       </c>
@@ -3881,8 +6071,44 @@
       <c r="AQ53">
         <v>0.65625</v>
       </c>
+      <c r="AU53">
+        <v>51</v>
+      </c>
+      <c r="AV53">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ53">
+        <v>51</v>
+      </c>
+      <c r="BA53">
+        <v>0.203125</v>
+      </c>
+      <c r="BE53">
+        <v>51</v>
+      </c>
+      <c r="BF53">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ53">
+        <v>51</v>
+      </c>
+      <c r="BK53">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO53">
+        <v>51</v>
+      </c>
+      <c r="BP53">
+        <v>0.125</v>
+      </c>
+      <c r="BT53">
+        <v>51</v>
+      </c>
+      <c r="BU53">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="54" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>52</v>
       </c>
@@ -3937,8 +6163,44 @@
       <c r="AQ54">
         <v>0.65625</v>
       </c>
+      <c r="AU54">
+        <v>52</v>
+      </c>
+      <c r="AV54">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ54">
+        <v>52</v>
+      </c>
+      <c r="BA54">
+        <v>0.203125</v>
+      </c>
+      <c r="BE54">
+        <v>52</v>
+      </c>
+      <c r="BF54">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ54">
+        <v>52</v>
+      </c>
+      <c r="BK54">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO54">
+        <v>52</v>
+      </c>
+      <c r="BP54">
+        <v>0.125</v>
+      </c>
+      <c r="BT54">
+        <v>52</v>
+      </c>
+      <c r="BU54">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="55" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>53</v>
       </c>
@@ -3993,8 +6255,44 @@
       <c r="AQ55">
         <v>0.65625</v>
       </c>
+      <c r="AU55">
+        <v>53</v>
+      </c>
+      <c r="AV55">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ55">
+        <v>53</v>
+      </c>
+      <c r="BA55">
+        <v>0.203125</v>
+      </c>
+      <c r="BE55">
+        <v>53</v>
+      </c>
+      <c r="BF55">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ55">
+        <v>53</v>
+      </c>
+      <c r="BK55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO55">
+        <v>53</v>
+      </c>
+      <c r="BP55">
+        <v>0.125</v>
+      </c>
+      <c r="BT55">
+        <v>53</v>
+      </c>
+      <c r="BU55">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="56" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>54</v>
       </c>
@@ -4049,8 +6347,44 @@
       <c r="AQ56">
         <v>0.65625</v>
       </c>
+      <c r="AU56">
+        <v>54</v>
+      </c>
+      <c r="AV56">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ56">
+        <v>54</v>
+      </c>
+      <c r="BA56">
+        <v>0.203125</v>
+      </c>
+      <c r="BE56">
+        <v>54</v>
+      </c>
+      <c r="BF56">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ56">
+        <v>54</v>
+      </c>
+      <c r="BK56">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO56">
+        <v>54</v>
+      </c>
+      <c r="BP56">
+        <v>0.125</v>
+      </c>
+      <c r="BT56">
+        <v>54</v>
+      </c>
+      <c r="BU56">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="57" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>55</v>
       </c>
@@ -4105,8 +6439,44 @@
       <c r="AQ57">
         <v>0.65625</v>
       </c>
+      <c r="AU57">
+        <v>55</v>
+      </c>
+      <c r="AV57">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ57">
+        <v>55</v>
+      </c>
+      <c r="BA57">
+        <v>0.203125</v>
+      </c>
+      <c r="BE57">
+        <v>55</v>
+      </c>
+      <c r="BF57">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ57">
+        <v>55</v>
+      </c>
+      <c r="BK57">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BO57">
+        <v>55</v>
+      </c>
+      <c r="BP57">
+        <v>0.125</v>
+      </c>
+      <c r="BT57">
+        <v>55</v>
+      </c>
+      <c r="BU57">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="58" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>56</v>
       </c>
@@ -4161,8 +6531,44 @@
       <c r="AQ58">
         <v>0.65625</v>
       </c>
+      <c r="AU58">
+        <v>56</v>
+      </c>
+      <c r="AV58">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ58">
+        <v>56</v>
+      </c>
+      <c r="BA58">
+        <v>0.1875</v>
+      </c>
+      <c r="BE58">
+        <v>56</v>
+      </c>
+      <c r="BF58">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ58">
+        <v>56</v>
+      </c>
+      <c r="BK58">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO58">
+        <v>56</v>
+      </c>
+      <c r="BP58">
+        <v>0.125</v>
+      </c>
+      <c r="BT58">
+        <v>56</v>
+      </c>
+      <c r="BU58">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="59" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>57</v>
       </c>
@@ -4217,8 +6623,44 @@
       <c r="AQ59">
         <v>0.65625</v>
       </c>
+      <c r="AU59">
+        <v>57</v>
+      </c>
+      <c r="AV59">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ59">
+        <v>57</v>
+      </c>
+      <c r="BA59">
+        <v>0.1875</v>
+      </c>
+      <c r="BE59">
+        <v>57</v>
+      </c>
+      <c r="BF59">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ59">
+        <v>57</v>
+      </c>
+      <c r="BK59">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO59">
+        <v>57</v>
+      </c>
+      <c r="BP59">
+        <v>0.125</v>
+      </c>
+      <c r="BT59">
+        <v>57</v>
+      </c>
+      <c r="BU59">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="60" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>58</v>
       </c>
@@ -4273,8 +6715,44 @@
       <c r="AQ60">
         <v>0.65625</v>
       </c>
+      <c r="AU60">
+        <v>58</v>
+      </c>
+      <c r="AV60">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ60">
+        <v>58</v>
+      </c>
+      <c r="BA60">
+        <v>0.1875</v>
+      </c>
+      <c r="BE60">
+        <v>58</v>
+      </c>
+      <c r="BF60">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ60">
+        <v>58</v>
+      </c>
+      <c r="BK60">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO60">
+        <v>58</v>
+      </c>
+      <c r="BP60">
+        <v>0.125</v>
+      </c>
+      <c r="BT60">
+        <v>58</v>
+      </c>
+      <c r="BU60">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="61" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>59</v>
       </c>
@@ -4329,8 +6807,44 @@
       <c r="AQ61">
         <v>0.65625</v>
       </c>
+      <c r="AU61">
+        <v>59</v>
+      </c>
+      <c r="AV61">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ61">
+        <v>59</v>
+      </c>
+      <c r="BA61">
+        <v>0.1875</v>
+      </c>
+      <c r="BE61">
+        <v>59</v>
+      </c>
+      <c r="BF61">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ61">
+        <v>59</v>
+      </c>
+      <c r="BK61">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO61">
+        <v>59</v>
+      </c>
+      <c r="BP61">
+        <v>0.125</v>
+      </c>
+      <c r="BT61">
+        <v>59</v>
+      </c>
+      <c r="BU61">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="62" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>60</v>
       </c>
@@ -4385,8 +6899,44 @@
       <c r="AQ62">
         <v>0.65625</v>
       </c>
+      <c r="AU62">
+        <v>60</v>
+      </c>
+      <c r="AV62">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ62">
+        <v>60</v>
+      </c>
+      <c r="BA62">
+        <v>0.1875</v>
+      </c>
+      <c r="BE62">
+        <v>60</v>
+      </c>
+      <c r="BF62">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ62">
+        <v>60</v>
+      </c>
+      <c r="BK62">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO62">
+        <v>60</v>
+      </c>
+      <c r="BP62">
+        <v>0.125</v>
+      </c>
+      <c r="BT62">
+        <v>60</v>
+      </c>
+      <c r="BU62">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="63" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>61</v>
       </c>
@@ -4441,8 +6991,44 @@
       <c r="AQ63">
         <v>0.65625</v>
       </c>
+      <c r="AU63">
+        <v>61</v>
+      </c>
+      <c r="AV63">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ63">
+        <v>61</v>
+      </c>
+      <c r="BA63">
+        <v>0.1875</v>
+      </c>
+      <c r="BE63">
+        <v>61</v>
+      </c>
+      <c r="BF63">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ63">
+        <v>61</v>
+      </c>
+      <c r="BK63">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO63">
+        <v>61</v>
+      </c>
+      <c r="BP63">
+        <v>0.125</v>
+      </c>
+      <c r="BT63">
+        <v>61</v>
+      </c>
+      <c r="BU63">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="64" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>62</v>
       </c>
@@ -4497,8 +7083,44 @@
       <c r="AQ64">
         <v>0.65625</v>
       </c>
+      <c r="AU64">
+        <v>62</v>
+      </c>
+      <c r="AV64">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ64">
+        <v>62</v>
+      </c>
+      <c r="BA64">
+        <v>0.1875</v>
+      </c>
+      <c r="BE64">
+        <v>62</v>
+      </c>
+      <c r="BF64">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ64">
+        <v>62</v>
+      </c>
+      <c r="BK64">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO64">
+        <v>62</v>
+      </c>
+      <c r="BP64">
+        <v>0.125</v>
+      </c>
+      <c r="BT64">
+        <v>62</v>
+      </c>
+      <c r="BU64">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="65" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>63</v>
       </c>
@@ -4553,8 +7175,44 @@
       <c r="AQ65">
         <v>0.65625</v>
       </c>
+      <c r="AU65">
+        <v>63</v>
+      </c>
+      <c r="AV65">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ65">
+        <v>63</v>
+      </c>
+      <c r="BA65">
+        <v>0.1875</v>
+      </c>
+      <c r="BE65">
+        <v>63</v>
+      </c>
+      <c r="BF65">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ65">
+        <v>63</v>
+      </c>
+      <c r="BK65">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO65">
+        <v>63</v>
+      </c>
+      <c r="BP65">
+        <v>0.125</v>
+      </c>
+      <c r="BT65">
+        <v>63</v>
+      </c>
+      <c r="BU65">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="66" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>64</v>
       </c>
@@ -4609,8 +7267,44 @@
       <c r="AQ66">
         <v>0.65625</v>
       </c>
+      <c r="AU66">
+        <v>64</v>
+      </c>
+      <c r="AV66">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ66">
+        <v>64</v>
+      </c>
+      <c r="BA66">
+        <v>0.1875</v>
+      </c>
+      <c r="BE66">
+        <v>64</v>
+      </c>
+      <c r="BF66">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ66">
+        <v>64</v>
+      </c>
+      <c r="BK66">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO66">
+        <v>64</v>
+      </c>
+      <c r="BP66">
+        <v>0.125</v>
+      </c>
+      <c r="BT66">
+        <v>64</v>
+      </c>
+      <c r="BU66">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="67" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>65</v>
       </c>
@@ -4665,8 +7359,44 @@
       <c r="AQ67">
         <v>0.65625</v>
       </c>
+      <c r="AU67">
+        <v>65</v>
+      </c>
+      <c r="AV67">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ67">
+        <v>65</v>
+      </c>
+      <c r="BA67">
+        <v>0.1875</v>
+      </c>
+      <c r="BE67">
+        <v>65</v>
+      </c>
+      <c r="BF67">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ67">
+        <v>65</v>
+      </c>
+      <c r="BK67">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO67">
+        <v>65</v>
+      </c>
+      <c r="BP67">
+        <v>0.125</v>
+      </c>
+      <c r="BT67">
+        <v>65</v>
+      </c>
+      <c r="BU67">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="68" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>66</v>
       </c>
@@ -4721,8 +7451,44 @@
       <c r="AQ68">
         <v>0.65625</v>
       </c>
+      <c r="AU68">
+        <v>66</v>
+      </c>
+      <c r="AV68">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ68">
+        <v>66</v>
+      </c>
+      <c r="BA68">
+        <v>0.1875</v>
+      </c>
+      <c r="BE68">
+        <v>66</v>
+      </c>
+      <c r="BF68">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ68">
+        <v>66</v>
+      </c>
+      <c r="BK68">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO68">
+        <v>66</v>
+      </c>
+      <c r="BP68">
+        <v>0.125</v>
+      </c>
+      <c r="BT68">
+        <v>66</v>
+      </c>
+      <c r="BU68">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="69" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>67</v>
       </c>
@@ -4777,8 +7543,44 @@
       <c r="AQ69">
         <v>0.65625</v>
       </c>
+      <c r="AU69">
+        <v>67</v>
+      </c>
+      <c r="AV69">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ69">
+        <v>67</v>
+      </c>
+      <c r="BA69">
+        <v>0.1875</v>
+      </c>
+      <c r="BE69">
+        <v>67</v>
+      </c>
+      <c r="BF69">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ69">
+        <v>67</v>
+      </c>
+      <c r="BK69">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO69">
+        <v>67</v>
+      </c>
+      <c r="BP69">
+        <v>0.125</v>
+      </c>
+      <c r="BT69">
+        <v>67</v>
+      </c>
+      <c r="BU69">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="70" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>68</v>
       </c>
@@ -4833,8 +7635,44 @@
       <c r="AQ70">
         <v>0.65625</v>
       </c>
+      <c r="AU70">
+        <v>68</v>
+      </c>
+      <c r="AV70">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ70">
+        <v>68</v>
+      </c>
+      <c r="BA70">
+        <v>0.1875</v>
+      </c>
+      <c r="BE70">
+        <v>68</v>
+      </c>
+      <c r="BF70">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ70">
+        <v>68</v>
+      </c>
+      <c r="BK70">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO70">
+        <v>68</v>
+      </c>
+      <c r="BP70">
+        <v>0.125</v>
+      </c>
+      <c r="BT70">
+        <v>68</v>
+      </c>
+      <c r="BU70">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="71" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>69</v>
       </c>
@@ -4889,8 +7727,44 @@
       <c r="AQ71">
         <v>0.65625</v>
       </c>
+      <c r="AU71">
+        <v>69</v>
+      </c>
+      <c r="AV71">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ71">
+        <v>69</v>
+      </c>
+      <c r="BA71">
+        <v>0.1875</v>
+      </c>
+      <c r="BE71">
+        <v>69</v>
+      </c>
+      <c r="BF71">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ71">
+        <v>69</v>
+      </c>
+      <c r="BK71">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO71">
+        <v>69</v>
+      </c>
+      <c r="BP71">
+        <v>0.125</v>
+      </c>
+      <c r="BT71">
+        <v>69</v>
+      </c>
+      <c r="BU71">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="72" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>70</v>
       </c>
@@ -4945,8 +7819,44 @@
       <c r="AQ72">
         <v>0.65625</v>
       </c>
+      <c r="AU72">
+        <v>70</v>
+      </c>
+      <c r="AV72">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ72">
+        <v>70</v>
+      </c>
+      <c r="BA72">
+        <v>0.1875</v>
+      </c>
+      <c r="BE72">
+        <v>70</v>
+      </c>
+      <c r="BF72">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ72">
+        <v>70</v>
+      </c>
+      <c r="BK72">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO72">
+        <v>70</v>
+      </c>
+      <c r="BP72">
+        <v>0.125</v>
+      </c>
+      <c r="BT72">
+        <v>70</v>
+      </c>
+      <c r="BU72">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="73" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>71</v>
       </c>
@@ -5001,8 +7911,44 @@
       <c r="AQ73">
         <v>0.65625</v>
       </c>
+      <c r="AU73">
+        <v>71</v>
+      </c>
+      <c r="AV73">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ73">
+        <v>71</v>
+      </c>
+      <c r="BA73">
+        <v>0.1875</v>
+      </c>
+      <c r="BE73">
+        <v>71</v>
+      </c>
+      <c r="BF73">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ73">
+        <v>71</v>
+      </c>
+      <c r="BK73">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO73">
+        <v>71</v>
+      </c>
+      <c r="BP73">
+        <v>0.125</v>
+      </c>
+      <c r="BT73">
+        <v>71</v>
+      </c>
+      <c r="BU73">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="74" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>72</v>
       </c>
@@ -5057,8 +8003,44 @@
       <c r="AQ74">
         <v>0.65625</v>
       </c>
+      <c r="AU74">
+        <v>72</v>
+      </c>
+      <c r="AV74">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ74">
+        <v>72</v>
+      </c>
+      <c r="BA74">
+        <v>0.1875</v>
+      </c>
+      <c r="BE74">
+        <v>72</v>
+      </c>
+      <c r="BF74">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ74">
+        <v>72</v>
+      </c>
+      <c r="BK74">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO74">
+        <v>72</v>
+      </c>
+      <c r="BP74">
+        <v>0.125</v>
+      </c>
+      <c r="BT74">
+        <v>72</v>
+      </c>
+      <c r="BU74">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="75" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>73</v>
       </c>
@@ -5113,8 +8095,44 @@
       <c r="AQ75">
         <v>0.65625</v>
       </c>
+      <c r="AU75">
+        <v>73</v>
+      </c>
+      <c r="AV75">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ75">
+        <v>73</v>
+      </c>
+      <c r="BA75">
+        <v>0.1875</v>
+      </c>
+      <c r="BE75">
+        <v>73</v>
+      </c>
+      <c r="BF75">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ75">
+        <v>73</v>
+      </c>
+      <c r="BK75">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO75">
+        <v>73</v>
+      </c>
+      <c r="BP75">
+        <v>0.125</v>
+      </c>
+      <c r="BT75">
+        <v>73</v>
+      </c>
+      <c r="BU75">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="76" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>74</v>
       </c>
@@ -5169,8 +8187,44 @@
       <c r="AQ76">
         <v>0.65625</v>
       </c>
+      <c r="AU76">
+        <v>74</v>
+      </c>
+      <c r="AV76">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ76">
+        <v>74</v>
+      </c>
+      <c r="BA76">
+        <v>0.1875</v>
+      </c>
+      <c r="BE76">
+        <v>74</v>
+      </c>
+      <c r="BF76">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ76">
+        <v>74</v>
+      </c>
+      <c r="BK76">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO76">
+        <v>74</v>
+      </c>
+      <c r="BP76">
+        <v>0.125</v>
+      </c>
+      <c r="BT76">
+        <v>74</v>
+      </c>
+      <c r="BU76">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="77" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>75</v>
       </c>
@@ -5225,8 +8279,44 @@
       <c r="AQ77">
         <v>0.65625</v>
       </c>
+      <c r="AU77">
+        <v>75</v>
+      </c>
+      <c r="AV77">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ77">
+        <v>75</v>
+      </c>
+      <c r="BA77">
+        <v>0.1875</v>
+      </c>
+      <c r="BE77">
+        <v>75</v>
+      </c>
+      <c r="BF77">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ77">
+        <v>75</v>
+      </c>
+      <c r="BK77">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO77">
+        <v>75</v>
+      </c>
+      <c r="BP77">
+        <v>0.125</v>
+      </c>
+      <c r="BT77">
+        <v>75</v>
+      </c>
+      <c r="BU77">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="78" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>76</v>
       </c>
@@ -5281,8 +8371,44 @@
       <c r="AQ78">
         <v>0.65625</v>
       </c>
+      <c r="AU78">
+        <v>76</v>
+      </c>
+      <c r="AV78">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ78">
+        <v>76</v>
+      </c>
+      <c r="BA78">
+        <v>0.1875</v>
+      </c>
+      <c r="BE78">
+        <v>76</v>
+      </c>
+      <c r="BF78">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ78">
+        <v>76</v>
+      </c>
+      <c r="BK78">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO78">
+        <v>76</v>
+      </c>
+      <c r="BP78">
+        <v>0.125</v>
+      </c>
+      <c r="BT78">
+        <v>76</v>
+      </c>
+      <c r="BU78">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="79" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>77</v>
       </c>
@@ -5337,8 +8463,44 @@
       <c r="AQ79">
         <v>0.65625</v>
       </c>
+      <c r="AU79">
+        <v>77</v>
+      </c>
+      <c r="AV79">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ79">
+        <v>77</v>
+      </c>
+      <c r="BA79">
+        <v>0.1875</v>
+      </c>
+      <c r="BE79">
+        <v>77</v>
+      </c>
+      <c r="BF79">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ79">
+        <v>77</v>
+      </c>
+      <c r="BK79">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO79">
+        <v>77</v>
+      </c>
+      <c r="BP79">
+        <v>0.125</v>
+      </c>
+      <c r="BT79">
+        <v>77</v>
+      </c>
+      <c r="BU79">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="80" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>78</v>
       </c>
@@ -5393,8 +8555,44 @@
       <c r="AQ80">
         <v>0.65625</v>
       </c>
+      <c r="AU80">
+        <v>78</v>
+      </c>
+      <c r="AV80">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ80">
+        <v>78</v>
+      </c>
+      <c r="BA80">
+        <v>0.1875</v>
+      </c>
+      <c r="BE80">
+        <v>78</v>
+      </c>
+      <c r="BF80">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ80">
+        <v>78</v>
+      </c>
+      <c r="BK80">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO80">
+        <v>78</v>
+      </c>
+      <c r="BP80">
+        <v>0.125</v>
+      </c>
+      <c r="BT80">
+        <v>78</v>
+      </c>
+      <c r="BU80">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="81" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>79</v>
       </c>
@@ -5449,8 +8647,44 @@
       <c r="AQ81">
         <v>0.65625</v>
       </c>
+      <c r="AU81">
+        <v>79</v>
+      </c>
+      <c r="AV81">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ81">
+        <v>79</v>
+      </c>
+      <c r="BA81">
+        <v>0.1875</v>
+      </c>
+      <c r="BE81">
+        <v>79</v>
+      </c>
+      <c r="BF81">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ81">
+        <v>79</v>
+      </c>
+      <c r="BK81">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO81">
+        <v>79</v>
+      </c>
+      <c r="BP81">
+        <v>0.125</v>
+      </c>
+      <c r="BT81">
+        <v>79</v>
+      </c>
+      <c r="BU81">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="82" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>80</v>
       </c>
@@ -5505,8 +8739,44 @@
       <c r="AQ82">
         <v>0.65625</v>
       </c>
+      <c r="AU82">
+        <v>80</v>
+      </c>
+      <c r="AV82">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ82">
+        <v>80</v>
+      </c>
+      <c r="BA82">
+        <v>0.1875</v>
+      </c>
+      <c r="BE82">
+        <v>80</v>
+      </c>
+      <c r="BF82">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ82">
+        <v>80</v>
+      </c>
+      <c r="BK82">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO82">
+        <v>80</v>
+      </c>
+      <c r="BP82">
+        <v>0.125</v>
+      </c>
+      <c r="BT82">
+        <v>80</v>
+      </c>
+      <c r="BU82">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="83" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>81</v>
       </c>
@@ -5561,8 +8831,44 @@
       <c r="AQ83">
         <v>0.65625</v>
       </c>
+      <c r="AU83">
+        <v>81</v>
+      </c>
+      <c r="AV83">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ83">
+        <v>81</v>
+      </c>
+      <c r="BA83">
+        <v>0.1875</v>
+      </c>
+      <c r="BE83">
+        <v>81</v>
+      </c>
+      <c r="BF83">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ83">
+        <v>81</v>
+      </c>
+      <c r="BK83">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO83">
+        <v>81</v>
+      </c>
+      <c r="BP83">
+        <v>0.125</v>
+      </c>
+      <c r="BT83">
+        <v>81</v>
+      </c>
+      <c r="BU83">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="84" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>82</v>
       </c>
@@ -5617,8 +8923,44 @@
       <c r="AQ84">
         <v>0.65625</v>
       </c>
+      <c r="AU84">
+        <v>82</v>
+      </c>
+      <c r="AV84">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ84">
+        <v>82</v>
+      </c>
+      <c r="BA84">
+        <v>0.1875</v>
+      </c>
+      <c r="BE84">
+        <v>82</v>
+      </c>
+      <c r="BF84">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ84">
+        <v>82</v>
+      </c>
+      <c r="BK84">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO84">
+        <v>82</v>
+      </c>
+      <c r="BP84">
+        <v>0.125</v>
+      </c>
+      <c r="BT84">
+        <v>82</v>
+      </c>
+      <c r="BU84">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="85" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>83</v>
       </c>
@@ -5673,8 +9015,44 @@
       <c r="AQ85">
         <v>0.65625</v>
       </c>
+      <c r="AU85">
+        <v>83</v>
+      </c>
+      <c r="AV85">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ85">
+        <v>83</v>
+      </c>
+      <c r="BA85">
+        <v>0.1875</v>
+      </c>
+      <c r="BE85">
+        <v>83</v>
+      </c>
+      <c r="BF85">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ85">
+        <v>83</v>
+      </c>
+      <c r="BK85">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO85">
+        <v>83</v>
+      </c>
+      <c r="BP85">
+        <v>0.125</v>
+      </c>
+      <c r="BT85">
+        <v>83</v>
+      </c>
+      <c r="BU85">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="86" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>84</v>
       </c>
@@ -5729,8 +9107,44 @@
       <c r="AQ86">
         <v>0.65625</v>
       </c>
+      <c r="AU86">
+        <v>84</v>
+      </c>
+      <c r="AV86">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ86">
+        <v>84</v>
+      </c>
+      <c r="BA86">
+        <v>0.1875</v>
+      </c>
+      <c r="BE86">
+        <v>84</v>
+      </c>
+      <c r="BF86">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ86">
+        <v>84</v>
+      </c>
+      <c r="BK86">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO86">
+        <v>84</v>
+      </c>
+      <c r="BP86">
+        <v>0.125</v>
+      </c>
+      <c r="BT86">
+        <v>84</v>
+      </c>
+      <c r="BU86">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="87" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>85</v>
       </c>
@@ -5785,8 +9199,44 @@
       <c r="AQ87">
         <v>0.65625</v>
       </c>
+      <c r="AU87">
+        <v>85</v>
+      </c>
+      <c r="AV87">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ87">
+        <v>85</v>
+      </c>
+      <c r="BA87">
+        <v>0.1875</v>
+      </c>
+      <c r="BE87">
+        <v>85</v>
+      </c>
+      <c r="BF87">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ87">
+        <v>85</v>
+      </c>
+      <c r="BK87">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO87">
+        <v>85</v>
+      </c>
+      <c r="BP87">
+        <v>0.125</v>
+      </c>
+      <c r="BT87">
+        <v>85</v>
+      </c>
+      <c r="BU87">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="88" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>86</v>
       </c>
@@ -5841,8 +9291,44 @@
       <c r="AQ88">
         <v>0.65625</v>
       </c>
+      <c r="AU88">
+        <v>86</v>
+      </c>
+      <c r="AV88">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ88">
+        <v>86</v>
+      </c>
+      <c r="BA88">
+        <v>0.1875</v>
+      </c>
+      <c r="BE88">
+        <v>86</v>
+      </c>
+      <c r="BF88">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ88">
+        <v>86</v>
+      </c>
+      <c r="BK88">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO88">
+        <v>86</v>
+      </c>
+      <c r="BP88">
+        <v>0.125</v>
+      </c>
+      <c r="BT88">
+        <v>86</v>
+      </c>
+      <c r="BU88">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="89" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>87</v>
       </c>
@@ -5897,8 +9383,44 @@
       <c r="AQ89">
         <v>0.65625</v>
       </c>
+      <c r="AU89">
+        <v>87</v>
+      </c>
+      <c r="AV89">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ89">
+        <v>87</v>
+      </c>
+      <c r="BA89">
+        <v>0.1875</v>
+      </c>
+      <c r="BE89">
+        <v>87</v>
+      </c>
+      <c r="BF89">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ89">
+        <v>87</v>
+      </c>
+      <c r="BK89">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO89">
+        <v>87</v>
+      </c>
+      <c r="BP89">
+        <v>0.125</v>
+      </c>
+      <c r="BT89">
+        <v>87</v>
+      </c>
+      <c r="BU89">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="90" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>88</v>
       </c>
@@ -5953,8 +9475,44 @@
       <c r="AQ90">
         <v>0.65625</v>
       </c>
+      <c r="AU90">
+        <v>88</v>
+      </c>
+      <c r="AV90">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ90">
+        <v>88</v>
+      </c>
+      <c r="BA90">
+        <v>0.1875</v>
+      </c>
+      <c r="BE90">
+        <v>88</v>
+      </c>
+      <c r="BF90">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ90">
+        <v>88</v>
+      </c>
+      <c r="BK90">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO90">
+        <v>88</v>
+      </c>
+      <c r="BP90">
+        <v>0.125</v>
+      </c>
+      <c r="BT90">
+        <v>88</v>
+      </c>
+      <c r="BU90">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="91" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>89</v>
       </c>
@@ -6009,8 +9567,44 @@
       <c r="AQ91">
         <v>0.65625</v>
       </c>
+      <c r="AU91">
+        <v>89</v>
+      </c>
+      <c r="AV91">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ91">
+        <v>89</v>
+      </c>
+      <c r="BA91">
+        <v>0.1875</v>
+      </c>
+      <c r="BE91">
+        <v>89</v>
+      </c>
+      <c r="BF91">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ91">
+        <v>89</v>
+      </c>
+      <c r="BK91">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO91">
+        <v>89</v>
+      </c>
+      <c r="BP91">
+        <v>0.125</v>
+      </c>
+      <c r="BT91">
+        <v>89</v>
+      </c>
+      <c r="BU91">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="92" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>90</v>
       </c>
@@ -6065,8 +9659,44 @@
       <c r="AQ92">
         <v>0.65625</v>
       </c>
+      <c r="AU92">
+        <v>90</v>
+      </c>
+      <c r="AV92">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ92">
+        <v>90</v>
+      </c>
+      <c r="BA92">
+        <v>0.1875</v>
+      </c>
+      <c r="BE92">
+        <v>90</v>
+      </c>
+      <c r="BF92">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ92">
+        <v>90</v>
+      </c>
+      <c r="BK92">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO92">
+        <v>90</v>
+      </c>
+      <c r="BP92">
+        <v>0.125</v>
+      </c>
+      <c r="BT92">
+        <v>90</v>
+      </c>
+      <c r="BU92">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="93" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>91</v>
       </c>
@@ -6121,8 +9751,44 @@
       <c r="AQ93">
         <v>0.65625</v>
       </c>
+      <c r="AU93">
+        <v>91</v>
+      </c>
+      <c r="AV93">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ93">
+        <v>91</v>
+      </c>
+      <c r="BA93">
+        <v>0.1875</v>
+      </c>
+      <c r="BE93">
+        <v>91</v>
+      </c>
+      <c r="BF93">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ93">
+        <v>91</v>
+      </c>
+      <c r="BK93">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO93">
+        <v>91</v>
+      </c>
+      <c r="BP93">
+        <v>0.125</v>
+      </c>
+      <c r="BT93">
+        <v>91</v>
+      </c>
+      <c r="BU93">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="94" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>92</v>
       </c>
@@ -6177,8 +9843,44 @@
       <c r="AQ94">
         <v>0.65625</v>
       </c>
+      <c r="AU94">
+        <v>92</v>
+      </c>
+      <c r="AV94">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ94">
+        <v>92</v>
+      </c>
+      <c r="BA94">
+        <v>0.1875</v>
+      </c>
+      <c r="BE94">
+        <v>92</v>
+      </c>
+      <c r="BF94">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ94">
+        <v>92</v>
+      </c>
+      <c r="BK94">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO94">
+        <v>92</v>
+      </c>
+      <c r="BP94">
+        <v>0.125</v>
+      </c>
+      <c r="BT94">
+        <v>92</v>
+      </c>
+      <c r="BU94">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="95" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>93</v>
       </c>
@@ -6233,8 +9935,44 @@
       <c r="AQ95">
         <v>0.65625</v>
       </c>
+      <c r="AU95">
+        <v>93</v>
+      </c>
+      <c r="AV95">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ95">
+        <v>93</v>
+      </c>
+      <c r="BA95">
+        <v>0.1875</v>
+      </c>
+      <c r="BE95">
+        <v>93</v>
+      </c>
+      <c r="BF95">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ95">
+        <v>93</v>
+      </c>
+      <c r="BK95">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO95">
+        <v>93</v>
+      </c>
+      <c r="BP95">
+        <v>0.125</v>
+      </c>
+      <c r="BT95">
+        <v>93</v>
+      </c>
+      <c r="BU95">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="96" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>94</v>
       </c>
@@ -6289,8 +10027,44 @@
       <c r="AQ96">
         <v>0.65625</v>
       </c>
+      <c r="AU96">
+        <v>94</v>
+      </c>
+      <c r="AV96">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ96">
+        <v>94</v>
+      </c>
+      <c r="BA96">
+        <v>0.1875</v>
+      </c>
+      <c r="BE96">
+        <v>94</v>
+      </c>
+      <c r="BF96">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ96">
+        <v>94</v>
+      </c>
+      <c r="BK96">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO96">
+        <v>94</v>
+      </c>
+      <c r="BP96">
+        <v>0.125</v>
+      </c>
+      <c r="BT96">
+        <v>94</v>
+      </c>
+      <c r="BU96">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="97" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>95</v>
       </c>
@@ -6345,8 +10119,44 @@
       <c r="AQ97">
         <v>0.65625</v>
       </c>
+      <c r="AU97">
+        <v>95</v>
+      </c>
+      <c r="AV97">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ97">
+        <v>95</v>
+      </c>
+      <c r="BA97">
+        <v>0.1875</v>
+      </c>
+      <c r="BE97">
+        <v>95</v>
+      </c>
+      <c r="BF97">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ97">
+        <v>95</v>
+      </c>
+      <c r="BK97">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO97">
+        <v>95</v>
+      </c>
+      <c r="BP97">
+        <v>0.125</v>
+      </c>
+      <c r="BT97">
+        <v>95</v>
+      </c>
+      <c r="BU97">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="98" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>96</v>
       </c>
@@ -6401,8 +10211,44 @@
       <c r="AQ98">
         <v>0.65625</v>
       </c>
+      <c r="AU98">
+        <v>96</v>
+      </c>
+      <c r="AV98">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ98">
+        <v>96</v>
+      </c>
+      <c r="BA98">
+        <v>0.1875</v>
+      </c>
+      <c r="BE98">
+        <v>96</v>
+      </c>
+      <c r="BF98">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ98">
+        <v>96</v>
+      </c>
+      <c r="BK98">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO98">
+        <v>96</v>
+      </c>
+      <c r="BP98">
+        <v>0.125</v>
+      </c>
+      <c r="BT98">
+        <v>96</v>
+      </c>
+      <c r="BU98">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="99" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>97</v>
       </c>
@@ -6457,8 +10303,44 @@
       <c r="AQ99">
         <v>0.65625</v>
       </c>
+      <c r="AU99">
+        <v>97</v>
+      </c>
+      <c r="AV99">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ99">
+        <v>97</v>
+      </c>
+      <c r="BA99">
+        <v>0.1875</v>
+      </c>
+      <c r="BE99">
+        <v>97</v>
+      </c>
+      <c r="BF99">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ99">
+        <v>97</v>
+      </c>
+      <c r="BK99">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO99">
+        <v>97</v>
+      </c>
+      <c r="BP99">
+        <v>0.125</v>
+      </c>
+      <c r="BT99">
+        <v>97</v>
+      </c>
+      <c r="BU99">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="100" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>98</v>
       </c>
@@ -6513,8 +10395,44 @@
       <c r="AQ100">
         <v>0.65625</v>
       </c>
+      <c r="AU100">
+        <v>98</v>
+      </c>
+      <c r="AV100">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ100">
+        <v>98</v>
+      </c>
+      <c r="BA100">
+        <v>0.1875</v>
+      </c>
+      <c r="BE100">
+        <v>98</v>
+      </c>
+      <c r="BF100">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ100">
+        <v>98</v>
+      </c>
+      <c r="BK100">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO100">
+        <v>98</v>
+      </c>
+      <c r="BP100">
+        <v>0.125</v>
+      </c>
+      <c r="BT100">
+        <v>98</v>
+      </c>
+      <c r="BU100">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="101" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:73" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>99</v>
       </c>
@@ -6569,8 +10487,44 @@
       <c r="AQ101">
         <v>0.65625</v>
       </c>
+      <c r="AU101">
+        <v>99</v>
+      </c>
+      <c r="AV101">
+        <v>0.328125</v>
+      </c>
+      <c r="AZ101">
+        <v>99</v>
+      </c>
+      <c r="BA101">
+        <v>0.1875</v>
+      </c>
+      <c r="BE101">
+        <v>99</v>
+      </c>
+      <c r="BF101">
+        <v>0.34375</v>
+      </c>
+      <c r="BJ101">
+        <v>99</v>
+      </c>
+      <c r="BK101">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BO101">
+        <v>99</v>
+      </c>
+      <c r="BP101">
+        <v>0.125</v>
+      </c>
+      <c r="BT101">
+        <v>99</v>
+      </c>
+      <c r="BU101">
+        <v>9.375E-2</v>
+      </c>
     </row>
-    <row r="102" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:73" x14ac:dyDescent="0.3">
       <c r="AF102">
         <v>99</v>
       </c>

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866BA14D-3FB6-4B73-9B47-BF72393334E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03559C0-2A70-49AC-B68A-4EA227B1E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>F02</t>
   </si>
@@ -131,6 +132,9 @@
   </si>
   <si>
     <t>Acc:86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our results </t>
   </si>
 </sst>
 </file>
@@ -872,6 +876,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274608</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A68DE06-C054-6F49-6064-9B51533C5E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3322608" cy="5700254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1171,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D6FC8-8C75-4EFE-B156-092735D80E97}">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BQ6" sqref="BQ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1509,7 @@
       <c r="BP3">
         <v>0.390625</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="BT3">
@@ -10546,4 +10599,34 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8C5B1-89F1-4729-A364-5ED132BC8C1F}">
+  <dimension ref="G1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03559C0-2A70-49AC-B68A-4EA227B1E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F50DC0-7584-4328-99C2-E11E1BEF361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Transfer Learning_encoderL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>F02</t>
   </si>
@@ -134,7 +134,13 @@
     <t>Acc:86%</t>
   </si>
   <si>
-    <t xml:space="preserve">Our results </t>
+    <t>Acc: 8%</t>
+  </si>
+  <si>
+    <t>Acc: 26%</t>
+  </si>
+  <si>
+    <t>Acc: 18%</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +200,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,22 +889,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>274608</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>30974</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A68DE06-C054-6F49-6064-9B51533C5E66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9A28D2-8149-F17F-A11A-29671BAB344A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,8 +920,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3322608" cy="5700254"/>
+          <a:off x="53340" y="457201"/>
+          <a:ext cx="1351280" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>311658</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FB1F96-FD33-EFA2-95BA-6D85D00979E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="609599"/>
+          <a:ext cx="2010918" cy="1508189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3357662A-F86C-37BD-C333-106B2E1A2F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6332220" y="777241"/>
+          <a:ext cx="1645920" cy="1234440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D6FC8-8C75-4EFE-B156-092735D80E97}">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10603,30 +10699,1451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8C5B1-89F1-4729-A364-5ED132BC8C1F}">
-  <dimension ref="G1:J6"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.984375</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.984375</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.96875</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.96875</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.984375</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0.984375</v>
+      </c>
       <c r="G6" s="3"/>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.96875</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0.9375</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0.953125</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.953125</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0.921875</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.921875</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.90625</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.9375</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0.953125</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0.9375</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0.921875</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0.953125</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0.9375</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0.953125</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0.875</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0.921875</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0.890625</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0.90625</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0.875</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0.90625</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>0.890625</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0.90625</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0.90625</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>0.90625</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0.90625</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0.90625</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>0.90625</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0.890625</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>0.890625</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>0.890625</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>0.890625</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0.890625</v>
+      </c>
+      <c r="I38">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>0.890625</v>
+      </c>
+      <c r="I39">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0.890625</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>0.890625</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0.890625</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>0.890625</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>0.890625</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>0.890625</v>
+      </c>
+      <c r="I45">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0.890625</v>
+      </c>
+      <c r="I46">
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>0.890625</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>0.890625</v>
+      </c>
+      <c r="I48">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>0.890625</v>
+      </c>
+      <c r="I49">
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>0.890625</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+      <c r="J50">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>0.890625</v>
+      </c>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>0.890625</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>0.90625</v>
+      </c>
+      <c r="I53">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>0.90625</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>0.90625</v>
+      </c>
+      <c r="I55">
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>0.90625</v>
+      </c>
+      <c r="I56">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>0.90625</v>
+      </c>
+      <c r="I57">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>0.90625</v>
+      </c>
+      <c r="I58">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>0.90625</v>
+      </c>
+      <c r="I59">
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>0.90625</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>0.90625</v>
+      </c>
+      <c r="I61">
+        <v>59</v>
+      </c>
+      <c r="J61">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>0.90625</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>0.90625</v>
+      </c>
+      <c r="I63">
+        <v>61</v>
+      </c>
+      <c r="J63">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>0.90625</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>0.90625</v>
+      </c>
+      <c r="I65">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>0.90625</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>0.90625</v>
+      </c>
+      <c r="I67">
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>0.90625</v>
+      </c>
+      <c r="I68">
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>0.90625</v>
+      </c>
+      <c r="I69">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>0.90625</v>
+      </c>
+      <c r="I70">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>0.90625</v>
+      </c>
+      <c r="I71">
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>0.90625</v>
+      </c>
+      <c r="I72">
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>0.90625</v>
+      </c>
+      <c r="I73">
+        <v>71</v>
+      </c>
+      <c r="J73">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>0.90625</v>
+      </c>
+      <c r="I74">
+        <v>72</v>
+      </c>
+      <c r="J74">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>0.90625</v>
+      </c>
+      <c r="I75">
+        <v>73</v>
+      </c>
+      <c r="J75">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>0.90625</v>
+      </c>
+      <c r="I76">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>0.90625</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>0.90625</v>
+      </c>
+      <c r="I78">
+        <v>76</v>
+      </c>
+      <c r="J78">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>0.90625</v>
+      </c>
+      <c r="I79">
+        <v>77</v>
+      </c>
+      <c r="J79">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>0.90625</v>
+      </c>
+      <c r="I80">
+        <v>78</v>
+      </c>
+      <c r="J80">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>0.90625</v>
+      </c>
+      <c r="I81">
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>0.90625</v>
+      </c>
+      <c r="I82">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>0.90625</v>
+      </c>
+      <c r="I83">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>0.90625</v>
+      </c>
+      <c r="I84">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>0.90625</v>
+      </c>
+      <c r="I85">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>0.90625</v>
+      </c>
+      <c r="I86">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>0.90625</v>
+      </c>
+      <c r="I87">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>0.90625</v>
+      </c>
+      <c r="I88">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>0.90625</v>
+      </c>
+      <c r="I89">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>0.90625</v>
+      </c>
+      <c r="I90">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>0.90625</v>
+      </c>
+      <c r="I91">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>0.90625</v>
+      </c>
+      <c r="I92">
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>0.90625</v>
+      </c>
+      <c r="I93">
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>0.90625</v>
+      </c>
+      <c r="I94">
+        <v>92</v>
+      </c>
+      <c r="J94">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>0.90625</v>
+      </c>
+      <c r="I95">
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>0.90625</v>
+      </c>
+      <c r="I96">
+        <v>94</v>
+      </c>
+      <c r="J96">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>0.90625</v>
+      </c>
+      <c r="I97">
+        <v>95</v>
+      </c>
+      <c r="J97">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>0.90625</v>
+      </c>
+      <c r="I98">
+        <v>96</v>
+      </c>
+      <c r="J98">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>0.90625</v>
+      </c>
+      <c r="I99">
+        <v>97</v>
+      </c>
+      <c r="J99">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>0.90625</v>
+      </c>
+      <c r="I100">
+        <v>98</v>
+      </c>
+      <c r="J100">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>0.90625</v>
+      </c>
+      <c r="I101">
+        <v>99</v>
+      </c>
+      <c r="J101">
+        <v>0.765625</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F50DC0-7584-4328-99C2-E11E1BEF361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92243E30-22F2-4C3E-A627-A952B470715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>F02</t>
   </si>
@@ -142,6 +142,18 @@
   <si>
     <t>Acc: 18%</t>
   </si>
+  <si>
+    <t xml:space="preserve">Transfer Learning : </t>
+  </si>
+  <si>
+    <t>Freeze both encoder layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer learning </t>
+  </si>
+  <si>
+    <t>Base model is LJSPEECH_NEWHYPER_Lencoderlayer12</t>
+  </si>
 </sst>
 </file>
 
@@ -197,11 +209,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,41 +1332,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D6FC8-8C75-4EFE-B156-092735D80E97}">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="N1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="W1" s="4" t="s">
+      <c r="S1" s="6"/>
+      <c r="W1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="AB1" s="4" t="s">
+      <c r="X1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AC1" s="6"/>
+      <c r="AF1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="4"/>
+      <c r="AG1" s="6"/>
       <c r="AK1" t="s">
         <v>2</v>
       </c>
@@ -2850,7 +2862,10 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="17" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D17">
         <v>15</v>
       </c>
@@ -2942,7 +2957,10 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="18" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
       <c r="D18">
         <v>16</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="19" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>17</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="20" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>18</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="21" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>19</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="22" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>20</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="23" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>21</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="24" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>22</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>23</v>
       </c>
@@ -3678,7 +3696,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>24</v>
       </c>
@@ -3770,7 +3788,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>25</v>
       </c>
@@ -3862,7 +3880,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>26</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>27</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>28</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>29</v>
       </c>
@@ -4230,7 +4248,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:73" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>30</v>
       </c>
@@ -10699,35 +10717,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8C5B1-89F1-4729-A364-5ED132BC8C1F}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="6"/>
       <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10749,8 +10771,14 @@
       <c r="L2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>1</v>
       </c>
@@ -10763,8 +10791,14 @@
       <c r="J3">
         <v>0.953125</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>2</v>
       </c>
@@ -10777,8 +10811,14 @@
       <c r="J4">
         <v>0.953125</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>3</v>
       </c>
@@ -10791,8 +10831,14 @@
       <c r="J5">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>4</v>
       </c>
@@ -10806,8 +10852,14 @@
       <c r="J6">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>5</v>
       </c>
@@ -10820,8 +10872,14 @@
       <c r="J7">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>6</v>
       </c>
@@ -10834,8 +10892,14 @@
       <c r="J8">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>7</v>
       </c>
@@ -10848,8 +10912,14 @@
       <c r="J9">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>8</v>
       </c>
@@ -10862,8 +10932,17 @@
       <c r="J10">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D11">
         <v>9</v>
       </c>
@@ -10876,8 +10955,17 @@
       <c r="J11">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D12">
         <v>10</v>
       </c>
@@ -10890,8 +10978,14 @@
       <c r="J12">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>11</v>
       </c>
@@ -10904,8 +10998,14 @@
       <c r="J13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>12</v>
       </c>
@@ -10918,8 +11018,14 @@
       <c r="J14">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>13</v>
       </c>
@@ -10932,8 +11038,14 @@
       <c r="J15">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>14</v>
       </c>
@@ -10946,8 +11058,14 @@
       <c r="J16">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>15</v>
       </c>
@@ -10960,8 +11078,14 @@
       <c r="J17">
         <v>0.84375</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18">
         <v>16</v>
       </c>
@@ -10974,8 +11098,14 @@
       <c r="J18">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>17</v>
       </c>
@@ -10988,8 +11118,14 @@
       <c r="J19">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>18</v>
       </c>
@@ -11002,8 +11138,14 @@
       <c r="J20">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>19</v>
       </c>
@@ -11016,8 +11158,14 @@
       <c r="J21">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>20</v>
       </c>
@@ -11030,8 +11178,14 @@
       <c r="J22">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>21</v>
       </c>
@@ -11044,8 +11198,14 @@
       <c r="J23">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>22</v>
       </c>
@@ -11058,8 +11218,14 @@
       <c r="J24">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>23</v>
       </c>
@@ -11072,8 +11238,14 @@
       <c r="J25">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>24</v>
       </c>
@@ -11086,8 +11258,14 @@
       <c r="J26">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>25</v>
       </c>
@@ -11100,8 +11278,14 @@
       <c r="J27">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>26</v>
       </c>
@@ -11114,8 +11298,14 @@
       <c r="J28">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>27</v>
       </c>
@@ -11128,8 +11318,14 @@
       <c r="J29">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D30">
         <v>28</v>
       </c>
@@ -11142,8 +11338,14 @@
       <c r="J30">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>29</v>
       </c>
@@ -11156,8 +11358,14 @@
       <c r="J31">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D32">
         <v>30</v>
       </c>
@@ -11170,8 +11378,14 @@
       <c r="J32">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>31</v>
       </c>
@@ -11184,8 +11398,14 @@
       <c r="J33">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34">
         <v>32</v>
       </c>
@@ -11198,8 +11418,14 @@
       <c r="J34">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>33</v>
       </c>
@@ -11212,8 +11438,14 @@
       <c r="J35">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36">
         <v>34</v>
       </c>
@@ -11226,8 +11458,14 @@
       <c r="J36">
         <v>0.734375</v>
       </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>35</v>
       </c>
@@ -11240,8 +11478,14 @@
       <c r="J37">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>36</v>
       </c>
@@ -11254,8 +11498,14 @@
       <c r="J38">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>37</v>
       </c>
@@ -11268,8 +11518,14 @@
       <c r="J39">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40">
         <v>38</v>
       </c>
@@ -11282,8 +11538,14 @@
       <c r="J40">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>39</v>
       </c>
@@ -11296,8 +11558,14 @@
       <c r="J41">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42">
         <v>40</v>
       </c>
@@ -11310,8 +11578,14 @@
       <c r="J42">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>41</v>
       </c>
@@ -11324,8 +11598,14 @@
       <c r="J43">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>42</v>
       </c>
@@ -11338,8 +11618,14 @@
       <c r="J44">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>43</v>
       </c>
@@ -11352,8 +11638,14 @@
       <c r="J45">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>44</v>
       </c>
@@ -11366,8 +11658,14 @@
       <c r="J46">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>45</v>
       </c>
@@ -11380,8 +11678,14 @@
       <c r="J47">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>46</v>
       </c>
@@ -11394,8 +11698,14 @@
       <c r="J48">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>47</v>
       </c>
@@ -11408,8 +11718,14 @@
       <c r="J49">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>48</v>
       </c>
@@ -11422,8 +11738,14 @@
       <c r="J50">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>49</v>
       </c>
@@ -11436,8 +11758,14 @@
       <c r="J51">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>50</v>
       </c>
@@ -11450,8 +11778,14 @@
       <c r="J52">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>51</v>
       </c>
@@ -11464,8 +11798,14 @@
       <c r="J53">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>52</v>
       </c>
@@ -11478,8 +11818,14 @@
       <c r="J54">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>53</v>
       </c>
@@ -11492,8 +11838,14 @@
       <c r="J55">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>54</v>
       </c>
@@ -11506,8 +11858,14 @@
       <c r="J56">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>55</v>
       </c>
@@ -11520,8 +11878,14 @@
       <c r="J57">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>56</v>
       </c>
@@ -11534,8 +11898,14 @@
       <c r="J58">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>57</v>
       </c>
@@ -11548,8 +11918,14 @@
       <c r="J59">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>58</v>
       </c>
@@ -11562,8 +11938,14 @@
       <c r="J60">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>59</v>
       </c>
@@ -11576,8 +11958,14 @@
       <c r="J61">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>60</v>
       </c>
@@ -11590,8 +11978,14 @@
       <c r="J62">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>61</v>
       </c>
@@ -11604,8 +11998,14 @@
       <c r="J63">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>62</v>
       </c>
@@ -11618,8 +12018,14 @@
       <c r="J64">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>63</v>
       </c>
@@ -11632,8 +12038,14 @@
       <c r="J65">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>64</v>
       </c>
@@ -11646,8 +12058,14 @@
       <c r="J66">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>65</v>
       </c>
@@ -11660,8 +12078,14 @@
       <c r="J67">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="68" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>66</v>
       </c>
@@ -11674,8 +12098,14 @@
       <c r="J68">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>67</v>
       </c>
@@ -11688,8 +12118,14 @@
       <c r="J69">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>68</v>
       </c>
@@ -11702,8 +12138,14 @@
       <c r="J70">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="71" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>69</v>
       </c>
@@ -11716,8 +12158,14 @@
       <c r="J71">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="72" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>70</v>
       </c>
@@ -11730,8 +12178,14 @@
       <c r="J72">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>71</v>
       </c>
@@ -11744,8 +12198,14 @@
       <c r="J73">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="74" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>72</v>
       </c>
@@ -11758,8 +12218,14 @@
       <c r="J74">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>73</v>
       </c>
@@ -11772,8 +12238,14 @@
       <c r="J75">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>74</v>
       </c>
@@ -11786,8 +12258,14 @@
       <c r="J76">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="77" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>75</v>
       </c>
@@ -11800,8 +12278,14 @@
       <c r="J77">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="78" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>76</v>
       </c>
@@ -11814,8 +12298,14 @@
       <c r="J78">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D79">
         <v>77</v>
       </c>
@@ -11828,8 +12318,14 @@
       <c r="J79">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D80">
         <v>78</v>
       </c>
@@ -11842,8 +12338,14 @@
       <c r="J80">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>79</v>
       </c>
@@ -11856,8 +12358,14 @@
       <c r="J81">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>80</v>
       </c>
@@ -11870,8 +12378,14 @@
       <c r="J82">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D83">
         <v>81</v>
       </c>
@@ -11884,8 +12398,14 @@
       <c r="J83">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D84">
         <v>82</v>
       </c>
@@ -11898,8 +12418,14 @@
       <c r="J84">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D85">
         <v>83</v>
       </c>
@@ -11912,8 +12438,14 @@
       <c r="J85">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D86">
         <v>84</v>
       </c>
@@ -11926,8 +12458,14 @@
       <c r="J86">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>85</v>
       </c>
@@ -11940,8 +12478,14 @@
       <c r="J87">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>86</v>
       </c>
@@ -11954,8 +12498,14 @@
       <c r="J88">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>87</v>
       </c>
@@ -11968,8 +12518,14 @@
       <c r="J89">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>88</v>
       </c>
@@ -11982,8 +12538,14 @@
       <c r="J90">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>89</v>
       </c>
@@ -11996,8 +12558,14 @@
       <c r="J91">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>90</v>
       </c>
@@ -12010,8 +12578,14 @@
       <c r="J92">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>91</v>
       </c>
@@ -12024,8 +12598,14 @@
       <c r="J93">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>92</v>
       </c>
@@ -12038,8 +12618,14 @@
       <c r="J94">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>93</v>
       </c>
@@ -12052,8 +12638,14 @@
       <c r="J95">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>94</v>
       </c>
@@ -12066,8 +12658,14 @@
       <c r="J96">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D97">
         <v>95</v>
       </c>
@@ -12080,8 +12678,14 @@
       <c r="J97">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D98">
         <v>96</v>
       </c>
@@ -12094,8 +12698,14 @@
       <c r="J98">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D99">
         <v>97</v>
       </c>
@@ -12108,8 +12718,14 @@
       <c r="J99">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D100">
         <v>98</v>
       </c>
@@ -12122,8 +12738,14 @@
       <c r="J100">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D101">
         <v>99</v>
       </c>
@@ -12136,11 +12758,18 @@
       <c r="J101">
         <v>0.765625</v>
       </c>
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.734375</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA1B17-F702-4CA9-8DEA-EEB67D15CA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C8C5B-E010-4B73-A06D-CC636833BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="1560" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="3336" yWindow="3168" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="No transfer learning" sheetId="1" r:id="rId1"/>
     <sheet name="Transfer_Learning Final" sheetId="4" r:id="rId2"/>
-    <sheet name="Transfer Learning_encoderL" sheetId="2" r:id="rId3"/>
-    <sheet name="Transfer Learning_decoder" sheetId="3" r:id="rId4"/>
+    <sheet name="Data Augmentation" sheetId="5" r:id="rId3"/>
+    <sheet name="Transfer Learning_encoderL" sheetId="2" r:id="rId4"/>
+    <sheet name="Transfer Learning_decoder" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
     <t>F02</t>
   </si>
@@ -485,6 +486,53 @@
   </si>
   <si>
     <t>Accuracy: 76%</t>
+  </si>
+  <si>
+    <t>Accuracy:89%</t>
+  </si>
+  <si>
+    <t>Acc:89%</t>
+  </si>
+  <si>
+    <t>Accuracy: 56%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">((model.enc_input.conv3)).trainable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF225588"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6688CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF280D0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f8f7c77a820&gt;</t>
+  </si>
+  <si>
+    <t>Acc: 72%</t>
   </si>
 </sst>
 </file>
@@ -1454,50 +1502,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>403098</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11C643B-18CF-45A0-C573-2D917670EF0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15267940" y="1074419"/>
-          <a:ext cx="2203958" cy="1652969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>302260</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1523,7 +1527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1567,7 +1571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1611,7 +1615,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1655,7 +1659,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1699,7 +1703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1743,7 +1747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1787,7 +1791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1804,10 +1808,235 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>212598</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37483730-C26E-719E-A74F-C291E0E66EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44856400" y="739140"/>
+          <a:ext cx="1685798" cy="1264349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>525018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB66E5DE-F725-F1C6-A625-CADDD04BD74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47975520" y="824865"/>
+          <a:ext cx="1317498" cy="988124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>342138</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215DA0E9-F944-D0B7-45B6-F12850A6C017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50137060" y="670560"/>
+          <a:ext cx="1411478" cy="1058609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2E17F8-F103-9010-DBD6-DBB65D089D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15217140" y="1099185"/>
+          <a:ext cx="2232660" cy="1674496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>423418</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D295FF34-F7DF-7EF3-EA74-8D58D230DB01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="1318260"/>
+          <a:ext cx="1604518" cy="1203389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1944,7 +2173,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11765,15 +11994,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DABDB1-FABF-4C3D-AC23-BB3AAB003A8F}">
-  <dimension ref="A1:BU195"/>
+  <dimension ref="A1:CH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BR1" sqref="BR1"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -11849,8 +12078,26 @@
       <c r="BT1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BW1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -11882,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.984375</v>
+        <v>0.953125</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -11926,8 +12173,26 @@
       <c r="BU2">
         <v>0.640625</v>
       </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0.3125</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0.375</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>41</v>
       </c>
@@ -11965,13 +12230,13 @@
         <v>0.9375</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="AG3" s="8" t="s">
         <v>56</v>
@@ -12037,8 +12302,32 @@
       <c r="BU3">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BW3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0.234375</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>0.328125</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>68</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>2</v>
       </c>
@@ -12067,7 +12356,7 @@
         <v>2</v>
       </c>
       <c r="AE4">
-        <v>0.890625</v>
+        <v>0.859375</v>
       </c>
       <c r="AG4" t="s">
         <v>59</v>
@@ -12125,8 +12414,29 @@
       <c r="BU4">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY4">
+        <v>2</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1875</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>29</v>
+      </c>
+      <c r="CC4">
+        <v>2</v>
+      </c>
+      <c r="CD4">
+        <v>0.328125</v>
+      </c>
+      <c r="CG4">
+        <v>2</v>
+      </c>
+      <c r="CH4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>3</v>
       </c>
@@ -12152,13 +12462,13 @@
         <v>0.9375</v>
       </c>
       <c r="Z5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AD5">
         <v>3</v>
       </c>
       <c r="AE5">
-        <v>0.859375</v>
+        <v>0.796875</v>
       </c>
       <c r="AK5">
         <v>3</v>
@@ -12211,8 +12521,26 @@
       <c r="BU5">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <v>0.1875</v>
+      </c>
+      <c r="CC5">
+        <v>3</v>
+      </c>
+      <c r="CD5">
+        <v>0.296875</v>
+      </c>
+      <c r="CG5">
+        <v>3</v>
+      </c>
+      <c r="CH5">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>4</v>
       </c>
@@ -12241,7 +12569,7 @@
         <v>4</v>
       </c>
       <c r="AE6">
-        <v>0.8125</v>
+        <v>0.734375</v>
       </c>
       <c r="AK6">
         <v>4</v>
@@ -12285,8 +12613,26 @@
       <c r="BU6">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY6">
+        <v>4</v>
+      </c>
+      <c r="BZ6">
+        <v>0.203125</v>
+      </c>
+      <c r="CC6">
+        <v>4</v>
+      </c>
+      <c r="CD6">
+        <v>0.296875</v>
+      </c>
+      <c r="CG6">
+        <v>4</v>
+      </c>
+      <c r="CH6">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>5</v>
       </c>
@@ -12315,7 +12661,7 @@
         <v>5</v>
       </c>
       <c r="AE7">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
       <c r="AK7">
         <v>5</v>
@@ -12359,8 +12705,26 @@
       <c r="BU7">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY7">
+        <v>5</v>
+      </c>
+      <c r="BZ7">
+        <v>0.203125</v>
+      </c>
+      <c r="CC7">
+        <v>5</v>
+      </c>
+      <c r="CD7">
+        <v>0.234375</v>
+      </c>
+      <c r="CG7">
+        <v>5</v>
+      </c>
+      <c r="CH7">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>6</v>
       </c>
@@ -12389,7 +12753,7 @@
         <v>6</v>
       </c>
       <c r="AE8">
-        <v>0.71875</v>
+        <v>0.609375</v>
       </c>
       <c r="AK8">
         <v>6</v>
@@ -12433,8 +12797,26 @@
       <c r="BU8">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY8">
+        <v>6</v>
+      </c>
+      <c r="BZ8">
+        <v>0.203125</v>
+      </c>
+      <c r="CC8">
+        <v>6</v>
+      </c>
+      <c r="CD8">
+        <v>0.28125</v>
+      </c>
+      <c r="CG8">
+        <v>6</v>
+      </c>
+      <c r="CH8">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>7</v>
       </c>
@@ -12463,7 +12845,7 @@
         <v>7</v>
       </c>
       <c r="AE9">
-        <v>0.65625</v>
+        <v>0.609375</v>
       </c>
       <c r="AK9">
         <v>7</v>
@@ -12507,8 +12889,26 @@
       <c r="BU9">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY9">
+        <v>7</v>
+      </c>
+      <c r="BZ9">
+        <v>0.21875</v>
+      </c>
+      <c r="CC9">
+        <v>7</v>
+      </c>
+      <c r="CD9">
+        <v>0.25</v>
+      </c>
+      <c r="CG9">
+        <v>7</v>
+      </c>
+      <c r="CH9">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>8</v>
       </c>
@@ -12581,8 +12981,26 @@
       <c r="BU10">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY10">
+        <v>8</v>
+      </c>
+      <c r="BZ10">
+        <v>0.203125</v>
+      </c>
+      <c r="CC10">
+        <v>8</v>
+      </c>
+      <c r="CD10">
+        <v>0.25</v>
+      </c>
+      <c r="CG10">
+        <v>8</v>
+      </c>
+      <c r="CH10">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>9</v>
       </c>
@@ -12611,7 +13029,7 @@
         <v>9</v>
       </c>
       <c r="AE11">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="AK11">
         <v>9</v>
@@ -12655,8 +13073,29 @@
       <c r="BU11">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY11">
+        <v>9</v>
+      </c>
+      <c r="BZ11">
+        <v>0.140625</v>
+      </c>
+      <c r="CC11">
+        <v>9</v>
+      </c>
+      <c r="CD11">
+        <v>0.25</v>
+      </c>
+      <c r="CE11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="CG11">
+        <v>9</v>
+      </c>
+      <c r="CH11">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>10</v>
       </c>
@@ -12729,8 +13168,35 @@
       <c r="BU12">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BV12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY12">
+        <v>10</v>
+      </c>
+      <c r="BZ12">
+        <v>0.15625</v>
+      </c>
+      <c r="CA12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="CC12">
+        <v>10</v>
+      </c>
+      <c r="CD12">
+        <v>0.25</v>
+      </c>
+      <c r="CE12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CG12">
+        <v>10</v>
+      </c>
+      <c r="CH12">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>11</v>
       </c>
@@ -12759,7 +13225,7 @@
         <v>11</v>
       </c>
       <c r="AE13">
-        <v>0.609375</v>
+        <v>0.5625</v>
       </c>
       <c r="AK13">
         <v>11</v>
@@ -12803,8 +13269,29 @@
       <c r="BU13">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY13">
+        <v>11</v>
+      </c>
+      <c r="BZ13">
+        <v>0.140625</v>
+      </c>
+      <c r="CA13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="CC13">
+        <v>11</v>
+      </c>
+      <c r="CD13">
+        <v>0.265625</v>
+      </c>
+      <c r="CG13">
+        <v>11</v>
+      </c>
+      <c r="CH13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>12</v>
       </c>
@@ -12833,7 +13320,7 @@
         <v>12</v>
       </c>
       <c r="AE14">
-        <v>0.71875</v>
+        <v>0.5625</v>
       </c>
       <c r="AK14">
         <v>12</v>
@@ -12877,8 +13364,26 @@
       <c r="BU14">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY14">
+        <v>12</v>
+      </c>
+      <c r="BZ14">
+        <v>0.140625</v>
+      </c>
+      <c r="CC14">
+        <v>12</v>
+      </c>
+      <c r="CD14">
+        <v>0.359375</v>
+      </c>
+      <c r="CG14">
+        <v>12</v>
+      </c>
+      <c r="CH14">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -12910,7 +13415,7 @@
         <v>13</v>
       </c>
       <c r="AE15">
-        <v>0.640625</v>
+        <v>0.609375</v>
       </c>
       <c r="AK15">
         <v>13</v>
@@ -12954,8 +13459,26 @@
       <c r="BU15">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="BY15">
+        <v>13</v>
+      </c>
+      <c r="BZ15">
+        <v>0.125</v>
+      </c>
+      <c r="CC15">
+        <v>13</v>
+      </c>
+      <c r="CD15">
+        <v>0.328125</v>
+      </c>
+      <c r="CG15">
+        <v>13</v>
+      </c>
+      <c r="CH15">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>14</v>
       </c>
@@ -12984,7 +13507,7 @@
         <v>14</v>
       </c>
       <c r="AE16">
-        <v>0.671875</v>
+        <v>0.546875</v>
       </c>
       <c r="AK16">
         <v>14</v>
@@ -13028,8 +13551,26 @@
       <c r="BU16">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="17" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY16">
+        <v>14</v>
+      </c>
+      <c r="BZ16">
+        <v>0.15625</v>
+      </c>
+      <c r="CC16">
+        <v>14</v>
+      </c>
+      <c r="CD16">
+        <v>0.296875</v>
+      </c>
+      <c r="CG16">
+        <v>14</v>
+      </c>
+      <c r="CH16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>15</v>
       </c>
@@ -13061,7 +13602,7 @@
         <v>15</v>
       </c>
       <c r="AE17">
-        <v>0.71875</v>
+        <v>0.5625</v>
       </c>
       <c r="AK17">
         <v>15</v>
@@ -13105,8 +13646,26 @@
       <c r="BU17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY17">
+        <v>15</v>
+      </c>
+      <c r="BZ17">
+        <v>0.328125</v>
+      </c>
+      <c r="CC17">
+        <v>15</v>
+      </c>
+      <c r="CD17">
+        <v>0.265625</v>
+      </c>
+      <c r="CG17">
+        <v>15</v>
+      </c>
+      <c r="CH17">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="18" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>16</v>
       </c>
@@ -13135,7 +13694,7 @@
         <v>16</v>
       </c>
       <c r="AE18">
-        <v>0.640625</v>
+        <v>0.59375</v>
       </c>
       <c r="AK18">
         <v>16</v>
@@ -13179,8 +13738,26 @@
       <c r="BU18">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="19" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY18">
+        <v>16</v>
+      </c>
+      <c r="BZ18">
+        <v>0.203125</v>
+      </c>
+      <c r="CC18">
+        <v>16</v>
+      </c>
+      <c r="CD18">
+        <v>0.40625</v>
+      </c>
+      <c r="CG18">
+        <v>16</v>
+      </c>
+      <c r="CH18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>17</v>
       </c>
@@ -13209,7 +13786,7 @@
         <v>17</v>
       </c>
       <c r="AE19">
-        <v>0.640625</v>
+        <v>0.515625</v>
       </c>
       <c r="AK19">
         <v>17</v>
@@ -13253,8 +13830,26 @@
       <c r="BU19">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="20" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY19">
+        <v>17</v>
+      </c>
+      <c r="BZ19">
+        <v>0.171875</v>
+      </c>
+      <c r="CC19">
+        <v>17</v>
+      </c>
+      <c r="CD19">
+        <v>0.28125</v>
+      </c>
+      <c r="CG19">
+        <v>17</v>
+      </c>
+      <c r="CH19">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="20" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>18</v>
       </c>
@@ -13283,7 +13878,7 @@
         <v>18</v>
       </c>
       <c r="AE20">
-        <v>0.59375</v>
+        <v>0.515625</v>
       </c>
       <c r="AK20">
         <v>18</v>
@@ -13327,8 +13922,26 @@
       <c r="BU20">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="21" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY20">
+        <v>18</v>
+      </c>
+      <c r="BZ20">
+        <v>0.125</v>
+      </c>
+      <c r="CC20">
+        <v>18</v>
+      </c>
+      <c r="CD20">
+        <v>0.25</v>
+      </c>
+      <c r="CG20">
+        <v>18</v>
+      </c>
+      <c r="CH20">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="21" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>19</v>
       </c>
@@ -13357,7 +13970,7 @@
         <v>19</v>
       </c>
       <c r="AE21">
-        <v>0.578125</v>
+        <v>0.53125</v>
       </c>
       <c r="AK21">
         <v>19</v>
@@ -13401,8 +14014,26 @@
       <c r="BU21">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="22" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY21">
+        <v>19</v>
+      </c>
+      <c r="BZ21">
+        <v>0.140625</v>
+      </c>
+      <c r="CC21">
+        <v>19</v>
+      </c>
+      <c r="CD21">
+        <v>0.28125</v>
+      </c>
+      <c r="CG21">
+        <v>19</v>
+      </c>
+      <c r="CH21">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="22" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>20</v>
       </c>
@@ -13431,7 +14062,7 @@
         <v>20</v>
       </c>
       <c r="AE22">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="AK22">
         <v>20</v>
@@ -13475,8 +14106,26 @@
       <c r="BU22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY22">
+        <v>20</v>
+      </c>
+      <c r="BZ22">
+        <v>0.15625</v>
+      </c>
+      <c r="CC22">
+        <v>20</v>
+      </c>
+      <c r="CD22">
+        <v>0.203125</v>
+      </c>
+      <c r="CG22">
+        <v>20</v>
+      </c>
+      <c r="CH22">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>21</v>
       </c>
@@ -13549,8 +14198,26 @@
       <c r="BU23">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="24" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY23">
+        <v>21</v>
+      </c>
+      <c r="BZ23">
+        <v>0.109375</v>
+      </c>
+      <c r="CC23">
+        <v>21</v>
+      </c>
+      <c r="CD23">
+        <v>0.1875</v>
+      </c>
+      <c r="CG23">
+        <v>21</v>
+      </c>
+      <c r="CH23">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>22</v>
       </c>
@@ -13579,7 +14246,7 @@
         <v>22</v>
       </c>
       <c r="AE24">
-        <v>0.546875</v>
+        <v>0.484375</v>
       </c>
       <c r="AK24">
         <v>22</v>
@@ -13623,8 +14290,26 @@
       <c r="BU24">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="25" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY24">
+        <v>22</v>
+      </c>
+      <c r="BZ24">
+        <v>0.109375</v>
+      </c>
+      <c r="CC24">
+        <v>22</v>
+      </c>
+      <c r="CD24">
+        <v>0.203125</v>
+      </c>
+      <c r="CG24">
+        <v>22</v>
+      </c>
+      <c r="CH24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>23</v>
       </c>
@@ -13653,7 +14338,7 @@
         <v>23</v>
       </c>
       <c r="AE25">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK25">
         <v>23</v>
@@ -13697,8 +14382,26 @@
       <c r="BU25">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="26" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY25">
+        <v>23</v>
+      </c>
+      <c r="BZ25">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC25">
+        <v>23</v>
+      </c>
+      <c r="CD25">
+        <v>0.203125</v>
+      </c>
+      <c r="CG25">
+        <v>23</v>
+      </c>
+      <c r="CH25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>24</v>
       </c>
@@ -13727,7 +14430,7 @@
         <v>24</v>
       </c>
       <c r="AE26">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="AK26">
         <v>24</v>
@@ -13771,8 +14474,26 @@
       <c r="BU26">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="27" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY26">
+        <v>24</v>
+      </c>
+      <c r="BZ26">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC26">
+        <v>24</v>
+      </c>
+      <c r="CD26">
+        <v>0.203125</v>
+      </c>
+      <c r="CG26">
+        <v>24</v>
+      </c>
+      <c r="CH26">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="27" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>25</v>
       </c>
@@ -13801,7 +14522,7 @@
         <v>25</v>
       </c>
       <c r="AE27">
-        <v>0.578125</v>
+        <v>0.484375</v>
       </c>
       <c r="AK27">
         <v>25</v>
@@ -13845,8 +14566,26 @@
       <c r="BU27">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="28" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY27">
+        <v>25</v>
+      </c>
+      <c r="BZ27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC27">
+        <v>25</v>
+      </c>
+      <c r="CD27">
+        <v>0.203125</v>
+      </c>
+      <c r="CG27">
+        <v>25</v>
+      </c>
+      <c r="CH27">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="28" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>26</v>
       </c>
@@ -13875,7 +14614,7 @@
         <v>26</v>
       </c>
       <c r="AE28">
-        <v>0.5625</v>
+        <v>0.484375</v>
       </c>
       <c r="AK28">
         <v>26</v>
@@ -13919,8 +14658,26 @@
       <c r="BU28">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="29" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY28">
+        <v>26</v>
+      </c>
+      <c r="BZ28">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC28">
+        <v>26</v>
+      </c>
+      <c r="CD28">
+        <v>0.203125</v>
+      </c>
+      <c r="CG28">
+        <v>26</v>
+      </c>
+      <c r="CH28">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="29" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>27</v>
       </c>
@@ -13949,7 +14706,7 @@
         <v>27</v>
       </c>
       <c r="AE29">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="AK29">
         <v>27</v>
@@ -13993,8 +14750,26 @@
       <c r="BU29">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="30" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY29">
+        <v>27</v>
+      </c>
+      <c r="BZ29">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC29">
+        <v>27</v>
+      </c>
+      <c r="CD29">
+        <v>0.203125</v>
+      </c>
+      <c r="CG29">
+        <v>27</v>
+      </c>
+      <c r="CH29">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="30" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>28</v>
       </c>
@@ -14023,7 +14798,7 @@
         <v>28</v>
       </c>
       <c r="AE30">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="AK30">
         <v>28</v>
@@ -14067,8 +14842,26 @@
       <c r="BU30">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="31" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY30">
+        <v>28</v>
+      </c>
+      <c r="BZ30">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC30">
+        <v>28</v>
+      </c>
+      <c r="CD30">
+        <v>0.203125</v>
+      </c>
+      <c r="CG30">
+        <v>28</v>
+      </c>
+      <c r="CH30">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="31" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>29</v>
       </c>
@@ -14097,7 +14890,7 @@
         <v>29</v>
       </c>
       <c r="AE31">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK31">
         <v>29</v>
@@ -14141,8 +14934,26 @@
       <c r="BU31">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="32" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY31">
+        <v>29</v>
+      </c>
+      <c r="BZ31">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC31">
+        <v>29</v>
+      </c>
+      <c r="CD31">
+        <v>0.203125</v>
+      </c>
+      <c r="CG31">
+        <v>29</v>
+      </c>
+      <c r="CH31">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="32" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>30</v>
       </c>
@@ -14171,7 +14982,7 @@
         <v>30</v>
       </c>
       <c r="AE32">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK32">
         <v>30</v>
@@ -14215,8 +15026,26 @@
       <c r="BU32">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="33" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY32">
+        <v>30</v>
+      </c>
+      <c r="BZ32">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC32">
+        <v>30</v>
+      </c>
+      <c r="CD32">
+        <v>0.203125</v>
+      </c>
+      <c r="CG32">
+        <v>30</v>
+      </c>
+      <c r="CH32">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="33" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>31</v>
       </c>
@@ -14245,7 +15074,7 @@
         <v>31</v>
       </c>
       <c r="AE33">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK33">
         <v>31</v>
@@ -14289,8 +15118,26 @@
       <c r="BU33">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="34" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY33">
+        <v>31</v>
+      </c>
+      <c r="BZ33">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC33">
+        <v>31</v>
+      </c>
+      <c r="CD33">
+        <v>0.203125</v>
+      </c>
+      <c r="CG33">
+        <v>31</v>
+      </c>
+      <c r="CH33">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="34" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>32</v>
       </c>
@@ -14319,7 +15166,7 @@
         <v>32</v>
       </c>
       <c r="AE34">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="AK34">
         <v>32</v>
@@ -14363,8 +15210,26 @@
       <c r="BU34">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="35" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY34">
+        <v>32</v>
+      </c>
+      <c r="BZ34">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC34">
+        <v>32</v>
+      </c>
+      <c r="CD34">
+        <v>0.203125</v>
+      </c>
+      <c r="CG34">
+        <v>32</v>
+      </c>
+      <c r="CH34">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="35" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>33</v>
       </c>
@@ -14393,7 +15258,7 @@
         <v>33</v>
       </c>
       <c r="AE35">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK35">
         <v>33</v>
@@ -14437,8 +15302,26 @@
       <c r="BU35">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="36" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY35">
+        <v>33</v>
+      </c>
+      <c r="BZ35">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC35">
+        <v>33</v>
+      </c>
+      <c r="CD35">
+        <v>0.203125</v>
+      </c>
+      <c r="CG35">
+        <v>33</v>
+      </c>
+      <c r="CH35">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="36" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>34</v>
       </c>
@@ -14467,7 +15350,7 @@
         <v>34</v>
       </c>
       <c r="AE36">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK36">
         <v>34</v>
@@ -14511,8 +15394,26 @@
       <c r="BU36">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="37" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY36">
+        <v>34</v>
+      </c>
+      <c r="BZ36">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC36">
+        <v>34</v>
+      </c>
+      <c r="CD36">
+        <v>0.203125</v>
+      </c>
+      <c r="CG36">
+        <v>34</v>
+      </c>
+      <c r="CH36">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="37" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>35</v>
       </c>
@@ -14541,7 +15442,7 @@
         <v>35</v>
       </c>
       <c r="AE37">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK37">
         <v>35</v>
@@ -14585,8 +15486,26 @@
       <c r="BU37">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="38" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY37">
+        <v>35</v>
+      </c>
+      <c r="BZ37">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC37">
+        <v>35</v>
+      </c>
+      <c r="CD37">
+        <v>0.203125</v>
+      </c>
+      <c r="CG37">
+        <v>35</v>
+      </c>
+      <c r="CH37">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="38" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>36</v>
       </c>
@@ -14615,7 +15534,7 @@
         <v>36</v>
       </c>
       <c r="AE38">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK38">
         <v>36</v>
@@ -14659,8 +15578,26 @@
       <c r="BU38">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="39" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY38">
+        <v>36</v>
+      </c>
+      <c r="BZ38">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC38">
+        <v>36</v>
+      </c>
+      <c r="CD38">
+        <v>0.203125</v>
+      </c>
+      <c r="CG38">
+        <v>36</v>
+      </c>
+      <c r="CH38">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="39" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>37</v>
       </c>
@@ -14689,7 +15626,7 @@
         <v>37</v>
       </c>
       <c r="AE39">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK39">
         <v>37</v>
@@ -14733,8 +15670,26 @@
       <c r="BU39">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="40" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY39">
+        <v>37</v>
+      </c>
+      <c r="BZ39">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC39">
+        <v>37</v>
+      </c>
+      <c r="CD39">
+        <v>0.203125</v>
+      </c>
+      <c r="CG39">
+        <v>37</v>
+      </c>
+      <c r="CH39">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="40" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>38</v>
       </c>
@@ -14763,7 +15718,7 @@
         <v>38</v>
       </c>
       <c r="AE40">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK40">
         <v>38</v>
@@ -14807,8 +15762,26 @@
       <c r="BU40">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="41" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY40">
+        <v>38</v>
+      </c>
+      <c r="BZ40">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC40">
+        <v>38</v>
+      </c>
+      <c r="CD40">
+        <v>0.203125</v>
+      </c>
+      <c r="CG40">
+        <v>38</v>
+      </c>
+      <c r="CH40">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="41" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>39</v>
       </c>
@@ -14837,7 +15810,7 @@
         <v>39</v>
       </c>
       <c r="AE41">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK41">
         <v>39</v>
@@ -14881,8 +15854,26 @@
       <c r="BU41">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="42" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY41">
+        <v>39</v>
+      </c>
+      <c r="BZ41">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC41">
+        <v>39</v>
+      </c>
+      <c r="CD41">
+        <v>0.203125</v>
+      </c>
+      <c r="CG41">
+        <v>39</v>
+      </c>
+      <c r="CH41">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="42" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>40</v>
       </c>
@@ -14911,7 +15902,7 @@
         <v>40</v>
       </c>
       <c r="AE42">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK42">
         <v>40</v>
@@ -14955,8 +15946,26 @@
       <c r="BU42">
         <v>0.640625</v>
       </c>
-    </row>
-    <row r="43" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY42">
+        <v>40</v>
+      </c>
+      <c r="BZ42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC42">
+        <v>40</v>
+      </c>
+      <c r="CD42">
+        <v>0.203125</v>
+      </c>
+      <c r="CG42">
+        <v>40</v>
+      </c>
+      <c r="CH42">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="43" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>41</v>
       </c>
@@ -14985,7 +15994,7 @@
         <v>41</v>
       </c>
       <c r="AE43">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="AK43">
         <v>41</v>
@@ -15029,8 +16038,26 @@
       <c r="BU43">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="44" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY43">
+        <v>41</v>
+      </c>
+      <c r="BZ43">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC43">
+        <v>41</v>
+      </c>
+      <c r="CD43">
+        <v>0.203125</v>
+      </c>
+      <c r="CG43">
+        <v>41</v>
+      </c>
+      <c r="CH43">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="44" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>42</v>
       </c>
@@ -15059,7 +16086,7 @@
         <v>42</v>
       </c>
       <c r="AE44">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK44">
         <v>42</v>
@@ -15103,8 +16130,26 @@
       <c r="BU44">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="45" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY44">
+        <v>42</v>
+      </c>
+      <c r="BZ44">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC44">
+        <v>42</v>
+      </c>
+      <c r="CD44">
+        <v>0.203125</v>
+      </c>
+      <c r="CG44">
+        <v>42</v>
+      </c>
+      <c r="CH44">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="45" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>43</v>
       </c>
@@ -15133,7 +16178,7 @@
         <v>43</v>
       </c>
       <c r="AE45">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK45">
         <v>43</v>
@@ -15177,8 +16222,26 @@
       <c r="BU45">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="46" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY45">
+        <v>43</v>
+      </c>
+      <c r="BZ45">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC45">
+        <v>43</v>
+      </c>
+      <c r="CD45">
+        <v>0.203125</v>
+      </c>
+      <c r="CG45">
+        <v>43</v>
+      </c>
+      <c r="CH45">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="46" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>44</v>
       </c>
@@ -15207,7 +16270,7 @@
         <v>44</v>
       </c>
       <c r="AE46">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK46">
         <v>44</v>
@@ -15251,8 +16314,26 @@
       <c r="BU46">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="47" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY46">
+        <v>44</v>
+      </c>
+      <c r="BZ46">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC46">
+        <v>44</v>
+      </c>
+      <c r="CD46">
+        <v>0.203125</v>
+      </c>
+      <c r="CG46">
+        <v>44</v>
+      </c>
+      <c r="CH46">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="47" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>45</v>
       </c>
@@ -15281,7 +16362,7 @@
         <v>45</v>
       </c>
       <c r="AE47">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK47">
         <v>45</v>
@@ -15325,8 +16406,26 @@
       <c r="BU47">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="48" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY47">
+        <v>45</v>
+      </c>
+      <c r="BZ47">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC47">
+        <v>45</v>
+      </c>
+      <c r="CD47">
+        <v>0.203125</v>
+      </c>
+      <c r="CG47">
+        <v>45</v>
+      </c>
+      <c r="CH47">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="48" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>46</v>
       </c>
@@ -15355,7 +16454,7 @@
         <v>46</v>
       </c>
       <c r="AE48">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK48">
         <v>46</v>
@@ -15399,8 +16498,26 @@
       <c r="BU48">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="49" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY48">
+        <v>46</v>
+      </c>
+      <c r="BZ48">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC48">
+        <v>46</v>
+      </c>
+      <c r="CD48">
+        <v>0.203125</v>
+      </c>
+      <c r="CG48">
+        <v>46</v>
+      </c>
+      <c r="CH48">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="49" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>47</v>
       </c>
@@ -15429,7 +16546,7 @@
         <v>47</v>
       </c>
       <c r="AE49">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK49">
         <v>47</v>
@@ -15473,8 +16590,26 @@
       <c r="BU49">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="50" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY49">
+        <v>47</v>
+      </c>
+      <c r="BZ49">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC49">
+        <v>47</v>
+      </c>
+      <c r="CD49">
+        <v>0.203125</v>
+      </c>
+      <c r="CG49">
+        <v>47</v>
+      </c>
+      <c r="CH49">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="50" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>48</v>
       </c>
@@ -15503,7 +16638,7 @@
         <v>48</v>
       </c>
       <c r="AE50">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK50">
         <v>48</v>
@@ -15547,8 +16682,26 @@
       <c r="BU50">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="51" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY50">
+        <v>48</v>
+      </c>
+      <c r="BZ50">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC50">
+        <v>48</v>
+      </c>
+      <c r="CD50">
+        <v>0.203125</v>
+      </c>
+      <c r="CG50">
+        <v>48</v>
+      </c>
+      <c r="CH50">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="51" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>49</v>
       </c>
@@ -15577,7 +16730,7 @@
         <v>49</v>
       </c>
       <c r="AE51">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK51">
         <v>49</v>
@@ -15621,8 +16774,26 @@
       <c r="BU51">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="52" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY51">
+        <v>49</v>
+      </c>
+      <c r="BZ51">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC51">
+        <v>49</v>
+      </c>
+      <c r="CD51">
+        <v>0.203125</v>
+      </c>
+      <c r="CG51">
+        <v>49</v>
+      </c>
+      <c r="CH51">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="52" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>50</v>
       </c>
@@ -15651,7 +16822,7 @@
         <v>50</v>
       </c>
       <c r="AE52">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK52">
         <v>50</v>
@@ -15695,8 +16866,26 @@
       <c r="BU52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY52">
+        <v>50</v>
+      </c>
+      <c r="BZ52">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC52">
+        <v>50</v>
+      </c>
+      <c r="CD52">
+        <v>0.203125</v>
+      </c>
+      <c r="CG52">
+        <v>50</v>
+      </c>
+      <c r="CH52">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="53" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>51</v>
       </c>
@@ -15725,7 +16914,7 @@
         <v>51</v>
       </c>
       <c r="AE53">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK53">
         <v>51</v>
@@ -15769,8 +16958,26 @@
       <c r="BU53">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="54" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY53">
+        <v>51</v>
+      </c>
+      <c r="BZ53">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC53">
+        <v>51</v>
+      </c>
+      <c r="CD53">
+        <v>0.203125</v>
+      </c>
+      <c r="CG53">
+        <v>51</v>
+      </c>
+      <c r="CH53">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="54" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>52</v>
       </c>
@@ -15799,7 +17006,7 @@
         <v>52</v>
       </c>
       <c r="AE54">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK54">
         <v>52</v>
@@ -15843,8 +17050,26 @@
       <c r="BU54">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="55" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY54">
+        <v>52</v>
+      </c>
+      <c r="BZ54">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC54">
+        <v>52</v>
+      </c>
+      <c r="CD54">
+        <v>0.203125</v>
+      </c>
+      <c r="CG54">
+        <v>52</v>
+      </c>
+      <c r="CH54">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="55" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>53</v>
       </c>
@@ -15873,7 +17098,7 @@
         <v>53</v>
       </c>
       <c r="AE55">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK55">
         <v>53</v>
@@ -15917,8 +17142,26 @@
       <c r="BU55">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY55">
+        <v>53</v>
+      </c>
+      <c r="BZ55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC55">
+        <v>53</v>
+      </c>
+      <c r="CD55">
+        <v>0.203125</v>
+      </c>
+      <c r="CG55">
+        <v>53</v>
+      </c>
+      <c r="CH55">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="56" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>54</v>
       </c>
@@ -15947,7 +17190,7 @@
         <v>54</v>
       </c>
       <c r="AE56">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK56">
         <v>54</v>
@@ -15991,8 +17234,26 @@
       <c r="BU56">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="57" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY56">
+        <v>54</v>
+      </c>
+      <c r="BZ56">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC56">
+        <v>54</v>
+      </c>
+      <c r="CD56">
+        <v>0.203125</v>
+      </c>
+      <c r="CG56">
+        <v>54</v>
+      </c>
+      <c r="CH56">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="57" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G57">
         <v>55</v>
       </c>
@@ -16021,7 +17282,7 @@
         <v>55</v>
       </c>
       <c r="AE57">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK57">
         <v>55</v>
@@ -16065,8 +17326,26 @@
       <c r="BU57">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="58" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY57">
+        <v>55</v>
+      </c>
+      <c r="BZ57">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC57">
+        <v>55</v>
+      </c>
+      <c r="CD57">
+        <v>0.203125</v>
+      </c>
+      <c r="CG57">
+        <v>55</v>
+      </c>
+      <c r="CH57">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="58" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>56</v>
       </c>
@@ -16095,7 +17374,7 @@
         <v>56</v>
       </c>
       <c r="AE58">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK58">
         <v>56</v>
@@ -16139,8 +17418,26 @@
       <c r="BU58">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="59" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY58">
+        <v>56</v>
+      </c>
+      <c r="BZ58">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC58">
+        <v>56</v>
+      </c>
+      <c r="CD58">
+        <v>0.203125</v>
+      </c>
+      <c r="CG58">
+        <v>56</v>
+      </c>
+      <c r="CH58">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="59" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>57</v>
       </c>
@@ -16169,7 +17466,7 @@
         <v>57</v>
       </c>
       <c r="AE59">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK59">
         <v>57</v>
@@ -16213,8 +17510,26 @@
       <c r="BU59">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="60" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY59">
+        <v>57</v>
+      </c>
+      <c r="BZ59">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC59">
+        <v>57</v>
+      </c>
+      <c r="CD59">
+        <v>0.203125</v>
+      </c>
+      <c r="CG59">
+        <v>57</v>
+      </c>
+      <c r="CH59">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="60" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>58</v>
       </c>
@@ -16243,7 +17558,7 @@
         <v>58</v>
       </c>
       <c r="AE60">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK60">
         <v>58</v>
@@ -16287,8 +17602,26 @@
       <c r="BU60">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="61" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY60">
+        <v>58</v>
+      </c>
+      <c r="BZ60">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC60">
+        <v>58</v>
+      </c>
+      <c r="CD60">
+        <v>0.203125</v>
+      </c>
+      <c r="CG60">
+        <v>58</v>
+      </c>
+      <c r="CH60">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="61" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>59</v>
       </c>
@@ -16317,7 +17650,7 @@
         <v>59</v>
       </c>
       <c r="AE61">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK61">
         <v>59</v>
@@ -16361,8 +17694,26 @@
       <c r="BU61">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="62" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY61">
+        <v>59</v>
+      </c>
+      <c r="BZ61">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC61">
+        <v>59</v>
+      </c>
+      <c r="CD61">
+        <v>0.203125</v>
+      </c>
+      <c r="CG61">
+        <v>59</v>
+      </c>
+      <c r="CH61">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="62" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>60</v>
       </c>
@@ -16391,7 +17742,7 @@
         <v>60</v>
       </c>
       <c r="AE62">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK62">
         <v>60</v>
@@ -16435,8 +17786,26 @@
       <c r="BU62">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="63" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY62">
+        <v>60</v>
+      </c>
+      <c r="BZ62">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC62">
+        <v>60</v>
+      </c>
+      <c r="CD62">
+        <v>0.203125</v>
+      </c>
+      <c r="CG62">
+        <v>60</v>
+      </c>
+      <c r="CH62">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="63" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>61</v>
       </c>
@@ -16465,7 +17834,7 @@
         <v>61</v>
       </c>
       <c r="AE63">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK63">
         <v>61</v>
@@ -16509,8 +17878,26 @@
       <c r="BU63">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="64" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY63">
+        <v>61</v>
+      </c>
+      <c r="BZ63">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC63">
+        <v>61</v>
+      </c>
+      <c r="CD63">
+        <v>0.203125</v>
+      </c>
+      <c r="CG63">
+        <v>61</v>
+      </c>
+      <c r="CH63">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="64" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>62</v>
       </c>
@@ -16539,7 +17926,7 @@
         <v>62</v>
       </c>
       <c r="AE64">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK64">
         <v>62</v>
@@ -16583,8 +17970,26 @@
       <c r="BU64">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="65" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY64">
+        <v>62</v>
+      </c>
+      <c r="BZ64">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC64">
+        <v>62</v>
+      </c>
+      <c r="CD64">
+        <v>0.203125</v>
+      </c>
+      <c r="CG64">
+        <v>62</v>
+      </c>
+      <c r="CH64">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="65" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>63</v>
       </c>
@@ -16613,7 +18018,7 @@
         <v>63</v>
       </c>
       <c r="AE65">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK65">
         <v>63</v>
@@ -16657,8 +18062,26 @@
       <c r="BU65">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="66" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY65">
+        <v>63</v>
+      </c>
+      <c r="BZ65">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC65">
+        <v>63</v>
+      </c>
+      <c r="CD65">
+        <v>0.203125</v>
+      </c>
+      <c r="CG65">
+        <v>63</v>
+      </c>
+      <c r="CH65">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="66" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>64</v>
       </c>
@@ -16687,7 +18110,7 @@
         <v>64</v>
       </c>
       <c r="AE66">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK66">
         <v>64</v>
@@ -16731,8 +18154,26 @@
       <c r="BU66">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="67" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY66">
+        <v>64</v>
+      </c>
+      <c r="BZ66">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC66">
+        <v>64</v>
+      </c>
+      <c r="CD66">
+        <v>0.203125</v>
+      </c>
+      <c r="CG66">
+        <v>64</v>
+      </c>
+      <c r="CH66">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="67" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>65</v>
       </c>
@@ -16761,7 +18202,7 @@
         <v>65</v>
       </c>
       <c r="AE67">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK67">
         <v>65</v>
@@ -16805,8 +18246,26 @@
       <c r="BU67">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="68" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY67">
+        <v>65</v>
+      </c>
+      <c r="BZ67">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC67">
+        <v>65</v>
+      </c>
+      <c r="CD67">
+        <v>0.203125</v>
+      </c>
+      <c r="CG67">
+        <v>65</v>
+      </c>
+      <c r="CH67">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="68" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>66</v>
       </c>
@@ -16835,7 +18294,7 @@
         <v>66</v>
       </c>
       <c r="AE68">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK68">
         <v>66</v>
@@ -16879,8 +18338,26 @@
       <c r="BU68">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="69" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY68">
+        <v>66</v>
+      </c>
+      <c r="BZ68">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC68">
+        <v>66</v>
+      </c>
+      <c r="CD68">
+        <v>0.203125</v>
+      </c>
+      <c r="CG68">
+        <v>66</v>
+      </c>
+      <c r="CH68">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="69" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>67</v>
       </c>
@@ -16909,7 +18386,7 @@
         <v>67</v>
       </c>
       <c r="AE69">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK69">
         <v>67</v>
@@ -16953,8 +18430,26 @@
       <c r="BU69">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="70" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY69">
+        <v>67</v>
+      </c>
+      <c r="BZ69">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC69">
+        <v>67</v>
+      </c>
+      <c r="CD69">
+        <v>0.203125</v>
+      </c>
+      <c r="CG69">
+        <v>67</v>
+      </c>
+      <c r="CH69">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="70" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>68</v>
       </c>
@@ -16983,7 +18478,7 @@
         <v>68</v>
       </c>
       <c r="AE70">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK70">
         <v>68</v>
@@ -17027,8 +18522,26 @@
       <c r="BU70">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="71" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY70">
+        <v>68</v>
+      </c>
+      <c r="BZ70">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC70">
+        <v>68</v>
+      </c>
+      <c r="CD70">
+        <v>0.203125</v>
+      </c>
+      <c r="CG70">
+        <v>68</v>
+      </c>
+      <c r="CH70">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="71" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>69</v>
       </c>
@@ -17057,7 +18570,7 @@
         <v>69</v>
       </c>
       <c r="AE71">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK71">
         <v>69</v>
@@ -17101,8 +18614,26 @@
       <c r="BU71">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="72" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY71">
+        <v>69</v>
+      </c>
+      <c r="BZ71">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC71">
+        <v>69</v>
+      </c>
+      <c r="CD71">
+        <v>0.203125</v>
+      </c>
+      <c r="CG71">
+        <v>69</v>
+      </c>
+      <c r="CH71">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="72" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>70</v>
       </c>
@@ -17131,7 +18662,7 @@
         <v>70</v>
       </c>
       <c r="AE72">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK72">
         <v>70</v>
@@ -17175,8 +18706,26 @@
       <c r="BU72">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="73" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY72">
+        <v>70</v>
+      </c>
+      <c r="BZ72">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC72">
+        <v>70</v>
+      </c>
+      <c r="CD72">
+        <v>0.203125</v>
+      </c>
+      <c r="CG72">
+        <v>70</v>
+      </c>
+      <c r="CH72">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="73" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>71</v>
       </c>
@@ -17205,7 +18754,7 @@
         <v>71</v>
       </c>
       <c r="AE73">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK73">
         <v>71</v>
@@ -17249,8 +18798,26 @@
       <c r="BU73">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="74" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY73">
+        <v>71</v>
+      </c>
+      <c r="BZ73">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC73">
+        <v>71</v>
+      </c>
+      <c r="CD73">
+        <v>0.203125</v>
+      </c>
+      <c r="CG73">
+        <v>71</v>
+      </c>
+      <c r="CH73">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="74" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>72</v>
       </c>
@@ -17279,7 +18846,7 @@
         <v>72</v>
       </c>
       <c r="AE74">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK74">
         <v>72</v>
@@ -17323,8 +18890,26 @@
       <c r="BU74">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="75" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY74">
+        <v>72</v>
+      </c>
+      <c r="BZ74">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC74">
+        <v>72</v>
+      </c>
+      <c r="CD74">
+        <v>0.203125</v>
+      </c>
+      <c r="CG74">
+        <v>72</v>
+      </c>
+      <c r="CH74">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="75" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>73</v>
       </c>
@@ -17353,7 +18938,7 @@
         <v>73</v>
       </c>
       <c r="AE75">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK75">
         <v>73</v>
@@ -17397,8 +18982,26 @@
       <c r="BU75">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="76" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY75">
+        <v>73</v>
+      </c>
+      <c r="BZ75">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC75">
+        <v>73</v>
+      </c>
+      <c r="CD75">
+        <v>0.203125</v>
+      </c>
+      <c r="CG75">
+        <v>73</v>
+      </c>
+      <c r="CH75">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="76" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>74</v>
       </c>
@@ -17427,7 +19030,7 @@
         <v>74</v>
       </c>
       <c r="AE76">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK76">
         <v>74</v>
@@ -17471,8 +19074,26 @@
       <c r="BU76">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="77" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY76">
+        <v>74</v>
+      </c>
+      <c r="BZ76">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC76">
+        <v>74</v>
+      </c>
+      <c r="CD76">
+        <v>0.203125</v>
+      </c>
+      <c r="CG76">
+        <v>74</v>
+      </c>
+      <c r="CH76">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="77" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G77">
         <v>75</v>
       </c>
@@ -17501,7 +19122,7 @@
         <v>75</v>
       </c>
       <c r="AE77">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK77">
         <v>75</v>
@@ -17545,8 +19166,26 @@
       <c r="BU77">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="78" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY77">
+        <v>75</v>
+      </c>
+      <c r="BZ77">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC77">
+        <v>75</v>
+      </c>
+      <c r="CD77">
+        <v>0.203125</v>
+      </c>
+      <c r="CG77">
+        <v>75</v>
+      </c>
+      <c r="CH77">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="78" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G78">
         <v>76</v>
       </c>
@@ -17575,7 +19214,7 @@
         <v>76</v>
       </c>
       <c r="AE78">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="AK78">
         <v>76</v>
@@ -17619,8 +19258,26 @@
       <c r="BU78">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="79" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY78">
+        <v>76</v>
+      </c>
+      <c r="BZ78">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC78">
+        <v>76</v>
+      </c>
+      <c r="CD78">
+        <v>0.203125</v>
+      </c>
+      <c r="CG78">
+        <v>76</v>
+      </c>
+      <c r="CH78">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="79" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G79">
         <v>77</v>
       </c>
@@ -17649,7 +19306,7 @@
         <v>77</v>
       </c>
       <c r="AE79">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK79">
         <v>77</v>
@@ -17693,8 +19350,26 @@
       <c r="BU79">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="80" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY79">
+        <v>77</v>
+      </c>
+      <c r="BZ79">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC79">
+        <v>77</v>
+      </c>
+      <c r="CD79">
+        <v>0.203125</v>
+      </c>
+      <c r="CG79">
+        <v>77</v>
+      </c>
+      <c r="CH79">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="80" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G80">
         <v>78</v>
       </c>
@@ -17723,7 +19398,7 @@
         <v>78</v>
       </c>
       <c r="AE80">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK80">
         <v>78</v>
@@ -17767,8 +19442,26 @@
       <c r="BU80">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="81" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY80">
+        <v>78</v>
+      </c>
+      <c r="BZ80">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC80">
+        <v>78</v>
+      </c>
+      <c r="CD80">
+        <v>0.203125</v>
+      </c>
+      <c r="CG80">
+        <v>78</v>
+      </c>
+      <c r="CH80">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="81" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>79</v>
       </c>
@@ -17797,7 +19490,7 @@
         <v>79</v>
       </c>
       <c r="AE81">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="AK81">
         <v>79</v>
@@ -17841,8 +19534,26 @@
       <c r="BU81">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="82" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY81">
+        <v>79</v>
+      </c>
+      <c r="BZ81">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC81">
+        <v>79</v>
+      </c>
+      <c r="CD81">
+        <v>0.203125</v>
+      </c>
+      <c r="CG81">
+        <v>79</v>
+      </c>
+      <c r="CH81">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="82" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>80</v>
       </c>
@@ -17871,7 +19582,7 @@
         <v>80</v>
       </c>
       <c r="AE82">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="AK82">
         <v>80</v>
@@ -17915,8 +19626,26 @@
       <c r="BU82">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="83" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY82">
+        <v>80</v>
+      </c>
+      <c r="BZ82">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC82">
+        <v>80</v>
+      </c>
+      <c r="CD82">
+        <v>0.203125</v>
+      </c>
+      <c r="CG82">
+        <v>80</v>
+      </c>
+      <c r="CH82">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="83" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G83">
         <v>81</v>
       </c>
@@ -17945,7 +19674,7 @@
         <v>81</v>
       </c>
       <c r="AE83">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="AK83">
         <v>81</v>
@@ -17989,8 +19718,26 @@
       <c r="BU83">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="84" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY83">
+        <v>81</v>
+      </c>
+      <c r="BZ83">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC83">
+        <v>81</v>
+      </c>
+      <c r="CD83">
+        <v>0.203125</v>
+      </c>
+      <c r="CG83">
+        <v>81</v>
+      </c>
+      <c r="CH83">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="84" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G84">
         <v>82</v>
       </c>
@@ -18019,7 +19766,7 @@
         <v>82</v>
       </c>
       <c r="AE84">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK84">
         <v>82</v>
@@ -18063,8 +19810,26 @@
       <c r="BU84">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="85" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY84">
+        <v>82</v>
+      </c>
+      <c r="BZ84">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC84">
+        <v>82</v>
+      </c>
+      <c r="CD84">
+        <v>0.203125</v>
+      </c>
+      <c r="CG84">
+        <v>82</v>
+      </c>
+      <c r="CH84">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="85" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G85">
         <v>83</v>
       </c>
@@ -18093,7 +19858,7 @@
         <v>83</v>
       </c>
       <c r="AE85">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK85">
         <v>83</v>
@@ -18137,8 +19902,26 @@
       <c r="BU85">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="86" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY85">
+        <v>83</v>
+      </c>
+      <c r="BZ85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC85">
+        <v>83</v>
+      </c>
+      <c r="CD85">
+        <v>0.203125</v>
+      </c>
+      <c r="CG85">
+        <v>83</v>
+      </c>
+      <c r="CH85">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="86" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G86">
         <v>84</v>
       </c>
@@ -18167,7 +19950,7 @@
         <v>84</v>
       </c>
       <c r="AE86">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK86">
         <v>84</v>
@@ -18211,8 +19994,26 @@
       <c r="BU86">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="87" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY86">
+        <v>84</v>
+      </c>
+      <c r="BZ86">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC86">
+        <v>84</v>
+      </c>
+      <c r="CD86">
+        <v>0.203125</v>
+      </c>
+      <c r="CG86">
+        <v>84</v>
+      </c>
+      <c r="CH86">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="87" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G87">
         <v>85</v>
       </c>
@@ -18241,7 +20042,7 @@
         <v>85</v>
       </c>
       <c r="AE87">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK87">
         <v>85</v>
@@ -18285,8 +20086,26 @@
       <c r="BU87">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="88" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY87">
+        <v>85</v>
+      </c>
+      <c r="BZ87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC87">
+        <v>85</v>
+      </c>
+      <c r="CD87">
+        <v>0.203125</v>
+      </c>
+      <c r="CG87">
+        <v>85</v>
+      </c>
+      <c r="CH87">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="88" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G88">
         <v>86</v>
       </c>
@@ -18315,7 +20134,7 @@
         <v>86</v>
       </c>
       <c r="AE88">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK88">
         <v>86</v>
@@ -18359,8 +20178,26 @@
       <c r="BU88">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="89" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY88">
+        <v>86</v>
+      </c>
+      <c r="BZ88">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC88">
+        <v>86</v>
+      </c>
+      <c r="CD88">
+        <v>0.203125</v>
+      </c>
+      <c r="CG88">
+        <v>86</v>
+      </c>
+      <c r="CH88">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="89" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G89">
         <v>87</v>
       </c>
@@ -18389,7 +20226,7 @@
         <v>87</v>
       </c>
       <c r="AE89">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK89">
         <v>87</v>
@@ -18433,8 +20270,26 @@
       <c r="BU89">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="90" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY89">
+        <v>87</v>
+      </c>
+      <c r="BZ89">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC89">
+        <v>87</v>
+      </c>
+      <c r="CD89">
+        <v>0.203125</v>
+      </c>
+      <c r="CG89">
+        <v>87</v>
+      </c>
+      <c r="CH89">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="90" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G90">
         <v>88</v>
       </c>
@@ -18463,7 +20318,7 @@
         <v>88</v>
       </c>
       <c r="AE90">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK90">
         <v>88</v>
@@ -18507,8 +20362,26 @@
       <c r="BU90">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="91" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY90">
+        <v>88</v>
+      </c>
+      <c r="BZ90">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC90">
+        <v>88</v>
+      </c>
+      <c r="CD90">
+        <v>0.203125</v>
+      </c>
+      <c r="CG90">
+        <v>88</v>
+      </c>
+      <c r="CH90">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="91" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G91">
         <v>89</v>
       </c>
@@ -18537,7 +20410,7 @@
         <v>89</v>
       </c>
       <c r="AE91">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK91">
         <v>89</v>
@@ -18581,8 +20454,26 @@
       <c r="BU91">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="92" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY91">
+        <v>89</v>
+      </c>
+      <c r="BZ91">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC91">
+        <v>89</v>
+      </c>
+      <c r="CD91">
+        <v>0.203125</v>
+      </c>
+      <c r="CG91">
+        <v>89</v>
+      </c>
+      <c r="CH91">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="92" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G92">
         <v>90</v>
       </c>
@@ -18611,7 +20502,7 @@
         <v>90</v>
       </c>
       <c r="AE92">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK92">
         <v>90</v>
@@ -18655,8 +20546,26 @@
       <c r="BU92">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="93" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY92">
+        <v>90</v>
+      </c>
+      <c r="BZ92">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC92">
+        <v>90</v>
+      </c>
+      <c r="CD92">
+        <v>0.203125</v>
+      </c>
+      <c r="CG92">
+        <v>90</v>
+      </c>
+      <c r="CH92">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="93" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G93">
         <v>91</v>
       </c>
@@ -18685,7 +20594,7 @@
         <v>91</v>
       </c>
       <c r="AE93">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK93">
         <v>91</v>
@@ -18729,8 +20638,26 @@
       <c r="BU93">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="94" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY93">
+        <v>91</v>
+      </c>
+      <c r="BZ93">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC93">
+        <v>91</v>
+      </c>
+      <c r="CD93">
+        <v>0.203125</v>
+      </c>
+      <c r="CG93">
+        <v>91</v>
+      </c>
+      <c r="CH93">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="94" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G94">
         <v>92</v>
       </c>
@@ -18759,7 +20686,7 @@
         <v>92</v>
       </c>
       <c r="AE94">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK94">
         <v>92</v>
@@ -18803,8 +20730,26 @@
       <c r="BU94">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="95" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY94">
+        <v>92</v>
+      </c>
+      <c r="BZ94">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC94">
+        <v>92</v>
+      </c>
+      <c r="CD94">
+        <v>0.203125</v>
+      </c>
+      <c r="CG94">
+        <v>92</v>
+      </c>
+      <c r="CH94">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="95" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G95">
         <v>93</v>
       </c>
@@ -18833,7 +20778,7 @@
         <v>93</v>
       </c>
       <c r="AE95">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK95">
         <v>93</v>
@@ -18877,8 +20822,26 @@
       <c r="BU95">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="96" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY95">
+        <v>93</v>
+      </c>
+      <c r="BZ95">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC95">
+        <v>93</v>
+      </c>
+      <c r="CD95">
+        <v>0.203125</v>
+      </c>
+      <c r="CG95">
+        <v>93</v>
+      </c>
+      <c r="CH95">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="96" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G96">
         <v>94</v>
       </c>
@@ -18907,7 +20870,7 @@
         <v>94</v>
       </c>
       <c r="AE96">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK96">
         <v>94</v>
@@ -18951,8 +20914,26 @@
       <c r="BU96">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="97" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY96">
+        <v>94</v>
+      </c>
+      <c r="BZ96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC96">
+        <v>94</v>
+      </c>
+      <c r="CD96">
+        <v>0.203125</v>
+      </c>
+      <c r="CG96">
+        <v>94</v>
+      </c>
+      <c r="CH96">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="97" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G97">
         <v>95</v>
       </c>
@@ -18981,7 +20962,7 @@
         <v>95</v>
       </c>
       <c r="AE97">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK97">
         <v>95</v>
@@ -19025,8 +21006,26 @@
       <c r="BU97">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="98" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY97">
+        <v>95</v>
+      </c>
+      <c r="BZ97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC97">
+        <v>95</v>
+      </c>
+      <c r="CD97">
+        <v>0.203125</v>
+      </c>
+      <c r="CG97">
+        <v>95</v>
+      </c>
+      <c r="CH97">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="98" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G98">
         <v>96</v>
       </c>
@@ -19055,7 +21054,7 @@
         <v>96</v>
       </c>
       <c r="AE98">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK98">
         <v>96</v>
@@ -19099,8 +21098,26 @@
       <c r="BU98">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="99" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY98">
+        <v>96</v>
+      </c>
+      <c r="BZ98">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC98">
+        <v>96</v>
+      </c>
+      <c r="CD98">
+        <v>0.203125</v>
+      </c>
+      <c r="CG98">
+        <v>96</v>
+      </c>
+      <c r="CH98">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="99" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G99">
         <v>97</v>
       </c>
@@ -19129,7 +21146,7 @@
         <v>97</v>
       </c>
       <c r="AE99">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK99">
         <v>97</v>
@@ -19173,8 +21190,26 @@
       <c r="BU99">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="100" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY99">
+        <v>97</v>
+      </c>
+      <c r="BZ99">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC99">
+        <v>97</v>
+      </c>
+      <c r="CD99">
+        <v>0.203125</v>
+      </c>
+      <c r="CG99">
+        <v>97</v>
+      </c>
+      <c r="CH99">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="100" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G100">
         <v>98</v>
       </c>
@@ -19203,7 +21238,7 @@
         <v>98</v>
       </c>
       <c r="AE100">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK100">
         <v>98</v>
@@ -19247,8 +21282,26 @@
       <c r="BU100">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="101" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY100">
+        <v>98</v>
+      </c>
+      <c r="BZ100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC100">
+        <v>98</v>
+      </c>
+      <c r="CD100">
+        <v>0.203125</v>
+      </c>
+      <c r="CG100">
+        <v>98</v>
+      </c>
+      <c r="CH100">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="101" spans="7:86" x14ac:dyDescent="0.3">
       <c r="G101">
         <v>99</v>
       </c>
@@ -19277,7 +21330,7 @@
         <v>99</v>
       </c>
       <c r="AE101">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="AK101">
         <v>99</v>
@@ -19321,8 +21374,32 @@
       <c r="BU101">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="102" spans="7:73" x14ac:dyDescent="0.3">
+      <c r="BY101">
+        <v>99</v>
+      </c>
+      <c r="BZ101">
+        <v>9.375E-2</v>
+      </c>
+      <c r="CC101">
+        <v>99</v>
+      </c>
+      <c r="CD101">
+        <v>0.203125</v>
+      </c>
+      <c r="CG101">
+        <v>99</v>
+      </c>
+      <c r="CH101">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="102" spans="7:86" x14ac:dyDescent="0.3">
+      <c r="AD102" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE102">
+        <v>0.453125</v>
+      </c>
       <c r="AR102">
         <v>6</v>
       </c>
@@ -19336,7 +21413,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="103" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR103">
         <v>7</v>
       </c>
@@ -19350,7 +21427,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="104" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR104">
         <v>8</v>
       </c>
@@ -19364,7 +21441,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="105" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR105">
         <v>9</v>
       </c>
@@ -19378,7 +21455,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="106" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR106">
         <v>10</v>
       </c>
@@ -19392,7 +21469,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="107" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR107">
         <v>11</v>
       </c>
@@ -19406,7 +21483,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="108" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR108">
         <v>12</v>
       </c>
@@ -19420,7 +21497,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="109" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR109">
         <v>13</v>
       </c>
@@ -19434,7 +21511,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="110" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR110">
         <v>14</v>
       </c>
@@ -19448,7 +21525,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="111" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR111">
         <v>15</v>
       </c>
@@ -19462,7 +21539,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="112" spans="7:73" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:86" x14ac:dyDescent="0.3">
       <c r="AR112">
         <v>16</v>
       </c>
@@ -20322,6 +22399,839 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E5C91-1D3E-4AA2-9DFC-F0B0E123EE61}">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>59</v>
+      </c>
+      <c r="F61">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>64</v>
+      </c>
+      <c r="F66">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>67</v>
+      </c>
+      <c r="F69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>68</v>
+      </c>
+      <c r="F70">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>72</v>
+      </c>
+      <c r="F74">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>73</v>
+      </c>
+      <c r="F75">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>74</v>
+      </c>
+      <c r="F76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>84</v>
+      </c>
+      <c r="F86">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>85</v>
+      </c>
+      <c r="F87">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>86</v>
+      </c>
+      <c r="F88">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>87</v>
+      </c>
+      <c r="F89">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>88</v>
+      </c>
+      <c r="F90">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>89</v>
+      </c>
+      <c r="F91">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>93</v>
+      </c>
+      <c r="F95">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>94</v>
+      </c>
+      <c r="F96">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>95</v>
+      </c>
+      <c r="F97">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>96</v>
+      </c>
+      <c r="F98">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>97</v>
+      </c>
+      <c r="F99">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>98</v>
+      </c>
+      <c r="F100">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>99</v>
+      </c>
+      <c r="F101">
+        <v>0.265625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D8C5B1-89F1-4729-A364-5ED132BC8C1F}">
   <dimension ref="A1:O101"/>
   <sheetViews>
@@ -22383,12 +25293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EE9D22-D7E2-47AF-BCB8-6BE9E7A4F366}">
   <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C8C5B-E010-4B73-A06D-CC636833BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130A90A-E578-4A61-BC24-C4C16E75E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="3168" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="No transfer learning" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>F02</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Acc: 72%</t>
+  </si>
+  <si>
+    <t>Acc:9%</t>
+  </si>
+  <si>
+    <t>Acc:51%</t>
   </si>
 </sst>
 </file>
@@ -2033,6 +2039,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105918</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47F6E63-DE7E-FF18-8697-F25B9C3C673C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4358640" y="1443990"/>
+          <a:ext cx="2452878" cy="1839659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>410718</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D569A32-F299-8FA6-FF0C-8D2669F60E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8061960" y="800100"/>
+          <a:ext cx="2102358" cy="1576769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11996,7 +12090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DABDB1-FABF-4C3D-AC23-BB3AAB003A8F}">
   <dimension ref="A1:CH195"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
@@ -22400,15 +22494,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E5C91-1D3E-4AA2-9DFC-F0B0E123EE61}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -22418,24 +22512,66 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>0.90625</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
         <v>0.78125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.96875</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -22445,16 +22581,43 @@
       <c r="F4">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.96875</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0.9375</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -22464,770 +22627,1923 @@
       <c r="F6">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.9375</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
         <v>0.609375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0.953125</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>0.984375</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
         <v>0.609375</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>0.96875</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>0.953125</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
         <v>0.640625</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>0.921875</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>0.9375</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>0.921875</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0.921875</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>0.921875</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>0.875</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>0.921875</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>0.921875</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>0.90625</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>0.90625</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>0.90625</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>0.84375</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>21</v>
       </c>
       <c r="F23">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>0.875</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>22</v>
       </c>
       <c r="F24">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>0.875</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>23</v>
       </c>
       <c r="F25">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>0.90625</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>24</v>
       </c>
       <c r="F26">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0.859375</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>25</v>
       </c>
       <c r="F27">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>0.90625</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>26</v>
       </c>
       <c r="F28">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>0.921875</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>27</v>
       </c>
       <c r="F29">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>0.90625</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>28</v>
       </c>
       <c r="F30">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>0.859375</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>29</v>
       </c>
       <c r="F31">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>0.890625</v>
+      </c>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="R31">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>30</v>
       </c>
       <c r="F32">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>0.84375</v>
+      </c>
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>31</v>
       </c>
       <c r="F33">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>0.84375</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>32</v>
       </c>
       <c r="F34">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>0.859375</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+      <c r="R34">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>33</v>
       </c>
       <c r="F35">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>0.859375</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>34</v>
       </c>
       <c r="F36">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>0.859375</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="R36">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>35</v>
       </c>
       <c r="F37">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>0.859375</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+      <c r="R37">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>36</v>
       </c>
       <c r="F38">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>0.875</v>
+      </c>
+      <c r="Q38">
+        <v>36</v>
+      </c>
+      <c r="R38">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>37</v>
       </c>
       <c r="F39">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>0.875</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+      <c r="R39">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>38</v>
       </c>
       <c r="F40">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>0.875</v>
+      </c>
+      <c r="Q40">
+        <v>38</v>
+      </c>
+      <c r="R40">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>39</v>
       </c>
       <c r="F41">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>0.875</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+      <c r="R41">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>40</v>
       </c>
       <c r="F42">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>0.875</v>
+      </c>
+      <c r="Q42">
+        <v>40</v>
+      </c>
+      <c r="R42">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>41</v>
       </c>
       <c r="F43">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>0.875</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+      <c r="R43">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>42</v>
       </c>
       <c r="F44">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>0.859375</v>
+      </c>
+      <c r="Q44">
+        <v>42</v>
+      </c>
+      <c r="R44">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>43</v>
       </c>
       <c r="F45">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>0.859375</v>
+      </c>
+      <c r="Q45">
+        <v>43</v>
+      </c>
+      <c r="R45">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>44</v>
       </c>
       <c r="F46">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>0.859375</v>
+      </c>
+      <c r="Q46">
+        <v>44</v>
+      </c>
+      <c r="R46">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>45</v>
       </c>
       <c r="F47">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>0.859375</v>
+      </c>
+      <c r="Q47">
+        <v>45</v>
+      </c>
+      <c r="R47">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>46</v>
       </c>
       <c r="F48">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48">
+        <v>0.859375</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+      <c r="R48">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="49" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>47</v>
       </c>
       <c r="F49">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49">
+        <v>0.859375</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>48</v>
       </c>
       <c r="F50">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>0.859375</v>
+      </c>
+      <c r="Q50">
+        <v>48</v>
+      </c>
+      <c r="R50">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="51" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>49</v>
       </c>
       <c r="F51">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51">
+        <v>0.859375</v>
+      </c>
+      <c r="Q51">
+        <v>49</v>
+      </c>
+      <c r="R51">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="52" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>50</v>
       </c>
       <c r="F52">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>0.859375</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="53" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>51</v>
       </c>
       <c r="F53">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>0.875</v>
+      </c>
+      <c r="Q53">
+        <v>51</v>
+      </c>
+      <c r="R53">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="54" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>52</v>
       </c>
       <c r="F54">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>0.875</v>
+      </c>
+      <c r="Q54">
+        <v>52</v>
+      </c>
+      <c r="R54">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="55" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>53</v>
       </c>
       <c r="F55">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>0.875</v>
+      </c>
+      <c r="Q55">
+        <v>53</v>
+      </c>
+      <c r="R55">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="56" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>54</v>
       </c>
       <c r="F56">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>0.875</v>
+      </c>
+      <c r="Q56">
+        <v>54</v>
+      </c>
+      <c r="R56">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="57" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>55</v>
       </c>
       <c r="F57">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>0.875</v>
+      </c>
+      <c r="Q57">
+        <v>55</v>
+      </c>
+      <c r="R57">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="58" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>56</v>
       </c>
       <c r="F58">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>0.875</v>
+      </c>
+      <c r="Q58">
+        <v>56</v>
+      </c>
+      <c r="R58">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="59" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>57</v>
       </c>
       <c r="F59">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>0.875</v>
+      </c>
+      <c r="Q59">
+        <v>57</v>
+      </c>
+      <c r="R59">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="60" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>58</v>
       </c>
       <c r="F60">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>0.875</v>
+      </c>
+      <c r="Q60">
+        <v>58</v>
+      </c>
+      <c r="R60">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="61" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>59</v>
       </c>
       <c r="F61">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61">
+        <v>0.875</v>
+      </c>
+      <c r="Q61">
+        <v>59</v>
+      </c>
+      <c r="R61">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="62" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>60</v>
       </c>
       <c r="F62">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>0.875</v>
+      </c>
+      <c r="Q62">
+        <v>60</v>
+      </c>
+      <c r="R62">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>61</v>
       </c>
       <c r="F63">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63">
+        <v>0.859375</v>
+      </c>
+      <c r="Q63">
+        <v>61</v>
+      </c>
+      <c r="R63">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>62</v>
       </c>
       <c r="F64">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>0.859375</v>
+      </c>
+      <c r="Q64">
+        <v>62</v>
+      </c>
+      <c r="R64">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="65" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>63</v>
       </c>
       <c r="F65">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65">
+        <v>0.859375</v>
+      </c>
+      <c r="Q65">
+        <v>63</v>
+      </c>
+      <c r="R65">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="66" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>64</v>
       </c>
       <c r="F66">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>0.859375</v>
+      </c>
+      <c r="Q66">
+        <v>64</v>
+      </c>
+      <c r="R66">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="67" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>65</v>
       </c>
       <c r="F67">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67">
+        <v>0.859375</v>
+      </c>
+      <c r="Q67">
+        <v>65</v>
+      </c>
+      <c r="R67">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="68" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>66</v>
       </c>
       <c r="F68">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68">
+        <v>0.859375</v>
+      </c>
+      <c r="Q68">
+        <v>66</v>
+      </c>
+      <c r="R68">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="69" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>67</v>
       </c>
       <c r="F69">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>0.859375</v>
+      </c>
+      <c r="Q69">
+        <v>67</v>
+      </c>
+      <c r="R69">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="70" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>68</v>
       </c>
       <c r="F70">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>0.859375</v>
+      </c>
+      <c r="Q70">
+        <v>68</v>
+      </c>
+      <c r="R70">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="71" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>69</v>
       </c>
       <c r="F71">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>0.859375</v>
+      </c>
+      <c r="Q71">
+        <v>69</v>
+      </c>
+      <c r="R71">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="72" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>70</v>
       </c>
       <c r="F72">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>0.859375</v>
+      </c>
+      <c r="Q72">
+        <v>70</v>
+      </c>
+      <c r="R72">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="73" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>71</v>
       </c>
       <c r="F73">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <v>0.859375</v>
+      </c>
+      <c r="Q73">
+        <v>71</v>
+      </c>
+      <c r="R73">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="74" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>72</v>
       </c>
       <c r="F74">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74">
+        <v>0.859375</v>
+      </c>
+      <c r="Q74">
+        <v>72</v>
+      </c>
+      <c r="R74">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="75" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>73</v>
       </c>
       <c r="F75">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <v>0.859375</v>
+      </c>
+      <c r="Q75">
+        <v>73</v>
+      </c>
+      <c r="R75">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="76" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>74</v>
       </c>
       <c r="F76">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>0.859375</v>
+      </c>
+      <c r="Q76">
+        <v>74</v>
+      </c>
+      <c r="R76">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="77" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>75</v>
       </c>
       <c r="F77">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77">
+        <v>0.875</v>
+      </c>
+      <c r="Q77">
+        <v>75</v>
+      </c>
+      <c r="R77">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="78" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>76</v>
       </c>
       <c r="F78">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>0.875</v>
+      </c>
+      <c r="Q78">
+        <v>76</v>
+      </c>
+      <c r="R78">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="79" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>77</v>
       </c>
       <c r="F79">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79">
+        <v>0.859375</v>
+      </c>
+      <c r="Q79">
+        <v>77</v>
+      </c>
+      <c r="R79">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="80" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>78</v>
       </c>
       <c r="F80">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <v>0.859375</v>
+      </c>
+      <c r="Q80">
+        <v>78</v>
+      </c>
+      <c r="R80">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="81" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>79</v>
       </c>
       <c r="F81">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81">
+        <v>0.859375</v>
+      </c>
+      <c r="Q81">
+        <v>79</v>
+      </c>
+      <c r="R81">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="82" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>80</v>
       </c>
       <c r="F82">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>0.859375</v>
+      </c>
+      <c r="Q82">
+        <v>80</v>
+      </c>
+      <c r="R82">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="83" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>81</v>
       </c>
       <c r="F83">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>81</v>
+      </c>
+      <c r="M83">
+        <v>0.859375</v>
+      </c>
+      <c r="Q83">
+        <v>81</v>
+      </c>
+      <c r="R83">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="84" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>82</v>
       </c>
       <c r="F84">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>82</v>
+      </c>
+      <c r="M84">
+        <v>0.859375</v>
+      </c>
+      <c r="Q84">
+        <v>82</v>
+      </c>
+      <c r="R84">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="85" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>83</v>
       </c>
       <c r="F85">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>83</v>
+      </c>
+      <c r="M85">
+        <v>0.859375</v>
+      </c>
+      <c r="Q85">
+        <v>83</v>
+      </c>
+      <c r="R85">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E86">
         <v>84</v>
       </c>
       <c r="F86">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>0.859375</v>
+      </c>
+      <c r="Q86">
+        <v>84</v>
+      </c>
+      <c r="R86">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>85</v>
       </c>
       <c r="F87">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>85</v>
+      </c>
+      <c r="M87">
+        <v>0.859375</v>
+      </c>
+      <c r="Q87">
+        <v>85</v>
+      </c>
+      <c r="R87">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="88" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>86</v>
       </c>
       <c r="F88">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>86</v>
+      </c>
+      <c r="M88">
+        <v>0.84375</v>
+      </c>
+      <c r="Q88">
+        <v>86</v>
+      </c>
+      <c r="R88">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="89" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>87</v>
       </c>
       <c r="F89">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>87</v>
+      </c>
+      <c r="M89">
+        <v>0.859375</v>
+      </c>
+      <c r="Q89">
+        <v>87</v>
+      </c>
+      <c r="R89">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="90" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>88</v>
       </c>
       <c r="F90">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>88</v>
+      </c>
+      <c r="M90">
+        <v>0.828125</v>
+      </c>
+      <c r="Q90">
+        <v>88</v>
+      </c>
+      <c r="R90">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="91" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>89</v>
       </c>
       <c r="F91">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>89</v>
+      </c>
+      <c r="M91">
+        <v>0.828125</v>
+      </c>
+      <c r="Q91">
+        <v>89</v>
+      </c>
+      <c r="R91">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="92" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>90</v>
       </c>
       <c r="F92">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <v>90</v>
+      </c>
+      <c r="M92">
+        <v>0.828125</v>
+      </c>
+      <c r="Q92">
+        <v>90</v>
+      </c>
+      <c r="R92">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="93" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>91</v>
       </c>
       <c r="F93">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>91</v>
+      </c>
+      <c r="M93">
+        <v>0.828125</v>
+      </c>
+      <c r="Q93">
+        <v>91</v>
+      </c>
+      <c r="R93">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="94" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E94">
         <v>92</v>
       </c>
       <c r="F94">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L94">
+        <v>92</v>
+      </c>
+      <c r="M94">
+        <v>0.828125</v>
+      </c>
+      <c r="Q94">
+        <v>92</v>
+      </c>
+      <c r="R94">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="95" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>93</v>
       </c>
       <c r="F95">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L95">
+        <v>93</v>
+      </c>
+      <c r="M95">
+        <v>0.84375</v>
+      </c>
+      <c r="Q95">
+        <v>93</v>
+      </c>
+      <c r="R95">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="96" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>94</v>
       </c>
       <c r="F96">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>94</v>
+      </c>
+      <c r="M96">
+        <v>0.828125</v>
+      </c>
+      <c r="Q96">
+        <v>94</v>
+      </c>
+      <c r="R96">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="97" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>95</v>
       </c>
       <c r="F97">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>95</v>
+      </c>
+      <c r="M97">
+        <v>0.828125</v>
+      </c>
+      <c r="Q97">
+        <v>95</v>
+      </c>
+      <c r="R97">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="98" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>96</v>
       </c>
       <c r="F98">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>96</v>
+      </c>
+      <c r="M98">
+        <v>0.84375</v>
+      </c>
+      <c r="Q98">
+        <v>96</v>
+      </c>
+      <c r="R98">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="99" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>97</v>
       </c>
       <c r="F99">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>97</v>
+      </c>
+      <c r="M99">
+        <v>0.828125</v>
+      </c>
+      <c r="Q99">
+        <v>97</v>
+      </c>
+      <c r="R99">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="100" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>98</v>
       </c>
       <c r="F100">
         <v>0.265625</v>
       </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>98</v>
+      </c>
+      <c r="M100">
+        <v>0.828125</v>
+      </c>
+      <c r="Q100">
+        <v>98</v>
+      </c>
+      <c r="R100">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="101" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>99</v>
       </c>
       <c r="F101">
         <v>0.265625</v>
       </c>
+      <c r="L101">
+        <v>99</v>
+      </c>
+      <c r="M101">
+        <v>0.828125</v>
+      </c>
+      <c r="Q101">
+        <v>99</v>
+      </c>
+      <c r="R101">
+        <v>0.40625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2130A90A-E578-4A61-BC24-C4C16E75E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEBA6B-2192-44B5-8605-07442C429F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="3672" yWindow="1776" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="No transfer learning" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>F02</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>Acc:51%</t>
+  </si>
+  <si>
+    <t>Acc: 38%</t>
+  </si>
+  <si>
+    <t>Acc: 67%</t>
+  </si>
+  <si>
+    <t>Acc:56%</t>
+  </si>
+  <si>
+    <t>Acc: 62%</t>
   </si>
 </sst>
 </file>
@@ -2127,6 +2139,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AB09A3-F664-77D7-19F9-C92CF87BF30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13850620" y="609601"/>
+          <a:ext cx="1798320" cy="1348740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>349758</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D758B3-F4C5-046B-486B-458D4A10EAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17500600" y="982980"/>
+          <a:ext cx="1746758" cy="1310069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>593597</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87986CD2-58EC-772A-A78A-8EEE207B967F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20365720" y="990600"/>
+          <a:ext cx="1563877" cy="1172908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>243078</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE011F34-2D20-2F3A-F3D3-AE94A2BAF5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23301960" y="781050"/>
+          <a:ext cx="1325118" cy="993839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>311658</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1292B2-FAB3-651C-999A-55E7CCB48F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25824180" y="655320"/>
+          <a:ext cx="1309878" cy="982409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>319278</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2702B52F-DAA4-29CC-287E-E7833BC03C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28171140" y="581025"/>
+          <a:ext cx="1408938" cy="1056704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12090,8 +12366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DABDB1-FABF-4C3D-AC23-BB3AAB003A8F}">
   <dimension ref="A1:CH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BL3" sqref="BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22494,15 +22770,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E5C91-1D3E-4AA2-9DFC-F0B0E123EE61}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -22524,8 +22800,49 @@
       <c r="T1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="3"/>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="Y1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0</v>
       </c>
@@ -22544,8 +22861,44 @@
       <c r="R2">
         <v>0.953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.9375</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.859375</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.734375</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0.765625</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0.859375</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>1</v>
       </c>
@@ -22570,8 +22923,59 @@
       <c r="R3">
         <v>0.890625</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0.953125</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0.84375</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0.703125</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0.765625</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0.8125</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -22587,14 +22991,62 @@
       <c r="M4">
         <v>0.96875</v>
       </c>
+      <c r="O4" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4">
         <v>0.828125</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>0.90625</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>0.71875</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>0.703125</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>0.71875</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>0.734375</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>3</v>
       </c>
@@ -22616,8 +23068,44 @@
       <c r="R5">
         <v>0.796875</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>0.90625</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>0.671875</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>0.625</v>
+      </c>
+      <c r="AO5">
+        <v>3</v>
+      </c>
+      <c r="AP5">
+        <v>0.65625</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0.65625</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -22639,8 +23127,44 @@
       <c r="R6">
         <v>0.765625</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>0.9375</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6">
+        <v>0.71875</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <v>0.59375</v>
+      </c>
+      <c r="AO6">
+        <v>4</v>
+      </c>
+      <c r="AP6">
+        <v>0.484375</v>
+      </c>
+      <c r="AS6">
+        <v>4</v>
+      </c>
+      <c r="AT6">
+        <v>0.671875</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>5</v>
       </c>
@@ -22659,8 +23183,44 @@
       <c r="R7">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>0.890625</v>
+      </c>
+      <c r="AF7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>0.515625</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <v>0.578125</v>
+      </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7">
+        <v>0.546875</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>0.609375</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>6</v>
       </c>
@@ -22679,8 +23239,44 @@
       <c r="R8">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <v>0.859375</v>
+      </c>
+      <c r="AF8">
+        <v>6</v>
+      </c>
+      <c r="AG8">
+        <v>0.515625</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8">
+        <v>0.578125</v>
+      </c>
+      <c r="AO8">
+        <v>6</v>
+      </c>
+      <c r="AP8">
+        <v>0.5625</v>
+      </c>
+      <c r="AS8">
+        <v>6</v>
+      </c>
+      <c r="AT8">
+        <v>0.640625</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -22699,8 +23295,44 @@
       <c r="R9">
         <v>0.703125</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>0.78125</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>0.484375</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
+        <v>0.5625</v>
+      </c>
+      <c r="AO9">
+        <v>7</v>
+      </c>
+      <c r="AP9">
+        <v>0.484375</v>
+      </c>
+      <c r="AS9">
+        <v>7</v>
+      </c>
+      <c r="AT9">
+        <v>0.609375</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>8</v>
       </c>
@@ -22719,8 +23351,50 @@
       <c r="R10">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>0.765625</v>
+      </c>
+      <c r="AF10">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>0.546875</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+      <c r="AL10">
+        <v>0.59375</v>
+      </c>
+      <c r="AO10">
+        <v>8</v>
+      </c>
+      <c r="AP10">
+        <v>0.5625</v>
+      </c>
+      <c r="AQ10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS10">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>0.609375</v>
+      </c>
+      <c r="AU10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX10">
+        <v>8</v>
+      </c>
+      <c r="AY10">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>9</v>
       </c>
@@ -22739,8 +23413,44 @@
       <c r="R11">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>0.828125</v>
+      </c>
+      <c r="AF11">
+        <v>9</v>
+      </c>
+      <c r="AG11">
+        <v>0.53125</v>
+      </c>
+      <c r="AK11">
+        <v>9</v>
+      </c>
+      <c r="AL11">
+        <v>0.53125</v>
+      </c>
+      <c r="AO11">
+        <v>9</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
+      <c r="AS11">
+        <v>9</v>
+      </c>
+      <c r="AT11">
+        <v>0.5</v>
+      </c>
+      <c r="AX11">
+        <v>9</v>
+      </c>
+      <c r="AY11">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>10</v>
       </c>
@@ -22759,8 +23469,47 @@
       <c r="R12">
         <v>0.640625</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Y12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>0.78125</v>
+      </c>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>0.515625</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>0.578125</v>
+      </c>
+      <c r="AO12">
+        <v>10</v>
+      </c>
+      <c r="AP12">
+        <v>0.484375</v>
+      </c>
+      <c r="AS12">
+        <v>10</v>
+      </c>
+      <c r="AT12">
+        <v>0.671875</v>
+      </c>
+      <c r="AX12">
+        <v>10</v>
+      </c>
+      <c r="AY12">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>11</v>
       </c>
@@ -22779,8 +23528,44 @@
       <c r="R13">
         <v>0.671875</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA13">
+        <v>11</v>
+      </c>
+      <c r="AB13">
+        <v>0.703125</v>
+      </c>
+      <c r="AF13">
+        <v>11</v>
+      </c>
+      <c r="AG13">
+        <v>0.46875</v>
+      </c>
+      <c r="AK13">
+        <v>11</v>
+      </c>
+      <c r="AL13">
+        <v>0.65625</v>
+      </c>
+      <c r="AO13">
+        <v>11</v>
+      </c>
+      <c r="AP13">
+        <v>0.46875</v>
+      </c>
+      <c r="AS13">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>0.5625</v>
+      </c>
+      <c r="AX13">
+        <v>11</v>
+      </c>
+      <c r="AY13">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>12</v>
       </c>
@@ -22799,8 +23584,44 @@
       <c r="R14">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <v>0.78125</v>
+      </c>
+      <c r="AF14">
+        <v>12</v>
+      </c>
+      <c r="AG14">
+        <v>0.515625</v>
+      </c>
+      <c r="AK14">
+        <v>12</v>
+      </c>
+      <c r="AL14">
+        <v>0.578125</v>
+      </c>
+      <c r="AO14">
+        <v>12</v>
+      </c>
+      <c r="AP14">
+        <v>0.4375</v>
+      </c>
+      <c r="AS14">
+        <v>12</v>
+      </c>
+      <c r="AT14">
+        <v>0.5625</v>
+      </c>
+      <c r="AX14">
+        <v>12</v>
+      </c>
+      <c r="AY14">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>13</v>
       </c>
@@ -22819,8 +23640,44 @@
       <c r="R15">
         <v>0.953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>0.875</v>
+      </c>
+      <c r="AF15">
+        <v>13</v>
+      </c>
+      <c r="AG15">
+        <v>0.359375</v>
+      </c>
+      <c r="AK15">
+        <v>13</v>
+      </c>
+      <c r="AL15">
+        <v>0.5</v>
+      </c>
+      <c r="AO15">
+        <v>13</v>
+      </c>
+      <c r="AP15">
+        <v>0.421875</v>
+      </c>
+      <c r="AS15">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>0.546875</v>
+      </c>
+      <c r="AX15">
+        <v>13</v>
+      </c>
+      <c r="AY15">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>14</v>
       </c>
@@ -22839,8 +23696,44 @@
       <c r="R16">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AB16">
+        <v>0.703125</v>
+      </c>
+      <c r="AF16">
+        <v>14</v>
+      </c>
+      <c r="AG16">
+        <v>0.34375</v>
+      </c>
+      <c r="AK16">
+        <v>14</v>
+      </c>
+      <c r="AL16">
+        <v>0.484375</v>
+      </c>
+      <c r="AO16">
+        <v>14</v>
+      </c>
+      <c r="AP16">
+        <v>0.53125</v>
+      </c>
+      <c r="AS16">
+        <v>14</v>
+      </c>
+      <c r="AT16">
+        <v>0.671875</v>
+      </c>
+      <c r="AX16">
+        <v>14</v>
+      </c>
+      <c r="AY16">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="17" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>15</v>
       </c>
@@ -22859,8 +23752,44 @@
       <c r="R17">
         <v>0.609375</v>
       </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA17">
+        <v>15</v>
+      </c>
+      <c r="AB17">
+        <v>0.640625</v>
+      </c>
+      <c r="AF17">
+        <v>15</v>
+      </c>
+      <c r="AG17">
+        <v>0.359375</v>
+      </c>
+      <c r="AK17">
+        <v>15</v>
+      </c>
+      <c r="AL17">
+        <v>0.484375</v>
+      </c>
+      <c r="AO17">
+        <v>15</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AS17">
+        <v>15</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
+      <c r="AX17">
+        <v>15</v>
+      </c>
+      <c r="AY17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>16</v>
       </c>
@@ -22879,8 +23808,44 @@
       <c r="R18">
         <v>0.609375</v>
       </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA18">
+        <v>16</v>
+      </c>
+      <c r="AB18">
+        <v>0.65625</v>
+      </c>
+      <c r="AF18">
+        <v>16</v>
+      </c>
+      <c r="AG18">
+        <v>0.375</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18">
+        <v>0.640625</v>
+      </c>
+      <c r="AO18">
+        <v>16</v>
+      </c>
+      <c r="AP18">
+        <v>0.4375</v>
+      </c>
+      <c r="AS18">
+        <v>16</v>
+      </c>
+      <c r="AT18">
+        <v>0.484375</v>
+      </c>
+      <c r="AX18">
+        <v>16</v>
+      </c>
+      <c r="AY18">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="19" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>17</v>
       </c>
@@ -22899,8 +23864,44 @@
       <c r="R19">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <v>17</v>
+      </c>
+      <c r="AB19">
+        <v>0.65625</v>
+      </c>
+      <c r="AF19">
+        <v>17</v>
+      </c>
+      <c r="AG19">
+        <v>0.375</v>
+      </c>
+      <c r="AK19">
+        <v>17</v>
+      </c>
+      <c r="AL19">
+        <v>0.46875</v>
+      </c>
+      <c r="AO19">
+        <v>17</v>
+      </c>
+      <c r="AP19">
+        <v>0.390625</v>
+      </c>
+      <c r="AS19">
+        <v>17</v>
+      </c>
+      <c r="AT19">
+        <v>0.40625</v>
+      </c>
+      <c r="AX19">
+        <v>17</v>
+      </c>
+      <c r="AY19">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="20" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>18</v>
       </c>
@@ -22919,8 +23920,44 @@
       <c r="R20">
         <v>0.609375</v>
       </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA20">
+        <v>18</v>
+      </c>
+      <c r="AB20">
+        <v>0.671875</v>
+      </c>
+      <c r="AF20">
+        <v>18</v>
+      </c>
+      <c r="AG20">
+        <v>0.359375</v>
+      </c>
+      <c r="AK20">
+        <v>18</v>
+      </c>
+      <c r="AL20">
+        <v>0.59375</v>
+      </c>
+      <c r="AO20">
+        <v>18</v>
+      </c>
+      <c r="AP20">
+        <v>0.390625</v>
+      </c>
+      <c r="AS20">
+        <v>18</v>
+      </c>
+      <c r="AT20">
+        <v>0.40625</v>
+      </c>
+      <c r="AX20">
+        <v>18</v>
+      </c>
+      <c r="AY20">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="21" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>19</v>
       </c>
@@ -22939,8 +23976,44 @@
       <c r="R21">
         <v>0.71875</v>
       </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA21">
+        <v>19</v>
+      </c>
+      <c r="AB21">
+        <v>0.65625</v>
+      </c>
+      <c r="AF21">
+        <v>19</v>
+      </c>
+      <c r="AG21">
+        <v>0.515625</v>
+      </c>
+      <c r="AK21">
+        <v>19</v>
+      </c>
+      <c r="AL21">
+        <v>0.46875</v>
+      </c>
+      <c r="AO21">
+        <v>19</v>
+      </c>
+      <c r="AP21">
+        <v>0.359375</v>
+      </c>
+      <c r="AS21">
+        <v>19</v>
+      </c>
+      <c r="AT21">
+        <v>0.453125</v>
+      </c>
+      <c r="AX21">
+        <v>19</v>
+      </c>
+      <c r="AY21">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="22" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>20</v>
       </c>
@@ -22959,8 +24032,44 @@
       <c r="R22">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA22">
+        <v>20</v>
+      </c>
+      <c r="AB22">
+        <v>0.609375</v>
+      </c>
+      <c r="AF22">
+        <v>20</v>
+      </c>
+      <c r="AG22">
+        <v>0.40625</v>
+      </c>
+      <c r="AK22">
+        <v>20</v>
+      </c>
+      <c r="AL22">
+        <v>0.421875</v>
+      </c>
+      <c r="AO22">
+        <v>20</v>
+      </c>
+      <c r="AP22">
+        <v>0.34375</v>
+      </c>
+      <c r="AS22">
+        <v>20</v>
+      </c>
+      <c r="AT22">
+        <v>0.515625</v>
+      </c>
+      <c r="AX22">
+        <v>20</v>
+      </c>
+      <c r="AY22">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="23" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>21</v>
       </c>
@@ -22979,8 +24088,44 @@
       <c r="R23">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA23">
+        <v>21</v>
+      </c>
+      <c r="AB23">
+        <v>0.609375</v>
+      </c>
+      <c r="AF23">
+        <v>21</v>
+      </c>
+      <c r="AG23">
+        <v>0.328125</v>
+      </c>
+      <c r="AK23">
+        <v>21</v>
+      </c>
+      <c r="AL23">
+        <v>0.359375</v>
+      </c>
+      <c r="AO23">
+        <v>21</v>
+      </c>
+      <c r="AP23">
+        <v>0.421875</v>
+      </c>
+      <c r="AS23">
+        <v>21</v>
+      </c>
+      <c r="AT23">
+        <v>0.53125</v>
+      </c>
+      <c r="AX23">
+        <v>21</v>
+      </c>
+      <c r="AY23">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="24" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>22</v>
       </c>
@@ -22999,8 +24144,44 @@
       <c r="R24">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA24">
+        <v>22</v>
+      </c>
+      <c r="AB24">
+        <v>0.59375</v>
+      </c>
+      <c r="AF24">
+        <v>22</v>
+      </c>
+      <c r="AG24">
+        <v>0.328125</v>
+      </c>
+      <c r="AK24">
+        <v>22</v>
+      </c>
+      <c r="AL24">
+        <v>0.46875</v>
+      </c>
+      <c r="AO24">
+        <v>22</v>
+      </c>
+      <c r="AP24">
+        <v>0.40625</v>
+      </c>
+      <c r="AS24">
+        <v>22</v>
+      </c>
+      <c r="AT24">
+        <v>0.65625</v>
+      </c>
+      <c r="AX24">
+        <v>22</v>
+      </c>
+      <c r="AY24">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>23</v>
       </c>
@@ -23019,8 +24200,44 @@
       <c r="R25">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA25">
+        <v>23</v>
+      </c>
+      <c r="AB25">
+        <v>0.671875</v>
+      </c>
+      <c r="AF25">
+        <v>23</v>
+      </c>
+      <c r="AG25">
+        <v>0.328125</v>
+      </c>
+      <c r="AK25">
+        <v>23</v>
+      </c>
+      <c r="AL25">
+        <v>0.390625</v>
+      </c>
+      <c r="AO25">
+        <v>23</v>
+      </c>
+      <c r="AP25">
+        <v>0.546875</v>
+      </c>
+      <c r="AS25">
+        <v>23</v>
+      </c>
+      <c r="AT25">
+        <v>0.59375</v>
+      </c>
+      <c r="AX25">
+        <v>23</v>
+      </c>
+      <c r="AY25">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="26" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>24</v>
       </c>
@@ -23039,8 +24256,44 @@
       <c r="R26">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA26">
+        <v>24</v>
+      </c>
+      <c r="AB26">
+        <v>0.671875</v>
+      </c>
+      <c r="AF26">
+        <v>24</v>
+      </c>
+      <c r="AG26">
+        <v>0.3125</v>
+      </c>
+      <c r="AK26">
+        <v>24</v>
+      </c>
+      <c r="AL26">
+        <v>0.453125</v>
+      </c>
+      <c r="AO26">
+        <v>24</v>
+      </c>
+      <c r="AP26">
+        <v>0.515625</v>
+      </c>
+      <c r="AS26">
+        <v>24</v>
+      </c>
+      <c r="AT26">
+        <v>0.515625</v>
+      </c>
+      <c r="AX26">
+        <v>24</v>
+      </c>
+      <c r="AY26">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>25</v>
       </c>
@@ -23059,8 +24312,44 @@
       <c r="R27">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>0.71875</v>
+      </c>
+      <c r="AF27">
+        <v>25</v>
+      </c>
+      <c r="AG27">
+        <v>0.3125</v>
+      </c>
+      <c r="AK27">
+        <v>25</v>
+      </c>
+      <c r="AL27">
+        <v>0.421875</v>
+      </c>
+      <c r="AO27">
+        <v>25</v>
+      </c>
+      <c r="AP27">
+        <v>0.40625</v>
+      </c>
+      <c r="AS27">
+        <v>25</v>
+      </c>
+      <c r="AT27">
+        <v>0.625</v>
+      </c>
+      <c r="AX27">
+        <v>25</v>
+      </c>
+      <c r="AY27">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="28" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>26</v>
       </c>
@@ -23079,8 +24368,44 @@
       <c r="R28">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>0.71875</v>
+      </c>
+      <c r="AF28">
+        <v>26</v>
+      </c>
+      <c r="AG28">
+        <v>0.3125</v>
+      </c>
+      <c r="AK28">
+        <v>26</v>
+      </c>
+      <c r="AL28">
+        <v>0.4375</v>
+      </c>
+      <c r="AO28">
+        <v>26</v>
+      </c>
+      <c r="AP28">
+        <v>0.328125</v>
+      </c>
+      <c r="AS28">
+        <v>26</v>
+      </c>
+      <c r="AT28">
+        <v>0.578125</v>
+      </c>
+      <c r="AX28">
+        <v>26</v>
+      </c>
+      <c r="AY28">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="29" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>27</v>
       </c>
@@ -23099,8 +24424,44 @@
       <c r="R29">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA29">
+        <v>27</v>
+      </c>
+      <c r="AB29">
+        <v>0.65625</v>
+      </c>
+      <c r="AF29">
+        <v>27</v>
+      </c>
+      <c r="AG29">
+        <v>0.3125</v>
+      </c>
+      <c r="AK29">
+        <v>27</v>
+      </c>
+      <c r="AL29">
+        <v>0.4375</v>
+      </c>
+      <c r="AO29">
+        <v>27</v>
+      </c>
+      <c r="AP29">
+        <v>0.328125</v>
+      </c>
+      <c r="AS29">
+        <v>27</v>
+      </c>
+      <c r="AT29">
+        <v>0.484375</v>
+      </c>
+      <c r="AX29">
+        <v>27</v>
+      </c>
+      <c r="AY29">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="30" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>28</v>
       </c>
@@ -23119,8 +24480,44 @@
       <c r="R30">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA30">
+        <v>28</v>
+      </c>
+      <c r="AB30">
+        <v>0.671875</v>
+      </c>
+      <c r="AF30">
+        <v>28</v>
+      </c>
+      <c r="AG30">
+        <v>0.3125</v>
+      </c>
+      <c r="AK30">
+        <v>28</v>
+      </c>
+      <c r="AL30">
+        <v>0.421875</v>
+      </c>
+      <c r="AO30">
+        <v>28</v>
+      </c>
+      <c r="AP30">
+        <v>0.359375</v>
+      </c>
+      <c r="AS30">
+        <v>28</v>
+      </c>
+      <c r="AT30">
+        <v>0.40625</v>
+      </c>
+      <c r="AX30">
+        <v>28</v>
+      </c>
+      <c r="AY30">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="31" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>29</v>
       </c>
@@ -23139,8 +24536,44 @@
       <c r="R31">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA31">
+        <v>29</v>
+      </c>
+      <c r="AB31">
+        <v>0.703125</v>
+      </c>
+      <c r="AF31">
+        <v>29</v>
+      </c>
+      <c r="AG31">
+        <v>0.3125</v>
+      </c>
+      <c r="AK31">
+        <v>29</v>
+      </c>
+      <c r="AL31">
+        <v>0.421875</v>
+      </c>
+      <c r="AO31">
+        <v>29</v>
+      </c>
+      <c r="AP31">
+        <v>0.359375</v>
+      </c>
+      <c r="AS31">
+        <v>29</v>
+      </c>
+      <c r="AT31">
+        <v>0.359375</v>
+      </c>
+      <c r="AX31">
+        <v>29</v>
+      </c>
+      <c r="AY31">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="32" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>30</v>
       </c>
@@ -23159,8 +24592,44 @@
       <c r="R32">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA32">
+        <v>30</v>
+      </c>
+      <c r="AB32">
+        <v>0.796875</v>
+      </c>
+      <c r="AF32">
+        <v>30</v>
+      </c>
+      <c r="AG32">
+        <v>0.3125</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+      <c r="AL32">
+        <v>0.421875</v>
+      </c>
+      <c r="AO32">
+        <v>30</v>
+      </c>
+      <c r="AP32">
+        <v>0.34375</v>
+      </c>
+      <c r="AS32">
+        <v>30</v>
+      </c>
+      <c r="AT32">
+        <v>0.375</v>
+      </c>
+      <c r="AX32">
+        <v>30</v>
+      </c>
+      <c r="AY32">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="33" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>31</v>
       </c>
@@ -23179,8 +24648,44 @@
       <c r="R33">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA33">
+        <v>31</v>
+      </c>
+      <c r="AB33">
+        <v>0.6875</v>
+      </c>
+      <c r="AF33">
+        <v>31</v>
+      </c>
+      <c r="AG33">
+        <v>0.3125</v>
+      </c>
+      <c r="AK33">
+        <v>31</v>
+      </c>
+      <c r="AL33">
+        <v>0.421875</v>
+      </c>
+      <c r="AO33">
+        <v>31</v>
+      </c>
+      <c r="AP33">
+        <v>0.359375</v>
+      </c>
+      <c r="AS33">
+        <v>31</v>
+      </c>
+      <c r="AT33">
+        <v>0.390625</v>
+      </c>
+      <c r="AX33">
+        <v>31</v>
+      </c>
+      <c r="AY33">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="34" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>32</v>
       </c>
@@ -23199,8 +24704,44 @@
       <c r="R34">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <v>32</v>
+      </c>
+      <c r="AB34">
+        <v>0.640625</v>
+      </c>
+      <c r="AF34">
+        <v>32</v>
+      </c>
+      <c r="AG34">
+        <v>0.328125</v>
+      </c>
+      <c r="AK34">
+        <v>32</v>
+      </c>
+      <c r="AL34">
+        <v>0.421875</v>
+      </c>
+      <c r="AO34">
+        <v>32</v>
+      </c>
+      <c r="AP34">
+        <v>0.359375</v>
+      </c>
+      <c r="AS34">
+        <v>32</v>
+      </c>
+      <c r="AT34">
+        <v>0.40625</v>
+      </c>
+      <c r="AX34">
+        <v>32</v>
+      </c>
+      <c r="AY34">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="35" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>33</v>
       </c>
@@ -23219,8 +24760,44 @@
       <c r="R35">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA35">
+        <v>33</v>
+      </c>
+      <c r="AB35">
+        <v>0.625</v>
+      </c>
+      <c r="AF35">
+        <v>33</v>
+      </c>
+      <c r="AG35">
+        <v>0.328125</v>
+      </c>
+      <c r="AK35">
+        <v>33</v>
+      </c>
+      <c r="AL35">
+        <v>0.40625</v>
+      </c>
+      <c r="AO35">
+        <v>33</v>
+      </c>
+      <c r="AP35">
+        <v>0.359375</v>
+      </c>
+      <c r="AS35">
+        <v>33</v>
+      </c>
+      <c r="AT35">
+        <v>0.40625</v>
+      </c>
+      <c r="AX35">
+        <v>33</v>
+      </c>
+      <c r="AY35">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="36" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>34</v>
       </c>
@@ -23239,8 +24816,44 @@
       <c r="R36">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA36">
+        <v>34</v>
+      </c>
+      <c r="AB36">
+        <v>0.640625</v>
+      </c>
+      <c r="AF36">
+        <v>34</v>
+      </c>
+      <c r="AG36">
+        <v>0.328125</v>
+      </c>
+      <c r="AK36">
+        <v>34</v>
+      </c>
+      <c r="AL36">
+        <v>0.390625</v>
+      </c>
+      <c r="AO36">
+        <v>34</v>
+      </c>
+      <c r="AP36">
+        <v>0.359375</v>
+      </c>
+      <c r="AS36">
+        <v>34</v>
+      </c>
+      <c r="AT36">
+        <v>0.40625</v>
+      </c>
+      <c r="AX36">
+        <v>34</v>
+      </c>
+      <c r="AY36">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="37" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>35</v>
       </c>
@@ -23259,8 +24872,44 @@
       <c r="R37">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA37">
+        <v>35</v>
+      </c>
+      <c r="AB37">
+        <v>0.65625</v>
+      </c>
+      <c r="AF37">
+        <v>35</v>
+      </c>
+      <c r="AG37">
+        <v>0.328125</v>
+      </c>
+      <c r="AK37">
+        <v>35</v>
+      </c>
+      <c r="AL37">
+        <v>0.390625</v>
+      </c>
+      <c r="AO37">
+        <v>35</v>
+      </c>
+      <c r="AP37">
+        <v>0.359375</v>
+      </c>
+      <c r="AS37">
+        <v>35</v>
+      </c>
+      <c r="AT37">
+        <v>0.40625</v>
+      </c>
+      <c r="AX37">
+        <v>35</v>
+      </c>
+      <c r="AY37">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="38" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>36</v>
       </c>
@@ -23279,8 +24928,44 @@
       <c r="R38">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA38">
+        <v>36</v>
+      </c>
+      <c r="AB38">
+        <v>0.5625</v>
+      </c>
+      <c r="AF38">
+        <v>36</v>
+      </c>
+      <c r="AG38">
+        <v>0.328125</v>
+      </c>
+      <c r="AK38">
+        <v>36</v>
+      </c>
+      <c r="AL38">
+        <v>0.390625</v>
+      </c>
+      <c r="AO38">
+        <v>36</v>
+      </c>
+      <c r="AP38">
+        <v>0.359375</v>
+      </c>
+      <c r="AS38">
+        <v>36</v>
+      </c>
+      <c r="AT38">
+        <v>0.390625</v>
+      </c>
+      <c r="AX38">
+        <v>36</v>
+      </c>
+      <c r="AY38">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="39" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>37</v>
       </c>
@@ -23299,8 +24984,44 @@
       <c r="R39">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA39">
+        <v>37</v>
+      </c>
+      <c r="AB39">
+        <v>0.53125</v>
+      </c>
+      <c r="AF39">
+        <v>37</v>
+      </c>
+      <c r="AG39">
+        <v>0.328125</v>
+      </c>
+      <c r="AK39">
+        <v>37</v>
+      </c>
+      <c r="AL39">
+        <v>0.390625</v>
+      </c>
+      <c r="AO39">
+        <v>37</v>
+      </c>
+      <c r="AP39">
+        <v>0.375</v>
+      </c>
+      <c r="AS39">
+        <v>37</v>
+      </c>
+      <c r="AT39">
+        <v>0.390625</v>
+      </c>
+      <c r="AX39">
+        <v>37</v>
+      </c>
+      <c r="AY39">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="40" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>38</v>
       </c>
@@ -23319,8 +25040,44 @@
       <c r="R40">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA40">
+        <v>38</v>
+      </c>
+      <c r="AB40">
+        <v>0.59375</v>
+      </c>
+      <c r="AF40">
+        <v>38</v>
+      </c>
+      <c r="AG40">
+        <v>0.328125</v>
+      </c>
+      <c r="AK40">
+        <v>38</v>
+      </c>
+      <c r="AL40">
+        <v>0.40625</v>
+      </c>
+      <c r="AO40">
+        <v>38</v>
+      </c>
+      <c r="AP40">
+        <v>0.375</v>
+      </c>
+      <c r="AS40">
+        <v>38</v>
+      </c>
+      <c r="AT40">
+        <v>0.390625</v>
+      </c>
+      <c r="AX40">
+        <v>38</v>
+      </c>
+      <c r="AY40">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="41" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>39</v>
       </c>
@@ -23339,8 +25096,44 @@
       <c r="R41">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA41">
+        <v>39</v>
+      </c>
+      <c r="AB41">
+        <v>0.578125</v>
+      </c>
+      <c r="AF41">
+        <v>39</v>
+      </c>
+      <c r="AG41">
+        <v>0.328125</v>
+      </c>
+      <c r="AK41">
+        <v>39</v>
+      </c>
+      <c r="AL41">
+        <v>0.390625</v>
+      </c>
+      <c r="AO41">
+        <v>39</v>
+      </c>
+      <c r="AP41">
+        <v>0.375</v>
+      </c>
+      <c r="AS41">
+        <v>39</v>
+      </c>
+      <c r="AT41">
+        <v>0.390625</v>
+      </c>
+      <c r="AX41">
+        <v>39</v>
+      </c>
+      <c r="AY41">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="42" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>40</v>
       </c>
@@ -23359,8 +25152,44 @@
       <c r="R42">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA42">
+        <v>40</v>
+      </c>
+      <c r="AB42">
+        <v>0.578125</v>
+      </c>
+      <c r="AF42">
+        <v>40</v>
+      </c>
+      <c r="AG42">
+        <v>0.328125</v>
+      </c>
+      <c r="AK42">
+        <v>40</v>
+      </c>
+      <c r="AL42">
+        <v>0.375</v>
+      </c>
+      <c r="AO42">
+        <v>40</v>
+      </c>
+      <c r="AP42">
+        <v>0.375</v>
+      </c>
+      <c r="AS42">
+        <v>40</v>
+      </c>
+      <c r="AT42">
+        <v>0.390625</v>
+      </c>
+      <c r="AX42">
+        <v>40</v>
+      </c>
+      <c r="AY42">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>41</v>
       </c>
@@ -23379,8 +25208,44 @@
       <c r="R43">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA43">
+        <v>41</v>
+      </c>
+      <c r="AB43">
+        <v>0.5625</v>
+      </c>
+      <c r="AF43">
+        <v>41</v>
+      </c>
+      <c r="AG43">
+        <v>0.328125</v>
+      </c>
+      <c r="AK43">
+        <v>41</v>
+      </c>
+      <c r="AL43">
+        <v>0.390625</v>
+      </c>
+      <c r="AO43">
+        <v>41</v>
+      </c>
+      <c r="AP43">
+        <v>0.375</v>
+      </c>
+      <c r="AS43">
+        <v>41</v>
+      </c>
+      <c r="AT43">
+        <v>0.375</v>
+      </c>
+      <c r="AX43">
+        <v>41</v>
+      </c>
+      <c r="AY43">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="44" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>42</v>
       </c>
@@ -23399,8 +25264,44 @@
       <c r="R44">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA44">
+        <v>42</v>
+      </c>
+      <c r="AB44">
+        <v>0.5625</v>
+      </c>
+      <c r="AF44">
+        <v>42</v>
+      </c>
+      <c r="AG44">
+        <v>0.328125</v>
+      </c>
+      <c r="AK44">
+        <v>42</v>
+      </c>
+      <c r="AL44">
+        <v>0.390625</v>
+      </c>
+      <c r="AO44">
+        <v>42</v>
+      </c>
+      <c r="AP44">
+        <v>0.375</v>
+      </c>
+      <c r="AS44">
+        <v>42</v>
+      </c>
+      <c r="AT44">
+        <v>0.375</v>
+      </c>
+      <c r="AX44">
+        <v>42</v>
+      </c>
+      <c r="AY44">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="45" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>43</v>
       </c>
@@ -23419,8 +25320,44 @@
       <c r="R45">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA45">
+        <v>43</v>
+      </c>
+      <c r="AB45">
+        <v>0.5625</v>
+      </c>
+      <c r="AF45">
+        <v>43</v>
+      </c>
+      <c r="AG45">
+        <v>0.328125</v>
+      </c>
+      <c r="AK45">
+        <v>43</v>
+      </c>
+      <c r="AL45">
+        <v>0.390625</v>
+      </c>
+      <c r="AO45">
+        <v>43</v>
+      </c>
+      <c r="AP45">
+        <v>0.375</v>
+      </c>
+      <c r="AS45">
+        <v>43</v>
+      </c>
+      <c r="AT45">
+        <v>0.375</v>
+      </c>
+      <c r="AX45">
+        <v>43</v>
+      </c>
+      <c r="AY45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>44</v>
       </c>
@@ -23439,8 +25376,44 @@
       <c r="R46">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA46">
+        <v>44</v>
+      </c>
+      <c r="AB46">
+        <v>0.53125</v>
+      </c>
+      <c r="AF46">
+        <v>44</v>
+      </c>
+      <c r="AG46">
+        <v>0.3125</v>
+      </c>
+      <c r="AK46">
+        <v>44</v>
+      </c>
+      <c r="AL46">
+        <v>0.390625</v>
+      </c>
+      <c r="AO46">
+        <v>44</v>
+      </c>
+      <c r="AP46">
+        <v>0.375</v>
+      </c>
+      <c r="AS46">
+        <v>44</v>
+      </c>
+      <c r="AT46">
+        <v>0.375</v>
+      </c>
+      <c r="AX46">
+        <v>44</v>
+      </c>
+      <c r="AY46">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="47" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>45</v>
       </c>
@@ -23459,8 +25432,44 @@
       <c r="R47">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA47">
+        <v>45</v>
+      </c>
+      <c r="AB47">
+        <v>0.53125</v>
+      </c>
+      <c r="AF47">
+        <v>45</v>
+      </c>
+      <c r="AG47">
+        <v>0.3125</v>
+      </c>
+      <c r="AK47">
+        <v>45</v>
+      </c>
+      <c r="AL47">
+        <v>0.390625</v>
+      </c>
+      <c r="AO47">
+        <v>45</v>
+      </c>
+      <c r="AP47">
+        <v>0.359375</v>
+      </c>
+      <c r="AS47">
+        <v>45</v>
+      </c>
+      <c r="AT47">
+        <v>0.390625</v>
+      </c>
+      <c r="AX47">
+        <v>45</v>
+      </c>
+      <c r="AY47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>46</v>
       </c>
@@ -23479,8 +25488,44 @@
       <c r="R48">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA48">
+        <v>46</v>
+      </c>
+      <c r="AB48">
+        <v>0.53125</v>
+      </c>
+      <c r="AF48">
+        <v>46</v>
+      </c>
+      <c r="AG48">
+        <v>0.3125</v>
+      </c>
+      <c r="AK48">
+        <v>46</v>
+      </c>
+      <c r="AL48">
+        <v>0.390625</v>
+      </c>
+      <c r="AO48">
+        <v>46</v>
+      </c>
+      <c r="AP48">
+        <v>0.359375</v>
+      </c>
+      <c r="AS48">
+        <v>46</v>
+      </c>
+      <c r="AT48">
+        <v>0.390625</v>
+      </c>
+      <c r="AX48">
+        <v>46</v>
+      </c>
+      <c r="AY48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>47</v>
       </c>
@@ -23499,8 +25544,44 @@
       <c r="R49">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA49">
+        <v>47</v>
+      </c>
+      <c r="AB49">
+        <v>0.53125</v>
+      </c>
+      <c r="AF49">
+        <v>47</v>
+      </c>
+      <c r="AG49">
+        <v>0.3125</v>
+      </c>
+      <c r="AK49">
+        <v>47</v>
+      </c>
+      <c r="AL49">
+        <v>0.390625</v>
+      </c>
+      <c r="AO49">
+        <v>47</v>
+      </c>
+      <c r="AP49">
+        <v>0.375</v>
+      </c>
+      <c r="AS49">
+        <v>47</v>
+      </c>
+      <c r="AT49">
+        <v>0.390625</v>
+      </c>
+      <c r="AX49">
+        <v>47</v>
+      </c>
+      <c r="AY49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>48</v>
       </c>
@@ -23519,8 +25600,44 @@
       <c r="R50">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="51" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA50">
+        <v>48</v>
+      </c>
+      <c r="AB50">
+        <v>0.53125</v>
+      </c>
+      <c r="AF50">
+        <v>48</v>
+      </c>
+      <c r="AG50">
+        <v>0.3125</v>
+      </c>
+      <c r="AK50">
+        <v>48</v>
+      </c>
+      <c r="AL50">
+        <v>0.390625</v>
+      </c>
+      <c r="AO50">
+        <v>48</v>
+      </c>
+      <c r="AP50">
+        <v>0.390625</v>
+      </c>
+      <c r="AS50">
+        <v>48</v>
+      </c>
+      <c r="AT50">
+        <v>0.421875</v>
+      </c>
+      <c r="AX50">
+        <v>48</v>
+      </c>
+      <c r="AY50">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="51" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>49</v>
       </c>
@@ -23539,8 +25656,44 @@
       <c r="R51">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="52" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA51">
+        <v>49</v>
+      </c>
+      <c r="AB51">
+        <v>0.53125</v>
+      </c>
+      <c r="AF51">
+        <v>49</v>
+      </c>
+      <c r="AG51">
+        <v>0.3125</v>
+      </c>
+      <c r="AK51">
+        <v>49</v>
+      </c>
+      <c r="AL51">
+        <v>0.375</v>
+      </c>
+      <c r="AO51">
+        <v>49</v>
+      </c>
+      <c r="AP51">
+        <v>0.375</v>
+      </c>
+      <c r="AS51">
+        <v>49</v>
+      </c>
+      <c r="AT51">
+        <v>0.421875</v>
+      </c>
+      <c r="AX51">
+        <v>49</v>
+      </c>
+      <c r="AY51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>50</v>
       </c>
@@ -23559,8 +25712,44 @@
       <c r="R52">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA52">
+        <v>50</v>
+      </c>
+      <c r="AB52">
+        <v>0.53125</v>
+      </c>
+      <c r="AF52">
+        <v>50</v>
+      </c>
+      <c r="AG52">
+        <v>0.3125</v>
+      </c>
+      <c r="AK52">
+        <v>50</v>
+      </c>
+      <c r="AL52">
+        <v>0.375</v>
+      </c>
+      <c r="AO52">
+        <v>50</v>
+      </c>
+      <c r="AP52">
+        <v>0.390625</v>
+      </c>
+      <c r="AS52">
+        <v>50</v>
+      </c>
+      <c r="AT52">
+        <v>0.421875</v>
+      </c>
+      <c r="AX52">
+        <v>50</v>
+      </c>
+      <c r="AY52">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="53" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>51</v>
       </c>
@@ -23579,8 +25768,44 @@
       <c r="R53">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA53">
+        <v>51</v>
+      </c>
+      <c r="AB53">
+        <v>0.515625</v>
+      </c>
+      <c r="AF53">
+        <v>51</v>
+      </c>
+      <c r="AG53">
+        <v>0.296875</v>
+      </c>
+      <c r="AK53">
+        <v>51</v>
+      </c>
+      <c r="AL53">
+        <v>0.375</v>
+      </c>
+      <c r="AO53">
+        <v>51</v>
+      </c>
+      <c r="AP53">
+        <v>0.390625</v>
+      </c>
+      <c r="AS53">
+        <v>51</v>
+      </c>
+      <c r="AT53">
+        <v>0.421875</v>
+      </c>
+      <c r="AX53">
+        <v>51</v>
+      </c>
+      <c r="AY53">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="54" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>52</v>
       </c>
@@ -23599,8 +25824,44 @@
       <c r="R54">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="55" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA54">
+        <v>52</v>
+      </c>
+      <c r="AB54">
+        <v>0.515625</v>
+      </c>
+      <c r="AF54">
+        <v>52</v>
+      </c>
+      <c r="AG54">
+        <v>0.296875</v>
+      </c>
+      <c r="AK54">
+        <v>52</v>
+      </c>
+      <c r="AL54">
+        <v>0.375</v>
+      </c>
+      <c r="AO54">
+        <v>52</v>
+      </c>
+      <c r="AP54">
+        <v>0.390625</v>
+      </c>
+      <c r="AS54">
+        <v>52</v>
+      </c>
+      <c r="AT54">
+        <v>0.421875</v>
+      </c>
+      <c r="AX54">
+        <v>52</v>
+      </c>
+      <c r="AY54">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="55" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>53</v>
       </c>
@@ -23619,8 +25880,44 @@
       <c r="R55">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="56" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA55">
+        <v>53</v>
+      </c>
+      <c r="AB55">
+        <v>0.515625</v>
+      </c>
+      <c r="AF55">
+        <v>53</v>
+      </c>
+      <c r="AG55">
+        <v>0.296875</v>
+      </c>
+      <c r="AK55">
+        <v>53</v>
+      </c>
+      <c r="AL55">
+        <v>0.375</v>
+      </c>
+      <c r="AO55">
+        <v>53</v>
+      </c>
+      <c r="AP55">
+        <v>0.390625</v>
+      </c>
+      <c r="AS55">
+        <v>53</v>
+      </c>
+      <c r="AT55">
+        <v>0.421875</v>
+      </c>
+      <c r="AX55">
+        <v>53</v>
+      </c>
+      <c r="AY55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>54</v>
       </c>
@@ -23639,8 +25936,44 @@
       <c r="R56">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="57" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA56">
+        <v>54</v>
+      </c>
+      <c r="AB56">
+        <v>0.515625</v>
+      </c>
+      <c r="AF56">
+        <v>54</v>
+      </c>
+      <c r="AG56">
+        <v>0.28125</v>
+      </c>
+      <c r="AK56">
+        <v>54</v>
+      </c>
+      <c r="AL56">
+        <v>0.359375</v>
+      </c>
+      <c r="AO56">
+        <v>54</v>
+      </c>
+      <c r="AP56">
+        <v>0.390625</v>
+      </c>
+      <c r="AS56">
+        <v>54</v>
+      </c>
+      <c r="AT56">
+        <v>0.40625</v>
+      </c>
+      <c r="AX56">
+        <v>54</v>
+      </c>
+      <c r="AY56">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="57" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>55</v>
       </c>
@@ -23659,8 +25992,44 @@
       <c r="R57">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="58" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA57">
+        <v>55</v>
+      </c>
+      <c r="AB57">
+        <v>0.515625</v>
+      </c>
+      <c r="AF57">
+        <v>55</v>
+      </c>
+      <c r="AG57">
+        <v>0.28125</v>
+      </c>
+      <c r="AK57">
+        <v>55</v>
+      </c>
+      <c r="AL57">
+        <v>0.359375</v>
+      </c>
+      <c r="AO57">
+        <v>55</v>
+      </c>
+      <c r="AP57">
+        <v>0.390625</v>
+      </c>
+      <c r="AS57">
+        <v>55</v>
+      </c>
+      <c r="AT57">
+        <v>0.40625</v>
+      </c>
+      <c r="AX57">
+        <v>55</v>
+      </c>
+      <c r="AY57">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="58" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>56</v>
       </c>
@@ -23679,8 +26048,44 @@
       <c r="R58">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="59" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA58">
+        <v>56</v>
+      </c>
+      <c r="AB58">
+        <v>0.515625</v>
+      </c>
+      <c r="AF58">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>0.28125</v>
+      </c>
+      <c r="AK58">
+        <v>56</v>
+      </c>
+      <c r="AL58">
+        <v>0.609375</v>
+      </c>
+      <c r="AO58">
+        <v>56</v>
+      </c>
+      <c r="AP58">
+        <v>0.5</v>
+      </c>
+      <c r="AS58">
+        <v>56</v>
+      </c>
+      <c r="AT58">
+        <v>0.40625</v>
+      </c>
+      <c r="AX58">
+        <v>56</v>
+      </c>
+      <c r="AY58">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="59" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>57</v>
       </c>
@@ -23699,8 +26104,44 @@
       <c r="R59">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="60" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA59">
+        <v>57</v>
+      </c>
+      <c r="AB59">
+        <v>0.515625</v>
+      </c>
+      <c r="AF59">
+        <v>57</v>
+      </c>
+      <c r="AG59">
+        <v>0.296875</v>
+      </c>
+      <c r="AK59">
+        <v>57</v>
+      </c>
+      <c r="AL59">
+        <v>0.484375</v>
+      </c>
+      <c r="AO59">
+        <v>57</v>
+      </c>
+      <c r="AP59">
+        <v>0.359375</v>
+      </c>
+      <c r="AS59">
+        <v>57</v>
+      </c>
+      <c r="AT59">
+        <v>0.40625</v>
+      </c>
+      <c r="AX59">
+        <v>57</v>
+      </c>
+      <c r="AY59">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="60" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>58</v>
       </c>
@@ -23719,8 +26160,44 @@
       <c r="R60">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="61" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA60">
+        <v>58</v>
+      </c>
+      <c r="AB60">
+        <v>0.515625</v>
+      </c>
+      <c r="AF60">
+        <v>58</v>
+      </c>
+      <c r="AG60">
+        <v>0.296875</v>
+      </c>
+      <c r="AK60">
+        <v>58</v>
+      </c>
+      <c r="AL60">
+        <v>0.4375</v>
+      </c>
+      <c r="AO60">
+        <v>58</v>
+      </c>
+      <c r="AP60">
+        <v>0.390625</v>
+      </c>
+      <c r="AS60">
+        <v>58</v>
+      </c>
+      <c r="AT60">
+        <v>0.40625</v>
+      </c>
+      <c r="AX60">
+        <v>58</v>
+      </c>
+      <c r="AY60">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="61" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>59</v>
       </c>
@@ -23739,8 +26216,44 @@
       <c r="R61">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="62" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA61">
+        <v>59</v>
+      </c>
+      <c r="AB61">
+        <v>0.515625</v>
+      </c>
+      <c r="AF61">
+        <v>59</v>
+      </c>
+      <c r="AG61">
+        <v>0.296875</v>
+      </c>
+      <c r="AK61">
+        <v>59</v>
+      </c>
+      <c r="AL61">
+        <v>0.375</v>
+      </c>
+      <c r="AO61">
+        <v>59</v>
+      </c>
+      <c r="AP61">
+        <v>0.359375</v>
+      </c>
+      <c r="AS61">
+        <v>59</v>
+      </c>
+      <c r="AT61">
+        <v>0.40625</v>
+      </c>
+      <c r="AX61">
+        <v>59</v>
+      </c>
+      <c r="AY61">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="62" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>60</v>
       </c>
@@ -23759,8 +26272,44 @@
       <c r="R62">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="63" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA62">
+        <v>60</v>
+      </c>
+      <c r="AB62">
+        <v>0.515625</v>
+      </c>
+      <c r="AF62">
+        <v>60</v>
+      </c>
+      <c r="AG62">
+        <v>0.296875</v>
+      </c>
+      <c r="AK62">
+        <v>60</v>
+      </c>
+      <c r="AL62">
+        <v>0.40625</v>
+      </c>
+      <c r="AO62">
+        <v>60</v>
+      </c>
+      <c r="AP62">
+        <v>0.3125</v>
+      </c>
+      <c r="AS62">
+        <v>60</v>
+      </c>
+      <c r="AT62">
+        <v>0.40625</v>
+      </c>
+      <c r="AX62">
+        <v>60</v>
+      </c>
+      <c r="AY62">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="63" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>61</v>
       </c>
@@ -23779,8 +26328,44 @@
       <c r="R63">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="64" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA63">
+        <v>61</v>
+      </c>
+      <c r="AB63">
+        <v>0.53125</v>
+      </c>
+      <c r="AF63">
+        <v>61</v>
+      </c>
+      <c r="AG63">
+        <v>0.296875</v>
+      </c>
+      <c r="AK63">
+        <v>61</v>
+      </c>
+      <c r="AL63">
+        <v>0.375</v>
+      </c>
+      <c r="AO63">
+        <v>61</v>
+      </c>
+      <c r="AP63">
+        <v>0.328125</v>
+      </c>
+      <c r="AS63">
+        <v>61</v>
+      </c>
+      <c r="AT63">
+        <v>0.40625</v>
+      </c>
+      <c r="AX63">
+        <v>61</v>
+      </c>
+      <c r="AY63">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="64" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>62</v>
       </c>
@@ -23799,8 +26384,44 @@
       <c r="R64">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="65" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA64">
+        <v>62</v>
+      </c>
+      <c r="AB64">
+        <v>0.53125</v>
+      </c>
+      <c r="AF64">
+        <v>62</v>
+      </c>
+      <c r="AG64">
+        <v>0.296875</v>
+      </c>
+      <c r="AK64">
+        <v>62</v>
+      </c>
+      <c r="AL64">
+        <v>0.359375</v>
+      </c>
+      <c r="AO64">
+        <v>62</v>
+      </c>
+      <c r="AP64">
+        <v>0.296875</v>
+      </c>
+      <c r="AS64">
+        <v>62</v>
+      </c>
+      <c r="AT64">
+        <v>0.40625</v>
+      </c>
+      <c r="AX64">
+        <v>62</v>
+      </c>
+      <c r="AY64">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="65" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>63</v>
       </c>
@@ -23819,8 +26440,44 @@
       <c r="R65">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="66" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA65">
+        <v>63</v>
+      </c>
+      <c r="AB65">
+        <v>0.53125</v>
+      </c>
+      <c r="AF65">
+        <v>63</v>
+      </c>
+      <c r="AG65">
+        <v>0.28125</v>
+      </c>
+      <c r="AK65">
+        <v>63</v>
+      </c>
+      <c r="AL65">
+        <v>0.375</v>
+      </c>
+      <c r="AO65">
+        <v>63</v>
+      </c>
+      <c r="AP65">
+        <v>0.328125</v>
+      </c>
+      <c r="AS65">
+        <v>63</v>
+      </c>
+      <c r="AT65">
+        <v>0.40625</v>
+      </c>
+      <c r="AX65">
+        <v>63</v>
+      </c>
+      <c r="AY65">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="66" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>64</v>
       </c>
@@ -23839,8 +26496,44 @@
       <c r="R66">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="67" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA66">
+        <v>64</v>
+      </c>
+      <c r="AB66">
+        <v>0.53125</v>
+      </c>
+      <c r="AF66">
+        <v>64</v>
+      </c>
+      <c r="AG66">
+        <v>0.28125</v>
+      </c>
+      <c r="AK66">
+        <v>64</v>
+      </c>
+      <c r="AL66">
+        <v>0.375</v>
+      </c>
+      <c r="AO66">
+        <v>64</v>
+      </c>
+      <c r="AP66">
+        <v>0.328125</v>
+      </c>
+      <c r="AS66">
+        <v>64</v>
+      </c>
+      <c r="AT66">
+        <v>0.40625</v>
+      </c>
+      <c r="AX66">
+        <v>64</v>
+      </c>
+      <c r="AY66">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="67" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>65</v>
       </c>
@@ -23859,8 +26552,44 @@
       <c r="R67">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="68" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA67">
+        <v>65</v>
+      </c>
+      <c r="AB67">
+        <v>0.53125</v>
+      </c>
+      <c r="AF67">
+        <v>65</v>
+      </c>
+      <c r="AG67">
+        <v>0.28125</v>
+      </c>
+      <c r="AK67">
+        <v>65</v>
+      </c>
+      <c r="AL67">
+        <v>0.375</v>
+      </c>
+      <c r="AO67">
+        <v>65</v>
+      </c>
+      <c r="AP67">
+        <v>0.3125</v>
+      </c>
+      <c r="AS67">
+        <v>65</v>
+      </c>
+      <c r="AT67">
+        <v>0.40625</v>
+      </c>
+      <c r="AX67">
+        <v>65</v>
+      </c>
+      <c r="AY67">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="68" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>66</v>
       </c>
@@ -23879,8 +26608,44 @@
       <c r="R68">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="69" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA68">
+        <v>66</v>
+      </c>
+      <c r="AB68">
+        <v>0.53125</v>
+      </c>
+      <c r="AF68">
+        <v>66</v>
+      </c>
+      <c r="AG68">
+        <v>0.578125</v>
+      </c>
+      <c r="AK68">
+        <v>66</v>
+      </c>
+      <c r="AL68">
+        <v>0.375</v>
+      </c>
+      <c r="AO68">
+        <v>66</v>
+      </c>
+      <c r="AP68">
+        <v>0.328125</v>
+      </c>
+      <c r="AS68">
+        <v>66</v>
+      </c>
+      <c r="AT68">
+        <v>0.40625</v>
+      </c>
+      <c r="AX68">
+        <v>66</v>
+      </c>
+      <c r="AY68">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="69" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>67</v>
       </c>
@@ -23899,8 +26664,44 @@
       <c r="R69">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="70" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA69">
+        <v>67</v>
+      </c>
+      <c r="AB69">
+        <v>0.515625</v>
+      </c>
+      <c r="AF69">
+        <v>67</v>
+      </c>
+      <c r="AG69">
+        <v>0.375</v>
+      </c>
+      <c r="AK69">
+        <v>67</v>
+      </c>
+      <c r="AL69">
+        <v>0.375</v>
+      </c>
+      <c r="AO69">
+        <v>67</v>
+      </c>
+      <c r="AP69">
+        <v>0.34375</v>
+      </c>
+      <c r="AS69">
+        <v>67</v>
+      </c>
+      <c r="AT69">
+        <v>0.40625</v>
+      </c>
+      <c r="AX69">
+        <v>67</v>
+      </c>
+      <c r="AY69">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="70" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>68</v>
       </c>
@@ -23919,8 +26720,44 @@
       <c r="R70">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="71" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA70">
+        <v>68</v>
+      </c>
+      <c r="AB70">
+        <v>0.515625</v>
+      </c>
+      <c r="AF70">
+        <v>68</v>
+      </c>
+      <c r="AG70">
+        <v>0.375</v>
+      </c>
+      <c r="AK70">
+        <v>68</v>
+      </c>
+      <c r="AL70">
+        <v>0.375</v>
+      </c>
+      <c r="AO70">
+        <v>68</v>
+      </c>
+      <c r="AP70">
+        <v>0.328125</v>
+      </c>
+      <c r="AS70">
+        <v>68</v>
+      </c>
+      <c r="AT70">
+        <v>0.40625</v>
+      </c>
+      <c r="AX70">
+        <v>68</v>
+      </c>
+      <c r="AY70">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="71" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>69</v>
       </c>
@@ -23939,8 +26776,44 @@
       <c r="R71">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="72" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA71">
+        <v>69</v>
+      </c>
+      <c r="AB71">
+        <v>0.515625</v>
+      </c>
+      <c r="AF71">
+        <v>69</v>
+      </c>
+      <c r="AG71">
+        <v>0.328125</v>
+      </c>
+      <c r="AK71">
+        <v>69</v>
+      </c>
+      <c r="AL71">
+        <v>0.375</v>
+      </c>
+      <c r="AO71">
+        <v>69</v>
+      </c>
+      <c r="AP71">
+        <v>0.328125</v>
+      </c>
+      <c r="AS71">
+        <v>69</v>
+      </c>
+      <c r="AT71">
+        <v>0.40625</v>
+      </c>
+      <c r="AX71">
+        <v>69</v>
+      </c>
+      <c r="AY71">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="72" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>70</v>
       </c>
@@ -23959,8 +26832,44 @@
       <c r="R72">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="73" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA72">
+        <v>70</v>
+      </c>
+      <c r="AB72">
+        <v>0.53125</v>
+      </c>
+      <c r="AF72">
+        <v>70</v>
+      </c>
+      <c r="AG72">
+        <v>0.28125</v>
+      </c>
+      <c r="AK72">
+        <v>70</v>
+      </c>
+      <c r="AL72">
+        <v>0.375</v>
+      </c>
+      <c r="AO72">
+        <v>70</v>
+      </c>
+      <c r="AP72">
+        <v>0.328125</v>
+      </c>
+      <c r="AS72">
+        <v>70</v>
+      </c>
+      <c r="AT72">
+        <v>0.40625</v>
+      </c>
+      <c r="AX72">
+        <v>70</v>
+      </c>
+      <c r="AY72">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="73" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>71</v>
       </c>
@@ -23979,8 +26888,44 @@
       <c r="R73">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="74" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA73">
+        <v>71</v>
+      </c>
+      <c r="AB73">
+        <v>0.53125</v>
+      </c>
+      <c r="AF73">
+        <v>71</v>
+      </c>
+      <c r="AG73">
+        <v>0.265625</v>
+      </c>
+      <c r="AK73">
+        <v>71</v>
+      </c>
+      <c r="AL73">
+        <v>0.359375</v>
+      </c>
+      <c r="AO73">
+        <v>71</v>
+      </c>
+      <c r="AP73">
+        <v>0.328125</v>
+      </c>
+      <c r="AS73">
+        <v>71</v>
+      </c>
+      <c r="AT73">
+        <v>0.40625</v>
+      </c>
+      <c r="AX73">
+        <v>71</v>
+      </c>
+      <c r="AY73">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="74" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>72</v>
       </c>
@@ -23999,8 +26944,44 @@
       <c r="R74">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="75" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA74">
+        <v>72</v>
+      </c>
+      <c r="AB74">
+        <v>0.53125</v>
+      </c>
+      <c r="AF74">
+        <v>72</v>
+      </c>
+      <c r="AG74">
+        <v>0.28125</v>
+      </c>
+      <c r="AK74">
+        <v>72</v>
+      </c>
+      <c r="AL74">
+        <v>0.359375</v>
+      </c>
+      <c r="AO74">
+        <v>72</v>
+      </c>
+      <c r="AP74">
+        <v>0.328125</v>
+      </c>
+      <c r="AS74">
+        <v>72</v>
+      </c>
+      <c r="AT74">
+        <v>0.40625</v>
+      </c>
+      <c r="AX74">
+        <v>72</v>
+      </c>
+      <c r="AY74">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="75" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>73</v>
       </c>
@@ -24019,8 +27000,44 @@
       <c r="R75">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="76" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA75">
+        <v>73</v>
+      </c>
+      <c r="AB75">
+        <v>0.546875</v>
+      </c>
+      <c r="AF75">
+        <v>73</v>
+      </c>
+      <c r="AG75">
+        <v>0.265625</v>
+      </c>
+      <c r="AK75">
+        <v>73</v>
+      </c>
+      <c r="AL75">
+        <v>0.359375</v>
+      </c>
+      <c r="AO75">
+        <v>73</v>
+      </c>
+      <c r="AP75">
+        <v>0.328125</v>
+      </c>
+      <c r="AS75">
+        <v>73</v>
+      </c>
+      <c r="AT75">
+        <v>0.734375</v>
+      </c>
+      <c r="AX75">
+        <v>73</v>
+      </c>
+      <c r="AY75">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="76" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>74</v>
       </c>
@@ -24039,8 +27056,44 @@
       <c r="R76">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="77" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA76">
+        <v>74</v>
+      </c>
+      <c r="AB76">
+        <v>0.546875</v>
+      </c>
+      <c r="AF76">
+        <v>74</v>
+      </c>
+      <c r="AG76">
+        <v>0.25</v>
+      </c>
+      <c r="AK76">
+        <v>74</v>
+      </c>
+      <c r="AL76">
+        <v>0.359375</v>
+      </c>
+      <c r="AO76">
+        <v>74</v>
+      </c>
+      <c r="AP76">
+        <v>0.328125</v>
+      </c>
+      <c r="AS76">
+        <v>74</v>
+      </c>
+      <c r="AT76">
+        <v>0.5</v>
+      </c>
+      <c r="AX76">
+        <v>74</v>
+      </c>
+      <c r="AY76">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="77" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>75</v>
       </c>
@@ -24059,8 +27112,44 @@
       <c r="R77">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="78" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA77">
+        <v>75</v>
+      </c>
+      <c r="AB77">
+        <v>0.546875</v>
+      </c>
+      <c r="AF77">
+        <v>75</v>
+      </c>
+      <c r="AG77">
+        <v>0.234375</v>
+      </c>
+      <c r="AK77">
+        <v>75</v>
+      </c>
+      <c r="AL77">
+        <v>0.359375</v>
+      </c>
+      <c r="AO77">
+        <v>75</v>
+      </c>
+      <c r="AP77">
+        <v>0.328125</v>
+      </c>
+      <c r="AS77">
+        <v>75</v>
+      </c>
+      <c r="AT77">
+        <v>0.453125</v>
+      </c>
+      <c r="AX77">
+        <v>75</v>
+      </c>
+      <c r="AY77">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="78" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>76</v>
       </c>
@@ -24079,8 +27168,44 @@
       <c r="R78">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="79" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA78">
+        <v>76</v>
+      </c>
+      <c r="AB78">
+        <v>0.546875</v>
+      </c>
+      <c r="AF78">
+        <v>76</v>
+      </c>
+      <c r="AG78">
+        <v>0.234375</v>
+      </c>
+      <c r="AK78">
+        <v>76</v>
+      </c>
+      <c r="AL78">
+        <v>0.359375</v>
+      </c>
+      <c r="AO78">
+        <v>76</v>
+      </c>
+      <c r="AP78">
+        <v>0.328125</v>
+      </c>
+      <c r="AS78">
+        <v>76</v>
+      </c>
+      <c r="AT78">
+        <v>0.40625</v>
+      </c>
+      <c r="AX78">
+        <v>76</v>
+      </c>
+      <c r="AY78">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="79" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>77</v>
       </c>
@@ -24099,8 +27224,44 @@
       <c r="R79">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="80" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA79">
+        <v>77</v>
+      </c>
+      <c r="AB79">
+        <v>0.546875</v>
+      </c>
+      <c r="AF79">
+        <v>77</v>
+      </c>
+      <c r="AG79">
+        <v>0.234375</v>
+      </c>
+      <c r="AK79">
+        <v>77</v>
+      </c>
+      <c r="AL79">
+        <v>0.359375</v>
+      </c>
+      <c r="AO79">
+        <v>77</v>
+      </c>
+      <c r="AP79">
+        <v>0.328125</v>
+      </c>
+      <c r="AS79">
+        <v>77</v>
+      </c>
+      <c r="AT79">
+        <v>0.453125</v>
+      </c>
+      <c r="AX79">
+        <v>77</v>
+      </c>
+      <c r="AY79">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="80" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>78</v>
       </c>
@@ -24119,8 +27280,44 @@
       <c r="R80">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="81" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA80">
+        <v>78</v>
+      </c>
+      <c r="AB80">
+        <v>0.546875</v>
+      </c>
+      <c r="AF80">
+        <v>78</v>
+      </c>
+      <c r="AG80">
+        <v>0.234375</v>
+      </c>
+      <c r="AK80">
+        <v>78</v>
+      </c>
+      <c r="AL80">
+        <v>0.359375</v>
+      </c>
+      <c r="AO80">
+        <v>78</v>
+      </c>
+      <c r="AP80">
+        <v>0.328125</v>
+      </c>
+      <c r="AS80">
+        <v>78</v>
+      </c>
+      <c r="AT80">
+        <v>0.453125</v>
+      </c>
+      <c r="AX80">
+        <v>78</v>
+      </c>
+      <c r="AY80">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="81" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>79</v>
       </c>
@@ -24139,8 +27336,44 @@
       <c r="R81">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="82" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA81">
+        <v>79</v>
+      </c>
+      <c r="AB81">
+        <v>0.5625</v>
+      </c>
+      <c r="AF81">
+        <v>79</v>
+      </c>
+      <c r="AG81">
+        <v>0.234375</v>
+      </c>
+      <c r="AK81">
+        <v>79</v>
+      </c>
+      <c r="AL81">
+        <v>0.359375</v>
+      </c>
+      <c r="AO81">
+        <v>79</v>
+      </c>
+      <c r="AP81">
+        <v>0.328125</v>
+      </c>
+      <c r="AS81">
+        <v>79</v>
+      </c>
+      <c r="AT81">
+        <v>0.421875</v>
+      </c>
+      <c r="AX81">
+        <v>79</v>
+      </c>
+      <c r="AY81">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="82" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>80</v>
       </c>
@@ -24159,8 +27392,44 @@
       <c r="R82">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="83" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA82">
+        <v>80</v>
+      </c>
+      <c r="AB82">
+        <v>0.5625</v>
+      </c>
+      <c r="AF82">
+        <v>80</v>
+      </c>
+      <c r="AG82">
+        <v>0.21875</v>
+      </c>
+      <c r="AK82">
+        <v>80</v>
+      </c>
+      <c r="AL82">
+        <v>0.359375</v>
+      </c>
+      <c r="AO82">
+        <v>80</v>
+      </c>
+      <c r="AP82">
+        <v>0.328125</v>
+      </c>
+      <c r="AS82">
+        <v>80</v>
+      </c>
+      <c r="AT82">
+        <v>0.421875</v>
+      </c>
+      <c r="AX82">
+        <v>80</v>
+      </c>
+      <c r="AY82">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="83" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>81</v>
       </c>
@@ -24179,8 +27448,44 @@
       <c r="R83">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="84" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA83">
+        <v>81</v>
+      </c>
+      <c r="AB83">
+        <v>0.53125</v>
+      </c>
+      <c r="AF83">
+        <v>81</v>
+      </c>
+      <c r="AG83">
+        <v>0.21875</v>
+      </c>
+      <c r="AK83">
+        <v>81</v>
+      </c>
+      <c r="AL83">
+        <v>0.359375</v>
+      </c>
+      <c r="AO83">
+        <v>81</v>
+      </c>
+      <c r="AP83">
+        <v>0.328125</v>
+      </c>
+      <c r="AS83">
+        <v>81</v>
+      </c>
+      <c r="AT83">
+        <v>0.421875</v>
+      </c>
+      <c r="AX83">
+        <v>81</v>
+      </c>
+      <c r="AY83">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="84" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>82</v>
       </c>
@@ -24199,8 +27504,44 @@
       <c r="R84">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="85" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA84">
+        <v>82</v>
+      </c>
+      <c r="AB84">
+        <v>0.53125</v>
+      </c>
+      <c r="AF84">
+        <v>82</v>
+      </c>
+      <c r="AG84">
+        <v>0.21875</v>
+      </c>
+      <c r="AK84">
+        <v>82</v>
+      </c>
+      <c r="AL84">
+        <v>0.359375</v>
+      </c>
+      <c r="AO84">
+        <v>82</v>
+      </c>
+      <c r="AP84">
+        <v>0.3125</v>
+      </c>
+      <c r="AS84">
+        <v>82</v>
+      </c>
+      <c r="AT84">
+        <v>0.421875</v>
+      </c>
+      <c r="AX84">
+        <v>82</v>
+      </c>
+      <c r="AY84">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="85" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>83</v>
       </c>
@@ -24219,8 +27560,44 @@
       <c r="R85">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="86" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA85">
+        <v>83</v>
+      </c>
+      <c r="AB85">
+        <v>0.53125</v>
+      </c>
+      <c r="AF85">
+        <v>83</v>
+      </c>
+      <c r="AG85">
+        <v>0.21875</v>
+      </c>
+      <c r="AK85">
+        <v>83</v>
+      </c>
+      <c r="AL85">
+        <v>0.359375</v>
+      </c>
+      <c r="AO85">
+        <v>83</v>
+      </c>
+      <c r="AP85">
+        <v>0.3125</v>
+      </c>
+      <c r="AS85">
+        <v>83</v>
+      </c>
+      <c r="AT85">
+        <v>0.421875</v>
+      </c>
+      <c r="AX85">
+        <v>83</v>
+      </c>
+      <c r="AY85">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="86" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E86">
         <v>84</v>
       </c>
@@ -24239,8 +27616,44 @@
       <c r="R86">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="87" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA86">
+        <v>84</v>
+      </c>
+      <c r="AB86">
+        <v>0.546875</v>
+      </c>
+      <c r="AF86">
+        <v>84</v>
+      </c>
+      <c r="AG86">
+        <v>0.21875</v>
+      </c>
+      <c r="AK86">
+        <v>84</v>
+      </c>
+      <c r="AL86">
+        <v>0.359375</v>
+      </c>
+      <c r="AO86">
+        <v>84</v>
+      </c>
+      <c r="AP86">
+        <v>0.3125</v>
+      </c>
+      <c r="AS86">
+        <v>84</v>
+      </c>
+      <c r="AT86">
+        <v>0.421875</v>
+      </c>
+      <c r="AX86">
+        <v>84</v>
+      </c>
+      <c r="AY86">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="87" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>85</v>
       </c>
@@ -24259,8 +27672,44 @@
       <c r="R87">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="88" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA87">
+        <v>85</v>
+      </c>
+      <c r="AB87">
+        <v>0.53125</v>
+      </c>
+      <c r="AF87">
+        <v>85</v>
+      </c>
+      <c r="AG87">
+        <v>0.21875</v>
+      </c>
+      <c r="AK87">
+        <v>85</v>
+      </c>
+      <c r="AL87">
+        <v>0.359375</v>
+      </c>
+      <c r="AO87">
+        <v>85</v>
+      </c>
+      <c r="AP87">
+        <v>0.3125</v>
+      </c>
+      <c r="AS87">
+        <v>85</v>
+      </c>
+      <c r="AT87">
+        <v>0.421875</v>
+      </c>
+      <c r="AX87">
+        <v>85</v>
+      </c>
+      <c r="AY87">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="88" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>86</v>
       </c>
@@ -24279,8 +27728,44 @@
       <c r="R88">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="89" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA88">
+        <v>86</v>
+      </c>
+      <c r="AB88">
+        <v>0.53125</v>
+      </c>
+      <c r="AF88">
+        <v>86</v>
+      </c>
+      <c r="AG88">
+        <v>0.21875</v>
+      </c>
+      <c r="AK88">
+        <v>86</v>
+      </c>
+      <c r="AL88">
+        <v>0.359375</v>
+      </c>
+      <c r="AO88">
+        <v>86</v>
+      </c>
+      <c r="AP88">
+        <v>0.3125</v>
+      </c>
+      <c r="AS88">
+        <v>86</v>
+      </c>
+      <c r="AT88">
+        <v>0.40625</v>
+      </c>
+      <c r="AX88">
+        <v>86</v>
+      </c>
+      <c r="AY88">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="89" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>87</v>
       </c>
@@ -24299,8 +27784,44 @@
       <c r="R89">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="90" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA89">
+        <v>87</v>
+      </c>
+      <c r="AB89">
+        <v>0.53125</v>
+      </c>
+      <c r="AF89">
+        <v>87</v>
+      </c>
+      <c r="AG89">
+        <v>0.21875</v>
+      </c>
+      <c r="AK89">
+        <v>87</v>
+      </c>
+      <c r="AL89">
+        <v>0.359375</v>
+      </c>
+      <c r="AO89">
+        <v>87</v>
+      </c>
+      <c r="AP89">
+        <v>0.3125</v>
+      </c>
+      <c r="AS89">
+        <v>87</v>
+      </c>
+      <c r="AT89">
+        <v>0.40625</v>
+      </c>
+      <c r="AX89">
+        <v>87</v>
+      </c>
+      <c r="AY89">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="90" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>88</v>
       </c>
@@ -24319,8 +27840,44 @@
       <c r="R90">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="91" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA90">
+        <v>88</v>
+      </c>
+      <c r="AB90">
+        <v>0.53125</v>
+      </c>
+      <c r="AF90">
+        <v>88</v>
+      </c>
+      <c r="AG90">
+        <v>0.21875</v>
+      </c>
+      <c r="AK90">
+        <v>88</v>
+      </c>
+      <c r="AL90">
+        <v>0.359375</v>
+      </c>
+      <c r="AO90">
+        <v>88</v>
+      </c>
+      <c r="AP90">
+        <v>0.3125</v>
+      </c>
+      <c r="AS90">
+        <v>88</v>
+      </c>
+      <c r="AT90">
+        <v>0.40625</v>
+      </c>
+      <c r="AX90">
+        <v>88</v>
+      </c>
+      <c r="AY90">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="91" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>89</v>
       </c>
@@ -24339,8 +27896,44 @@
       <c r="R91">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="92" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA91">
+        <v>89</v>
+      </c>
+      <c r="AB91">
+        <v>0.53125</v>
+      </c>
+      <c r="AF91">
+        <v>89</v>
+      </c>
+      <c r="AG91">
+        <v>0.21875</v>
+      </c>
+      <c r="AK91">
+        <v>89</v>
+      </c>
+      <c r="AL91">
+        <v>0.359375</v>
+      </c>
+      <c r="AO91">
+        <v>89</v>
+      </c>
+      <c r="AP91">
+        <v>0.3125</v>
+      </c>
+      <c r="AS91">
+        <v>89</v>
+      </c>
+      <c r="AT91">
+        <v>0.40625</v>
+      </c>
+      <c r="AX91">
+        <v>89</v>
+      </c>
+      <c r="AY91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>90</v>
       </c>
@@ -24359,8 +27952,44 @@
       <c r="R92">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="93" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA92">
+        <v>90</v>
+      </c>
+      <c r="AB92">
+        <v>0.53125</v>
+      </c>
+      <c r="AF92">
+        <v>90</v>
+      </c>
+      <c r="AG92">
+        <v>0.21875</v>
+      </c>
+      <c r="AK92">
+        <v>90</v>
+      </c>
+      <c r="AL92">
+        <v>0.359375</v>
+      </c>
+      <c r="AO92">
+        <v>90</v>
+      </c>
+      <c r="AP92">
+        <v>0.3125</v>
+      </c>
+      <c r="AS92">
+        <v>90</v>
+      </c>
+      <c r="AT92">
+        <v>0.40625</v>
+      </c>
+      <c r="AX92">
+        <v>90</v>
+      </c>
+      <c r="AY92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>91</v>
       </c>
@@ -24379,8 +28008,44 @@
       <c r="R93">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="94" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA93">
+        <v>91</v>
+      </c>
+      <c r="AB93">
+        <v>0.53125</v>
+      </c>
+      <c r="AF93">
+        <v>91</v>
+      </c>
+      <c r="AG93">
+        <v>0.21875</v>
+      </c>
+      <c r="AK93">
+        <v>91</v>
+      </c>
+      <c r="AL93">
+        <v>0.359375</v>
+      </c>
+      <c r="AO93">
+        <v>91</v>
+      </c>
+      <c r="AP93">
+        <v>0.3125</v>
+      </c>
+      <c r="AS93">
+        <v>91</v>
+      </c>
+      <c r="AT93">
+        <v>0.40625</v>
+      </c>
+      <c r="AX93">
+        <v>91</v>
+      </c>
+      <c r="AY93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E94">
         <v>92</v>
       </c>
@@ -24399,8 +28064,44 @@
       <c r="R94">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="95" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA94">
+        <v>92</v>
+      </c>
+      <c r="AB94">
+        <v>0.515625</v>
+      </c>
+      <c r="AF94">
+        <v>92</v>
+      </c>
+      <c r="AG94">
+        <v>0.21875</v>
+      </c>
+      <c r="AK94">
+        <v>92</v>
+      </c>
+      <c r="AL94">
+        <v>0.359375</v>
+      </c>
+      <c r="AO94">
+        <v>92</v>
+      </c>
+      <c r="AP94">
+        <v>0.3125</v>
+      </c>
+      <c r="AS94">
+        <v>92</v>
+      </c>
+      <c r="AT94">
+        <v>0.40625</v>
+      </c>
+      <c r="AX94">
+        <v>92</v>
+      </c>
+      <c r="AY94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>93</v>
       </c>
@@ -24419,8 +28120,44 @@
       <c r="R95">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="96" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA95">
+        <v>93</v>
+      </c>
+      <c r="AB95">
+        <v>0.515625</v>
+      </c>
+      <c r="AF95">
+        <v>93</v>
+      </c>
+      <c r="AG95">
+        <v>0.21875</v>
+      </c>
+      <c r="AK95">
+        <v>93</v>
+      </c>
+      <c r="AL95">
+        <v>0.359375</v>
+      </c>
+      <c r="AO95">
+        <v>93</v>
+      </c>
+      <c r="AP95">
+        <v>0.3125</v>
+      </c>
+      <c r="AS95">
+        <v>93</v>
+      </c>
+      <c r="AT95">
+        <v>0.40625</v>
+      </c>
+      <c r="AX95">
+        <v>93</v>
+      </c>
+      <c r="AY95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>94</v>
       </c>
@@ -24439,8 +28176,44 @@
       <c r="R96">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="97" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA96">
+        <v>94</v>
+      </c>
+      <c r="AB96">
+        <v>0.515625</v>
+      </c>
+      <c r="AF96">
+        <v>94</v>
+      </c>
+      <c r="AG96">
+        <v>0.21875</v>
+      </c>
+      <c r="AK96">
+        <v>94</v>
+      </c>
+      <c r="AL96">
+        <v>0.359375</v>
+      </c>
+      <c r="AO96">
+        <v>94</v>
+      </c>
+      <c r="AP96">
+        <v>0.296875</v>
+      </c>
+      <c r="AS96">
+        <v>94</v>
+      </c>
+      <c r="AT96">
+        <v>0.40625</v>
+      </c>
+      <c r="AX96">
+        <v>94</v>
+      </c>
+      <c r="AY96">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>95</v>
       </c>
@@ -24459,8 +28232,44 @@
       <c r="R97">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="98" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA97">
+        <v>95</v>
+      </c>
+      <c r="AB97">
+        <v>0.53125</v>
+      </c>
+      <c r="AF97">
+        <v>95</v>
+      </c>
+      <c r="AG97">
+        <v>0.21875</v>
+      </c>
+      <c r="AK97">
+        <v>95</v>
+      </c>
+      <c r="AL97">
+        <v>0.359375</v>
+      </c>
+      <c r="AO97">
+        <v>95</v>
+      </c>
+      <c r="AP97">
+        <v>0.296875</v>
+      </c>
+      <c r="AS97">
+        <v>95</v>
+      </c>
+      <c r="AT97">
+        <v>0.40625</v>
+      </c>
+      <c r="AX97">
+        <v>95</v>
+      </c>
+      <c r="AY97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>96</v>
       </c>
@@ -24479,8 +28288,44 @@
       <c r="R98">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="99" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA98">
+        <v>96</v>
+      </c>
+      <c r="AB98">
+        <v>0.53125</v>
+      </c>
+      <c r="AF98">
+        <v>96</v>
+      </c>
+      <c r="AG98">
+        <v>0.21875</v>
+      </c>
+      <c r="AK98">
+        <v>96</v>
+      </c>
+      <c r="AL98">
+        <v>0.359375</v>
+      </c>
+      <c r="AO98">
+        <v>96</v>
+      </c>
+      <c r="AP98">
+        <v>0.296875</v>
+      </c>
+      <c r="AS98">
+        <v>96</v>
+      </c>
+      <c r="AT98">
+        <v>0.40625</v>
+      </c>
+      <c r="AX98">
+        <v>96</v>
+      </c>
+      <c r="AY98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>97</v>
       </c>
@@ -24499,8 +28344,44 @@
       <c r="R99">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="100" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA99">
+        <v>97</v>
+      </c>
+      <c r="AB99">
+        <v>0.53125</v>
+      </c>
+      <c r="AF99">
+        <v>97</v>
+      </c>
+      <c r="AG99">
+        <v>0.21875</v>
+      </c>
+      <c r="AK99">
+        <v>97</v>
+      </c>
+      <c r="AL99">
+        <v>0.359375</v>
+      </c>
+      <c r="AO99">
+        <v>97</v>
+      </c>
+      <c r="AP99">
+        <v>0.296875</v>
+      </c>
+      <c r="AS99">
+        <v>97</v>
+      </c>
+      <c r="AT99">
+        <v>0.40625</v>
+      </c>
+      <c r="AX99">
+        <v>97</v>
+      </c>
+      <c r="AY99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>98</v>
       </c>
@@ -24519,8 +28400,44 @@
       <c r="R100">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="101" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="AA100">
+        <v>98</v>
+      </c>
+      <c r="AB100">
+        <v>0.53125</v>
+      </c>
+      <c r="AF100">
+        <v>98</v>
+      </c>
+      <c r="AG100">
+        <v>0.21875</v>
+      </c>
+      <c r="AK100">
+        <v>98</v>
+      </c>
+      <c r="AL100">
+        <v>0.359375</v>
+      </c>
+      <c r="AO100">
+        <v>98</v>
+      </c>
+      <c r="AP100">
+        <v>0.296875</v>
+      </c>
+      <c r="AS100">
+        <v>98</v>
+      </c>
+      <c r="AT100">
+        <v>0.40625</v>
+      </c>
+      <c r="AX100">
+        <v>98</v>
+      </c>
+      <c r="AY100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="5:51" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>99</v>
       </c>
@@ -24538,6 +28455,42 @@
       </c>
       <c r="R101">
         <v>0.40625</v>
+      </c>
+      <c r="AA101">
+        <v>99</v>
+      </c>
+      <c r="AB101">
+        <v>0.53125</v>
+      </c>
+      <c r="AF101">
+        <v>99</v>
+      </c>
+      <c r="AG101">
+        <v>0.21875</v>
+      </c>
+      <c r="AK101">
+        <v>99</v>
+      </c>
+      <c r="AL101">
+        <v>0.359375</v>
+      </c>
+      <c r="AO101">
+        <v>99</v>
+      </c>
+      <c r="AP101">
+        <v>0.296875</v>
+      </c>
+      <c r="AS101">
+        <v>99</v>
+      </c>
+      <c r="AT101">
+        <v>0.40625</v>
+      </c>
+      <c r="AX101">
+        <v>99</v>
+      </c>
+      <c r="AY101">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Vanshika/Dysarthric Speaker Results.xlsx
+++ b/Vanshika/Dysarthric Speaker Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEBA6B-2192-44B5-8605-07442C429F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD48C6CD-083A-48C7-84AD-39C5919816C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="1776" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{91C81998-2F39-4CFA-8E6F-7FBA1F50AC48}"/>
   </bookViews>
   <sheets>
     <sheet name="No transfer learning" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="83">
   <si>
     <t>F02</t>
   </si>
@@ -552,12 +552,71 @@
   <si>
     <t>Acc: 62%</t>
   </si>
+  <si>
+    <t>Acc: 90%</t>
+  </si>
+  <si>
+    <r>
+      <t>((model.layers)[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF280D0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6688CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]).trainable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF225588"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF6688CC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF280D0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+  </si>
+  <si>
+    <t>Acc:88%</t>
+  </si>
+  <si>
+    <t>Acc:34%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,8 +668,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +686,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +739,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2105,8 +2194,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>410718</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182309</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2395,6 +2484,270 @@
         <a:xfrm>
           <a:off x="28171140" y="581025"/>
           <a:ext cx="1408938" cy="1056704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>258318</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FD2494-A6A0-8E76-A35F-D7B343026A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31341060" y="741045"/>
+          <a:ext cx="1226058" cy="919544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>410718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52ED7D-925E-36E2-A0B1-44BBD22F15B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33705800" y="990600"/>
+          <a:ext cx="1452118" cy="1089089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>197358</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACD9FFB-CAE6-9B7A-59FB-F97EB54A31FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36347400" y="746760"/>
+          <a:ext cx="1645158" cy="1233869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>220218</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F82EA07-787E-733B-D935-2915B311C10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39387780" y="1120140"/>
+          <a:ext cx="1675638" cy="1256729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAD9731-D6B5-993E-E897-D7A8C2B47E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42217340" y="929640"/>
+          <a:ext cx="1315720" cy="986790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>250249</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C2B31B-E06D-AC5F-D045-A9B42146181C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11412070" y="1136277"/>
+          <a:ext cx="1639779" cy="1229834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2986,34 +3339,34 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="W1" s="10" t="s">
+      <c r="S1" s="15"/>
+      <c r="W1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="AB1" s="10" t="s">
+      <c r="X1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="10"/>
-      <c r="AF1" s="10" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="10"/>
+      <c r="AG1" s="15"/>
       <c r="AK1" t="s">
         <v>2</v>
       </c>
@@ -12366,8 +12719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DABDB1-FABF-4C3D-AC23-BB3AAB003A8F}">
   <dimension ref="A1:CH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL3" sqref="BL3"/>
+    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12454,7 +12807,7 @@
       <c r="BY1" t="s">
         <v>2</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="CC1" t="s">
@@ -12563,6 +12916,7 @@
       </c>
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="D3" s="10"/>
       <c r="E3" t="s">
         <v>41</v>
       </c>
@@ -12572,6 +12926,7 @@
       <c r="H3">
         <v>0.96875</v>
       </c>
+      <c r="I3" s="11"/>
       <c r="J3" t="s">
         <v>53</v>
       </c>
@@ -12581,6 +12936,7 @@
       <c r="M3">
         <v>0.9375</v>
       </c>
+      <c r="N3" s="10"/>
       <c r="O3" t="s">
         <v>54</v>
       </c>
@@ -12590,6 +12946,7 @@
       <c r="S3">
         <v>0.984375</v>
       </c>
+      <c r="T3" s="12"/>
       <c r="U3" t="s">
         <v>55</v>
       </c>
@@ -22770,15 +23127,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E5C91-1D3E-4AA2-9DFC-F0B0E123EE61}">
-  <dimension ref="A1:AY101"/>
+  <dimension ref="A1:BU101"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -22841,8 +23198,38 @@
       <c r="AX1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BA1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>0</v>
       </c>
@@ -22861,6 +23248,12 @@
       <c r="R2">
         <v>0.953125</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.953125</v>
+      </c>
       <c r="AA2">
         <v>0</v>
       </c>
@@ -22897,8 +23290,38 @@
       <c r="AY2">
         <v>0.65625</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0.625</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0.46875</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0.25</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0.375</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>1</v>
       </c>
@@ -22908,12 +23331,14 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
+      <c r="I3" s="10"/>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
         <v>0.96875</v>
       </c>
+      <c r="N3" s="13"/>
       <c r="O3" s="9" t="s">
         <v>74</v>
       </c>
@@ -22923,9 +23348,20 @@
       <c r="R3">
         <v>0.890625</v>
       </c>
+      <c r="S3" s="10"/>
+      <c r="T3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0.96875</v>
+      </c>
       <c r="Y3" t="s">
         <v>75</v>
       </c>
+      <c r="Z3" s="13"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -22935,6 +23371,7 @@
       <c r="AD3" t="s">
         <v>76</v>
       </c>
+      <c r="AE3" s="13"/>
       <c r="AF3">
         <v>1</v>
       </c>
@@ -22944,6 +23381,7 @@
       <c r="AI3" t="s">
         <v>77</v>
       </c>
+      <c r="AJ3" s="13"/>
       <c r="AK3">
         <v>1</v>
       </c>
@@ -22956,6 +23394,7 @@
       <c r="AP3">
         <v>0.765625</v>
       </c>
+      <c r="AQ3" s="13"/>
       <c r="AR3" t="s">
         <v>17</v>
       </c>
@@ -22965,6 +23404,7 @@
       <c r="AT3">
         <v>0.8125</v>
       </c>
+      <c r="AU3" s="13"/>
       <c r="AV3" s="9" t="s">
         <v>15</v>
       </c>
@@ -22974,11 +23414,59 @@
       <c r="AY3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ3" s="10"/>
+      <c r="BA3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>0.40625</v>
+      </c>
+      <c r="BD3" s="10"/>
+      <c r="BE3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>0.375</v>
+      </c>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>0.1875</v>
+      </c>
+      <c r="BN3" s="8"/>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0.28125</v>
+      </c>
+      <c r="BR3" s="10"/>
+      <c r="BS3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
+      <c r="B4" s="11"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -23000,6 +23488,15 @@
       <c r="R4">
         <v>0.828125</v>
       </c>
+      <c r="T4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0.9375</v>
+      </c>
       <c r="AA4">
         <v>2</v>
       </c>
@@ -23024,6 +23521,7 @@
       <c r="AL4">
         <v>0.703125</v>
       </c>
+      <c r="AM4" s="14"/>
       <c r="AN4" t="s">
         <v>78</v>
       </c>
@@ -23045,8 +23543,41 @@
       <c r="AY4">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>0.375</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>0.34375</v>
+      </c>
+      <c r="BK4">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>0.171875</v>
+      </c>
+      <c r="BN4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP4">
+        <v>2</v>
+      </c>
+      <c r="BQ4">
+        <v>0.296875</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>3</v>
       </c>
@@ -23068,6 +23599,12 @@
       <c r="R5">
         <v>0.796875</v>
       </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>0.90625</v>
+      </c>
       <c r="AA5">
         <v>3</v>
       </c>
@@ -23104,8 +23641,48 @@
       <c r="AY5">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>0.296875</v>
+      </c>
+      <c r="BD5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
+        <v>0.359375</v>
+      </c>
+      <c r="BK5">
+        <v>3</v>
+      </c>
+      <c r="BL5">
+        <v>0.125</v>
+      </c>
+      <c r="BM5" s="10"/>
+      <c r="BN5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP5">
+        <v>3</v>
+      </c>
+      <c r="BQ5">
+        <v>0.328125</v>
+      </c>
+      <c r="BR5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT5">
+        <v>3</v>
+      </c>
+      <c r="BU5">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
@@ -23127,6 +23704,12 @@
       <c r="R6">
         <v>0.765625</v>
       </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>0.90625</v>
+      </c>
       <c r="AA6">
         <v>4</v>
       </c>
@@ -23163,8 +23746,38 @@
       <c r="AY6">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>0.25</v>
+      </c>
+      <c r="BF6">
+        <v>4</v>
+      </c>
+      <c r="BG6">
+        <v>0.296875</v>
+      </c>
+      <c r="BK6">
+        <v>4</v>
+      </c>
+      <c r="BL6">
+        <v>0.140625</v>
+      </c>
+      <c r="BP6">
+        <v>4</v>
+      </c>
+      <c r="BQ6">
+        <v>0.359375</v>
+      </c>
+      <c r="BT6">
+        <v>4</v>
+      </c>
+      <c r="BU6">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>5</v>
       </c>
@@ -23183,6 +23796,12 @@
       <c r="R7">
         <v>0.703125</v>
       </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>0.828125</v>
+      </c>
       <c r="AA7">
         <v>5</v>
       </c>
@@ -23219,8 +23838,38 @@
       <c r="AY7">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>0.3125</v>
+      </c>
+      <c r="BF7">
+        <v>5</v>
+      </c>
+      <c r="BG7">
+        <v>0.359375</v>
+      </c>
+      <c r="BK7">
+        <v>5</v>
+      </c>
+      <c r="BL7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BP7">
+        <v>5</v>
+      </c>
+      <c r="BQ7">
+        <v>0.328125</v>
+      </c>
+      <c r="BT7">
+        <v>5</v>
+      </c>
+      <c r="BU7">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>6</v>
       </c>
@@ -23239,6 +23888,12 @@
       <c r="R8">
         <v>0.65625</v>
       </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>0.890625</v>
+      </c>
       <c r="AA8">
         <v>6</v>
       </c>
@@ -23275,8 +23930,38 @@
       <c r="AY8">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB8">
+        <v>6</v>
+      </c>
+      <c r="BC8">
+        <v>0.265625</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>0.375</v>
+      </c>
+      <c r="BK8">
+        <v>6</v>
+      </c>
+      <c r="BL8">
+        <v>0.15625</v>
+      </c>
+      <c r="BP8">
+        <v>6</v>
+      </c>
+      <c r="BQ8">
+        <v>0.34375</v>
+      </c>
+      <c r="BT8">
+        <v>6</v>
+      </c>
+      <c r="BU8">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>7</v>
       </c>
@@ -23295,6 +23980,12 @@
       <c r="R9">
         <v>0.703125</v>
       </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>0.875</v>
+      </c>
       <c r="AA9">
         <v>7</v>
       </c>
@@ -23331,8 +24022,38 @@
       <c r="AY9">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>0.203125</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>0.375</v>
+      </c>
+      <c r="BK9">
+        <v>7</v>
+      </c>
+      <c r="BL9">
+        <v>0.109375</v>
+      </c>
+      <c r="BP9">
+        <v>7</v>
+      </c>
+      <c r="BQ9">
+        <v>0.421875</v>
+      </c>
+      <c r="BT9">
+        <v>7</v>
+      </c>
+      <c r="BU9">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>8</v>
       </c>
@@ -23351,6 +24072,12 @@
       <c r="R10">
         <v>0.671875</v>
       </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>0.828125</v>
+      </c>
       <c r="AA10">
         <v>8</v>
       </c>
@@ -23393,8 +24120,38 @@
       <c r="AY10">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB10">
+        <v>8</v>
+      </c>
+      <c r="BC10">
+        <v>0.234375</v>
+      </c>
+      <c r="BF10">
+        <v>8</v>
+      </c>
+      <c r="BG10">
+        <v>0.375</v>
+      </c>
+      <c r="BK10">
+        <v>8</v>
+      </c>
+      <c r="BL10">
+        <v>0.15625</v>
+      </c>
+      <c r="BP10">
+        <v>8</v>
+      </c>
+      <c r="BQ10">
+        <v>0.328125</v>
+      </c>
+      <c r="BT10">
+        <v>8</v>
+      </c>
+      <c r="BU10">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>9</v>
       </c>
@@ -23413,6 +24170,12 @@
       <c r="R11">
         <v>0.6875</v>
       </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>0.8125</v>
+      </c>
       <c r="AA11">
         <v>9</v>
       </c>
@@ -23449,8 +24212,41 @@
       <c r="AY11">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB11">
+        <v>9</v>
+      </c>
+      <c r="BC11">
+        <v>0.265625</v>
+      </c>
+      <c r="BF11">
+        <v>9</v>
+      </c>
+      <c r="BG11">
+        <v>0.359375</v>
+      </c>
+      <c r="BK11">
+        <v>9</v>
+      </c>
+      <c r="BL11">
+        <v>0.140625</v>
+      </c>
+      <c r="BP11">
+        <v>9</v>
+      </c>
+      <c r="BQ11">
+        <v>0.359375</v>
+      </c>
+      <c r="BT11">
+        <v>9</v>
+      </c>
+      <c r="BU11">
+        <v>0.671875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>10</v>
       </c>
@@ -23469,6 +24265,12 @@
       <c r="R12">
         <v>0.640625</v>
       </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>0.859375</v>
+      </c>
       <c r="Y12" s="8" t="s">
         <v>63</v>
       </c>
@@ -23508,8 +24310,38 @@
       <c r="AY12">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB12">
+        <v>10</v>
+      </c>
+      <c r="BC12">
+        <v>0.265625</v>
+      </c>
+      <c r="BF12">
+        <v>10</v>
+      </c>
+      <c r="BG12">
+        <v>0.5</v>
+      </c>
+      <c r="BK12">
+        <v>10</v>
+      </c>
+      <c r="BL12">
+        <v>0.15625</v>
+      </c>
+      <c r="BP12">
+        <v>10</v>
+      </c>
+      <c r="BQ12">
+        <v>0.46875</v>
+      </c>
+      <c r="BT12">
+        <v>10</v>
+      </c>
+      <c r="BU12">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>11</v>
       </c>
@@ -23528,6 +24360,12 @@
       <c r="R13">
         <v>0.671875</v>
       </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <v>0.84375</v>
+      </c>
       <c r="AA13">
         <v>11</v>
       </c>
@@ -23564,8 +24402,38 @@
       <c r="AY13">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB13">
+        <v>11</v>
+      </c>
+      <c r="BC13">
+        <v>0.390625</v>
+      </c>
+      <c r="BF13">
+        <v>11</v>
+      </c>
+      <c r="BG13">
+        <v>0.34375</v>
+      </c>
+      <c r="BK13">
+        <v>11</v>
+      </c>
+      <c r="BL13">
+        <v>0.125</v>
+      </c>
+      <c r="BP13">
+        <v>11</v>
+      </c>
+      <c r="BQ13">
+        <v>0.328125</v>
+      </c>
+      <c r="BT13">
+        <v>11</v>
+      </c>
+      <c r="BU13">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>12</v>
       </c>
@@ -23584,6 +24452,12 @@
       <c r="R14">
         <v>0.59375</v>
       </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>0.890625</v>
+      </c>
       <c r="AA14">
         <v>12</v>
       </c>
@@ -23620,8 +24494,38 @@
       <c r="AY14">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB14">
+        <v>12</v>
+      </c>
+      <c r="BC14">
+        <v>0.234375</v>
+      </c>
+      <c r="BF14">
+        <v>12</v>
+      </c>
+      <c r="BG14">
+        <v>0.28125</v>
+      </c>
+      <c r="BK14">
+        <v>12</v>
+      </c>
+      <c r="BL14">
+        <v>0.328125</v>
+      </c>
+      <c r="BP14">
+        <v>12</v>
+      </c>
+      <c r="BQ14">
+        <v>0.3125</v>
+      </c>
+      <c r="BT14">
+        <v>12</v>
+      </c>
+      <c r="BU14">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>13</v>
       </c>
@@ -23640,6 +24544,12 @@
       <c r="R15">
         <v>0.953125</v>
       </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <v>0.796875</v>
+      </c>
       <c r="AA15">
         <v>13</v>
       </c>
@@ -23676,8 +24586,38 @@
       <c r="AY15">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="BB15">
+        <v>13</v>
+      </c>
+      <c r="BC15">
+        <v>0.25</v>
+      </c>
+      <c r="BF15">
+        <v>13</v>
+      </c>
+      <c r="BG15">
+        <v>0.359375</v>
+      </c>
+      <c r="BK15">
+        <v>13</v>
+      </c>
+      <c r="BL15">
+        <v>0.140625</v>
+      </c>
+      <c r="BP15">
+        <v>13</v>
+      </c>
+      <c r="BQ15">
+        <v>0.359375</v>
+      </c>
+      <c r="BT15">
+        <v>13</v>
+      </c>
+      <c r="BU15">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>14</v>
       </c>
@@ -23696,6 +24636,12 @@
       <c r="R16">
         <v>0.6875</v>
       </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <v>0.796875</v>
+      </c>
       <c r="AA16">
         <v>14</v>
       </c>
@@ -23732,8 +24678,38 @@
       <c r="AY16">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="17" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB16">
+        <v>14</v>
+      </c>
+      <c r="BC16">
+        <v>0.265625</v>
+      </c>
+      <c r="BF16">
+        <v>14</v>
+      </c>
+      <c r="BG16">
+        <v>0.375</v>
+      </c>
+      <c r="BK16">
+        <v>14</v>
+      </c>
+      <c r="BL16">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BP16">
+        <v>14</v>
+      </c>
+      <c r="BQ16">
+        <v>0.40625</v>
+      </c>
+      <c r="BT16">
+        <v>14</v>
+      </c>
+      <c r="BU16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>15</v>
       </c>
@@ -23752,6 +24728,12 @@
       <c r="R17">
         <v>0.609375</v>
       </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <v>0.78125</v>
+      </c>
       <c r="AA17">
         <v>15</v>
       </c>
@@ -23788,8 +24770,38 @@
       <c r="AY17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB17">
+        <v>15</v>
+      </c>
+      <c r="BC17">
+        <v>0.203125</v>
+      </c>
+      <c r="BF17">
+        <v>15</v>
+      </c>
+      <c r="BG17">
+        <v>0.28125</v>
+      </c>
+      <c r="BK17">
+        <v>15</v>
+      </c>
+      <c r="BL17">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BP17">
+        <v>15</v>
+      </c>
+      <c r="BQ17">
+        <v>0.296875</v>
+      </c>
+      <c r="BT17">
+        <v>15</v>
+      </c>
+      <c r="BU17">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="18" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>16</v>
       </c>
@@ -23808,6 +24820,12 @@
       <c r="R18">
         <v>0.609375</v>
       </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <v>0.78125</v>
+      </c>
       <c r="AA18">
         <v>16</v>
       </c>
@@ -23844,8 +24862,38 @@
       <c r="AY18">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="19" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB18">
+        <v>16</v>
+      </c>
+      <c r="BC18">
+        <v>0.328125</v>
+      </c>
+      <c r="BF18">
+        <v>16</v>
+      </c>
+      <c r="BG18">
+        <v>0.34375</v>
+      </c>
+      <c r="BK18">
+        <v>16</v>
+      </c>
+      <c r="BL18">
+        <v>0.125</v>
+      </c>
+      <c r="BP18">
+        <v>16</v>
+      </c>
+      <c r="BQ18">
+        <v>0.515625</v>
+      </c>
+      <c r="BT18">
+        <v>16</v>
+      </c>
+      <c r="BU18">
+        <v>0.296875</v>
+      </c>
+    </row>
+    <row r="19" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>17</v>
       </c>
@@ -23864,6 +24912,12 @@
       <c r="R19">
         <v>0.71875</v>
       </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>0.78125</v>
+      </c>
       <c r="AA19">
         <v>17</v>
       </c>
@@ -23900,8 +24954,38 @@
       <c r="AY19">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="20" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB19">
+        <v>17</v>
+      </c>
+      <c r="BC19">
+        <v>0.28125</v>
+      </c>
+      <c r="BF19">
+        <v>17</v>
+      </c>
+      <c r="BG19">
+        <v>0.390625</v>
+      </c>
+      <c r="BK19">
+        <v>17</v>
+      </c>
+      <c r="BL19">
+        <v>9.375E-2</v>
+      </c>
+      <c r="BP19">
+        <v>17</v>
+      </c>
+      <c r="BQ19">
+        <v>0.25</v>
+      </c>
+      <c r="BT19">
+        <v>17</v>
+      </c>
+      <c r="BU19">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="20" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>18</v>
       </c>
@@ -23920,6 +25004,12 @@
       <c r="R20">
         <v>0.609375</v>
       </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
       <c r="AA20">
         <v>18</v>
       </c>
@@ -23956,8 +25046,38 @@
       <c r="AY20">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="21" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB20">
+        <v>18</v>
+      </c>
+      <c r="BC20">
+        <v>0.25</v>
+      </c>
+      <c r="BF20">
+        <v>18</v>
+      </c>
+      <c r="BG20">
+        <v>0.21875</v>
+      </c>
+      <c r="BK20">
+        <v>18</v>
+      </c>
+      <c r="BL20">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="BP20">
+        <v>18</v>
+      </c>
+      <c r="BQ20">
+        <v>0.3125</v>
+      </c>
+      <c r="BT20">
+        <v>18</v>
+      </c>
+      <c r="BU20">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="21" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>19</v>
       </c>
@@ -23976,6 +25096,12 @@
       <c r="R21">
         <v>0.71875</v>
       </c>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21">
+        <v>0.96875</v>
+      </c>
       <c r="AA21">
         <v>19</v>
       </c>
@@ -24012,8 +25138,38 @@
       <c r="AY21">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="22" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB21">
+        <v>19</v>
+      </c>
+      <c r="BC21">
+        <v>0.5</v>
+      </c>
+      <c r="BF21">
+        <v>19</v>
+      </c>
+      <c r="BG21">
+        <v>0.25</v>
+      </c>
+      <c r="BK21">
+        <v>19</v>
+      </c>
+      <c r="BL21">
+        <v>0.140625</v>
+      </c>
+      <c r="BP21">
+        <v>19</v>
+      </c>
+      <c r="BQ21">
+        <v>0.265625</v>
+      </c>
+      <c r="BT21">
+        <v>19</v>
+      </c>
+      <c r="BU21">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="22" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>20</v>
       </c>
@@ -24032,6 +25188,12 @@
       <c r="R22">
         <v>0.53125</v>
       </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>0.984375</v>
+      </c>
       <c r="AA22">
         <v>20</v>
       </c>
@@ -24068,8 +25230,38 @@
       <c r="AY22">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="23" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB22">
+        <v>20</v>
+      </c>
+      <c r="BC22">
+        <v>0.3125</v>
+      </c>
+      <c r="BF22">
+        <v>20</v>
+      </c>
+      <c r="BG22">
+        <v>0.1875</v>
+      </c>
+      <c r="BK22">
+        <v>20</v>
+      </c>
+      <c r="BL22">
+        <v>0.15625</v>
+      </c>
+      <c r="BP22">
+        <v>20</v>
+      </c>
+      <c r="BQ22">
+        <v>0.328125</v>
+      </c>
+      <c r="BT22">
+        <v>20</v>
+      </c>
+      <c r="BU22">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="23" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>21</v>
       </c>
@@ -24088,6 +25280,12 @@
       <c r="R23">
         <v>0.578125</v>
       </c>
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23">
+        <v>0.984375</v>
+      </c>
       <c r="AA23">
         <v>21</v>
       </c>
@@ -24124,8 +25322,38 @@
       <c r="AY23">
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="24" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB23">
+        <v>21</v>
+      </c>
+      <c r="BC23">
+        <v>0.234375</v>
+      </c>
+      <c r="BF23">
+        <v>21</v>
+      </c>
+      <c r="BG23">
+        <v>0.25</v>
+      </c>
+      <c r="BK23">
+        <v>21</v>
+      </c>
+      <c r="BL23">
+        <v>0.296875</v>
+      </c>
+      <c r="BP23">
+        <v>21</v>
+      </c>
+      <c r="BQ23">
+        <v>0.4375</v>
+      </c>
+      <c r="BT23">
+        <v>21</v>
+      </c>
+      <c r="BU23">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="24" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>22</v>
       </c>
@@ -24144,6 +25372,12 @@
       <c r="R24">
         <v>0.515625</v>
       </c>
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24">
+        <v>0.984375</v>
+      </c>
       <c r="AA24">
         <v>22</v>
       </c>
@@ -24180,8 +25414,38 @@
       <c r="AY24">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="25" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB24">
+        <v>22</v>
+      </c>
+      <c r="BC24">
+        <v>0.234375</v>
+      </c>
+      <c r="BF24">
+        <v>22</v>
+      </c>
+      <c r="BG24">
+        <v>0.28125</v>
+      </c>
+      <c r="BK24">
+        <v>22</v>
+      </c>
+      <c r="BL24">
+        <v>0.171875</v>
+      </c>
+      <c r="BP24">
+        <v>22</v>
+      </c>
+      <c r="BQ24">
+        <v>0.28125</v>
+      </c>
+      <c r="BT24">
+        <v>22</v>
+      </c>
+      <c r="BU24">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="25" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>23</v>
       </c>
@@ -24200,6 +25464,12 @@
       <c r="R25">
         <v>0.515625</v>
       </c>
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25">
+        <v>0.828125</v>
+      </c>
       <c r="AA25">
         <v>23</v>
       </c>
@@ -24236,8 +25506,38 @@
       <c r="AY25">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="26" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB25">
+        <v>23</v>
+      </c>
+      <c r="BC25">
+        <v>0.265625</v>
+      </c>
+      <c r="BF25">
+        <v>23</v>
+      </c>
+      <c r="BG25">
+        <v>0.25</v>
+      </c>
+      <c r="BK25">
+        <v>23</v>
+      </c>
+      <c r="BL25">
+        <v>0.125</v>
+      </c>
+      <c r="BP25">
+        <v>23</v>
+      </c>
+      <c r="BQ25">
+        <v>0.28125</v>
+      </c>
+      <c r="BT25">
+        <v>23</v>
+      </c>
+      <c r="BU25">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="26" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>24</v>
       </c>
@@ -24256,6 +25556,12 @@
       <c r="R26">
         <v>0.5625</v>
       </c>
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26">
+        <v>0.84375</v>
+      </c>
       <c r="AA26">
         <v>24</v>
       </c>
@@ -24292,8 +25598,38 @@
       <c r="AY26">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="27" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB26">
+        <v>24</v>
+      </c>
+      <c r="BC26">
+        <v>0.265625</v>
+      </c>
+      <c r="BF26">
+        <v>24</v>
+      </c>
+      <c r="BG26">
+        <v>0.234375</v>
+      </c>
+      <c r="BK26">
+        <v>24</v>
+      </c>
+      <c r="BL26">
+        <v>0.125</v>
+      </c>
+      <c r="BP26">
+        <v>24</v>
+      </c>
+      <c r="BQ26">
+        <v>0.25</v>
+      </c>
+      <c r="BT26">
+        <v>24</v>
+      </c>
+      <c r="BU26">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="27" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>25</v>
       </c>
@@ -24312,6 +25648,12 @@
       <c r="R27">
         <v>0.453125</v>
       </c>
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27">
+        <v>0.71875</v>
+      </c>
       <c r="AA27">
         <v>25</v>
       </c>
@@ -24348,8 +25690,38 @@
       <c r="AY27">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="28" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB27">
+        <v>25</v>
+      </c>
+      <c r="BC27">
+        <v>0.1875</v>
+      </c>
+      <c r="BF27">
+        <v>25</v>
+      </c>
+      <c r="BG27">
+        <v>0.28125</v>
+      </c>
+      <c r="BK27">
+        <v>25</v>
+      </c>
+      <c r="BL27">
+        <v>0.140625</v>
+      </c>
+      <c r="BP27">
+        <v>25</v>
+      </c>
+      <c r="BQ27">
+        <v>0.28125</v>
+      </c>
+      <c r="BT27">
+        <v>25</v>
+      </c>
+      <c r="BU27">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>26</v>
       </c>
@@ -24368,6 +25740,12 @@
       <c r="R28">
         <v>0.40625</v>
       </c>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <v>0.71875</v>
+      </c>
       <c r="AA28">
         <v>26</v>
       </c>
@@ -24404,8 +25782,38 @@
       <c r="AY28">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="29" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB28">
+        <v>26</v>
+      </c>
+      <c r="BC28">
+        <v>0.265625</v>
+      </c>
+      <c r="BF28">
+        <v>26</v>
+      </c>
+      <c r="BG28">
+        <v>0.328125</v>
+      </c>
+      <c r="BK28">
+        <v>26</v>
+      </c>
+      <c r="BL28">
+        <v>0.140625</v>
+      </c>
+      <c r="BP28">
+        <v>26</v>
+      </c>
+      <c r="BQ28">
+        <v>0.21875</v>
+      </c>
+      <c r="BT28">
+        <v>26</v>
+      </c>
+      <c r="BU28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>27</v>
       </c>
@@ -24424,6 +25832,12 @@
       <c r="R29">
         <v>0.4375</v>
       </c>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <v>0.71875</v>
+      </c>
       <c r="AA29">
         <v>27</v>
       </c>
@@ -24460,8 +25874,38 @@
       <c r="AY29">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="30" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB29">
+        <v>27</v>
+      </c>
+      <c r="BC29">
+        <v>0.21875</v>
+      </c>
+      <c r="BF29">
+        <v>27</v>
+      </c>
+      <c r="BG29">
+        <v>0.515625</v>
+      </c>
+      <c r="BK29">
+        <v>27</v>
+      </c>
+      <c r="BL29">
+        <v>0.140625</v>
+      </c>
+      <c r="BP29">
+        <v>27</v>
+      </c>
+      <c r="BQ29">
+        <v>0.3125</v>
+      </c>
+      <c r="BT29">
+        <v>27</v>
+      </c>
+      <c r="BU29">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="30" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>28</v>
       </c>
@@ -24480,6 +25924,12 @@
       <c r="R30">
         <v>0.4375</v>
       </c>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30">
+        <v>0.65625</v>
+      </c>
       <c r="AA30">
         <v>28</v>
       </c>
@@ -24516,8 +25966,38 @@
       <c r="AY30">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="31" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB30">
+        <v>28</v>
+      </c>
+      <c r="BC30">
+        <v>0.234375</v>
+      </c>
+      <c r="BF30">
+        <v>28</v>
+      </c>
+      <c r="BG30">
+        <v>0.265625</v>
+      </c>
+      <c r="BK30">
+        <v>28</v>
+      </c>
+      <c r="BL30">
+        <v>0.140625</v>
+      </c>
+      <c r="BP30">
+        <v>28</v>
+      </c>
+      <c r="BQ30">
+        <v>0.3125</v>
+      </c>
+      <c r="BT30">
+        <v>28</v>
+      </c>
+      <c r="BU30">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="31" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>29</v>
       </c>
@@ -24536,6 +26016,12 @@
       <c r="R31">
         <v>0.4375</v>
       </c>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <v>0.65625</v>
+      </c>
       <c r="AA31">
         <v>29</v>
       </c>
@@ -24572,8 +26058,38 @@
       <c r="AY31">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="32" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB31">
+        <v>29</v>
+      </c>
+      <c r="BC31">
+        <v>0.234375</v>
+      </c>
+      <c r="BF31">
+        <v>29</v>
+      </c>
+      <c r="BG31">
+        <v>0.25</v>
+      </c>
+      <c r="BK31">
+        <v>29</v>
+      </c>
+      <c r="BL31">
+        <v>0.140625</v>
+      </c>
+      <c r="BP31">
+        <v>29</v>
+      </c>
+      <c r="BQ31">
+        <v>0.34375</v>
+      </c>
+      <c r="BT31">
+        <v>29</v>
+      </c>
+      <c r="BU31">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="32" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>30</v>
       </c>
@@ -24592,6 +26108,12 @@
       <c r="R32">
         <v>0.5625</v>
       </c>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>0.703125</v>
+      </c>
       <c r="AA32">
         <v>30</v>
       </c>
@@ -24628,8 +26150,38 @@
       <c r="AY32">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="33" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB32">
+        <v>30</v>
+      </c>
+      <c r="BC32">
+        <v>0.234375</v>
+      </c>
+      <c r="BF32">
+        <v>30</v>
+      </c>
+      <c r="BG32">
+        <v>0.265625</v>
+      </c>
+      <c r="BK32">
+        <v>30</v>
+      </c>
+      <c r="BL32">
+        <v>0.140625</v>
+      </c>
+      <c r="BP32">
+        <v>30</v>
+      </c>
+      <c r="BQ32">
+        <v>0.515625</v>
+      </c>
+      <c r="BT32">
+        <v>30</v>
+      </c>
+      <c r="BU32">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="33" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>31</v>
       </c>
@@ -24648,6 +26200,12 @@
       <c r="R33">
         <v>0.53125</v>
       </c>
+      <c r="V33">
+        <v>31</v>
+      </c>
+      <c r="W33">
+        <v>0.65625</v>
+      </c>
       <c r="AA33">
         <v>31</v>
       </c>
@@ -24684,8 +26242,38 @@
       <c r="AY33">
         <v>0.828125</v>
       </c>
-    </row>
-    <row r="34" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB33">
+        <v>31</v>
+      </c>
+      <c r="BC33">
+        <v>0.234375</v>
+      </c>
+      <c r="BF33">
+        <v>31</v>
+      </c>
+      <c r="BG33">
+        <v>0.25</v>
+      </c>
+      <c r="BK33">
+        <v>31</v>
+      </c>
+      <c r="BL33">
+        <v>0.140625</v>
+      </c>
+      <c r="BP33">
+        <v>31</v>
+      </c>
+      <c r="BQ33">
+        <v>0.40625</v>
+      </c>
+      <c r="BT33">
+        <v>31</v>
+      </c>
+      <c r="BU33">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="34" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>32</v>
       </c>
@@ -24704,6 +26292,12 @@
       <c r="R34">
         <v>0.53125</v>
       </c>
+      <c r="V34">
+        <v>32</v>
+      </c>
+      <c r="W34">
+        <v>0.75</v>
+      </c>
       <c r="AA34">
         <v>32</v>
       </c>
@@ -24740,8 +26334,38 @@
       <c r="AY34">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="35" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB34">
+        <v>32</v>
+      </c>
+      <c r="BC34">
+        <v>0.234375</v>
+      </c>
+      <c r="BF34">
+        <v>32</v>
+      </c>
+      <c r="BG34">
+        <v>0.265625</v>
+      </c>
+      <c r="BK34">
+        <v>32</v>
+      </c>
+      <c r="BL34">
+        <v>0.140625</v>
+      </c>
+      <c r="BP34">
+        <v>32</v>
+      </c>
+      <c r="BQ34">
+        <v>0.234375</v>
+      </c>
+      <c r="BT34">
+        <v>32</v>
+      </c>
+      <c r="BU34">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="35" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>33</v>
       </c>
@@ -24760,6 +26384,12 @@
       <c r="R35">
         <v>0.46875</v>
       </c>
+      <c r="V35">
+        <v>33</v>
+      </c>
+      <c r="W35">
+        <v>0.734375</v>
+      </c>
       <c r="AA35">
         <v>33</v>
       </c>
@@ -24796,8 +26426,38 @@
       <c r="AY35">
         <v>0.421875</v>
       </c>
-    </row>
-    <row r="36" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB35">
+        <v>33</v>
+      </c>
+      <c r="BC35">
+        <v>0.25</v>
+      </c>
+      <c r="BF35">
+        <v>33</v>
+      </c>
+      <c r="BG35">
+        <v>0.28125</v>
+      </c>
+      <c r="BK35">
+        <v>33</v>
+      </c>
+      <c r="BL35">
+        <v>0.140625</v>
+      </c>
+      <c r="BP35">
+        <v>33</v>
+      </c>
+      <c r="BQ35">
+        <v>0.25</v>
+      </c>
+      <c r="BT35">
+        <v>33</v>
+      </c>
+      <c r="BU35">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="36" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>34</v>
       </c>
@@ -24816,6 +26476,12 @@
       <c r="R36">
         <v>0.390625</v>
       </c>
+      <c r="V36">
+        <v>34</v>
+      </c>
+      <c r="W36">
+        <v>0.765625</v>
+      </c>
       <c r="AA36">
         <v>34</v>
       </c>
@@ -24852,8 +26518,38 @@
       <c r="AY36">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="37" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB36">
+        <v>34</v>
+      </c>
+      <c r="BC36">
+        <v>0.25</v>
+      </c>
+      <c r="BF36">
+        <v>34</v>
+      </c>
+      <c r="BG36">
+        <v>0.28125</v>
+      </c>
+      <c r="BK36">
+        <v>34</v>
+      </c>
+      <c r="BL36">
+        <v>0.140625</v>
+      </c>
+      <c r="BP36">
+        <v>34</v>
+      </c>
+      <c r="BQ36">
+        <v>0.265625</v>
+      </c>
+      <c r="BT36">
+        <v>34</v>
+      </c>
+      <c r="BU36">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="37" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>35</v>
       </c>
@@ -24872,6 +26568,12 @@
       <c r="R37">
         <v>0.359375</v>
       </c>
+      <c r="V37">
+        <v>35</v>
+      </c>
+      <c r="W37">
+        <v>0.703125</v>
+      </c>
       <c r="AA37">
         <v>35</v>
       </c>
@@ -24908,8 +26610,38 @@
       <c r="AY37">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="38" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB37">
+        <v>35</v>
+      </c>
+      <c r="BC37">
+        <v>0.25</v>
+      </c>
+      <c r="BF37">
+        <v>35</v>
+      </c>
+      <c r="BG37">
+        <v>0.28125</v>
+      </c>
+      <c r="BK37">
+        <v>35</v>
+      </c>
+      <c r="BL37">
+        <v>0.140625</v>
+      </c>
+      <c r="BP37">
+        <v>35</v>
+      </c>
+      <c r="BQ37">
+        <v>0.21875</v>
+      </c>
+      <c r="BT37">
+        <v>35</v>
+      </c>
+      <c r="BU37">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="38" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>36</v>
       </c>
@@ -24928,6 +26660,12 @@
       <c r="R38">
         <v>0.375</v>
       </c>
+      <c r="V38">
+        <v>36</v>
+      </c>
+      <c r="W38">
+        <v>0.6875</v>
+      </c>
       <c r="AA38">
         <v>36</v>
       </c>
@@ -24964,8 +26702,38 @@
       <c r="AY38">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="39" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB38">
+        <v>36</v>
+      </c>
+      <c r="BC38">
+        <v>0.25</v>
+      </c>
+      <c r="BF38">
+        <v>36</v>
+      </c>
+      <c r="BG38">
+        <v>0.28125</v>
+      </c>
+      <c r="BK38">
+        <v>36</v>
+      </c>
+      <c r="BL38">
+        <v>0.140625</v>
+      </c>
+      <c r="BP38">
+        <v>36</v>
+      </c>
+      <c r="BQ38">
+        <v>0.265625</v>
+      </c>
+      <c r="BT38">
+        <v>36</v>
+      </c>
+      <c r="BU38">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="39" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>37</v>
       </c>
@@ -24984,6 +26752,12 @@
       <c r="R39">
         <v>0.390625</v>
       </c>
+      <c r="V39">
+        <v>37</v>
+      </c>
+      <c r="W39">
+        <v>0.65625</v>
+      </c>
       <c r="AA39">
         <v>37</v>
       </c>
@@ -25020,8 +26794,38 @@
       <c r="AY39">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="40" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB39">
+        <v>37</v>
+      </c>
+      <c r="BC39">
+        <v>0.25</v>
+      </c>
+      <c r="BF39">
+        <v>37</v>
+      </c>
+      <c r="BG39">
+        <v>0.265625</v>
+      </c>
+      <c r="BK39">
+        <v>37</v>
+      </c>
+      <c r="BL39">
+        <v>0.140625</v>
+      </c>
+      <c r="BP39">
+        <v>37</v>
+      </c>
+      <c r="BQ39">
+        <v>0.265625</v>
+      </c>
+      <c r="BT39">
+        <v>37</v>
+      </c>
+      <c r="BU39">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="40" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>38</v>
       </c>
@@ -25040,6 +26844,12 @@
       <c r="R40">
         <v>0.390625</v>
       </c>
+      <c r="V40">
+        <v>38</v>
+      </c>
+      <c r="W40">
+        <v>0.6875</v>
+      </c>
       <c r="AA40">
         <v>38</v>
       </c>
@@ -25076,8 +26886,38 @@
       <c r="AY40">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="41" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB40">
+        <v>38</v>
+      </c>
+      <c r="BC40">
+        <v>0.25</v>
+      </c>
+      <c r="BF40">
+        <v>38</v>
+      </c>
+      <c r="BG40">
+        <v>0.265625</v>
+      </c>
+      <c r="BK40">
+        <v>38</v>
+      </c>
+      <c r="BL40">
+        <v>0.140625</v>
+      </c>
+      <c r="BP40">
+        <v>38</v>
+      </c>
+      <c r="BQ40">
+        <v>0.21875</v>
+      </c>
+      <c r="BT40">
+        <v>38</v>
+      </c>
+      <c r="BU40">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="41" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>39</v>
       </c>
@@ -25096,6 +26936,12 @@
       <c r="R41">
         <v>0.375</v>
       </c>
+      <c r="V41">
+        <v>39</v>
+      </c>
+      <c r="W41">
+        <v>0.703125</v>
+      </c>
       <c r="AA41">
         <v>39</v>
       </c>
@@ -25132,8 +26978,38 @@
       <c r="AY41">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="42" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB41">
+        <v>39</v>
+      </c>
+      <c r="BC41">
+        <v>0.25</v>
+      </c>
+      <c r="BF41">
+        <v>39</v>
+      </c>
+      <c r="BG41">
+        <v>0.265625</v>
+      </c>
+      <c r="BK41">
+        <v>39</v>
+      </c>
+      <c r="BL41">
+        <v>0.140625</v>
+      </c>
+      <c r="BP41">
+        <v>39</v>
+      </c>
+      <c r="BQ41">
+        <v>0.234375</v>
+      </c>
+      <c r="BT41">
+        <v>39</v>
+      </c>
+      <c r="BU41">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="42" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>40</v>
       </c>
@@ -25152,6 +27028,12 @@
       <c r="R42">
         <v>0.34375</v>
       </c>
+      <c r="V42">
+        <v>40</v>
+      </c>
+      <c r="W42">
+        <v>0.71875</v>
+      </c>
       <c r="AA42">
         <v>40</v>
       </c>
@@ -25188,8 +27070,38 @@
       <c r="AY42">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="43" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB42">
+        <v>40</v>
+      </c>
+      <c r="BC42">
+        <v>0.25</v>
+      </c>
+      <c r="BF42">
+        <v>40</v>
+      </c>
+      <c r="BG42">
+        <v>0.265625</v>
+      </c>
+      <c r="BK42">
+        <v>40</v>
+      </c>
+      <c r="BL42">
+        <v>0.140625</v>
+      </c>
+      <c r="BP42">
+        <v>40</v>
+      </c>
+      <c r="BQ42">
+        <v>0.234375</v>
+      </c>
+      <c r="BT42">
+        <v>40</v>
+      </c>
+      <c r="BU42">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="43" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>41</v>
       </c>
@@ -25208,6 +27120,12 @@
       <c r="R43">
         <v>0.359375</v>
       </c>
+      <c r="V43">
+        <v>41</v>
+      </c>
+      <c r="W43">
+        <v>0.671875</v>
+      </c>
       <c r="AA43">
         <v>41</v>
       </c>
@@ -25244,8 +27162,38 @@
       <c r="AY43">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="44" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB43">
+        <v>41</v>
+      </c>
+      <c r="BC43">
+        <v>0.25</v>
+      </c>
+      <c r="BF43">
+        <v>41</v>
+      </c>
+      <c r="BG43">
+        <v>0.265625</v>
+      </c>
+      <c r="BK43">
+        <v>41</v>
+      </c>
+      <c r="BL43">
+        <v>0.140625</v>
+      </c>
+      <c r="BP43">
+        <v>41</v>
+      </c>
+      <c r="BQ43">
+        <v>0.234375</v>
+      </c>
+      <c r="BT43">
+        <v>41</v>
+      </c>
+      <c r="BU43">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="44" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>42</v>
       </c>
@@ -25264,6 +27212,12 @@
       <c r="R44">
         <v>0.359375</v>
       </c>
+      <c r="V44">
+        <v>42</v>
+      </c>
+      <c r="W44">
+        <v>0.84375</v>
+      </c>
       <c r="AA44">
         <v>42</v>
       </c>
@@ -25300,8 +27254,38 @@
       <c r="AY44">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="45" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB44">
+        <v>42</v>
+      </c>
+      <c r="BC44">
+        <v>0.25</v>
+      </c>
+      <c r="BF44">
+        <v>42</v>
+      </c>
+      <c r="BG44">
+        <v>0.265625</v>
+      </c>
+      <c r="BK44">
+        <v>42</v>
+      </c>
+      <c r="BL44">
+        <v>0.140625</v>
+      </c>
+      <c r="BP44">
+        <v>42</v>
+      </c>
+      <c r="BQ44">
+        <v>0.21875</v>
+      </c>
+      <c r="BT44">
+        <v>42</v>
+      </c>
+      <c r="BU44">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="45" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>43</v>
       </c>
@@ -25320,6 +27304,12 @@
       <c r="R45">
         <v>0.34375</v>
       </c>
+      <c r="V45">
+        <v>43</v>
+      </c>
+      <c r="W45">
+        <v>0.703125</v>
+      </c>
       <c r="AA45">
         <v>43</v>
       </c>
@@ -25356,8 +27346,38 @@
       <c r="AY45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB45">
+        <v>43</v>
+      </c>
+      <c r="BC45">
+        <v>0.25</v>
+      </c>
+      <c r="BF45">
+        <v>43</v>
+      </c>
+      <c r="BG45">
+        <v>0.265625</v>
+      </c>
+      <c r="BK45">
+        <v>43</v>
+      </c>
+      <c r="BL45">
+        <v>0.140625</v>
+      </c>
+      <c r="BP45">
+        <v>43</v>
+      </c>
+      <c r="BQ45">
+        <v>0.21875</v>
+      </c>
+      <c r="BT45">
+        <v>43</v>
+      </c>
+      <c r="BU45">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="46" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>44</v>
       </c>
@@ -25376,6 +27396,12 @@
       <c r="R46">
         <v>0.359375</v>
       </c>
+      <c r="V46">
+        <v>44</v>
+      </c>
+      <c r="W46">
+        <v>0.796875</v>
+      </c>
       <c r="AA46">
         <v>44</v>
       </c>
@@ -25412,8 +27438,38 @@
       <c r="AY46">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="47" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB46">
+        <v>44</v>
+      </c>
+      <c r="BC46">
+        <v>0.25</v>
+      </c>
+      <c r="BF46">
+        <v>44</v>
+      </c>
+      <c r="BG46">
+        <v>0.265625</v>
+      </c>
+      <c r="BK46">
+        <v>44</v>
+      </c>
+      <c r="BL46">
+        <v>0.140625</v>
+      </c>
+      <c r="BP46">
+        <v>44</v>
+      </c>
+      <c r="BQ46">
+        <v>0.21875</v>
+      </c>
+      <c r="BT46">
+        <v>44</v>
+      </c>
+      <c r="BU46">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="47" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>45</v>
       </c>
@@ -25432,6 +27488,12 @@
       <c r="R47">
         <v>0.359375</v>
       </c>
+      <c r="V47">
+        <v>45</v>
+      </c>
+      <c r="W47">
+        <v>0.734375</v>
+      </c>
       <c r="AA47">
         <v>45</v>
       </c>
@@ -25468,8 +27530,38 @@
       <c r="AY47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB47">
+        <v>45</v>
+      </c>
+      <c r="BC47">
+        <v>0.25</v>
+      </c>
+      <c r="BF47">
+        <v>45</v>
+      </c>
+      <c r="BG47">
+        <v>0.265625</v>
+      </c>
+      <c r="BK47">
+        <v>45</v>
+      </c>
+      <c r="BL47">
+        <v>0.140625</v>
+      </c>
+      <c r="BP47">
+        <v>45</v>
+      </c>
+      <c r="BQ47">
+        <v>0.21875</v>
+      </c>
+      <c r="BT47">
+        <v>45</v>
+      </c>
+      <c r="BU47">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="48" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>46</v>
       </c>
@@ -25488,6 +27580,12 @@
       <c r="R48">
         <v>0.359375</v>
       </c>
+      <c r="V48">
+        <v>46</v>
+      </c>
+      <c r="W48">
+        <v>0.6875</v>
+      </c>
       <c r="AA48">
         <v>46</v>
       </c>
@@ -25524,8 +27622,38 @@
       <c r="AY48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB48">
+        <v>46</v>
+      </c>
+      <c r="BC48">
+        <v>0.234375</v>
+      </c>
+      <c r="BF48">
+        <v>46</v>
+      </c>
+      <c r="BG48">
+        <v>0.265625</v>
+      </c>
+      <c r="BK48">
+        <v>46</v>
+      </c>
+      <c r="BL48">
+        <v>0.140625</v>
+      </c>
+      <c r="BP48">
+        <v>46</v>
+      </c>
+      <c r="BQ48">
+        <v>0.21875</v>
+      </c>
+      <c r="BT48">
+        <v>46</v>
+      </c>
+      <c r="BU48">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="49" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>47</v>
       </c>
@@ -25544,6 +27672,12 @@
       <c r="R49">
         <v>0.375</v>
       </c>
+      <c r="V49">
+        <v>47</v>
+      </c>
+      <c r="W49">
+        <v>0.703125</v>
+      </c>
       <c r="AA49">
         <v>47</v>
       </c>
@@ -25580,8 +27714,38 @@
       <c r="AY49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB49">
+        <v>47</v>
+      </c>
+      <c r="BC49">
+        <v>0.390625</v>
+      </c>
+      <c r="BF49">
+        <v>47</v>
+      </c>
+      <c r="BG49">
+        <v>0.265625</v>
+      </c>
+      <c r="BK49">
+        <v>47</v>
+      </c>
+      <c r="BL49">
+        <v>0.140625</v>
+      </c>
+      <c r="BP49">
+        <v>47</v>
+      </c>
+      <c r="BQ49">
+        <v>0.21875</v>
+      </c>
+      <c r="BT49">
+        <v>47</v>
+      </c>
+      <c r="BU49">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="50" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>48</v>
       </c>
@@ -25600,6 +27764,12 @@
       <c r="R50">
         <v>0.375</v>
       </c>
+      <c r="V50">
+        <v>48</v>
+      </c>
+      <c r="W50">
+        <v>0.671875</v>
+      </c>
       <c r="AA50">
         <v>48</v>
       </c>
@@ -25636,8 +27806,38 @@
       <c r="AY50">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="51" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB50">
+        <v>48</v>
+      </c>
+      <c r="BC50">
+        <v>0.171875</v>
+      </c>
+      <c r="BF50">
+        <v>48</v>
+      </c>
+      <c r="BG50">
+        <v>0.265625</v>
+      </c>
+      <c r="BK50">
+        <v>48</v>
+      </c>
+      <c r="BL50">
+        <v>0.140625</v>
+      </c>
+      <c r="BP50">
+        <v>48</v>
+      </c>
+      <c r="BQ50">
+        <v>0.234375</v>
+      </c>
+      <c r="BT50">
+        <v>48</v>
+      </c>
+      <c r="BU50">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="51" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>49</v>
       </c>
@@ -25656,6 +27856,12 @@
       <c r="R51">
         <v>0.375</v>
       </c>
+      <c r="V51">
+        <v>49</v>
+      </c>
+      <c r="W51">
+        <v>0.671875</v>
+      </c>
       <c r="AA51">
         <v>49</v>
       </c>
@@ -25692,8 +27898,38 @@
       <c r="AY51">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB51">
+        <v>49</v>
+      </c>
+      <c r="BC51">
+        <v>0.234375</v>
+      </c>
+      <c r="BF51">
+        <v>49</v>
+      </c>
+      <c r="BG51">
+        <v>0.265625</v>
+      </c>
+      <c r="BK51">
+        <v>49</v>
+      </c>
+      <c r="BL51">
+        <v>0.140625</v>
+      </c>
+      <c r="BP51">
+        <v>49</v>
+      </c>
+      <c r="BQ51">
+        <v>0.25</v>
+      </c>
+      <c r="BT51">
+        <v>49</v>
+      </c>
+      <c r="BU51">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="52" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>50</v>
       </c>
@@ -25712,6 +27948,12 @@
       <c r="R52">
         <v>0.359375</v>
       </c>
+      <c r="V52">
+        <v>50</v>
+      </c>
+      <c r="W52">
+        <v>0.6875</v>
+      </c>
       <c r="AA52">
         <v>50</v>
       </c>
@@ -25748,8 +27990,38 @@
       <c r="AY52">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="53" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB52">
+        <v>50</v>
+      </c>
+      <c r="BC52">
+        <v>0.15625</v>
+      </c>
+      <c r="BF52">
+        <v>50</v>
+      </c>
+      <c r="BG52">
+        <v>0.265625</v>
+      </c>
+      <c r="BK52">
+        <v>50</v>
+      </c>
+      <c r="BL52">
+        <v>0.140625</v>
+      </c>
+      <c r="BP52">
+        <v>50</v>
+      </c>
+      <c r="BQ52">
+        <v>0.25</v>
+      </c>
+      <c r="BT52">
+        <v>50</v>
+      </c>
+      <c r="BU52">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="53" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>51</v>
       </c>
@@ -25768,6 +28040,12 @@
       <c r="R53">
         <v>0.359375</v>
       </c>
+      <c r="V53">
+        <v>51</v>
+      </c>
+      <c r="W53">
+        <v>0.671875</v>
+      </c>
       <c r="AA53">
         <v>51</v>
       </c>
@@ -25804,8 +28082,38 @@
       <c r="AY53">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="54" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB53">
+        <v>51</v>
+      </c>
+      <c r="BC53">
+        <v>0.140625</v>
+      </c>
+      <c r="BF53">
+        <v>51</v>
+      </c>
+      <c r="BG53">
+        <v>0.265625</v>
+      </c>
+      <c r="BK53">
+        <v>51</v>
+      </c>
+      <c r="BL53">
+        <v>0.140625</v>
+      </c>
+      <c r="BP53">
+        <v>51</v>
+      </c>
+      <c r="BQ53">
+        <v>0.234375</v>
+      </c>
+      <c r="BT53">
+        <v>51</v>
+      </c>
+      <c r="BU53">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="54" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>52</v>
       </c>
@@ -25824,6 +28132,12 @@
       <c r="R54">
         <v>0.34375</v>
       </c>
+      <c r="V54">
+        <v>52</v>
+      </c>
+      <c r="W54">
+        <v>0.671875</v>
+      </c>
       <c r="AA54">
         <v>52</v>
       </c>
@@ -25860,8 +28174,38 @@
       <c r="AY54">
         <v>0.515625</v>
       </c>
-    </row>
-    <row r="55" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB54">
+        <v>52</v>
+      </c>
+      <c r="BC54">
+        <v>0.1875</v>
+      </c>
+      <c r="BF54">
+        <v>52</v>
+      </c>
+      <c r="BG54">
+        <v>0.265625</v>
+      </c>
+      <c r="BK54">
+        <v>52</v>
+      </c>
+      <c r="BL54">
+        <v>0.140625</v>
+      </c>
+      <c r="BP54">
+        <v>52</v>
+      </c>
+      <c r="BQ54">
+        <v>0.21875</v>
+      </c>
+      <c r="BT54">
+        <v>52</v>
+      </c>
+      <c r="BU54">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="55" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>53</v>
       </c>
@@ -25880,6 +28224,12 @@
       <c r="R55">
         <v>0.34375</v>
       </c>
+      <c r="V55">
+        <v>53</v>
+      </c>
+      <c r="W55">
+        <v>0.65625</v>
+      </c>
       <c r="AA55">
         <v>53</v>
       </c>
@@ -25916,8 +28266,38 @@
       <c r="AY55">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB55">
+        <v>53</v>
+      </c>
+      <c r="BC55">
+        <v>0.125</v>
+      </c>
+      <c r="BF55">
+        <v>53</v>
+      </c>
+      <c r="BG55">
+        <v>0.265625</v>
+      </c>
+      <c r="BK55">
+        <v>53</v>
+      </c>
+      <c r="BL55">
+        <v>0.140625</v>
+      </c>
+      <c r="BP55">
+        <v>53</v>
+      </c>
+      <c r="BQ55">
+        <v>0.234375</v>
+      </c>
+      <c r="BT55">
+        <v>53</v>
+      </c>
+      <c r="BU55">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="56" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>54</v>
       </c>
@@ -25936,6 +28316,12 @@
       <c r="R56">
         <v>0.546875</v>
       </c>
+      <c r="V56">
+        <v>54</v>
+      </c>
+      <c r="W56">
+        <v>0.65625</v>
+      </c>
       <c r="AA56">
         <v>54</v>
       </c>
@@ -25972,8 +28358,38 @@
       <c r="AY56">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="57" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB56">
+        <v>54</v>
+      </c>
+      <c r="BC56">
+        <v>0.125</v>
+      </c>
+      <c r="BF56">
+        <v>54</v>
+      </c>
+      <c r="BG56">
+        <v>0.265625</v>
+      </c>
+      <c r="BK56">
+        <v>54</v>
+      </c>
+      <c r="BL56">
+        <v>0.140625</v>
+      </c>
+      <c r="BP56">
+        <v>54</v>
+      </c>
+      <c r="BQ56">
+        <v>0.21875</v>
+      </c>
+      <c r="BT56">
+        <v>54</v>
+      </c>
+      <c r="BU56">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="57" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>55</v>
       </c>
@@ -25992,6 +28408,12 @@
       <c r="R57">
         <v>0.390625</v>
       </c>
+      <c r="V57">
+        <v>55</v>
+      </c>
+      <c r="W57">
+        <v>0.65625</v>
+      </c>
       <c r="AA57">
         <v>55</v>
       </c>
@@ -26028,8 +28450,38 @@
       <c r="AY57">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="58" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB57">
+        <v>55</v>
+      </c>
+      <c r="BC57">
+        <v>0.125</v>
+      </c>
+      <c r="BF57">
+        <v>55</v>
+      </c>
+      <c r="BG57">
+        <v>0.265625</v>
+      </c>
+      <c r="BK57">
+        <v>55</v>
+      </c>
+      <c r="BL57">
+        <v>0.140625</v>
+      </c>
+      <c r="BP57">
+        <v>55</v>
+      </c>
+      <c r="BQ57">
+        <v>0.234375</v>
+      </c>
+      <c r="BT57">
+        <v>55</v>
+      </c>
+      <c r="BU57">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="58" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>56</v>
       </c>
@@ -26048,6 +28500,12 @@
       <c r="R58">
         <v>0.453125</v>
       </c>
+      <c r="V58">
+        <v>56</v>
+      </c>
+      <c r="W58">
+        <v>0.609375</v>
+      </c>
       <c r="AA58">
         <v>56</v>
       </c>
@@ -26084,8 +28542,38 @@
       <c r="AY58">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="59" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB58">
+        <v>56</v>
+      </c>
+      <c r="BC58">
+        <v>0.125</v>
+      </c>
+      <c r="BF58">
+        <v>56</v>
+      </c>
+      <c r="BG58">
+        <v>0.265625</v>
+      </c>
+      <c r="BK58">
+        <v>56</v>
+      </c>
+      <c r="BL58">
+        <v>0.46875</v>
+      </c>
+      <c r="BP58">
+        <v>56</v>
+      </c>
+      <c r="BQ58">
+        <v>0.21875</v>
+      </c>
+      <c r="BT58">
+        <v>56</v>
+      </c>
+      <c r="BU58">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="59" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>57</v>
       </c>
@@ -26104,6 +28592,12 @@
       <c r="R59">
         <v>0.4375</v>
       </c>
+      <c r="V59">
+        <v>57</v>
+      </c>
+      <c r="W59">
+        <v>0.625</v>
+      </c>
       <c r="AA59">
         <v>57</v>
       </c>
@@ -26140,8 +28634,38 @@
       <c r="AY59">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="60" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB59">
+        <v>57</v>
+      </c>
+      <c r="BC59">
+        <v>0.140625</v>
+      </c>
+      <c r="BF59">
+        <v>57</v>
+      </c>
+      <c r="BG59">
+        <v>0.265625</v>
+      </c>
+      <c r="BK59">
+        <v>57</v>
+      </c>
+      <c r="BL59">
+        <v>0.140625</v>
+      </c>
+      <c r="BP59">
+        <v>57</v>
+      </c>
+      <c r="BQ59">
+        <v>0.21875</v>
+      </c>
+      <c r="BT59">
+        <v>57</v>
+      </c>
+      <c r="BU59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>58</v>
       </c>
@@ -26160,6 +28684,12 @@
       <c r="R60">
         <v>0.421875</v>
       </c>
+      <c r="V60">
+        <v>58</v>
+      </c>
+      <c r="W60">
+        <v>0.625</v>
+      </c>
       <c r="AA60">
         <v>58</v>
       </c>
@@ -26196,8 +28726,38 @@
       <c r="AY60">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="61" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB60">
+        <v>58</v>
+      </c>
+      <c r="BC60">
+        <v>0.140625</v>
+      </c>
+      <c r="BF60">
+        <v>58</v>
+      </c>
+      <c r="BG60">
+        <v>0.265625</v>
+      </c>
+      <c r="BK60">
+        <v>58</v>
+      </c>
+      <c r="BL60">
+        <v>0.125</v>
+      </c>
+      <c r="BP60">
+        <v>58</v>
+      </c>
+      <c r="BQ60">
+        <v>0.203125</v>
+      </c>
+      <c r="BT60">
+        <v>58</v>
+      </c>
+      <c r="BU60">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="61" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>59</v>
       </c>
@@ -26216,6 +28776,12 @@
       <c r="R61">
         <v>0.4375</v>
       </c>
+      <c r="V61">
+        <v>59</v>
+      </c>
+      <c r="W61">
+        <v>0.625</v>
+      </c>
       <c r="AA61">
         <v>59</v>
       </c>
@@ -26252,8 +28818,38 @@
       <c r="AY61">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="62" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB61">
+        <v>59</v>
+      </c>
+      <c r="BC61">
+        <v>0.140625</v>
+      </c>
+      <c r="BF61">
+        <v>59</v>
+      </c>
+      <c r="BG61">
+        <v>0.265625</v>
+      </c>
+      <c r="BK61">
+        <v>59</v>
+      </c>
+      <c r="BL61">
+        <v>0.109375</v>
+      </c>
+      <c r="BP61">
+        <v>59</v>
+      </c>
+      <c r="BQ61">
+        <v>0.203125</v>
+      </c>
+      <c r="BT61">
+        <v>59</v>
+      </c>
+      <c r="BU61">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="62" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>60</v>
       </c>
@@ -26272,6 +28868,12 @@
       <c r="R62">
         <v>0.421875</v>
       </c>
+      <c r="V62">
+        <v>60</v>
+      </c>
+      <c r="W62">
+        <v>0.625</v>
+      </c>
       <c r="AA62">
         <v>60</v>
       </c>
@@ -26308,8 +28910,38 @@
       <c r="AY62">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="63" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB62">
+        <v>60</v>
+      </c>
+      <c r="BC62">
+        <v>0.15625</v>
+      </c>
+      <c r="BF62">
+        <v>60</v>
+      </c>
+      <c r="BG62">
+        <v>0.34375</v>
+      </c>
+      <c r="BK62">
+        <v>60</v>
+      </c>
+      <c r="BL62">
+        <v>0.125</v>
+      </c>
+      <c r="BP62">
+        <v>60</v>
+      </c>
+      <c r="BQ62">
+        <v>0.203125</v>
+      </c>
+      <c r="BT62">
+        <v>60</v>
+      </c>
+      <c r="BU62">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="63" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>61</v>
       </c>
@@ -26328,6 +28960,12 @@
       <c r="R63">
         <v>0.4375</v>
       </c>
+      <c r="V63">
+        <v>61</v>
+      </c>
+      <c r="W63">
+        <v>0.609375</v>
+      </c>
       <c r="AA63">
         <v>61</v>
       </c>
@@ -26364,8 +29002,38 @@
       <c r="AY63">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="64" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB63">
+        <v>61</v>
+      </c>
+      <c r="BC63">
+        <v>0.15625</v>
+      </c>
+      <c r="BF63">
+        <v>61</v>
+      </c>
+      <c r="BG63">
+        <v>0.25</v>
+      </c>
+      <c r="BK63">
+        <v>61</v>
+      </c>
+      <c r="BL63">
+        <v>0.125</v>
+      </c>
+      <c r="BP63">
+        <v>61</v>
+      </c>
+      <c r="BQ63">
+        <v>0.203125</v>
+      </c>
+      <c r="BT63">
+        <v>61</v>
+      </c>
+      <c r="BU63">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="64" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>62</v>
       </c>
@@ -26384,6 +29052,12 @@
       <c r="R64">
         <v>0.484375</v>
       </c>
+      <c r="V64">
+        <v>62</v>
+      </c>
+      <c r="W64">
+        <v>0.625</v>
+      </c>
       <c r="AA64">
         <v>62</v>
       </c>
@@ -26420,8 +29094,38 @@
       <c r="AY64">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="65" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB64">
+        <v>62</v>
+      </c>
+      <c r="BC64">
+        <v>0.15625</v>
+      </c>
+      <c r="BF64">
+        <v>62</v>
+      </c>
+      <c r="BG64">
+        <v>0.25</v>
+      </c>
+      <c r="BK64">
+        <v>62</v>
+      </c>
+      <c r="BL64">
+        <v>0.125</v>
+      </c>
+      <c r="BP64">
+        <v>62</v>
+      </c>
+      <c r="BQ64">
+        <v>0.203125</v>
+      </c>
+      <c r="BT64">
+        <v>62</v>
+      </c>
+      <c r="BU64">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="65" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>63</v>
       </c>
@@ -26440,6 +29144,12 @@
       <c r="R65">
         <v>0.453125</v>
       </c>
+      <c r="V65">
+        <v>63</v>
+      </c>
+      <c r="W65">
+        <v>0.625</v>
+      </c>
       <c r="AA65">
         <v>63</v>
       </c>
@@ -26476,8 +29186,38 @@
       <c r="AY65">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="66" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB65">
+        <v>63</v>
+      </c>
+      <c r="BC65">
+        <v>0.15625</v>
+      </c>
+      <c r="BF65">
+        <v>63</v>
+      </c>
+      <c r="BG65">
+        <v>0.21875</v>
+      </c>
+      <c r="BK65">
+        <v>63</v>
+      </c>
+      <c r="BL65">
+        <v>0.125</v>
+      </c>
+      <c r="BP65">
+        <v>63</v>
+      </c>
+      <c r="BQ65">
+        <v>0.1875</v>
+      </c>
+      <c r="BT65">
+        <v>63</v>
+      </c>
+      <c r="BU65">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="66" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>64</v>
       </c>
@@ -26496,6 +29236,12 @@
       <c r="R66">
         <v>0.4375</v>
       </c>
+      <c r="V66">
+        <v>64</v>
+      </c>
+      <c r="W66">
+        <v>0.625</v>
+      </c>
       <c r="AA66">
         <v>64</v>
       </c>
@@ -26532,8 +29278,38 @@
       <c r="AY66">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="67" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB66">
+        <v>64</v>
+      </c>
+      <c r="BC66">
+        <v>0.15625</v>
+      </c>
+      <c r="BF66">
+        <v>64</v>
+      </c>
+      <c r="BG66">
+        <v>0.25</v>
+      </c>
+      <c r="BK66">
+        <v>64</v>
+      </c>
+      <c r="BL66">
+        <v>0.140625</v>
+      </c>
+      <c r="BP66">
+        <v>64</v>
+      </c>
+      <c r="BQ66">
+        <v>0.171875</v>
+      </c>
+      <c r="BT66">
+        <v>64</v>
+      </c>
+      <c r="BU66">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="67" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>65</v>
       </c>
@@ -26552,6 +29328,12 @@
       <c r="R67">
         <v>0.4375</v>
       </c>
+      <c r="V67">
+        <v>65</v>
+      </c>
+      <c r="W67">
+        <v>0.625</v>
+      </c>
       <c r="AA67">
         <v>65</v>
       </c>
@@ -26588,8 +29370,38 @@
       <c r="AY67">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="68" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB67">
+        <v>65</v>
+      </c>
+      <c r="BC67">
+        <v>0.15625</v>
+      </c>
+      <c r="BF67">
+        <v>65</v>
+      </c>
+      <c r="BG67">
+        <v>0.234375</v>
+      </c>
+      <c r="BK67">
+        <v>65</v>
+      </c>
+      <c r="BL67">
+        <v>0.140625</v>
+      </c>
+      <c r="BP67">
+        <v>65</v>
+      </c>
+      <c r="BQ67">
+        <v>0.171875</v>
+      </c>
+      <c r="BT67">
+        <v>65</v>
+      </c>
+      <c r="BU67">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="68" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>66</v>
       </c>
@@ -26608,6 +29420,12 @@
       <c r="R68">
         <v>0.453125</v>
       </c>
+      <c r="V68">
+        <v>66</v>
+      </c>
+      <c r="W68">
+        <v>0.625</v>
+      </c>
       <c r="AA68">
         <v>66</v>
       </c>
@@ -26644,8 +29462,38 @@
       <c r="AY68">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="69" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB68">
+        <v>66</v>
+      </c>
+      <c r="BC68">
+        <v>0.15625</v>
+      </c>
+      <c r="BF68">
+        <v>66</v>
+      </c>
+      <c r="BG68">
+        <v>0.234375</v>
+      </c>
+      <c r="BK68">
+        <v>66</v>
+      </c>
+      <c r="BL68">
+        <v>0.140625</v>
+      </c>
+      <c r="BP68">
+        <v>66</v>
+      </c>
+      <c r="BQ68">
+        <v>0.171875</v>
+      </c>
+      <c r="BT68">
+        <v>66</v>
+      </c>
+      <c r="BU68">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="69" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>67</v>
       </c>
@@ -26664,6 +29512,12 @@
       <c r="R69">
         <v>0.453125</v>
       </c>
+      <c r="V69">
+        <v>67</v>
+      </c>
+      <c r="W69">
+        <v>0.625</v>
+      </c>
       <c r="AA69">
         <v>67</v>
       </c>
@@ -26700,8 +29554,38 @@
       <c r="AY69">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="70" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB69">
+        <v>67</v>
+      </c>
+      <c r="BC69">
+        <v>0.140625</v>
+      </c>
+      <c r="BF69">
+        <v>67</v>
+      </c>
+      <c r="BG69">
+        <v>0.234375</v>
+      </c>
+      <c r="BK69">
+        <v>67</v>
+      </c>
+      <c r="BL69">
+        <v>0.140625</v>
+      </c>
+      <c r="BP69">
+        <v>67</v>
+      </c>
+      <c r="BQ69">
+        <v>0.171875</v>
+      </c>
+      <c r="BT69">
+        <v>67</v>
+      </c>
+      <c r="BU69">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="70" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>68</v>
       </c>
@@ -26720,6 +29604,12 @@
       <c r="R70">
         <v>0.4375</v>
       </c>
+      <c r="V70">
+        <v>68</v>
+      </c>
+      <c r="W70">
+        <v>0.625</v>
+      </c>
       <c r="AA70">
         <v>68</v>
       </c>
@@ -26756,8 +29646,38 @@
       <c r="AY70">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="71" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB70">
+        <v>68</v>
+      </c>
+      <c r="BC70">
+        <v>0.140625</v>
+      </c>
+      <c r="BF70">
+        <v>68</v>
+      </c>
+      <c r="BG70">
+        <v>0.25</v>
+      </c>
+      <c r="BK70">
+        <v>68</v>
+      </c>
+      <c r="BL70">
+        <v>0.140625</v>
+      </c>
+      <c r="BP70">
+        <v>68</v>
+      </c>
+      <c r="BQ70">
+        <v>0.1875</v>
+      </c>
+      <c r="BT70">
+        <v>68</v>
+      </c>
+      <c r="BU70">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="71" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>69</v>
       </c>
@@ -26776,6 +29696,12 @@
       <c r="R71">
         <v>0.4375</v>
       </c>
+      <c r="V71">
+        <v>69</v>
+      </c>
+      <c r="W71">
+        <v>0.625</v>
+      </c>
       <c r="AA71">
         <v>69</v>
       </c>
@@ -26812,8 +29738,38 @@
       <c r="AY71">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="72" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB71">
+        <v>69</v>
+      </c>
+      <c r="BC71">
+        <v>0.140625</v>
+      </c>
+      <c r="BF71">
+        <v>69</v>
+      </c>
+      <c r="BG71">
+        <v>0.25</v>
+      </c>
+      <c r="BK71">
+        <v>69</v>
+      </c>
+      <c r="BL71">
+        <v>0.140625</v>
+      </c>
+      <c r="BP71">
+        <v>69</v>
+      </c>
+      <c r="BQ71">
+        <v>0.390625</v>
+      </c>
+      <c r="BT71">
+        <v>69</v>
+      </c>
+      <c r="BU71">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="72" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>70</v>
       </c>
@@ -26832,6 +29788,12 @@
       <c r="R72">
         <v>0.4375</v>
       </c>
+      <c r="V72">
+        <v>70</v>
+      </c>
+      <c r="W72">
+        <v>0.625</v>
+      </c>
       <c r="AA72">
         <v>70</v>
       </c>
@@ -26868,8 +29830,38 @@
       <c r="AY72">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="73" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB72">
+        <v>70</v>
+      </c>
+      <c r="BC72">
+        <v>0.140625</v>
+      </c>
+      <c r="BF72">
+        <v>70</v>
+      </c>
+      <c r="BG72">
+        <v>0.25</v>
+      </c>
+      <c r="BK72">
+        <v>70</v>
+      </c>
+      <c r="BL72">
+        <v>0.140625</v>
+      </c>
+      <c r="BP72">
+        <v>70</v>
+      </c>
+      <c r="BQ72">
+        <v>0.25</v>
+      </c>
+      <c r="BT72">
+        <v>70</v>
+      </c>
+      <c r="BU72">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="73" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>71</v>
       </c>
@@ -26888,6 +29880,12 @@
       <c r="R73">
         <v>0.453125</v>
       </c>
+      <c r="V73">
+        <v>71</v>
+      </c>
+      <c r="W73">
+        <v>0.625</v>
+      </c>
       <c r="AA73">
         <v>71</v>
       </c>
@@ -26924,8 +29922,38 @@
       <c r="AY73">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="74" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB73">
+        <v>71</v>
+      </c>
+      <c r="BC73">
+        <v>0.140625</v>
+      </c>
+      <c r="BF73">
+        <v>71</v>
+      </c>
+      <c r="BG73">
+        <v>0.25</v>
+      </c>
+      <c r="BK73">
+        <v>71</v>
+      </c>
+      <c r="BL73">
+        <v>0.140625</v>
+      </c>
+      <c r="BP73">
+        <v>71</v>
+      </c>
+      <c r="BQ73">
+        <v>0.234375</v>
+      </c>
+      <c r="BT73">
+        <v>71</v>
+      </c>
+      <c r="BU73">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="74" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>72</v>
       </c>
@@ -26944,6 +29972,12 @@
       <c r="R74">
         <v>0.4375</v>
       </c>
+      <c r="V74">
+        <v>72</v>
+      </c>
+      <c r="W74">
+        <v>0.625</v>
+      </c>
       <c r="AA74">
         <v>72</v>
       </c>
@@ -26980,8 +30014,38 @@
       <c r="AY74">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="75" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB74">
+        <v>72</v>
+      </c>
+      <c r="BC74">
+        <v>0.140625</v>
+      </c>
+      <c r="BF74">
+        <v>72</v>
+      </c>
+      <c r="BG74">
+        <v>0.25</v>
+      </c>
+      <c r="BK74">
+        <v>72</v>
+      </c>
+      <c r="BL74">
+        <v>0.15625</v>
+      </c>
+      <c r="BP74">
+        <v>72</v>
+      </c>
+      <c r="BQ74">
+        <v>0.21875</v>
+      </c>
+      <c r="BT74">
+        <v>72</v>
+      </c>
+      <c r="BU74">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="75" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>73</v>
       </c>
@@ -27000,6 +30064,12 @@
       <c r="R75">
         <v>0.4375</v>
       </c>
+      <c r="V75">
+        <v>73</v>
+      </c>
+      <c r="W75">
+        <v>0.625</v>
+      </c>
       <c r="AA75">
         <v>73</v>
       </c>
@@ -27036,8 +30106,38 @@
       <c r="AY75">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="76" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB75">
+        <v>73</v>
+      </c>
+      <c r="BC75">
+        <v>0.140625</v>
+      </c>
+      <c r="BF75">
+        <v>73</v>
+      </c>
+      <c r="BG75">
+        <v>0.25</v>
+      </c>
+      <c r="BK75">
+        <v>73</v>
+      </c>
+      <c r="BL75">
+        <v>0.15625</v>
+      </c>
+      <c r="BP75">
+        <v>73</v>
+      </c>
+      <c r="BQ75">
+        <v>0.25</v>
+      </c>
+      <c r="BT75">
+        <v>73</v>
+      </c>
+      <c r="BU75">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="76" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>74</v>
       </c>
@@ -27056,6 +30156,12 @@
       <c r="R76">
         <v>0.4375</v>
       </c>
+      <c r="V76">
+        <v>74</v>
+      </c>
+      <c r="W76">
+        <v>0.625</v>
+      </c>
       <c r="AA76">
         <v>74</v>
       </c>
@@ -27092,8 +30198,38 @@
       <c r="AY76">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="77" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB76">
+        <v>74</v>
+      </c>
+      <c r="BC76">
+        <v>0.140625</v>
+      </c>
+      <c r="BF76">
+        <v>74</v>
+      </c>
+      <c r="BG76">
+        <v>0.25</v>
+      </c>
+      <c r="BK76">
+        <v>74</v>
+      </c>
+      <c r="BL76">
+        <v>0.15625</v>
+      </c>
+      <c r="BP76">
+        <v>74</v>
+      </c>
+      <c r="BQ76">
+        <v>0.25</v>
+      </c>
+      <c r="BT76">
+        <v>74</v>
+      </c>
+      <c r="BU76">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="77" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>75</v>
       </c>
@@ -27112,6 +30248,12 @@
       <c r="R77">
         <v>0.453125</v>
       </c>
+      <c r="V77">
+        <v>75</v>
+      </c>
+      <c r="W77">
+        <v>0.625</v>
+      </c>
       <c r="AA77">
         <v>75</v>
       </c>
@@ -27148,8 +30290,38 @@
       <c r="AY77">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="78" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB77">
+        <v>75</v>
+      </c>
+      <c r="BC77">
+        <v>0.140625</v>
+      </c>
+      <c r="BF77">
+        <v>75</v>
+      </c>
+      <c r="BG77">
+        <v>0.25</v>
+      </c>
+      <c r="BK77">
+        <v>75</v>
+      </c>
+      <c r="BL77">
+        <v>0.15625</v>
+      </c>
+      <c r="BP77">
+        <v>75</v>
+      </c>
+      <c r="BQ77">
+        <v>0.234375</v>
+      </c>
+      <c r="BT77">
+        <v>75</v>
+      </c>
+      <c r="BU77">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="78" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>76</v>
       </c>
@@ -27168,6 +30340,12 @@
       <c r="R78">
         <v>0.4375</v>
       </c>
+      <c r="V78">
+        <v>76</v>
+      </c>
+      <c r="W78">
+        <v>0.625</v>
+      </c>
       <c r="AA78">
         <v>76</v>
       </c>
@@ -27204,8 +30382,38 @@
       <c r="AY78">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="79" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB78">
+        <v>76</v>
+      </c>
+      <c r="BC78">
+        <v>0.140625</v>
+      </c>
+      <c r="BF78">
+        <v>76</v>
+      </c>
+      <c r="BG78">
+        <v>0.25</v>
+      </c>
+      <c r="BK78">
+        <v>76</v>
+      </c>
+      <c r="BL78">
+        <v>0.15625</v>
+      </c>
+      <c r="BP78">
+        <v>76</v>
+      </c>
+      <c r="BQ78">
+        <v>0.21875</v>
+      </c>
+      <c r="BT78">
+        <v>76</v>
+      </c>
+      <c r="BU78">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="79" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>77</v>
       </c>
@@ -27224,6 +30432,12 @@
       <c r="R79">
         <v>0.453125</v>
       </c>
+      <c r="V79">
+        <v>77</v>
+      </c>
+      <c r="W79">
+        <v>0.625</v>
+      </c>
       <c r="AA79">
         <v>77</v>
       </c>
@@ -27260,8 +30474,38 @@
       <c r="AY79">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="80" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB79">
+        <v>77</v>
+      </c>
+      <c r="BC79">
+        <v>0.140625</v>
+      </c>
+      <c r="BF79">
+        <v>77</v>
+      </c>
+      <c r="BG79">
+        <v>0.25</v>
+      </c>
+      <c r="BK79">
+        <v>77</v>
+      </c>
+      <c r="BL79">
+        <v>0.15625</v>
+      </c>
+      <c r="BP79">
+        <v>77</v>
+      </c>
+      <c r="BQ79">
+        <v>0.203125</v>
+      </c>
+      <c r="BT79">
+        <v>77</v>
+      </c>
+      <c r="BU79">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="80" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>78</v>
       </c>
@@ -27280,6 +30524,12 @@
       <c r="R80">
         <v>0.453125</v>
       </c>
+      <c r="V80">
+        <v>78</v>
+      </c>
+      <c r="W80">
+        <v>0.625</v>
+      </c>
       <c r="AA80">
         <v>78</v>
       </c>
@@ -27316,8 +30566,38 @@
       <c r="AY80">
         <v>0.453125</v>
       </c>
-    </row>
-    <row r="81" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB80">
+        <v>78</v>
+      </c>
+      <c r="BC80">
+        <v>0.140625</v>
+      </c>
+      <c r="BF80">
+        <v>78</v>
+      </c>
+      <c r="BG80">
+        <v>0.25</v>
+      </c>
+      <c r="BK80">
+        <v>78</v>
+      </c>
+      <c r="BL80">
+        <v>0.15625</v>
+      </c>
+      <c r="BP80">
+        <v>78</v>
+      </c>
+      <c r="BQ80">
+        <v>0.203125</v>
+      </c>
+      <c r="BT80">
+        <v>78</v>
+      </c>
+      <c r="BU80">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="81" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>79</v>
       </c>
@@ -27336,6 +30616,12 @@
       <c r="R81">
         <v>0.453125</v>
       </c>
+      <c r="V81">
+        <v>79</v>
+      </c>
+      <c r="W81">
+        <v>0.625</v>
+      </c>
       <c r="AA81">
         <v>79</v>
       </c>
@@ -27372,8 +30658,38 @@
       <c r="AY81">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="82" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB81">
+        <v>79</v>
+      </c>
+      <c r="BC81">
+        <v>0.140625</v>
+      </c>
+      <c r="BF81">
+        <v>79</v>
+      </c>
+      <c r="BG81">
+        <v>0.21875</v>
+      </c>
+      <c r="BK81">
+        <v>79</v>
+      </c>
+      <c r="BL81">
+        <v>0.15625</v>
+      </c>
+      <c r="BP81">
+        <v>79</v>
+      </c>
+      <c r="BQ81">
+        <v>0.203125</v>
+      </c>
+      <c r="BT81">
+        <v>79</v>
+      </c>
+      <c r="BU81">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="82" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>80</v>
       </c>
@@ -27392,6 +30708,12 @@
       <c r="R82">
         <v>0.453125</v>
       </c>
+      <c r="V82">
+        <v>80</v>
+      </c>
+      <c r="W82">
+        <v>0.625</v>
+      </c>
       <c r="AA82">
         <v>80</v>
       </c>
@@ -27428,8 +30750,38 @@
       <c r="AY82">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="83" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB82">
+        <v>80</v>
+      </c>
+      <c r="BC82">
+        <v>0.40625</v>
+      </c>
+      <c r="BF82">
+        <v>80</v>
+      </c>
+      <c r="BG82">
+        <v>0.21875</v>
+      </c>
+      <c r="BK82">
+        <v>80</v>
+      </c>
+      <c r="BL82">
+        <v>0.15625</v>
+      </c>
+      <c r="BP82">
+        <v>80</v>
+      </c>
+      <c r="BQ82">
+        <v>0.203125</v>
+      </c>
+      <c r="BT82">
+        <v>80</v>
+      </c>
+      <c r="BU82">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="83" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>81</v>
       </c>
@@ -27448,6 +30800,12 @@
       <c r="R83">
         <v>0.46875</v>
       </c>
+      <c r="V83">
+        <v>81</v>
+      </c>
+      <c r="W83">
+        <v>0.625</v>
+      </c>
       <c r="AA83">
         <v>81</v>
       </c>
@@ -27484,8 +30842,38 @@
       <c r="AY83">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="84" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB83">
+        <v>81</v>
+      </c>
+      <c r="BC83">
+        <v>0.171875</v>
+      </c>
+      <c r="BF83">
+        <v>81</v>
+      </c>
+      <c r="BG83">
+        <v>0.21875</v>
+      </c>
+      <c r="BK83">
+        <v>81</v>
+      </c>
+      <c r="BL83">
+        <v>0.15625</v>
+      </c>
+      <c r="BP83">
+        <v>81</v>
+      </c>
+      <c r="BQ83">
+        <v>0.203125</v>
+      </c>
+      <c r="BT83">
+        <v>81</v>
+      </c>
+      <c r="BU83">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="84" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>82</v>
       </c>
@@ -27504,6 +30892,12 @@
       <c r="R84">
         <v>0.46875</v>
       </c>
+      <c r="V84">
+        <v>82</v>
+      </c>
+      <c r="W84">
+        <v>0.609375</v>
+      </c>
       <c r="AA84">
         <v>82</v>
       </c>
@@ -27540,8 +30934,38 @@
       <c r="AY84">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="85" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB84">
+        <v>82</v>
+      </c>
+      <c r="BC84">
+        <v>0.125</v>
+      </c>
+      <c r="BF84">
+        <v>82</v>
+      </c>
+      <c r="BG84">
+        <v>0.21875</v>
+      </c>
+      <c r="BK84">
+        <v>82</v>
+      </c>
+      <c r="BL84">
+        <v>0.15625</v>
+      </c>
+      <c r="BP84">
+        <v>82</v>
+      </c>
+      <c r="BQ84">
+        <v>0.203125</v>
+      </c>
+      <c r="BT84">
+        <v>82</v>
+      </c>
+      <c r="BU84">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="85" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>83</v>
       </c>
@@ -27560,6 +30984,12 @@
       <c r="R85">
         <v>0.453125</v>
       </c>
+      <c r="V85">
+        <v>83</v>
+      </c>
+      <c r="W85">
+        <v>0.609375</v>
+      </c>
       <c r="AA85">
         <v>83</v>
       </c>
@@ -27596,8 +31026,38 @@
       <c r="AY85">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="86" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB85">
+        <v>83</v>
+      </c>
+      <c r="BC85">
+        <v>0.125</v>
+      </c>
+      <c r="BF85">
+        <v>83</v>
+      </c>
+      <c r="BG85">
+        <v>0.21875</v>
+      </c>
+      <c r="BK85">
+        <v>83</v>
+      </c>
+      <c r="BL85">
+        <v>0.15625</v>
+      </c>
+      <c r="BP85">
+        <v>83</v>
+      </c>
+      <c r="BQ85">
+        <v>0.203125</v>
+      </c>
+      <c r="BT85">
+        <v>83</v>
+      </c>
+      <c r="BU85">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="86" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E86">
         <v>84</v>
       </c>
@@ -27616,6 +31076,12 @@
       <c r="R86">
         <v>0.4375</v>
       </c>
+      <c r="V86">
+        <v>84</v>
+      </c>
+      <c r="W86">
+        <v>0.609375</v>
+      </c>
       <c r="AA86">
         <v>84</v>
       </c>
@@ -27652,8 +31118,38 @@
       <c r="AY86">
         <v>0.578125</v>
       </c>
-    </row>
-    <row r="87" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB86">
+        <v>84</v>
+      </c>
+      <c r="BC86">
+        <v>0.109375</v>
+      </c>
+      <c r="BF86">
+        <v>84</v>
+      </c>
+      <c r="BG86">
+        <v>0.21875</v>
+      </c>
+      <c r="BK86">
+        <v>84</v>
+      </c>
+      <c r="BL86">
+        <v>0.15625</v>
+      </c>
+      <c r="BP86">
+        <v>84</v>
+      </c>
+      <c r="BQ86">
+        <v>0.203125</v>
+      </c>
+      <c r="BT86">
+        <v>84</v>
+      </c>
+      <c r="BU86">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="87" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>85</v>
       </c>
@@ -27672,6 +31168,12 @@
       <c r="R87">
         <v>0.453125</v>
       </c>
+      <c r="V87">
+        <v>85</v>
+      </c>
+      <c r="W87">
+        <v>0.609375</v>
+      </c>
       <c r="AA87">
         <v>85</v>
       </c>
@@ -27708,8 +31210,38 @@
       <c r="AY87">
         <v>0.546875</v>
       </c>
-    </row>
-    <row r="88" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB87">
+        <v>85</v>
+      </c>
+      <c r="BC87">
+        <v>0.109375</v>
+      </c>
+      <c r="BF87">
+        <v>85</v>
+      </c>
+      <c r="BG87">
+        <v>0.21875</v>
+      </c>
+      <c r="BK87">
+        <v>85</v>
+      </c>
+      <c r="BL87">
+        <v>0.15625</v>
+      </c>
+      <c r="BP87">
+        <v>85</v>
+      </c>
+      <c r="BQ87">
+        <v>0.203125</v>
+      </c>
+      <c r="BT87">
+        <v>85</v>
+      </c>
+      <c r="BU87">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="88" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>86</v>
       </c>
@@ -27728,6 +31260,12 @@
       <c r="R88">
         <v>0.453125</v>
       </c>
+      <c r="V88">
+        <v>86</v>
+      </c>
+      <c r="W88">
+        <v>0.609375</v>
+      </c>
       <c r="AA88">
         <v>86</v>
       </c>
@@ -27764,8 +31302,38 @@
       <c r="AY88">
         <v>0.46875</v>
       </c>
-    </row>
-    <row r="89" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB88">
+        <v>86</v>
+      </c>
+      <c r="BC88">
+        <v>0.125</v>
+      </c>
+      <c r="BF88">
+        <v>86</v>
+      </c>
+      <c r="BG88">
+        <v>0.21875</v>
+      </c>
+      <c r="BK88">
+        <v>86</v>
+      </c>
+      <c r="BL88">
+        <v>0.15625</v>
+      </c>
+      <c r="BP88">
+        <v>86</v>
+      </c>
+      <c r="BQ88">
+        <v>0.203125</v>
+      </c>
+      <c r="BT88">
+        <v>86</v>
+      </c>
+      <c r="BU88">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="89" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>87</v>
       </c>
@@ -27784,6 +31352,12 @@
       <c r="R89">
         <v>0.453125</v>
       </c>
+      <c r="V89">
+        <v>87</v>
+      </c>
+      <c r="W89">
+        <v>0.609375</v>
+      </c>
       <c r="AA89">
         <v>87</v>
       </c>
@@ -27820,8 +31394,38 @@
       <c r="AY89">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="90" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB89">
+        <v>87</v>
+      </c>
+      <c r="BC89">
+        <v>0.125</v>
+      </c>
+      <c r="BF89">
+        <v>87</v>
+      </c>
+      <c r="BG89">
+        <v>0.21875</v>
+      </c>
+      <c r="BK89">
+        <v>87</v>
+      </c>
+      <c r="BL89">
+        <v>0.15625</v>
+      </c>
+      <c r="BP89">
+        <v>87</v>
+      </c>
+      <c r="BQ89">
+        <v>0.203125</v>
+      </c>
+      <c r="BT89">
+        <v>87</v>
+      </c>
+      <c r="BU89">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="90" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>88</v>
       </c>
@@ -27840,6 +31444,12 @@
       <c r="R90">
         <v>0.40625</v>
       </c>
+      <c r="V90">
+        <v>88</v>
+      </c>
+      <c r="W90">
+        <v>0.609375</v>
+      </c>
       <c r="AA90">
         <v>88</v>
       </c>
@@ -27876,8 +31486,38 @@
       <c r="AY90">
         <v>0.484375</v>
       </c>
-    </row>
-    <row r="91" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB90">
+        <v>88</v>
+      </c>
+      <c r="BC90">
+        <v>0.125</v>
+      </c>
+      <c r="BF90">
+        <v>88</v>
+      </c>
+      <c r="BG90">
+        <v>0.21875</v>
+      </c>
+      <c r="BK90">
+        <v>88</v>
+      </c>
+      <c r="BL90">
+        <v>0.15625</v>
+      </c>
+      <c r="BP90">
+        <v>88</v>
+      </c>
+      <c r="BQ90">
+        <v>0.203125</v>
+      </c>
+      <c r="BT90">
+        <v>88</v>
+      </c>
+      <c r="BU90">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="91" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>89</v>
       </c>
@@ -27896,6 +31536,12 @@
       <c r="R91">
         <v>0.453125</v>
       </c>
+      <c r="V91">
+        <v>89</v>
+      </c>
+      <c r="W91">
+        <v>0.609375</v>
+      </c>
       <c r="AA91">
         <v>89</v>
       </c>
@@ -27932,8 +31578,38 @@
       <c r="AY91">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="92" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB91">
+        <v>89</v>
+      </c>
+      <c r="BC91">
+        <v>0.125</v>
+      </c>
+      <c r="BF91">
+        <v>89</v>
+      </c>
+      <c r="BG91">
+        <v>0.21875</v>
+      </c>
+      <c r="BK91">
+        <v>89</v>
+      </c>
+      <c r="BL91">
+        <v>0.15625</v>
+      </c>
+      <c r="BP91">
+        <v>89</v>
+      </c>
+      <c r="BQ91">
+        <v>0.21875</v>
+      </c>
+      <c r="BT91">
+        <v>89</v>
+      </c>
+      <c r="BU91">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="92" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>90</v>
       </c>
@@ -27952,6 +31628,12 @@
       <c r="R92">
         <v>0.390625</v>
       </c>
+      <c r="V92">
+        <v>90</v>
+      </c>
+      <c r="W92">
+        <v>0.609375</v>
+      </c>
       <c r="AA92">
         <v>90</v>
       </c>
@@ -27988,8 +31670,38 @@
       <c r="AY92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB92">
+        <v>90</v>
+      </c>
+      <c r="BC92">
+        <v>0.125</v>
+      </c>
+      <c r="BF92">
+        <v>90</v>
+      </c>
+      <c r="BG92">
+        <v>0.21875</v>
+      </c>
+      <c r="BK92">
+        <v>90</v>
+      </c>
+      <c r="BL92">
+        <v>0.15625</v>
+      </c>
+      <c r="BP92">
+        <v>90</v>
+      </c>
+      <c r="BQ92">
+        <v>0.21875</v>
+      </c>
+      <c r="BT92">
+        <v>90</v>
+      </c>
+      <c r="BU92">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="93" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>91</v>
       </c>
@@ -28008,6 +31720,12 @@
       <c r="R93">
         <v>0.421875</v>
       </c>
+      <c r="V93">
+        <v>91</v>
+      </c>
+      <c r="W93">
+        <v>0.609375</v>
+      </c>
       <c r="AA93">
         <v>91</v>
       </c>
@@ -28044,8 +31762,38 @@
       <c r="AY93">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="94" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB93">
+        <v>91</v>
+      </c>
+      <c r="BC93">
+        <v>0.125</v>
+      </c>
+      <c r="BF93">
+        <v>91</v>
+      </c>
+      <c r="BG93">
+        <v>0.21875</v>
+      </c>
+      <c r="BK93">
+        <v>91</v>
+      </c>
+      <c r="BL93">
+        <v>0.15625</v>
+      </c>
+      <c r="BP93">
+        <v>91</v>
+      </c>
+      <c r="BQ93">
+        <v>0.21875</v>
+      </c>
+      <c r="BT93">
+        <v>91</v>
+      </c>
+      <c r="BU93">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="94" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E94">
         <v>92</v>
       </c>
@@ -28064,6 +31812,12 @@
       <c r="R94">
         <v>0.4375</v>
       </c>
+      <c r="V94">
+        <v>92</v>
+      </c>
+      <c r="W94">
+        <v>0.609375</v>
+      </c>
       <c r="AA94">
         <v>92</v>
       </c>
@@ -28100,8 +31854,38 @@
       <c r="AY94">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="95" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB94">
+        <v>92</v>
+      </c>
+      <c r="BC94">
+        <v>0.125</v>
+      </c>
+      <c r="BF94">
+        <v>92</v>
+      </c>
+      <c r="BG94">
+        <v>0.21875</v>
+      </c>
+      <c r="BK94">
+        <v>92</v>
+      </c>
+      <c r="BL94">
+        <v>0.15625</v>
+      </c>
+      <c r="BP94">
+        <v>92</v>
+      </c>
+      <c r="BQ94">
+        <v>0.21875</v>
+      </c>
+      <c r="BT94">
+        <v>92</v>
+      </c>
+      <c r="BU94">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="95" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>93</v>
       </c>
@@ -28120,6 +31904,12 @@
       <c r="R95">
         <v>0.421875</v>
       </c>
+      <c r="V95">
+        <v>93</v>
+      </c>
+      <c r="W95">
+        <v>0.609375</v>
+      </c>
       <c r="AA95">
         <v>93</v>
       </c>
@@ -28156,8 +31946,38 @@
       <c r="AY95">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="96" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB95">
+        <v>93</v>
+      </c>
+      <c r="BC95">
+        <v>0.125</v>
+      </c>
+      <c r="BF95">
+        <v>93</v>
+      </c>
+      <c r="BG95">
+        <v>0.21875</v>
+      </c>
+      <c r="BK95">
+        <v>93</v>
+      </c>
+      <c r="BL95">
+        <v>0.15625</v>
+      </c>
+      <c r="BP95">
+        <v>93</v>
+      </c>
+      <c r="BQ95">
+        <v>0.21875</v>
+      </c>
+      <c r="BT95">
+        <v>93</v>
+      </c>
+      <c r="BU95">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="96" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>94</v>
       </c>
@@ -28176,6 +31996,12 @@
       <c r="R96">
         <v>0.40625</v>
       </c>
+      <c r="V96">
+        <v>94</v>
+      </c>
+      <c r="W96">
+        <v>0.609375</v>
+      </c>
       <c r="AA96">
         <v>94</v>
       </c>
@@ -28212,8 +32038,38 @@
       <c r="AY96">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="97" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB96">
+        <v>94</v>
+      </c>
+      <c r="BC96">
+        <v>0.125</v>
+      </c>
+      <c r="BF96">
+        <v>94</v>
+      </c>
+      <c r="BG96">
+        <v>0.21875</v>
+      </c>
+      <c r="BK96">
+        <v>94</v>
+      </c>
+      <c r="BL96">
+        <v>0.15625</v>
+      </c>
+      <c r="BP96">
+        <v>94</v>
+      </c>
+      <c r="BQ96">
+        <v>0.21875</v>
+      </c>
+      <c r="BT96">
+        <v>94</v>
+      </c>
+      <c r="BU96">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="97" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>95</v>
       </c>
@@ -28232,6 +32088,12 @@
       <c r="R97">
         <v>0.40625</v>
       </c>
+      <c r="V97">
+        <v>95</v>
+      </c>
+      <c r="W97">
+        <v>0.609375</v>
+      </c>
       <c r="AA97">
         <v>95</v>
       </c>
@@ -28268,8 +32130,38 @@
       <c r="AY97">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="98" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB97">
+        <v>95</v>
+      </c>
+      <c r="BC97">
+        <v>0.125</v>
+      </c>
+      <c r="BF97">
+        <v>95</v>
+      </c>
+      <c r="BG97">
+        <v>0.21875</v>
+      </c>
+      <c r="BK97">
+        <v>95</v>
+      </c>
+      <c r="BL97">
+        <v>0.15625</v>
+      </c>
+      <c r="BP97">
+        <v>95</v>
+      </c>
+      <c r="BQ97">
+        <v>0.21875</v>
+      </c>
+      <c r="BT97">
+        <v>95</v>
+      </c>
+      <c r="BU97">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="98" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>96</v>
       </c>
@@ -28288,6 +32180,12 @@
       <c r="R98">
         <v>0.40625</v>
       </c>
+      <c r="V98">
+        <v>96</v>
+      </c>
+      <c r="W98">
+        <v>0.609375</v>
+      </c>
       <c r="AA98">
         <v>96</v>
       </c>
@@ -28324,8 +32222,38 @@
       <c r="AY98">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="99" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB98">
+        <v>96</v>
+      </c>
+      <c r="BC98">
+        <v>0.125</v>
+      </c>
+      <c r="BF98">
+        <v>96</v>
+      </c>
+      <c r="BG98">
+        <v>0.21875</v>
+      </c>
+      <c r="BK98">
+        <v>96</v>
+      </c>
+      <c r="BL98">
+        <v>0.15625</v>
+      </c>
+      <c r="BP98">
+        <v>96</v>
+      </c>
+      <c r="BQ98">
+        <v>0.21875</v>
+      </c>
+      <c r="BT98">
+        <v>96</v>
+      </c>
+      <c r="BU98">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="99" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>97</v>
       </c>
@@ -28344,6 +32272,12 @@
       <c r="R99">
         <v>0.40625</v>
       </c>
+      <c r="V99">
+        <v>97</v>
+      </c>
+      <c r="W99">
+        <v>0.609375</v>
+      </c>
       <c r="AA99">
         <v>97</v>
       </c>
@@ -28380,8 +32314,38 @@
       <c r="AY99">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="100" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB99">
+        <v>97</v>
+      </c>
+      <c r="BC99">
+        <v>0.125</v>
+      </c>
+      <c r="BF99">
+        <v>97</v>
+      </c>
+      <c r="BG99">
+        <v>0.21875</v>
+      </c>
+      <c r="BK99">
+        <v>97</v>
+      </c>
+      <c r="BL99">
+        <v>0.15625</v>
+      </c>
+      <c r="BP99">
+        <v>97</v>
+      </c>
+      <c r="BQ99">
+        <v>0.21875</v>
+      </c>
+      <c r="BT99">
+        <v>97</v>
+      </c>
+      <c r="BU99">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="100" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>98</v>
       </c>
@@ -28400,6 +32364,12 @@
       <c r="R100">
         <v>0.40625</v>
       </c>
+      <c r="V100">
+        <v>98</v>
+      </c>
+      <c r="W100">
+        <v>0.609375</v>
+      </c>
       <c r="AA100">
         <v>98</v>
       </c>
@@ -28436,8 +32406,38 @@
       <c r="AY100">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="101" spans="5:51" x14ac:dyDescent="0.3">
+      <c r="BB100">
+        <v>98</v>
+      </c>
+      <c r="BC100">
+        <v>0.125</v>
+      </c>
+      <c r="BF100">
+        <v>98</v>
+      </c>
+      <c r="BG100">
+        <v>0.21875</v>
+      </c>
+      <c r="BK100">
+        <v>98</v>
+      </c>
+      <c r="BL100">
+        <v>0.15625</v>
+      </c>
+      <c r="BP100">
+        <v>98</v>
+      </c>
+      <c r="BQ100">
+        <v>0.21875</v>
+      </c>
+      <c r="BT100">
+        <v>98</v>
+      </c>
+      <c r="BU100">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="101" spans="5:73" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>99</v>
       </c>
@@ -28456,6 +32456,12 @@
       <c r="R101">
         <v>0.40625</v>
       </c>
+      <c r="V101">
+        <v>99</v>
+      </c>
+      <c r="W101">
+        <v>0.609375</v>
+      </c>
       <c r="AA101">
         <v>99</v>
       </c>
@@ -28491,6 +32497,36 @@
       </c>
       <c r="AY101">
         <v>0.5</v>
+      </c>
+      <c r="BB101">
+        <v>99</v>
+      </c>
+      <c r="BC101">
+        <v>0.125</v>
+      </c>
+      <c r="BF101">
+        <v>99</v>
+      </c>
+      <c r="BG101">
+        <v>0.21875</v>
+      </c>
+      <c r="BK101">
+        <v>99</v>
+      </c>
+      <c r="BL101">
+        <v>0.15625</v>
+      </c>
+      <c r="BP101">
+        <v>99</v>
+      </c>
+      <c r="BQ101">
+        <v>0.21875</v>
+      </c>
+      <c r="BT101">
+        <v>99</v>
+      </c>
+      <c r="BU101">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -28514,25 +32550,25 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="15"/>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="15"/>
       <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="10"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
